--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -218,12 +218,33 @@
   </si>
   <si>
     <t>Nº</t>
+  </si>
+  <si>
+    <t>Portugal LigaPro</t>
+  </si>
+  <si>
+    <t>2024/2025</t>
+  </si>
+  <si>
+    <t>CS Marítimo</t>
+  </si>
+  <si>
+    <t>CD Tondela</t>
+  </si>
+  <si>
+    <t>['20', '90+2']</t>
+  </si>
+  <si>
+    <t>['24', '27']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -276,11 +297,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,7 +597,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP1"/>
+  <dimension ref="A1:BP2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -787,6 +809,212 @@
         <v>66</v>
       </c>
     </row>
+    <row r="2" spans="1:68">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>7502612</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45514.29166666666</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>4</v>
+      </c>
+      <c r="O2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q2">
+        <v>2.16</v>
+      </c>
+      <c r="R2">
+        <v>2.26</v>
+      </c>
+      <c r="S2">
+        <v>6.34</v>
+      </c>
+      <c r="T2">
+        <v>1.42</v>
+      </c>
+      <c r="U2">
+        <v>2.84</v>
+      </c>
+      <c r="V2">
+        <v>3.12</v>
+      </c>
+      <c r="W2">
+        <v>1.36</v>
+      </c>
+      <c r="X2">
+        <v>9</v>
+      </c>
+      <c r="Y2">
+        <v>1.07</v>
+      </c>
+      <c r="Z2">
+        <v>1.6</v>
+      </c>
+      <c r="AA2">
+        <v>3.5</v>
+      </c>
+      <c r="AB2">
+        <v>5.25</v>
+      </c>
+      <c r="AC2">
+        <v>1.04</v>
+      </c>
+      <c r="AD2">
+        <v>8.5</v>
+      </c>
+      <c r="AE2">
+        <v>1.33</v>
+      </c>
+      <c r="AF2">
+        <v>3</v>
+      </c>
+      <c r="AG2">
+        <v>2</v>
+      </c>
+      <c r="AH2">
+        <v>1.73</v>
+      </c>
+      <c r="AI2">
+        <v>2.05</v>
+      </c>
+      <c r="AJ2">
+        <v>1.73</v>
+      </c>
+      <c r="AK2">
+        <v>1.14</v>
+      </c>
+      <c r="AL2">
+        <v>1.23</v>
+      </c>
+      <c r="AM2">
+        <v>2.25</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>2</v>
+      </c>
+      <c r="AV2">
+        <v>2</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>1</v>
+      </c>
+      <c r="AY2">
+        <v>2</v>
+      </c>
+      <c r="AZ2">
+        <v>3</v>
+      </c>
+      <c r="BA2">
+        <v>2</v>
+      </c>
+      <c r="BB2">
+        <v>2</v>
+      </c>
+      <c r="BC2">
+        <v>4</v>
+      </c>
+      <c r="BD2">
+        <v>1.31</v>
+      </c>
+      <c r="BE2">
+        <v>8</v>
+      </c>
+      <c r="BF2">
+        <v>4.6</v>
+      </c>
+      <c r="BG2">
+        <v>1.18</v>
+      </c>
+      <c r="BH2">
+        <v>4.33</v>
+      </c>
+      <c r="BI2">
+        <v>1.33</v>
+      </c>
+      <c r="BJ2">
+        <v>3</v>
+      </c>
+      <c r="BK2">
+        <v>1.51</v>
+      </c>
+      <c r="BL2">
+        <v>2.37</v>
+      </c>
+      <c r="BM2">
+        <v>1.98</v>
+      </c>
+      <c r="BN2">
+        <v>1.82</v>
+      </c>
+      <c r="BO2">
+        <v>2.35</v>
+      </c>
+      <c r="BP2">
+        <v>1.52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="90">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -229,13 +229,61 @@
     <t>CS Marítimo</t>
   </si>
   <si>
+    <t>CD Mafra</t>
+  </si>
+  <si>
+    <t>Leixões</t>
+  </si>
+  <si>
+    <t>Academico Viseu</t>
+  </si>
+  <si>
+    <t>FC Penafiel</t>
+  </si>
+  <si>
     <t>CD Tondela</t>
   </si>
   <si>
+    <t>Paços de Ferreira</t>
+  </si>
+  <si>
+    <t>Benfica II</t>
+  </si>
+  <si>
+    <t>GD Chaves</t>
+  </si>
+  <si>
+    <t>UD Oliveirense</t>
+  </si>
+  <si>
     <t>['20', '90+2']</t>
   </si>
   <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['45+2', '78']</t>
+  </si>
+  <si>
+    <t>['20', '26']</t>
+  </si>
+  <si>
+    <t>['12', '18', '55', '71']</t>
+  </si>
+  <si>
     <t>['24', '27']</t>
+  </si>
+  <si>
+    <t>['36']</t>
+  </si>
+  <si>
+    <t>['42']</t>
+  </si>
+  <si>
+    <t>['89']</t>
+  </si>
+  <si>
+    <t>['3', '6', '9']</t>
   </si>
 </sst>
 </file>
@@ -597,7 +645,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP2"/>
+  <dimension ref="A1:BP6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -832,7 +880,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -853,10 +901,10 @@
         <v>4</v>
       </c>
       <c r="O2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -949,31 +997,31 @@
         <v>0</v>
       </c>
       <c r="AU2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AV2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AX2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AY2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AZ2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="BA2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BB2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BD2">
         <v>1.31</v>
@@ -1013,6 +1061,830 @@
       </c>
       <c r="BP2">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:68">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>7502609</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45514.41666666666</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P3" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q3">
+        <v>3.58</v>
+      </c>
+      <c r="R3">
+        <v>2.17</v>
+      </c>
+      <c r="S3">
+        <v>3.11</v>
+      </c>
+      <c r="T3">
+        <v>1.41</v>
+      </c>
+      <c r="U3">
+        <v>2.88</v>
+      </c>
+      <c r="V3">
+        <v>3.06</v>
+      </c>
+      <c r="W3">
+        <v>1.37</v>
+      </c>
+      <c r="X3">
+        <v>7.8</v>
+      </c>
+      <c r="Y3">
+        <v>1.06</v>
+      </c>
+      <c r="Z3">
+        <v>5.09</v>
+      </c>
+      <c r="AA3">
+        <v>4.65</v>
+      </c>
+      <c r="AB3">
+        <v>1.43</v>
+      </c>
+      <c r="AC3">
+        <v>1.04</v>
+      </c>
+      <c r="AD3">
+        <v>8.5</v>
+      </c>
+      <c r="AE3">
+        <v>1.33</v>
+      </c>
+      <c r="AF3">
+        <v>3</v>
+      </c>
+      <c r="AG3">
+        <v>2</v>
+      </c>
+      <c r="AH3">
+        <v>1.73</v>
+      </c>
+      <c r="AI3">
+        <v>1.78</v>
+      </c>
+      <c r="AJ3">
+        <v>1.99</v>
+      </c>
+      <c r="AK3">
+        <v>1.5</v>
+      </c>
+      <c r="AL3">
+        <v>1.33</v>
+      </c>
+      <c r="AM3">
+        <v>1.41</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>3</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>5</v>
+      </c>
+      <c r="AV3">
+        <v>3</v>
+      </c>
+      <c r="AW3">
+        <v>6</v>
+      </c>
+      <c r="AX3">
+        <v>3</v>
+      </c>
+      <c r="AY3">
+        <v>11</v>
+      </c>
+      <c r="AZ3">
+        <v>6</v>
+      </c>
+      <c r="BA3">
+        <v>2</v>
+      </c>
+      <c r="BB3">
+        <v>4</v>
+      </c>
+      <c r="BC3">
+        <v>6</v>
+      </c>
+      <c r="BD3">
+        <v>1.89</v>
+      </c>
+      <c r="BE3">
+        <v>6.6</v>
+      </c>
+      <c r="BF3">
+        <v>2.35</v>
+      </c>
+      <c r="BG3">
+        <v>1.2</v>
+      </c>
+      <c r="BH3">
+        <v>4</v>
+      </c>
+      <c r="BI3">
+        <v>1.36</v>
+      </c>
+      <c r="BJ3">
+        <v>2.9</v>
+      </c>
+      <c r="BK3">
+        <v>1.51</v>
+      </c>
+      <c r="BL3">
+        <v>2.37</v>
+      </c>
+      <c r="BM3">
+        <v>1.98</v>
+      </c>
+      <c r="BN3">
+        <v>1.82</v>
+      </c>
+      <c r="BO3">
+        <v>2.45</v>
+      </c>
+      <c r="BP3">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:68">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>7502604</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45514.47916666666</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4" t="s">
+        <v>82</v>
+      </c>
+      <c r="P4" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q4">
+        <v>3.15</v>
+      </c>
+      <c r="R4">
+        <v>2.12</v>
+      </c>
+      <c r="S4">
+        <v>3.67</v>
+      </c>
+      <c r="T4">
+        <v>1.44</v>
+      </c>
+      <c r="U4">
+        <v>2.76</v>
+      </c>
+      <c r="V4">
+        <v>3.22</v>
+      </c>
+      <c r="W4">
+        <v>1.34</v>
+      </c>
+      <c r="X4">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y4">
+        <v>1.06</v>
+      </c>
+      <c r="Z4">
+        <v>2.29</v>
+      </c>
+      <c r="AA4">
+        <v>3.2</v>
+      </c>
+      <c r="AB4">
+        <v>3.16</v>
+      </c>
+      <c r="AC4">
+        <v>1.05</v>
+      </c>
+      <c r="AD4">
+        <v>8</v>
+      </c>
+      <c r="AE4">
+        <v>1.36</v>
+      </c>
+      <c r="AF4">
+        <v>2.9</v>
+      </c>
+      <c r="AG4">
+        <v>2.05</v>
+      </c>
+      <c r="AH4">
+        <v>1.61</v>
+      </c>
+      <c r="AI4">
+        <v>1.84</v>
+      </c>
+      <c r="AJ4">
+        <v>1.92</v>
+      </c>
+      <c r="AK4">
+        <v>1.39</v>
+      </c>
+      <c r="AL4">
+        <v>1.33</v>
+      </c>
+      <c r="AM4">
+        <v>1.51</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>3</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>7</v>
+      </c>
+      <c r="AV4">
+        <v>4</v>
+      </c>
+      <c r="AW4">
+        <v>9</v>
+      </c>
+      <c r="AX4">
+        <v>2</v>
+      </c>
+      <c r="AY4">
+        <v>16</v>
+      </c>
+      <c r="AZ4">
+        <v>6</v>
+      </c>
+      <c r="BA4">
+        <v>8</v>
+      </c>
+      <c r="BB4">
+        <v>3</v>
+      </c>
+      <c r="BC4">
+        <v>11</v>
+      </c>
+      <c r="BD4">
+        <v>1.7</v>
+      </c>
+      <c r="BE4">
+        <v>6.8</v>
+      </c>
+      <c r="BF4">
+        <v>2.7</v>
+      </c>
+      <c r="BG4">
+        <v>1.14</v>
+      </c>
+      <c r="BH4">
+        <v>4.6</v>
+      </c>
+      <c r="BI4">
+        <v>1.3</v>
+      </c>
+      <c r="BJ4">
+        <v>3.08</v>
+      </c>
+      <c r="BK4">
+        <v>1.53</v>
+      </c>
+      <c r="BL4">
+        <v>2.28</v>
+      </c>
+      <c r="BM4">
+        <v>2</v>
+      </c>
+      <c r="BN4">
+        <v>1.8</v>
+      </c>
+      <c r="BO4">
+        <v>2.45</v>
+      </c>
+      <c r="BP4">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:68">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>7502606</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45514.58333333334</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5" t="s">
+        <v>83</v>
+      </c>
+      <c r="P5" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q5">
+        <v>3.6</v>
+      </c>
+      <c r="R5">
+        <v>2.05</v>
+      </c>
+      <c r="S5">
+        <v>3.1</v>
+      </c>
+      <c r="T5">
+        <v>1.44</v>
+      </c>
+      <c r="U5">
+        <v>2.63</v>
+      </c>
+      <c r="V5">
+        <v>3.25</v>
+      </c>
+      <c r="W5">
+        <v>1.33</v>
+      </c>
+      <c r="X5">
+        <v>9</v>
+      </c>
+      <c r="Y5">
+        <v>1.07</v>
+      </c>
+      <c r="Z5">
+        <v>3</v>
+      </c>
+      <c r="AA5">
+        <v>2.88</v>
+      </c>
+      <c r="AB5">
+        <v>2.3</v>
+      </c>
+      <c r="AC5">
+        <v>1.08</v>
+      </c>
+      <c r="AD5">
+        <v>7</v>
+      </c>
+      <c r="AE5">
+        <v>1.38</v>
+      </c>
+      <c r="AF5">
+        <v>2.9</v>
+      </c>
+      <c r="AG5">
+        <v>2.2</v>
+      </c>
+      <c r="AH5">
+        <v>1.62</v>
+      </c>
+      <c r="AI5">
+        <v>1.8</v>
+      </c>
+      <c r="AJ5">
+        <v>1.91</v>
+      </c>
+      <c r="AK5">
+        <v>1.51</v>
+      </c>
+      <c r="AL5">
+        <v>1.36</v>
+      </c>
+      <c r="AM5">
+        <v>1.37</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>3</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>5</v>
+      </c>
+      <c r="AV5">
+        <v>4</v>
+      </c>
+      <c r="AW5">
+        <v>6</v>
+      </c>
+      <c r="AX5">
+        <v>10</v>
+      </c>
+      <c r="AY5">
+        <v>11</v>
+      </c>
+      <c r="AZ5">
+        <v>14</v>
+      </c>
+      <c r="BA5">
+        <v>1</v>
+      </c>
+      <c r="BB5">
+        <v>10</v>
+      </c>
+      <c r="BC5">
+        <v>11</v>
+      </c>
+      <c r="BD5">
+        <v>1.9</v>
+      </c>
+      <c r="BE5">
+        <v>6.5</v>
+      </c>
+      <c r="BF5">
+        <v>2.35</v>
+      </c>
+      <c r="BG5">
+        <v>1.21</v>
+      </c>
+      <c r="BH5">
+        <v>3.9</v>
+      </c>
+      <c r="BI5">
+        <v>1.4</v>
+      </c>
+      <c r="BJ5">
+        <v>2.7</v>
+      </c>
+      <c r="BK5">
+        <v>1.67</v>
+      </c>
+      <c r="BL5">
+        <v>2.07</v>
+      </c>
+      <c r="BM5">
+        <v>1.9</v>
+      </c>
+      <c r="BN5">
+        <v>1.9</v>
+      </c>
+      <c r="BO5">
+        <v>2.6</v>
+      </c>
+      <c r="BP5">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:68">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>7502605</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45515.29166666666</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>7</v>
+      </c>
+      <c r="O6" t="s">
+        <v>84</v>
+      </c>
+      <c r="P6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q6">
+        <v>2.63</v>
+      </c>
+      <c r="R6">
+        <v>2.2</v>
+      </c>
+      <c r="S6">
+        <v>4.33</v>
+      </c>
+      <c r="T6">
+        <v>1.4</v>
+      </c>
+      <c r="U6">
+        <v>2.75</v>
+      </c>
+      <c r="V6">
+        <v>3</v>
+      </c>
+      <c r="W6">
+        <v>1.36</v>
+      </c>
+      <c r="X6">
+        <v>8</v>
+      </c>
+      <c r="Y6">
+        <v>1.08</v>
+      </c>
+      <c r="Z6">
+        <v>2.03</v>
+      </c>
+      <c r="AA6">
+        <v>3.35</v>
+      </c>
+      <c r="AB6">
+        <v>3.85</v>
+      </c>
+      <c r="AC6">
+        <v>1.03</v>
+      </c>
+      <c r="AD6">
+        <v>9</v>
+      </c>
+      <c r="AE6">
+        <v>1.3</v>
+      </c>
+      <c r="AF6">
+        <v>3.3</v>
+      </c>
+      <c r="AG6">
+        <v>2.01</v>
+      </c>
+      <c r="AH6">
+        <v>1.83</v>
+      </c>
+      <c r="AI6">
+        <v>1.8</v>
+      </c>
+      <c r="AJ6">
+        <v>1.91</v>
+      </c>
+      <c r="AK6">
+        <v>1.28</v>
+      </c>
+      <c r="AL6">
+        <v>1.25</v>
+      </c>
+      <c r="AM6">
+        <v>1.8</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>3</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>6</v>
+      </c>
+      <c r="AV6">
+        <v>7</v>
+      </c>
+      <c r="AW6">
+        <v>2</v>
+      </c>
+      <c r="AX6">
+        <v>2</v>
+      </c>
+      <c r="AY6">
+        <v>8</v>
+      </c>
+      <c r="AZ6">
+        <v>9</v>
+      </c>
+      <c r="BA6">
+        <v>2</v>
+      </c>
+      <c r="BB6">
+        <v>7</v>
+      </c>
+      <c r="BC6">
+        <v>9</v>
+      </c>
+      <c r="BD6">
+        <v>1.61</v>
+      </c>
+      <c r="BE6">
+        <v>7</v>
+      </c>
+      <c r="BF6">
+        <v>2.93</v>
+      </c>
+      <c r="BG6">
+        <v>1.1</v>
+      </c>
+      <c r="BH6">
+        <v>5.5</v>
+      </c>
+      <c r="BI6">
+        <v>1.22</v>
+      </c>
+      <c r="BJ6">
+        <v>3.65</v>
+      </c>
+      <c r="BK6">
+        <v>1.41</v>
+      </c>
+      <c r="BL6">
+        <v>2.6</v>
+      </c>
+      <c r="BM6">
+        <v>1.8</v>
+      </c>
+      <c r="BN6">
+        <v>2</v>
+      </c>
+      <c r="BO6">
+        <v>2.14</v>
+      </c>
+      <c r="BP6">
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="100">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -241,6 +241,15 @@
     <t>FC Penafiel</t>
   </si>
   <si>
+    <t>Torreense</t>
+  </si>
+  <si>
+    <t>Porto II</t>
+  </si>
+  <si>
+    <t>União de Leiria</t>
+  </si>
+  <si>
     <t>CD Tondela</t>
   </si>
   <si>
@@ -256,6 +265,15 @@
     <t>UD Oliveirense</t>
   </si>
   <si>
+    <t>CD Feirense</t>
+  </si>
+  <si>
+    <t>Alverca</t>
+  </si>
+  <si>
+    <t>FC Vizela</t>
+  </si>
+  <si>
     <t>['20', '90+2']</t>
   </si>
   <si>
@@ -271,6 +289,9 @@
     <t>['12', '18', '55', '71']</t>
   </si>
   <si>
+    <t>['54']</t>
+  </si>
+  <si>
     <t>['24', '27']</t>
   </si>
   <si>
@@ -284,6 +305,15 @@
   </si>
   <si>
     <t>['3', '6', '9']</t>
+  </si>
+  <si>
+    <t>['77']</t>
+  </si>
+  <si>
+    <t>['20']</t>
+  </si>
+  <si>
+    <t>['32', '90+6']</t>
   </si>
 </sst>
 </file>
@@ -645,7 +675,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP6"/>
+  <dimension ref="A1:BP9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -880,7 +910,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -901,10 +931,10 @@
         <v>4</v>
       </c>
       <c r="O2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -1086,7 +1116,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1107,10 +1137,10 @@
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -1292,7 +1322,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1313,10 +1343,10 @@
         <v>3</v>
       </c>
       <c r="O4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -1498,7 +1528,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -1519,10 +1549,10 @@
         <v>3</v>
       </c>
       <c r="O5" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1704,7 +1734,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -1725,10 +1755,10 @@
         <v>7</v>
       </c>
       <c r="O6" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -1885,6 +1915,624 @@
       </c>
       <c r="BP6">
         <v>1.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:68">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>7502608</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45515.41666666666</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q7">
+        <v>2.75</v>
+      </c>
+      <c r="R7">
+        <v>2.1</v>
+      </c>
+      <c r="S7">
+        <v>4.33</v>
+      </c>
+      <c r="T7">
+        <v>1.44</v>
+      </c>
+      <c r="U7">
+        <v>2.63</v>
+      </c>
+      <c r="V7">
+        <v>3.25</v>
+      </c>
+      <c r="W7">
+        <v>1.33</v>
+      </c>
+      <c r="X7">
+        <v>9</v>
+      </c>
+      <c r="Y7">
+        <v>1.07</v>
+      </c>
+      <c r="Z7">
+        <v>2.11</v>
+      </c>
+      <c r="AA7">
+        <v>3.2</v>
+      </c>
+      <c r="AB7">
+        <v>3.75</v>
+      </c>
+      <c r="AC7">
+        <v>1.04</v>
+      </c>
+      <c r="AD7">
+        <v>8.5</v>
+      </c>
+      <c r="AE7">
+        <v>1.33</v>
+      </c>
+      <c r="AF7">
+        <v>3</v>
+      </c>
+      <c r="AG7">
+        <v>1.95</v>
+      </c>
+      <c r="AH7">
+        <v>1.7</v>
+      </c>
+      <c r="AI7">
+        <v>1.83</v>
+      </c>
+      <c r="AJ7">
+        <v>1.83</v>
+      </c>
+      <c r="AK7">
+        <v>1.25</v>
+      </c>
+      <c r="AL7">
+        <v>1.33</v>
+      </c>
+      <c r="AM7">
+        <v>1.67</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>3</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>2</v>
+      </c>
+      <c r="AV7">
+        <v>9</v>
+      </c>
+      <c r="AW7">
+        <v>12</v>
+      </c>
+      <c r="AX7">
+        <v>10</v>
+      </c>
+      <c r="AY7">
+        <v>14</v>
+      </c>
+      <c r="AZ7">
+        <v>19</v>
+      </c>
+      <c r="BA7">
+        <v>6</v>
+      </c>
+      <c r="BB7">
+        <v>8</v>
+      </c>
+      <c r="BC7">
+        <v>14</v>
+      </c>
+      <c r="BD7">
+        <v>1.64</v>
+      </c>
+      <c r="BE7">
+        <v>6.9</v>
+      </c>
+      <c r="BF7">
+        <v>2.85</v>
+      </c>
+      <c r="BG7">
+        <v>1.12</v>
+      </c>
+      <c r="BH7">
+        <v>4.9</v>
+      </c>
+      <c r="BI7">
+        <v>1.27</v>
+      </c>
+      <c r="BJ7">
+        <v>3.28</v>
+      </c>
+      <c r="BK7">
+        <v>1.49</v>
+      </c>
+      <c r="BL7">
+        <v>2.38</v>
+      </c>
+      <c r="BM7">
+        <v>1.95</v>
+      </c>
+      <c r="BN7">
+        <v>1.85</v>
+      </c>
+      <c r="BO7">
+        <v>2.32</v>
+      </c>
+      <c r="BP7">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:68">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7502607</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45515.58333333334</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8" t="s">
+        <v>91</v>
+      </c>
+      <c r="P8" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q8">
+        <v>2.5</v>
+      </c>
+      <c r="R8">
+        <v>2.1</v>
+      </c>
+      <c r="S8">
+        <v>4.75</v>
+      </c>
+      <c r="T8">
+        <v>1.4</v>
+      </c>
+      <c r="U8">
+        <v>2.75</v>
+      </c>
+      <c r="V8">
+        <v>3</v>
+      </c>
+      <c r="W8">
+        <v>1.36</v>
+      </c>
+      <c r="X8">
+        <v>9</v>
+      </c>
+      <c r="Y8">
+        <v>1.07</v>
+      </c>
+      <c r="Z8">
+        <v>1.78</v>
+      </c>
+      <c r="AA8">
+        <v>3.08</v>
+      </c>
+      <c r="AB8">
+        <v>4.45</v>
+      </c>
+      <c r="AC8">
+        <v>1.06</v>
+      </c>
+      <c r="AD8">
+        <v>7.2</v>
+      </c>
+      <c r="AE8">
+        <v>1.3</v>
+      </c>
+      <c r="AF8">
+        <v>3.2</v>
+      </c>
+      <c r="AG8">
+        <v>2.05</v>
+      </c>
+      <c r="AH8">
+        <v>1.72</v>
+      </c>
+      <c r="AI8">
+        <v>1.83</v>
+      </c>
+      <c r="AJ8">
+        <v>1.83</v>
+      </c>
+      <c r="AK8">
+        <v>1.17</v>
+      </c>
+      <c r="AL8">
+        <v>1.28</v>
+      </c>
+      <c r="AM8">
+        <v>1.73</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>1</v>
+      </c>
+      <c r="AQ8">
+        <v>1</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>3</v>
+      </c>
+      <c r="AV8">
+        <v>2</v>
+      </c>
+      <c r="AW8">
+        <v>2</v>
+      </c>
+      <c r="AX8">
+        <v>3</v>
+      </c>
+      <c r="AY8">
+        <v>5</v>
+      </c>
+      <c r="AZ8">
+        <v>5</v>
+      </c>
+      <c r="BA8">
+        <v>7</v>
+      </c>
+      <c r="BB8">
+        <v>6</v>
+      </c>
+      <c r="BC8">
+        <v>13</v>
+      </c>
+      <c r="BD8">
+        <v>1.55</v>
+      </c>
+      <c r="BE8">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF8">
+        <v>2.9</v>
+      </c>
+      <c r="BG8">
+        <v>1.2</v>
+      </c>
+      <c r="BH8">
+        <v>4</v>
+      </c>
+      <c r="BI8">
+        <v>1.39</v>
+      </c>
+      <c r="BJ8">
+        <v>2.75</v>
+      </c>
+      <c r="BK8">
+        <v>1.65</v>
+      </c>
+      <c r="BL8">
+        <v>2.1</v>
+      </c>
+      <c r="BM8">
+        <v>2.04</v>
+      </c>
+      <c r="BN8">
+        <v>1.69</v>
+      </c>
+      <c r="BO8">
+        <v>2.55</v>
+      </c>
+      <c r="BP8">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:68">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7502610</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45515.6875</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9" t="s">
+        <v>87</v>
+      </c>
+      <c r="P9" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q9">
+        <v>3.6</v>
+      </c>
+      <c r="R9">
+        <v>2.1</v>
+      </c>
+      <c r="S9">
+        <v>3</v>
+      </c>
+      <c r="T9">
+        <v>1.44</v>
+      </c>
+      <c r="U9">
+        <v>2.63</v>
+      </c>
+      <c r="V9">
+        <v>3</v>
+      </c>
+      <c r="W9">
+        <v>1.36</v>
+      </c>
+      <c r="X9">
+        <v>9</v>
+      </c>
+      <c r="Y9">
+        <v>1.07</v>
+      </c>
+      <c r="Z9">
+        <v>3.05</v>
+      </c>
+      <c r="AA9">
+        <v>3.1</v>
+      </c>
+      <c r="AB9">
+        <v>2.41</v>
+      </c>
+      <c r="AC9">
+        <v>1.07</v>
+      </c>
+      <c r="AD9">
+        <v>6.8</v>
+      </c>
+      <c r="AE9">
+        <v>1.32</v>
+      </c>
+      <c r="AF9">
+        <v>3.1</v>
+      </c>
+      <c r="AG9">
+        <v>1.99</v>
+      </c>
+      <c r="AH9">
+        <v>1.68</v>
+      </c>
+      <c r="AI9">
+        <v>1.73</v>
+      </c>
+      <c r="AJ9">
+        <v>2</v>
+      </c>
+      <c r="AK9">
+        <v>1.55</v>
+      </c>
+      <c r="AL9">
+        <v>1.34</v>
+      </c>
+      <c r="AM9">
+        <v>1.36</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>3</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>3</v>
+      </c>
+      <c r="AV9">
+        <v>5</v>
+      </c>
+      <c r="AW9">
+        <v>4</v>
+      </c>
+      <c r="AX9">
+        <v>8</v>
+      </c>
+      <c r="AY9">
+        <v>7</v>
+      </c>
+      <c r="AZ9">
+        <v>13</v>
+      </c>
+      <c r="BA9">
+        <v>5</v>
+      </c>
+      <c r="BB9">
+        <v>5</v>
+      </c>
+      <c r="BC9">
+        <v>10</v>
+      </c>
+      <c r="BD9">
+        <v>2.06</v>
+      </c>
+      <c r="BE9">
+        <v>6.55</v>
+      </c>
+      <c r="BF9">
+        <v>2.14</v>
+      </c>
+      <c r="BG9">
+        <v>1.18</v>
+      </c>
+      <c r="BH9">
+        <v>4.3</v>
+      </c>
+      <c r="BI9">
+        <v>1.35</v>
+      </c>
+      <c r="BJ9">
+        <v>2.9</v>
+      </c>
+      <c r="BK9">
+        <v>1.59</v>
+      </c>
+      <c r="BL9">
+        <v>2.2</v>
+      </c>
+      <c r="BM9">
+        <v>2</v>
+      </c>
+      <c r="BN9">
+        <v>1.8</v>
+      </c>
+      <c r="BO9">
+        <v>2.45</v>
+      </c>
+      <c r="BP9">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="102">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -250,6 +250,9 @@
     <t>União de Leiria</t>
   </si>
   <si>
+    <t>Felgueiras 1932</t>
+  </si>
+  <si>
     <t>CD Tondela</t>
   </si>
   <si>
@@ -272,6 +275,9 @@
   </si>
   <si>
     <t>FC Vizela</t>
+  </si>
+  <si>
+    <t>Portimonense</t>
   </si>
   <si>
     <t>['20', '90+2']</t>
@@ -675,7 +681,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP9"/>
+  <dimension ref="A1:BP10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -910,7 +916,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -931,10 +937,10 @@
         <v>4</v>
       </c>
       <c r="O2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -1116,7 +1122,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1137,10 +1143,10 @@
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -1322,7 +1328,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1343,10 +1349,10 @@
         <v>3</v>
       </c>
       <c r="O4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -1528,7 +1534,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -1549,10 +1555,10 @@
         <v>3</v>
       </c>
       <c r="O5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1734,7 +1740,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -1755,10 +1761,10 @@
         <v>7</v>
       </c>
       <c r="O6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -1940,7 +1946,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1961,10 +1967,10 @@
         <v>1</v>
       </c>
       <c r="O7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2146,7 +2152,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2167,10 +2173,10 @@
         <v>2</v>
       </c>
       <c r="O8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q8">
         <v>2.5</v>
@@ -2352,7 +2358,7 @@
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2373,10 +2379,10 @@
         <v>2</v>
       </c>
       <c r="O9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -2533,6 +2539,212 @@
       </c>
       <c r="BP9">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:68">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>7502611</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45516.58333333334</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" t="s">
+        <v>89</v>
+      </c>
+      <c r="P10" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q10">
+        <v>3.25</v>
+      </c>
+      <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="S10">
+        <v>3.5</v>
+      </c>
+      <c r="T10">
+        <v>1.5</v>
+      </c>
+      <c r="U10">
+        <v>2.5</v>
+      </c>
+      <c r="V10">
+        <v>3.4</v>
+      </c>
+      <c r="W10">
+        <v>1.3</v>
+      </c>
+      <c r="X10">
+        <v>10</v>
+      </c>
+      <c r="Y10">
+        <v>1.06</v>
+      </c>
+      <c r="Z10">
+        <v>2.49</v>
+      </c>
+      <c r="AA10">
+        <v>2.98</v>
+      </c>
+      <c r="AB10">
+        <v>2.79</v>
+      </c>
+      <c r="AC10">
+        <v>1.06</v>
+      </c>
+      <c r="AD10">
+        <v>6.8</v>
+      </c>
+      <c r="AE10">
+        <v>1.38</v>
+      </c>
+      <c r="AF10">
+        <v>2.71</v>
+      </c>
+      <c r="AG10">
+        <v>2.18</v>
+      </c>
+      <c r="AH10">
+        <v>1.56</v>
+      </c>
+      <c r="AI10">
+        <v>1.83</v>
+      </c>
+      <c r="AJ10">
+        <v>1.83</v>
+      </c>
+      <c r="AK10">
+        <v>1.41</v>
+      </c>
+      <c r="AL10">
+        <v>1.36</v>
+      </c>
+      <c r="AM10">
+        <v>1.45</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>1</v>
+      </c>
+      <c r="AQ10">
+        <v>1</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>5</v>
+      </c>
+      <c r="AV10">
+        <v>2</v>
+      </c>
+      <c r="AW10">
+        <v>10</v>
+      </c>
+      <c r="AX10">
+        <v>3</v>
+      </c>
+      <c r="AY10">
+        <v>15</v>
+      </c>
+      <c r="AZ10">
+        <v>5</v>
+      </c>
+      <c r="BA10">
+        <v>8</v>
+      </c>
+      <c r="BB10">
+        <v>1</v>
+      </c>
+      <c r="BC10">
+        <v>9</v>
+      </c>
+      <c r="BD10">
+        <v>1.83</v>
+      </c>
+      <c r="BE10">
+        <v>7.3</v>
+      </c>
+      <c r="BF10">
+        <v>2.38</v>
+      </c>
+      <c r="BG10">
+        <v>1.15</v>
+      </c>
+      <c r="BH10">
+        <v>4.7</v>
+      </c>
+      <c r="BI10">
+        <v>1.3</v>
+      </c>
+      <c r="BJ10">
+        <v>3.2</v>
+      </c>
+      <c r="BK10">
+        <v>1.52</v>
+      </c>
+      <c r="BL10">
+        <v>2.37</v>
+      </c>
+      <c r="BM10">
+        <v>1.9</v>
+      </c>
+      <c r="BN10">
+        <v>1.9</v>
+      </c>
+      <c r="BO10">
+        <v>2.3</v>
+      </c>
+      <c r="BP10">
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="105">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -253,6 +253,15 @@
     <t>Felgueiras 1932</t>
   </si>
   <si>
+    <t>Alverca</t>
+  </si>
+  <si>
+    <t>UD Oliveirense</t>
+  </si>
+  <si>
+    <t>Portimonense</t>
+  </si>
+  <si>
     <t>CD Tondela</t>
   </si>
   <si>
@@ -265,21 +274,12 @@
     <t>GD Chaves</t>
   </si>
   <si>
-    <t>UD Oliveirense</t>
-  </si>
-  <si>
     <t>CD Feirense</t>
   </si>
   <si>
-    <t>Alverca</t>
-  </si>
-  <si>
     <t>FC Vizela</t>
   </si>
   <si>
-    <t>Portimonense</t>
-  </si>
-  <si>
     <t>['20', '90+2']</t>
   </si>
   <si>
@@ -298,6 +298,9 @@
     <t>['54']</t>
   </si>
   <si>
+    <t>['70']</t>
+  </si>
+  <si>
     <t>['24', '27']</t>
   </si>
   <si>
@@ -320,6 +323,12 @@
   </si>
   <si>
     <t>['32', '90+6']</t>
+  </si>
+  <si>
+    <t>['60']</t>
+  </si>
+  <si>
+    <t>['16', '90+4', '90+6']</t>
   </si>
 </sst>
 </file>
@@ -681,7 +690,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP10"/>
+  <dimension ref="A1:BP13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -916,7 +925,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -940,7 +949,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -1122,7 +1131,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1146,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -1328,7 +1337,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1352,7 +1361,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -1534,7 +1543,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -1558,7 +1567,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1740,7 +1749,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -1764,7 +1773,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -1946,7 +1955,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1970,7 +1979,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2152,7 +2161,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2176,7 +2185,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q8">
         <v>2.5</v>
@@ -2358,7 +2367,7 @@
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2382,7 +2391,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -2564,7 +2573,7 @@
         <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2745,6 +2754,624 @@
       </c>
       <c r="BP10">
         <v>1.55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:68">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>7502618</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45521.29166666666</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11" t="s">
+        <v>94</v>
+      </c>
+      <c r="P11" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q11">
+        <v>3.1</v>
+      </c>
+      <c r="R11">
+        <v>2.05</v>
+      </c>
+      <c r="S11">
+        <v>3.75</v>
+      </c>
+      <c r="T11">
+        <v>1.44</v>
+      </c>
+      <c r="U11">
+        <v>2.63</v>
+      </c>
+      <c r="V11">
+        <v>3.25</v>
+      </c>
+      <c r="W11">
+        <v>1.33</v>
+      </c>
+      <c r="X11">
+        <v>10</v>
+      </c>
+      <c r="Y11">
+        <v>1.06</v>
+      </c>
+      <c r="Z11">
+        <v>2.55</v>
+      </c>
+      <c r="AA11">
+        <v>3.2</v>
+      </c>
+      <c r="AB11">
+        <v>2.75</v>
+      </c>
+      <c r="AC11">
+        <v>1.07</v>
+      </c>
+      <c r="AD11">
+        <v>7.5</v>
+      </c>
+      <c r="AE11">
+        <v>1.38</v>
+      </c>
+      <c r="AF11">
+        <v>2.9</v>
+      </c>
+      <c r="AG11">
+        <v>2.15</v>
+      </c>
+      <c r="AH11">
+        <v>1.65</v>
+      </c>
+      <c r="AI11">
+        <v>1.83</v>
+      </c>
+      <c r="AJ11">
+        <v>1.83</v>
+      </c>
+      <c r="AK11">
+        <v>1.36</v>
+      </c>
+      <c r="AL11">
+        <v>1.28</v>
+      </c>
+      <c r="AM11">
+        <v>1.55</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>1</v>
+      </c>
+      <c r="AQ11">
+        <v>1</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>2</v>
+      </c>
+      <c r="AV11">
+        <v>7</v>
+      </c>
+      <c r="AW11">
+        <v>7</v>
+      </c>
+      <c r="AX11">
+        <v>4</v>
+      </c>
+      <c r="AY11">
+        <v>9</v>
+      </c>
+      <c r="AZ11">
+        <v>11</v>
+      </c>
+      <c r="BA11">
+        <v>5</v>
+      </c>
+      <c r="BB11">
+        <v>11</v>
+      </c>
+      <c r="BC11">
+        <v>16</v>
+      </c>
+      <c r="BD11">
+        <v>2.16</v>
+      </c>
+      <c r="BE11">
+        <v>6.35</v>
+      </c>
+      <c r="BF11">
+        <v>2.06</v>
+      </c>
+      <c r="BG11">
+        <v>1.29</v>
+      </c>
+      <c r="BH11">
+        <v>3.3</v>
+      </c>
+      <c r="BI11">
+        <v>1.51</v>
+      </c>
+      <c r="BJ11">
+        <v>2.47</v>
+      </c>
+      <c r="BK11">
+        <v>1.73</v>
+      </c>
+      <c r="BL11">
+        <v>2</v>
+      </c>
+      <c r="BM11">
+        <v>2.33</v>
+      </c>
+      <c r="BN11">
+        <v>1.57</v>
+      </c>
+      <c r="BO11">
+        <v>2.9</v>
+      </c>
+      <c r="BP11">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:68">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>7502619</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45521.41666666666</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" t="s">
+        <v>89</v>
+      </c>
+      <c r="P12" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q12">
+        <v>2.75</v>
+      </c>
+      <c r="R12">
+        <v>2.25</v>
+      </c>
+      <c r="S12">
+        <v>3.6</v>
+      </c>
+      <c r="T12">
+        <v>1.36</v>
+      </c>
+      <c r="U12">
+        <v>3</v>
+      </c>
+      <c r="V12">
+        <v>2.63</v>
+      </c>
+      <c r="W12">
+        <v>1.44</v>
+      </c>
+      <c r="X12">
+        <v>7</v>
+      </c>
+      <c r="Y12">
+        <v>1.1</v>
+      </c>
+      <c r="Z12">
+        <v>2.2</v>
+      </c>
+      <c r="AA12">
+        <v>3.4</v>
+      </c>
+      <c r="AB12">
+        <v>3.2</v>
+      </c>
+      <c r="AC12">
+        <v>1.01</v>
+      </c>
+      <c r="AD12">
+        <v>9.9</v>
+      </c>
+      <c r="AE12">
+        <v>1.23</v>
+      </c>
+      <c r="AF12">
+        <v>3.56</v>
+      </c>
+      <c r="AG12">
+        <v>1.71</v>
+      </c>
+      <c r="AH12">
+        <v>1.95</v>
+      </c>
+      <c r="AI12">
+        <v>1.62</v>
+      </c>
+      <c r="AJ12">
+        <v>2.2</v>
+      </c>
+      <c r="AK12">
+        <v>1.36</v>
+      </c>
+      <c r="AL12">
+        <v>1.25</v>
+      </c>
+      <c r="AM12">
+        <v>1.66</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>1</v>
+      </c>
+      <c r="AQ12">
+        <v>1</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>3</v>
+      </c>
+      <c r="AV12">
+        <v>6</v>
+      </c>
+      <c r="AW12">
+        <v>8</v>
+      </c>
+      <c r="AX12">
+        <v>6</v>
+      </c>
+      <c r="AY12">
+        <v>11</v>
+      </c>
+      <c r="AZ12">
+        <v>12</v>
+      </c>
+      <c r="BA12">
+        <v>4</v>
+      </c>
+      <c r="BB12">
+        <v>5</v>
+      </c>
+      <c r="BC12">
+        <v>9</v>
+      </c>
+      <c r="BD12">
+        <v>1.7</v>
+      </c>
+      <c r="BE12">
+        <v>6.8</v>
+      </c>
+      <c r="BF12">
+        <v>2.77</v>
+      </c>
+      <c r="BG12">
+        <v>1.13</v>
+      </c>
+      <c r="BH12">
+        <v>4.85</v>
+      </c>
+      <c r="BI12">
+        <v>1.28</v>
+      </c>
+      <c r="BJ12">
+        <v>3.2</v>
+      </c>
+      <c r="BK12">
+        <v>1.5</v>
+      </c>
+      <c r="BL12">
+        <v>2.35</v>
+      </c>
+      <c r="BM12">
+        <v>1.98</v>
+      </c>
+      <c r="BN12">
+        <v>1.82</v>
+      </c>
+      <c r="BO12">
+        <v>2.34</v>
+      </c>
+      <c r="BP12">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:68">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>7502615</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45521.6875</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>3</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13" t="s">
+        <v>89</v>
+      </c>
+      <c r="P13" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q13">
+        <v>2.38</v>
+      </c>
+      <c r="R13">
+        <v>2.2</v>
+      </c>
+      <c r="S13">
+        <v>5</v>
+      </c>
+      <c r="T13">
+        <v>1.36</v>
+      </c>
+      <c r="U13">
+        <v>3</v>
+      </c>
+      <c r="V13">
+        <v>2.75</v>
+      </c>
+      <c r="W13">
+        <v>1.4</v>
+      </c>
+      <c r="X13">
+        <v>8</v>
+      </c>
+      <c r="Y13">
+        <v>1.08</v>
+      </c>
+      <c r="Z13">
+        <v>1.65</v>
+      </c>
+      <c r="AA13">
+        <v>3.5</v>
+      </c>
+      <c r="AB13">
+        <v>4.5</v>
+      </c>
+      <c r="AC13">
+        <v>1.06</v>
+      </c>
+      <c r="AD13">
+        <v>8</v>
+      </c>
+      <c r="AE13">
+        <v>1.28</v>
+      </c>
+      <c r="AF13">
+        <v>3.4</v>
+      </c>
+      <c r="AG13">
+        <v>1.8</v>
+      </c>
+      <c r="AH13">
+        <v>1.83</v>
+      </c>
+      <c r="AI13">
+        <v>1.8</v>
+      </c>
+      <c r="AJ13">
+        <v>1.91</v>
+      </c>
+      <c r="AK13">
+        <v>1.11</v>
+      </c>
+      <c r="AL13">
+        <v>1.25</v>
+      </c>
+      <c r="AM13">
+        <v>2.1</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>3</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>2</v>
+      </c>
+      <c r="AV13">
+        <v>7</v>
+      </c>
+      <c r="AW13">
+        <v>6</v>
+      </c>
+      <c r="AX13">
+        <v>10</v>
+      </c>
+      <c r="AY13">
+        <v>8</v>
+      </c>
+      <c r="AZ13">
+        <v>17</v>
+      </c>
+      <c r="BA13">
+        <v>6</v>
+      </c>
+      <c r="BB13">
+        <v>9</v>
+      </c>
+      <c r="BC13">
+        <v>15</v>
+      </c>
+      <c r="BD13">
+        <v>1.41</v>
+      </c>
+      <c r="BE13">
+        <v>7.4</v>
+      </c>
+      <c r="BF13">
+        <v>3.82</v>
+      </c>
+      <c r="BG13">
+        <v>1.22</v>
+      </c>
+      <c r="BH13">
+        <v>3.8</v>
+      </c>
+      <c r="BI13">
+        <v>1.3</v>
+      </c>
+      <c r="BJ13">
+        <v>3.2</v>
+      </c>
+      <c r="BK13">
+        <v>1.54</v>
+      </c>
+      <c r="BL13">
+        <v>2.32</v>
+      </c>
+      <c r="BM13">
+        <v>1.9</v>
+      </c>
+      <c r="BN13">
+        <v>1.9</v>
+      </c>
+      <c r="BO13">
+        <v>2.52</v>
+      </c>
+      <c r="BP13">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="112">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -262,24 +262,24 @@
     <t>Portimonense</t>
   </si>
   <si>
+    <t>Paços de Ferreira</t>
+  </si>
+  <si>
+    <t>CD Feirense</t>
+  </si>
+  <si>
+    <t>FC Vizela</t>
+  </si>
+  <si>
+    <t>GD Chaves</t>
+  </si>
+  <si>
+    <t>Benfica II</t>
+  </si>
+  <si>
     <t>CD Tondela</t>
   </si>
   <si>
-    <t>Paços de Ferreira</t>
-  </si>
-  <si>
-    <t>Benfica II</t>
-  </si>
-  <si>
-    <t>GD Chaves</t>
-  </si>
-  <si>
-    <t>CD Feirense</t>
-  </si>
-  <si>
-    <t>FC Vizela</t>
-  </si>
-  <si>
     <t>['20', '90+2']</t>
   </si>
   <si>
@@ -301,6 +301,18 @@
     <t>['70']</t>
   </si>
   <si>
+    <t>['25']</t>
+  </si>
+  <si>
+    <t>['18', '38']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
+    <t>['24', '77']</t>
+  </si>
+  <si>
     <t>['24', '27']</t>
   </si>
   <si>
@@ -329,6 +341,15 @@
   </si>
   <si>
     <t>['16', '90+4', '90+6']</t>
+  </si>
+  <si>
+    <t>['7', '86']</t>
+  </si>
+  <si>
+    <t>['4', '74']</t>
+  </si>
+  <si>
+    <t>['27', '61']</t>
   </si>
 </sst>
 </file>
@@ -690,7 +711,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP13"/>
+  <dimension ref="A1:BP18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -925,7 +946,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -949,7 +970,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -1131,7 +1152,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1155,7 +1176,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -1337,7 +1358,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1361,7 +1382,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -1567,7 +1588,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1773,7 +1794,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -1955,7 +1976,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1979,7 +2000,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2185,7 +2206,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q8">
         <v>2.5</v>
@@ -2367,7 +2388,7 @@
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2391,7 +2412,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -2803,7 +2824,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3215,7 +3236,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -3372,6 +3393,1036 @@
       </c>
       <c r="BP13">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:68">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>7502614</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45522.29166666666</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="O14" t="s">
+        <v>95</v>
+      </c>
+      <c r="P14" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q14">
+        <v>3.73</v>
+      </c>
+      <c r="R14">
+        <v>2.12</v>
+      </c>
+      <c r="S14">
+        <v>3.11</v>
+      </c>
+      <c r="T14">
+        <v>1.44</v>
+      </c>
+      <c r="U14">
+        <v>2.75</v>
+      </c>
+      <c r="V14">
+        <v>3.23</v>
+      </c>
+      <c r="W14">
+        <v>1.34</v>
+      </c>
+      <c r="X14">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y14">
+        <v>1.06</v>
+      </c>
+      <c r="Z14">
+        <v>5.15</v>
+      </c>
+      <c r="AA14">
+        <v>3.71</v>
+      </c>
+      <c r="AB14">
+        <v>1.55</v>
+      </c>
+      <c r="AC14">
+        <v>1.05</v>
+      </c>
+      <c r="AD14">
+        <v>8</v>
+      </c>
+      <c r="AE14">
+        <v>1.36</v>
+      </c>
+      <c r="AF14">
+        <v>2.9</v>
+      </c>
+      <c r="AG14">
+        <v>2.1</v>
+      </c>
+      <c r="AH14">
+        <v>1.68</v>
+      </c>
+      <c r="AI14">
+        <v>1.85</v>
+      </c>
+      <c r="AJ14">
+        <v>1.91</v>
+      </c>
+      <c r="AK14">
+        <v>1.56</v>
+      </c>
+      <c r="AL14">
+        <v>1.32</v>
+      </c>
+      <c r="AM14">
+        <v>1.37</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>3</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>8</v>
+      </c>
+      <c r="AV14">
+        <v>5</v>
+      </c>
+      <c r="AW14">
+        <v>8</v>
+      </c>
+      <c r="AX14">
+        <v>11</v>
+      </c>
+      <c r="AY14">
+        <v>16</v>
+      </c>
+      <c r="AZ14">
+        <v>16</v>
+      </c>
+      <c r="BA14">
+        <v>9</v>
+      </c>
+      <c r="BB14">
+        <v>7</v>
+      </c>
+      <c r="BC14">
+        <v>16</v>
+      </c>
+      <c r="BD14">
+        <v>2.18</v>
+      </c>
+      <c r="BE14">
+        <v>6.5</v>
+      </c>
+      <c r="BF14">
+        <v>2.03</v>
+      </c>
+      <c r="BG14">
+        <v>1.16</v>
+      </c>
+      <c r="BH14">
+        <v>4.4</v>
+      </c>
+      <c r="BI14">
+        <v>1.32</v>
+      </c>
+      <c r="BJ14">
+        <v>2.98</v>
+      </c>
+      <c r="BK14">
+        <v>1.57</v>
+      </c>
+      <c r="BL14">
+        <v>2.19</v>
+      </c>
+      <c r="BM14">
+        <v>1.9</v>
+      </c>
+      <c r="BN14">
+        <v>1.9</v>
+      </c>
+      <c r="BO14">
+        <v>2.54</v>
+      </c>
+      <c r="BP14">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:68">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>7502621</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45522.41666666666</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>4</v>
+      </c>
+      <c r="O15" t="s">
+        <v>96</v>
+      </c>
+      <c r="P15" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q15">
+        <v>3.51</v>
+      </c>
+      <c r="R15">
+        <v>2.17</v>
+      </c>
+      <c r="S15">
+        <v>3.16</v>
+      </c>
+      <c r="T15">
+        <v>1.41</v>
+      </c>
+      <c r="U15">
+        <v>2.89</v>
+      </c>
+      <c r="V15">
+        <v>3.05</v>
+      </c>
+      <c r="W15">
+        <v>1.37</v>
+      </c>
+      <c r="X15">
+        <v>7.7</v>
+      </c>
+      <c r="Y15">
+        <v>1.06</v>
+      </c>
+      <c r="Z15">
+        <v>2.52</v>
+      </c>
+      <c r="AA15">
+        <v>3.2</v>
+      </c>
+      <c r="AB15">
+        <v>2.42</v>
+      </c>
+      <c r="AC15">
+        <v>1.04</v>
+      </c>
+      <c r="AD15">
+        <v>8.5</v>
+      </c>
+      <c r="AE15">
+        <v>1.33</v>
+      </c>
+      <c r="AF15">
+        <v>3</v>
+      </c>
+      <c r="AG15">
+        <v>1.99</v>
+      </c>
+      <c r="AH15">
+        <v>1.81</v>
+      </c>
+      <c r="AI15">
+        <v>1.78</v>
+      </c>
+      <c r="AJ15">
+        <v>1.99</v>
+      </c>
+      <c r="AK15">
+        <v>1.49</v>
+      </c>
+      <c r="AL15">
+        <v>1.31</v>
+      </c>
+      <c r="AM15">
+        <v>1.44</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>1</v>
+      </c>
+      <c r="AQ15">
+        <v>1</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>5</v>
+      </c>
+      <c r="AV15">
+        <v>6</v>
+      </c>
+      <c r="AW15">
+        <v>9</v>
+      </c>
+      <c r="AX15">
+        <v>4</v>
+      </c>
+      <c r="AY15">
+        <v>14</v>
+      </c>
+      <c r="AZ15">
+        <v>10</v>
+      </c>
+      <c r="BA15">
+        <v>2</v>
+      </c>
+      <c r="BB15">
+        <v>5</v>
+      </c>
+      <c r="BC15">
+        <v>7</v>
+      </c>
+      <c r="BD15">
+        <v>2.13</v>
+      </c>
+      <c r="BE15">
+        <v>6.65</v>
+      </c>
+      <c r="BF15">
+        <v>2.06</v>
+      </c>
+      <c r="BG15">
+        <v>1.11</v>
+      </c>
+      <c r="BH15">
+        <v>5.25</v>
+      </c>
+      <c r="BI15">
+        <v>1.24</v>
+      </c>
+      <c r="BJ15">
+        <v>3.48</v>
+      </c>
+      <c r="BK15">
+        <v>1.44</v>
+      </c>
+      <c r="BL15">
+        <v>2.51</v>
+      </c>
+      <c r="BM15">
+        <v>1.92</v>
+      </c>
+      <c r="BN15">
+        <v>1.88</v>
+      </c>
+      <c r="BO15">
+        <v>2.19</v>
+      </c>
+      <c r="BP15">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:68">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>7502616</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45522.47916666666</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+      <c r="O16" t="s">
+        <v>97</v>
+      </c>
+      <c r="P16" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q16">
+        <v>2.38</v>
+      </c>
+      <c r="R16">
+        <v>2.25</v>
+      </c>
+      <c r="S16">
+        <v>4.5</v>
+      </c>
+      <c r="T16">
+        <v>1.36</v>
+      </c>
+      <c r="U16">
+        <v>3</v>
+      </c>
+      <c r="V16">
+        <v>2.63</v>
+      </c>
+      <c r="W16">
+        <v>1.44</v>
+      </c>
+      <c r="X16">
+        <v>7</v>
+      </c>
+      <c r="Y16">
+        <v>1.1</v>
+      </c>
+      <c r="Z16">
+        <v>1.79</v>
+      </c>
+      <c r="AA16">
+        <v>3.09</v>
+      </c>
+      <c r="AB16">
+        <v>3.61</v>
+      </c>
+      <c r="AC16">
+        <v>1.05</v>
+      </c>
+      <c r="AD16">
+        <v>8.5</v>
+      </c>
+      <c r="AE16">
+        <v>1.25</v>
+      </c>
+      <c r="AF16">
+        <v>3.65</v>
+      </c>
+      <c r="AG16">
+        <v>1.81</v>
+      </c>
+      <c r="AH16">
+        <v>1.73</v>
+      </c>
+      <c r="AI16">
+        <v>1.73</v>
+      </c>
+      <c r="AJ16">
+        <v>2</v>
+      </c>
+      <c r="AK16">
+        <v>1.15</v>
+      </c>
+      <c r="AL16">
+        <v>1.22</v>
+      </c>
+      <c r="AM16">
+        <v>2</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>3</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>7</v>
+      </c>
+      <c r="AV16">
+        <v>6</v>
+      </c>
+      <c r="AW16">
+        <v>9</v>
+      </c>
+      <c r="AX16">
+        <v>7</v>
+      </c>
+      <c r="AY16">
+        <v>16</v>
+      </c>
+      <c r="AZ16">
+        <v>13</v>
+      </c>
+      <c r="BA16">
+        <v>12</v>
+      </c>
+      <c r="BB16">
+        <v>4</v>
+      </c>
+      <c r="BC16">
+        <v>16</v>
+      </c>
+      <c r="BD16">
+        <v>1.45</v>
+      </c>
+      <c r="BE16">
+        <v>7.3</v>
+      </c>
+      <c r="BF16">
+        <v>3.58</v>
+      </c>
+      <c r="BG16">
+        <v>1.18</v>
+      </c>
+      <c r="BH16">
+        <v>4.3</v>
+      </c>
+      <c r="BI16">
+        <v>1.35</v>
+      </c>
+      <c r="BJ16">
+        <v>3</v>
+      </c>
+      <c r="BK16">
+        <v>1.58</v>
+      </c>
+      <c r="BL16">
+        <v>2.23</v>
+      </c>
+      <c r="BM16">
+        <v>1.98</v>
+      </c>
+      <c r="BN16">
+        <v>1.82</v>
+      </c>
+      <c r="BO16">
+        <v>2.43</v>
+      </c>
+      <c r="BP16">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:68">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>7502617</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45522.58333333334</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17" t="s">
+        <v>89</v>
+      </c>
+      <c r="P17" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q17">
+        <v>2.6</v>
+      </c>
+      <c r="R17">
+        <v>2.1</v>
+      </c>
+      <c r="S17">
+        <v>4.5</v>
+      </c>
+      <c r="T17">
+        <v>1.44</v>
+      </c>
+      <c r="U17">
+        <v>2.63</v>
+      </c>
+      <c r="V17">
+        <v>3</v>
+      </c>
+      <c r="W17">
+        <v>1.36</v>
+      </c>
+      <c r="X17">
+        <v>9</v>
+      </c>
+      <c r="Y17">
+        <v>1.07</v>
+      </c>
+      <c r="Z17">
+        <v>1.95</v>
+      </c>
+      <c r="AA17">
+        <v>2.95</v>
+      </c>
+      <c r="AB17">
+        <v>3.25</v>
+      </c>
+      <c r="AC17">
+        <v>1.06</v>
+      </c>
+      <c r="AD17">
+        <v>8</v>
+      </c>
+      <c r="AE17">
+        <v>1.36</v>
+      </c>
+      <c r="AF17">
+        <v>3</v>
+      </c>
+      <c r="AG17">
+        <v>2.06</v>
+      </c>
+      <c r="AH17">
+        <v>1.71</v>
+      </c>
+      <c r="AI17">
+        <v>1.83</v>
+      </c>
+      <c r="AJ17">
+        <v>1.83</v>
+      </c>
+      <c r="AK17">
+        <v>1.22</v>
+      </c>
+      <c r="AL17">
+        <v>1.25</v>
+      </c>
+      <c r="AM17">
+        <v>1.85</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>1</v>
+      </c>
+      <c r="AQ17">
+        <v>1</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>2</v>
+      </c>
+      <c r="AV17">
+        <v>5</v>
+      </c>
+      <c r="AW17">
+        <v>4</v>
+      </c>
+      <c r="AX17">
+        <v>3</v>
+      </c>
+      <c r="AY17">
+        <v>6</v>
+      </c>
+      <c r="AZ17">
+        <v>8</v>
+      </c>
+      <c r="BA17">
+        <v>6</v>
+      </c>
+      <c r="BB17">
+        <v>3</v>
+      </c>
+      <c r="BC17">
+        <v>9</v>
+      </c>
+      <c r="BD17">
+        <v>1.72</v>
+      </c>
+      <c r="BE17">
+        <v>6.7</v>
+      </c>
+      <c r="BF17">
+        <v>2.67</v>
+      </c>
+      <c r="BG17">
+        <v>1.2</v>
+      </c>
+      <c r="BH17">
+        <v>4</v>
+      </c>
+      <c r="BI17">
+        <v>1.38</v>
+      </c>
+      <c r="BJ17">
+        <v>2.8</v>
+      </c>
+      <c r="BK17">
+        <v>1.7</v>
+      </c>
+      <c r="BL17">
+        <v>2.05</v>
+      </c>
+      <c r="BM17">
+        <v>2.03</v>
+      </c>
+      <c r="BN17">
+        <v>1.7</v>
+      </c>
+      <c r="BO17">
+        <v>2.55</v>
+      </c>
+      <c r="BP17">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:68">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>7502620</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45522.58333333334</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18" t="s">
+        <v>98</v>
+      </c>
+      <c r="P18" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q18">
+        <v>2.61</v>
+      </c>
+      <c r="R18">
+        <v>2.27</v>
+      </c>
+      <c r="S18">
+        <v>4.22</v>
+      </c>
+      <c r="T18">
+        <v>1.37</v>
+      </c>
+      <c r="U18">
+        <v>3.07</v>
+      </c>
+      <c r="V18">
+        <v>2.85</v>
+      </c>
+      <c r="W18">
+        <v>1.42</v>
+      </c>
+      <c r="X18">
+        <v>6.9</v>
+      </c>
+      <c r="Y18">
+        <v>1.08</v>
+      </c>
+      <c r="Z18">
+        <v>1.92</v>
+      </c>
+      <c r="AA18">
+        <v>3.33</v>
+      </c>
+      <c r="AB18">
+        <v>3.69</v>
+      </c>
+      <c r="AC18">
+        <v>1.02</v>
+      </c>
+      <c r="AD18">
+        <v>10</v>
+      </c>
+      <c r="AE18">
+        <v>1.29</v>
+      </c>
+      <c r="AF18">
+        <v>3.4</v>
+      </c>
+      <c r="AG18">
+        <v>1.91</v>
+      </c>
+      <c r="AH18">
+        <v>1.95</v>
+      </c>
+      <c r="AI18">
+        <v>1.73</v>
+      </c>
+      <c r="AJ18">
+        <v>2.06</v>
+      </c>
+      <c r="AK18">
+        <v>1.28</v>
+      </c>
+      <c r="AL18">
+        <v>1.28</v>
+      </c>
+      <c r="AM18">
+        <v>1.78</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>3</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>5</v>
+      </c>
+      <c r="AV18">
+        <v>5</v>
+      </c>
+      <c r="AW18">
+        <v>9</v>
+      </c>
+      <c r="AX18">
+        <v>7</v>
+      </c>
+      <c r="AY18">
+        <v>14</v>
+      </c>
+      <c r="AZ18">
+        <v>12</v>
+      </c>
+      <c r="BA18">
+        <v>6</v>
+      </c>
+      <c r="BB18">
+        <v>7</v>
+      </c>
+      <c r="BC18">
+        <v>13</v>
+      </c>
+      <c r="BD18">
+        <v>1.63</v>
+      </c>
+      <c r="BE18">
+        <v>6.9</v>
+      </c>
+      <c r="BF18">
+        <v>2.96</v>
+      </c>
+      <c r="BG18">
+        <v>1.13</v>
+      </c>
+      <c r="BH18">
+        <v>4.8</v>
+      </c>
+      <c r="BI18">
+        <v>1.28</v>
+      </c>
+      <c r="BJ18">
+        <v>3.2</v>
+      </c>
+      <c r="BK18">
+        <v>1.5</v>
+      </c>
+      <c r="BL18">
+        <v>2.35</v>
+      </c>
+      <c r="BM18">
+        <v>1.86</v>
+      </c>
+      <c r="BN18">
+        <v>1.84</v>
+      </c>
+      <c r="BO18">
+        <v>2.38</v>
+      </c>
+      <c r="BP18">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="114">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -313,6 +313,9 @@
     <t>['24', '77']</t>
   </si>
   <si>
+    <t>['15', '54']</t>
+  </si>
+  <si>
     <t>['24', '27']</t>
   </si>
   <si>
@@ -350,6 +353,9 @@
   </si>
   <si>
     <t>['27', '61']</t>
+  </si>
+  <si>
+    <t>['69', '82']</t>
   </si>
 </sst>
 </file>
@@ -711,7 +717,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP18"/>
+  <dimension ref="A1:BP19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -970,7 +976,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -1176,7 +1182,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -1382,7 +1388,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -1588,7 +1594,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1794,7 +1800,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2000,7 +2006,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2206,7 +2212,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q8">
         <v>2.5</v>
@@ -2412,7 +2418,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -2824,7 +2830,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3236,7 +3242,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -3442,7 +3448,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -3648,7 +3654,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -3854,7 +3860,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -4423,6 +4429,212 @@
       </c>
       <c r="BP18">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:68">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>7502613</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45523.58333333334</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" t="s">
+        <v>76</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>4</v>
+      </c>
+      <c r="O19" t="s">
+        <v>99</v>
+      </c>
+      <c r="P19" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19">
+        <v>2.79</v>
+      </c>
+      <c r="R19">
+        <v>2.11</v>
+      </c>
+      <c r="S19">
+        <v>3.68</v>
+      </c>
+      <c r="T19">
+        <v>1.39</v>
+      </c>
+      <c r="U19">
+        <v>2.86</v>
+      </c>
+      <c r="V19">
+        <v>2.82</v>
+      </c>
+      <c r="W19">
+        <v>1.4</v>
+      </c>
+      <c r="X19">
+        <v>7.1</v>
+      </c>
+      <c r="Y19">
+        <v>1.08</v>
+      </c>
+      <c r="Z19">
+        <v>2.32</v>
+      </c>
+      <c r="AA19">
+        <v>3.4</v>
+      </c>
+      <c r="AB19">
+        <v>3.1</v>
+      </c>
+      <c r="AC19">
+        <v>1.02</v>
+      </c>
+      <c r="AD19">
+        <v>9</v>
+      </c>
+      <c r="AE19">
+        <v>1.27</v>
+      </c>
+      <c r="AF19">
+        <v>3.28</v>
+      </c>
+      <c r="AG19">
+        <v>1.95</v>
+      </c>
+      <c r="AH19">
+        <v>1.87</v>
+      </c>
+      <c r="AI19">
+        <v>1.73</v>
+      </c>
+      <c r="AJ19">
+        <v>1.99</v>
+      </c>
+      <c r="AK19">
+        <v>1.35</v>
+      </c>
+      <c r="AL19">
+        <v>1.3</v>
+      </c>
+      <c r="AM19">
+        <v>1.62</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>1</v>
+      </c>
+      <c r="AQ19">
+        <v>1</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>5</v>
+      </c>
+      <c r="AV19">
+        <v>5</v>
+      </c>
+      <c r="AW19">
+        <v>4</v>
+      </c>
+      <c r="AX19">
+        <v>7</v>
+      </c>
+      <c r="AY19">
+        <v>9</v>
+      </c>
+      <c r="AZ19">
+        <v>12</v>
+      </c>
+      <c r="BA19">
+        <v>6</v>
+      </c>
+      <c r="BB19">
+        <v>3</v>
+      </c>
+      <c r="BC19">
+        <v>9</v>
+      </c>
+      <c r="BD19">
+        <v>1.87</v>
+      </c>
+      <c r="BE19">
+        <v>6.7</v>
+      </c>
+      <c r="BF19">
+        <v>2.38</v>
+      </c>
+      <c r="BG19">
+        <v>1.17</v>
+      </c>
+      <c r="BH19">
+        <v>4.5</v>
+      </c>
+      <c r="BI19">
+        <v>1.3</v>
+      </c>
+      <c r="BJ19">
+        <v>3.2</v>
+      </c>
+      <c r="BK19">
+        <v>1.46</v>
+      </c>
+      <c r="BL19">
+        <v>2.52</v>
+      </c>
+      <c r="BM19">
+        <v>1.8</v>
+      </c>
+      <c r="BN19">
+        <v>1.9</v>
+      </c>
+      <c r="BO19">
+        <v>2.3</v>
+      </c>
+      <c r="BP19">
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="116">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -316,6 +316,9 @@
     <t>['15', '54']</t>
   </si>
   <si>
+    <t>['76']</t>
+  </si>
+  <si>
     <t>['24', '27']</t>
   </si>
   <si>
@@ -356,6 +359,9 @@
   </si>
   <si>
     <t>['69', '82']</t>
+  </si>
+  <si>
+    <t>['51']</t>
   </si>
 </sst>
 </file>
@@ -717,7 +723,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP19"/>
+  <dimension ref="A1:BP20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -976,7 +982,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -1182,7 +1188,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -1388,7 +1394,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -1594,7 +1600,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1800,7 +1806,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2006,7 +2012,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2212,7 +2218,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q8">
         <v>2.5</v>
@@ -2418,7 +2424,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -2496,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ9">
         <v>3</v>
@@ -2830,7 +2836,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3242,7 +3248,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -3448,7 +3454,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -3654,7 +3660,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -3860,7 +3866,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -4478,7 +4484,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q19">
         <v>2.79</v>
@@ -4635,6 +4641,212 @@
       </c>
       <c r="BP19">
         <v>1.55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:68">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>7502624</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45527.58333333334</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
+      </c>
+      <c r="O20" t="s">
+        <v>100</v>
+      </c>
+      <c r="P20" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q20">
+        <v>2.4</v>
+      </c>
+      <c r="R20">
+        <v>2.1</v>
+      </c>
+      <c r="S20">
+        <v>4.33</v>
+      </c>
+      <c r="T20">
+        <v>1.4</v>
+      </c>
+      <c r="U20">
+        <v>2.75</v>
+      </c>
+      <c r="V20">
+        <v>2.75</v>
+      </c>
+      <c r="W20">
+        <v>1.4</v>
+      </c>
+      <c r="X20">
+        <v>8</v>
+      </c>
+      <c r="Y20">
+        <v>1.08</v>
+      </c>
+      <c r="Z20">
+        <v>1.8</v>
+      </c>
+      <c r="AA20">
+        <v>3.27</v>
+      </c>
+      <c r="AB20">
+        <v>4.02</v>
+      </c>
+      <c r="AC20">
+        <v>1.06</v>
+      </c>
+      <c r="AD20">
+        <v>8</v>
+      </c>
+      <c r="AE20">
+        <v>1.3</v>
+      </c>
+      <c r="AF20">
+        <v>3.3</v>
+      </c>
+      <c r="AG20">
+        <v>1.93</v>
+      </c>
+      <c r="AH20">
+        <v>1.81</v>
+      </c>
+      <c r="AI20">
+        <v>1.73</v>
+      </c>
+      <c r="AJ20">
+        <v>1.91</v>
+      </c>
+      <c r="AK20">
+        <v>1.18</v>
+      </c>
+      <c r="AL20">
+        <v>1.25</v>
+      </c>
+      <c r="AM20">
+        <v>1.9</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>1</v>
+      </c>
+      <c r="AP20">
+        <v>0.5</v>
+      </c>
+      <c r="AQ20">
+        <v>1</v>
+      </c>
+      <c r="AR20">
+        <v>1.01</v>
+      </c>
+      <c r="AS20">
+        <v>0.68</v>
+      </c>
+      <c r="AT20">
+        <v>1.69</v>
+      </c>
+      <c r="AU20">
+        <v>4</v>
+      </c>
+      <c r="AV20">
+        <v>8</v>
+      </c>
+      <c r="AW20">
+        <v>5</v>
+      </c>
+      <c r="AX20">
+        <v>5</v>
+      </c>
+      <c r="AY20">
+        <v>9</v>
+      </c>
+      <c r="AZ20">
+        <v>13</v>
+      </c>
+      <c r="BA20">
+        <v>6</v>
+      </c>
+      <c r="BB20">
+        <v>7</v>
+      </c>
+      <c r="BC20">
+        <v>13</v>
+      </c>
+      <c r="BD20">
+        <v>1.51</v>
+      </c>
+      <c r="BE20">
+        <v>9.1</v>
+      </c>
+      <c r="BF20">
+        <v>3.14</v>
+      </c>
+      <c r="BG20">
+        <v>1.18</v>
+      </c>
+      <c r="BH20">
+        <v>4.5</v>
+      </c>
+      <c r="BI20">
+        <v>1.34</v>
+      </c>
+      <c r="BJ20">
+        <v>3.1</v>
+      </c>
+      <c r="BK20">
+        <v>1.61</v>
+      </c>
+      <c r="BL20">
+        <v>2.23</v>
+      </c>
+      <c r="BM20">
+        <v>2.02</v>
+      </c>
+      <c r="BN20">
+        <v>1.74</v>
+      </c>
+      <c r="BO20">
+        <v>2.7</v>
+      </c>
+      <c r="BP20">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="119">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -319,6 +319,12 @@
     <t>['76']</t>
   </si>
   <si>
+    <t>['45', '48', '90+5']</t>
+  </si>
+  <si>
+    <t>['26', '39', '65']</t>
+  </si>
+  <si>
     <t>['24', '27']</t>
   </si>
   <si>
@@ -362,6 +368,9 @@
   </si>
   <si>
     <t>['51']</t>
+  </si>
+  <si>
+    <t>['11', '15', '74']</t>
   </si>
 </sst>
 </file>
@@ -723,7 +732,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP20"/>
+  <dimension ref="A1:BP23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -982,7 +991,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -1188,7 +1197,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -1269,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1394,7 +1403,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -1472,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ4">
         <v>0</v>
@@ -1600,7 +1609,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1806,7 +1815,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2012,7 +2021,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2090,10 +2099,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2218,7 +2227,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q8">
         <v>2.5</v>
@@ -2424,7 +2433,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -2836,7 +2845,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3248,7 +3257,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -3454,7 +3463,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -3660,7 +3669,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -3866,7 +3875,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -4484,7 +4493,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q19">
         <v>2.79</v>
@@ -4690,7 +4699,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -4847,6 +4856,624 @@
       </c>
       <c r="BP20">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:68">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>7502622</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45528.29166666666</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" t="s">
+        <v>83</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21" t="s">
+        <v>89</v>
+      </c>
+      <c r="P21" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q21">
+        <v>3.1</v>
+      </c>
+      <c r="R21">
+        <v>2</v>
+      </c>
+      <c r="S21">
+        <v>3.35</v>
+      </c>
+      <c r="T21">
+        <v>1.44</v>
+      </c>
+      <c r="U21">
+        <v>2.6</v>
+      </c>
+      <c r="V21">
+        <v>3</v>
+      </c>
+      <c r="W21">
+        <v>1.33</v>
+      </c>
+      <c r="X21">
+        <v>9</v>
+      </c>
+      <c r="Y21">
+        <v>1.07</v>
+      </c>
+      <c r="Z21">
+        <v>1.97</v>
+      </c>
+      <c r="AA21">
+        <v>3.3</v>
+      </c>
+      <c r="AB21">
+        <v>3.6</v>
+      </c>
+      <c r="AC21">
+        <v>1.05</v>
+      </c>
+      <c r="AD21">
+        <v>8.5</v>
+      </c>
+      <c r="AE21">
+        <v>1.33</v>
+      </c>
+      <c r="AF21">
+        <v>3.1</v>
+      </c>
+      <c r="AG21">
+        <v>2.02</v>
+      </c>
+      <c r="AH21">
+        <v>1.65</v>
+      </c>
+      <c r="AI21">
+        <v>1.8</v>
+      </c>
+      <c r="AJ21">
+        <v>1.85</v>
+      </c>
+      <c r="AK21">
+        <v>1.42</v>
+      </c>
+      <c r="AL21">
+        <v>1.25</v>
+      </c>
+      <c r="AM21">
+        <v>1.5</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
+        <v>3</v>
+      </c>
+      <c r="AP21">
+        <v>1</v>
+      </c>
+      <c r="AQ21">
+        <v>2</v>
+      </c>
+      <c r="AR21">
+        <v>1.84</v>
+      </c>
+      <c r="AS21">
+        <v>2.26</v>
+      </c>
+      <c r="AT21">
+        <v>4.1</v>
+      </c>
+      <c r="AU21">
+        <v>6</v>
+      </c>
+      <c r="AV21">
+        <v>4</v>
+      </c>
+      <c r="AW21">
+        <v>8</v>
+      </c>
+      <c r="AX21">
+        <v>5</v>
+      </c>
+      <c r="AY21">
+        <v>14</v>
+      </c>
+      <c r="AZ21">
+        <v>9</v>
+      </c>
+      <c r="BA21">
+        <v>8</v>
+      </c>
+      <c r="BB21">
+        <v>4</v>
+      </c>
+      <c r="BC21">
+        <v>12</v>
+      </c>
+      <c r="BD21">
+        <v>1.52</v>
+      </c>
+      <c r="BE21">
+        <v>7.2</v>
+      </c>
+      <c r="BF21">
+        <v>3.24</v>
+      </c>
+      <c r="BG21">
+        <v>1.18</v>
+      </c>
+      <c r="BH21">
+        <v>4.33</v>
+      </c>
+      <c r="BI21">
+        <v>1.33</v>
+      </c>
+      <c r="BJ21">
+        <v>3</v>
+      </c>
+      <c r="BK21">
+        <v>1.55</v>
+      </c>
+      <c r="BL21">
+        <v>2.3</v>
+      </c>
+      <c r="BM21">
+        <v>1.9</v>
+      </c>
+      <c r="BN21">
+        <v>1.9</v>
+      </c>
+      <c r="BO21">
+        <v>2.25</v>
+      </c>
+      <c r="BP21">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:68">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>7502625</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45528.41666666666</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" t="s">
+        <v>80</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>3</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>3</v>
+      </c>
+      <c r="O22" t="s">
+        <v>101</v>
+      </c>
+      <c r="P22" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q22">
+        <v>2.63</v>
+      </c>
+      <c r="R22">
+        <v>2.08</v>
+      </c>
+      <c r="S22">
+        <v>4.1</v>
+      </c>
+      <c r="T22">
+        <v>1.42</v>
+      </c>
+      <c r="U22">
+        <v>2.74</v>
+      </c>
+      <c r="V22">
+        <v>2.94</v>
+      </c>
+      <c r="W22">
+        <v>1.37</v>
+      </c>
+      <c r="X22">
+        <v>7.6</v>
+      </c>
+      <c r="Y22">
+        <v>1.07</v>
+      </c>
+      <c r="Z22">
+        <v>2.15</v>
+      </c>
+      <c r="AA22">
+        <v>3.2</v>
+      </c>
+      <c r="AB22">
+        <v>3.2</v>
+      </c>
+      <c r="AC22">
+        <v>1.02</v>
+      </c>
+      <c r="AD22">
+        <v>8.5</v>
+      </c>
+      <c r="AE22">
+        <v>1.3</v>
+      </c>
+      <c r="AF22">
+        <v>3.08</v>
+      </c>
+      <c r="AG22">
+        <v>2.06</v>
+      </c>
+      <c r="AH22">
+        <v>1.76</v>
+      </c>
+      <c r="AI22">
+        <v>1.81</v>
+      </c>
+      <c r="AJ22">
+        <v>1.89</v>
+      </c>
+      <c r="AK22">
+        <v>1.29</v>
+      </c>
+      <c r="AL22">
+        <v>1.3</v>
+      </c>
+      <c r="AM22">
+        <v>1.71</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>1.5</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>1.3</v>
+      </c>
+      <c r="AS22">
+        <v>1.45</v>
+      </c>
+      <c r="AT22">
+        <v>2.75</v>
+      </c>
+      <c r="AU22">
+        <v>8</v>
+      </c>
+      <c r="AV22">
+        <v>5</v>
+      </c>
+      <c r="AW22">
+        <v>5</v>
+      </c>
+      <c r="AX22">
+        <v>7</v>
+      </c>
+      <c r="AY22">
+        <v>13</v>
+      </c>
+      <c r="AZ22">
+        <v>12</v>
+      </c>
+      <c r="BA22">
+        <v>5</v>
+      </c>
+      <c r="BB22">
+        <v>7</v>
+      </c>
+      <c r="BC22">
+        <v>12</v>
+      </c>
+      <c r="BD22">
+        <v>1.8</v>
+      </c>
+      <c r="BE22">
+        <v>6.8</v>
+      </c>
+      <c r="BF22">
+        <v>2.48</v>
+      </c>
+      <c r="BG22">
+        <v>1.15</v>
+      </c>
+      <c r="BH22">
+        <v>4.75</v>
+      </c>
+      <c r="BI22">
+        <v>1.29</v>
+      </c>
+      <c r="BJ22">
+        <v>3.3</v>
+      </c>
+      <c r="BK22">
+        <v>1.47</v>
+      </c>
+      <c r="BL22">
+        <v>2.59</v>
+      </c>
+      <c r="BM22">
+        <v>1.78</v>
+      </c>
+      <c r="BN22">
+        <v>2.01</v>
+      </c>
+      <c r="BO22">
+        <v>2.21</v>
+      </c>
+      <c r="BP22">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:68">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>7502630</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45528.47916666666</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" t="s">
+        <v>82</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>4</v>
+      </c>
+      <c r="L23">
+        <v>3</v>
+      </c>
+      <c r="M23">
+        <v>3</v>
+      </c>
+      <c r="N23">
+        <v>6</v>
+      </c>
+      <c r="O23" t="s">
+        <v>102</v>
+      </c>
+      <c r="P23" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q23">
+        <v>3</v>
+      </c>
+      <c r="R23">
+        <v>1.97</v>
+      </c>
+      <c r="S23">
+        <v>3.78</v>
+      </c>
+      <c r="T23">
+        <v>1.5</v>
+      </c>
+      <c r="U23">
+        <v>2.48</v>
+      </c>
+      <c r="V23">
+        <v>3.34</v>
+      </c>
+      <c r="W23">
+        <v>1.3</v>
+      </c>
+      <c r="X23">
+        <v>9</v>
+      </c>
+      <c r="Y23">
+        <v>1.04</v>
+      </c>
+      <c r="Z23">
+        <v>2.34</v>
+      </c>
+      <c r="AA23">
+        <v>3.15</v>
+      </c>
+      <c r="AB23">
+        <v>2.8</v>
+      </c>
+      <c r="AC23">
+        <v>1.05</v>
+      </c>
+      <c r="AD23">
+        <v>7.2</v>
+      </c>
+      <c r="AE23">
+        <v>1.4</v>
+      </c>
+      <c r="AF23">
+        <v>2.64</v>
+      </c>
+      <c r="AG23">
+        <v>2.28</v>
+      </c>
+      <c r="AH23">
+        <v>1.58</v>
+      </c>
+      <c r="AI23">
+        <v>1.94</v>
+      </c>
+      <c r="AJ23">
+        <v>1.77</v>
+      </c>
+      <c r="AK23">
+        <v>1.35</v>
+      </c>
+      <c r="AL23">
+        <v>1.33</v>
+      </c>
+      <c r="AM23">
+        <v>1.56</v>
+      </c>
+      <c r="AN23">
+        <v>3</v>
+      </c>
+      <c r="AO23">
+        <v>3</v>
+      </c>
+      <c r="AP23">
+        <v>2</v>
+      </c>
+      <c r="AQ23">
+        <v>2</v>
+      </c>
+      <c r="AR23">
+        <v>1.93</v>
+      </c>
+      <c r="AS23">
+        <v>0.82</v>
+      </c>
+      <c r="AT23">
+        <v>2.75</v>
+      </c>
+      <c r="AU23">
+        <v>5</v>
+      </c>
+      <c r="AV23">
+        <v>6</v>
+      </c>
+      <c r="AW23">
+        <v>4</v>
+      </c>
+      <c r="AX23">
+        <v>5</v>
+      </c>
+      <c r="AY23">
+        <v>9</v>
+      </c>
+      <c r="AZ23">
+        <v>11</v>
+      </c>
+      <c r="BA23">
+        <v>1</v>
+      </c>
+      <c r="BB23">
+        <v>7</v>
+      </c>
+      <c r="BC23">
+        <v>8</v>
+      </c>
+      <c r="BD23">
+        <v>1.56</v>
+      </c>
+      <c r="BE23">
+        <v>7.1</v>
+      </c>
+      <c r="BF23">
+        <v>3.1</v>
+      </c>
+      <c r="BG23">
+        <v>1.2</v>
+      </c>
+      <c r="BH23">
+        <v>4</v>
+      </c>
+      <c r="BI23">
+        <v>1.36</v>
+      </c>
+      <c r="BJ23">
+        <v>2.9</v>
+      </c>
+      <c r="BK23">
+        <v>1.58</v>
+      </c>
+      <c r="BL23">
+        <v>2.31</v>
+      </c>
+      <c r="BM23">
+        <v>1.96</v>
+      </c>
+      <c r="BN23">
+        <v>1.84</v>
+      </c>
+      <c r="BO23">
+        <v>2.46</v>
+      </c>
+      <c r="BP23">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="127">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -325,6 +325,21 @@
     <t>['26', '39', '65']</t>
   </si>
   <si>
+    <t>['24', '45+1']</t>
+  </si>
+  <si>
+    <t>['1', '8']</t>
+  </si>
+  <si>
+    <t>['57']</t>
+  </si>
+  <si>
+    <t>['50', '61']</t>
+  </si>
+  <si>
+    <t>['56']</t>
+  </si>
+  <si>
     <t>['24', '27']</t>
   </si>
   <si>
@@ -371,6 +386,15 @@
   </si>
   <si>
     <t>['11', '15', '74']</t>
+  </si>
+  <si>
+    <t>['18', '29']</t>
+  </si>
+  <si>
+    <t>['90+4']</t>
+  </si>
+  <si>
+    <t>['47', '89']</t>
   </si>
 </sst>
 </file>
@@ -732,7 +756,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP23"/>
+  <dimension ref="A1:BP28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -991,7 +1015,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -1197,7 +1221,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -1275,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ3">
         <v>2</v>
@@ -1403,7 +1427,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -1609,7 +1633,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1690,7 +1714,7 @@
         <v>3</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1815,7 +1839,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -1893,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
         <v>0</v>
@@ -2021,7 +2045,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2227,7 +2251,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="Q8">
         <v>2.5</v>
@@ -2433,7 +2457,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -2514,7 +2538,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ9">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2845,7 +2869,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3257,7 +3281,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -3463,7 +3487,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -3669,7 +3693,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -3875,7 +3899,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -4493,7 +4517,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="Q19">
         <v>2.79</v>
@@ -4574,7 +4598,7 @@
         <v>1</v>
       </c>
       <c r="AQ19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4699,7 +4723,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5317,7 +5341,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5474,6 +5498,1036 @@
       </c>
       <c r="BP23">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:68">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>7502629</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45529.29166666666</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" t="s">
+        <v>76</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
+      </c>
+      <c r="O24" t="s">
+        <v>103</v>
+      </c>
+      <c r="P24" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q24">
+        <v>2.6</v>
+      </c>
+      <c r="R24">
+        <v>2.3</v>
+      </c>
+      <c r="S24">
+        <v>4.13</v>
+      </c>
+      <c r="T24">
+        <v>1.35</v>
+      </c>
+      <c r="U24">
+        <v>3.17</v>
+      </c>
+      <c r="V24">
+        <v>2.75</v>
+      </c>
+      <c r="W24">
+        <v>1.44</v>
+      </c>
+      <c r="X24">
+        <v>6.65</v>
+      </c>
+      <c r="Y24">
+        <v>1.09</v>
+      </c>
+      <c r="Z24">
+        <v>2</v>
+      </c>
+      <c r="AA24">
+        <v>3.6</v>
+      </c>
+      <c r="AB24">
+        <v>3.4</v>
+      </c>
+      <c r="AC24">
+        <v>1.01</v>
+      </c>
+      <c r="AD24">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE24">
+        <v>1.24</v>
+      </c>
+      <c r="AF24">
+        <v>3.48</v>
+      </c>
+      <c r="AG24">
+        <v>1.83</v>
+      </c>
+      <c r="AH24">
+        <v>1.9</v>
+      </c>
+      <c r="AI24">
+        <v>1.69</v>
+      </c>
+      <c r="AJ24">
+        <v>2.04</v>
+      </c>
+      <c r="AK24">
+        <v>1.28</v>
+      </c>
+      <c r="AL24">
+        <v>1.28</v>
+      </c>
+      <c r="AM24">
+        <v>1.76</v>
+      </c>
+      <c r="AN24">
+        <v>3</v>
+      </c>
+      <c r="AO24">
+        <v>1</v>
+      </c>
+      <c r="AP24">
+        <v>3</v>
+      </c>
+      <c r="AQ24">
+        <v>0.5</v>
+      </c>
+      <c r="AR24">
+        <v>1.31</v>
+      </c>
+      <c r="AS24">
+        <v>1.41</v>
+      </c>
+      <c r="AT24">
+        <v>2.72</v>
+      </c>
+      <c r="AU24">
+        <v>6</v>
+      </c>
+      <c r="AV24">
+        <v>5</v>
+      </c>
+      <c r="AW24">
+        <v>6</v>
+      </c>
+      <c r="AX24">
+        <v>8</v>
+      </c>
+      <c r="AY24">
+        <v>12</v>
+      </c>
+      <c r="AZ24">
+        <v>13</v>
+      </c>
+      <c r="BA24">
+        <v>3</v>
+      </c>
+      <c r="BB24">
+        <v>8</v>
+      </c>
+      <c r="BC24">
+        <v>11</v>
+      </c>
+      <c r="BD24">
+        <v>1.59</v>
+      </c>
+      <c r="BE24">
+        <v>6.95</v>
+      </c>
+      <c r="BF24">
+        <v>3</v>
+      </c>
+      <c r="BG24">
+        <v>1.18</v>
+      </c>
+      <c r="BH24">
+        <v>4.33</v>
+      </c>
+      <c r="BI24">
+        <v>1.28</v>
+      </c>
+      <c r="BJ24">
+        <v>3.35</v>
+      </c>
+      <c r="BK24">
+        <v>1.57</v>
+      </c>
+      <c r="BL24">
+        <v>2.32</v>
+      </c>
+      <c r="BM24">
+        <v>1.98</v>
+      </c>
+      <c r="BN24">
+        <v>1.82</v>
+      </c>
+      <c r="BO24">
+        <v>2.45</v>
+      </c>
+      <c r="BP24">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:68">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>7502628</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45529.41666666666</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" t="s">
+        <v>87</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>4</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <v>2</v>
+      </c>
+      <c r="N25">
+        <v>4</v>
+      </c>
+      <c r="O25" t="s">
+        <v>104</v>
+      </c>
+      <c r="P25" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q25">
+        <v>2.91</v>
+      </c>
+      <c r="R25">
+        <v>1.97</v>
+      </c>
+      <c r="S25">
+        <v>3.94</v>
+      </c>
+      <c r="T25">
+        <v>1.5</v>
+      </c>
+      <c r="U25">
+        <v>2.48</v>
+      </c>
+      <c r="V25">
+        <v>3.34</v>
+      </c>
+      <c r="W25">
+        <v>1.3</v>
+      </c>
+      <c r="X25">
+        <v>9</v>
+      </c>
+      <c r="Y25">
+        <v>1.04</v>
+      </c>
+      <c r="Z25">
+        <v>2.15</v>
+      </c>
+      <c r="AA25">
+        <v>3</v>
+      </c>
+      <c r="AB25">
+        <v>3</v>
+      </c>
+      <c r="AC25">
+        <v>1.05</v>
+      </c>
+      <c r="AD25">
+        <v>7.2</v>
+      </c>
+      <c r="AE25">
+        <v>1.4</v>
+      </c>
+      <c r="AF25">
+        <v>2.64</v>
+      </c>
+      <c r="AG25">
+        <v>2.1</v>
+      </c>
+      <c r="AH25">
+        <v>1.6</v>
+      </c>
+      <c r="AI25">
+        <v>1.95</v>
+      </c>
+      <c r="AJ25">
+        <v>1.76</v>
+      </c>
+      <c r="AK25">
+        <v>1.33</v>
+      </c>
+      <c r="AL25">
+        <v>1.33</v>
+      </c>
+      <c r="AM25">
+        <v>1.6</v>
+      </c>
+      <c r="AN25">
+        <v>3</v>
+      </c>
+      <c r="AO25">
+        <v>1</v>
+      </c>
+      <c r="AP25">
+        <v>2</v>
+      </c>
+      <c r="AQ25">
+        <v>1</v>
+      </c>
+      <c r="AR25">
+        <v>1.23</v>
+      </c>
+      <c r="AS25">
+        <v>1.42</v>
+      </c>
+      <c r="AT25">
+        <v>2.65</v>
+      </c>
+      <c r="AU25">
+        <v>8</v>
+      </c>
+      <c r="AV25">
+        <v>5</v>
+      </c>
+      <c r="AW25">
+        <v>7</v>
+      </c>
+      <c r="AX25">
+        <v>7</v>
+      </c>
+      <c r="AY25">
+        <v>15</v>
+      </c>
+      <c r="AZ25">
+        <v>12</v>
+      </c>
+      <c r="BA25">
+        <v>8</v>
+      </c>
+      <c r="BB25">
+        <v>5</v>
+      </c>
+      <c r="BC25">
+        <v>13</v>
+      </c>
+      <c r="BD25">
+        <v>1.94</v>
+      </c>
+      <c r="BE25">
+        <v>6.6</v>
+      </c>
+      <c r="BF25">
+        <v>2.28</v>
+      </c>
+      <c r="BG25">
+        <v>1.17</v>
+      </c>
+      <c r="BH25">
+        <v>4.5</v>
+      </c>
+      <c r="BI25">
+        <v>1.3</v>
+      </c>
+      <c r="BJ25">
+        <v>3.2</v>
+      </c>
+      <c r="BK25">
+        <v>1.51</v>
+      </c>
+      <c r="BL25">
+        <v>2.48</v>
+      </c>
+      <c r="BM25">
+        <v>1.92</v>
+      </c>
+      <c r="BN25">
+        <v>1.88</v>
+      </c>
+      <c r="BO25">
+        <v>2.28</v>
+      </c>
+      <c r="BP25">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:68">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>7502623</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45529.47916666666</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" t="s">
+        <v>85</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>2</v>
+      </c>
+      <c r="O26" t="s">
+        <v>105</v>
+      </c>
+      <c r="P26" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q26">
+        <v>2.88</v>
+      </c>
+      <c r="R26">
+        <v>2.1</v>
+      </c>
+      <c r="S26">
+        <v>3.75</v>
+      </c>
+      <c r="T26">
+        <v>1.44</v>
+      </c>
+      <c r="U26">
+        <v>2.63</v>
+      </c>
+      <c r="V26">
+        <v>3.25</v>
+      </c>
+      <c r="W26">
+        <v>1.33</v>
+      </c>
+      <c r="X26">
+        <v>9</v>
+      </c>
+      <c r="Y26">
+        <v>1.07</v>
+      </c>
+      <c r="Z26">
+        <v>2.1</v>
+      </c>
+      <c r="AA26">
+        <v>3.1</v>
+      </c>
+      <c r="AB26">
+        <v>3</v>
+      </c>
+      <c r="AC26">
+        <v>1.05</v>
+      </c>
+      <c r="AD26">
+        <v>8.5</v>
+      </c>
+      <c r="AE26">
+        <v>1.33</v>
+      </c>
+      <c r="AF26">
+        <v>3.1</v>
+      </c>
+      <c r="AG26">
+        <v>2</v>
+      </c>
+      <c r="AH26">
+        <v>1.7</v>
+      </c>
+      <c r="AI26">
+        <v>1.83</v>
+      </c>
+      <c r="AJ26">
+        <v>1.83</v>
+      </c>
+      <c r="AK26">
+        <v>1.3</v>
+      </c>
+      <c r="AL26">
+        <v>1.26</v>
+      </c>
+      <c r="AM26">
+        <v>1.52</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>1</v>
+      </c>
+      <c r="AQ26">
+        <v>0.5</v>
+      </c>
+      <c r="AR26">
+        <v>1.66</v>
+      </c>
+      <c r="AS26">
+        <v>1.59</v>
+      </c>
+      <c r="AT26">
+        <v>3.25</v>
+      </c>
+      <c r="AU26">
+        <v>4</v>
+      </c>
+      <c r="AV26">
+        <v>4</v>
+      </c>
+      <c r="AW26">
+        <v>7</v>
+      </c>
+      <c r="AX26">
+        <v>4</v>
+      </c>
+      <c r="AY26">
+        <v>11</v>
+      </c>
+      <c r="AZ26">
+        <v>8</v>
+      </c>
+      <c r="BA26">
+        <v>4</v>
+      </c>
+      <c r="BB26">
+        <v>3</v>
+      </c>
+      <c r="BC26">
+        <v>7</v>
+      </c>
+      <c r="BD26">
+        <v>1.82</v>
+      </c>
+      <c r="BE26">
+        <v>6.75</v>
+      </c>
+      <c r="BF26">
+        <v>2.45</v>
+      </c>
+      <c r="BG26">
+        <v>1.18</v>
+      </c>
+      <c r="BH26">
+        <v>4.33</v>
+      </c>
+      <c r="BI26">
+        <v>1.3</v>
+      </c>
+      <c r="BJ26">
+        <v>3.2</v>
+      </c>
+      <c r="BK26">
+        <v>1.53</v>
+      </c>
+      <c r="BL26">
+        <v>2.38</v>
+      </c>
+      <c r="BM26">
+        <v>1.88</v>
+      </c>
+      <c r="BN26">
+        <v>1.92</v>
+      </c>
+      <c r="BO26">
+        <v>2.25</v>
+      </c>
+      <c r="BP26">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:68">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>7502626</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45529.58333333334</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>71</v>
+      </c>
+      <c r="H27" t="s">
+        <v>81</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <v>2</v>
+      </c>
+      <c r="N27">
+        <v>4</v>
+      </c>
+      <c r="O27" t="s">
+        <v>106</v>
+      </c>
+      <c r="P27" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q27">
+        <v>3.25</v>
+      </c>
+      <c r="R27">
+        <v>2.1</v>
+      </c>
+      <c r="S27">
+        <v>3.25</v>
+      </c>
+      <c r="T27">
+        <v>1.4</v>
+      </c>
+      <c r="U27">
+        <v>2.75</v>
+      </c>
+      <c r="V27">
+        <v>3</v>
+      </c>
+      <c r="W27">
+        <v>1.36</v>
+      </c>
+      <c r="X27">
+        <v>8</v>
+      </c>
+      <c r="Y27">
+        <v>1.08</v>
+      </c>
+      <c r="Z27">
+        <v>2.45</v>
+      </c>
+      <c r="AA27">
+        <v>3.2</v>
+      </c>
+      <c r="AB27">
+        <v>2.45</v>
+      </c>
+      <c r="AC27">
+        <v>1.02</v>
+      </c>
+      <c r="AD27">
+        <v>9</v>
+      </c>
+      <c r="AE27">
+        <v>1.27</v>
+      </c>
+      <c r="AF27">
+        <v>3.28</v>
+      </c>
+      <c r="AG27">
+        <v>1.9</v>
+      </c>
+      <c r="AH27">
+        <v>1.8</v>
+      </c>
+      <c r="AI27">
+        <v>1.73</v>
+      </c>
+      <c r="AJ27">
+        <v>2</v>
+      </c>
+      <c r="AK27">
+        <v>1.4</v>
+      </c>
+      <c r="AL27">
+        <v>1.27</v>
+      </c>
+      <c r="AM27">
+        <v>1.4</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>1</v>
+      </c>
+      <c r="AP27">
+        <v>0.5</v>
+      </c>
+      <c r="AQ27">
+        <v>1</v>
+      </c>
+      <c r="AR27">
+        <v>1.33</v>
+      </c>
+      <c r="AS27">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AT27">
+        <v>2.02</v>
+      </c>
+      <c r="AU27">
+        <v>7</v>
+      </c>
+      <c r="AV27">
+        <v>4</v>
+      </c>
+      <c r="AW27">
+        <v>4</v>
+      </c>
+      <c r="AX27">
+        <v>4</v>
+      </c>
+      <c r="AY27">
+        <v>11</v>
+      </c>
+      <c r="AZ27">
+        <v>8</v>
+      </c>
+      <c r="BA27">
+        <v>3</v>
+      </c>
+      <c r="BB27">
+        <v>1</v>
+      </c>
+      <c r="BC27">
+        <v>4</v>
+      </c>
+      <c r="BD27">
+        <v>2.03</v>
+      </c>
+      <c r="BE27">
+        <v>6.55</v>
+      </c>
+      <c r="BF27">
+        <v>2.17</v>
+      </c>
+      <c r="BG27">
+        <v>1.14</v>
+      </c>
+      <c r="BH27">
+        <v>4.55</v>
+      </c>
+      <c r="BI27">
+        <v>1.3</v>
+      </c>
+      <c r="BJ27">
+        <v>3.08</v>
+      </c>
+      <c r="BK27">
+        <v>1.54</v>
+      </c>
+      <c r="BL27">
+        <v>2.25</v>
+      </c>
+      <c r="BM27">
+        <v>1.98</v>
+      </c>
+      <c r="BN27">
+        <v>1.82</v>
+      </c>
+      <c r="BO27">
+        <v>2.45</v>
+      </c>
+      <c r="BP27">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:68">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>7502627</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45529.58333333334</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28" t="s">
+        <v>86</v>
+      </c>
+      <c r="H28" t="s">
+        <v>84</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28" t="s">
+        <v>107</v>
+      </c>
+      <c r="P28" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q28">
+        <v>3.25</v>
+      </c>
+      <c r="R28">
+        <v>2.2</v>
+      </c>
+      <c r="S28">
+        <v>3.1</v>
+      </c>
+      <c r="T28">
+        <v>1.36</v>
+      </c>
+      <c r="U28">
+        <v>3</v>
+      </c>
+      <c r="V28">
+        <v>2.75</v>
+      </c>
+      <c r="W28">
+        <v>1.4</v>
+      </c>
+      <c r="X28">
+        <v>8</v>
+      </c>
+      <c r="Y28">
+        <v>1.08</v>
+      </c>
+      <c r="Z28">
+        <v>2.55</v>
+      </c>
+      <c r="AA28">
+        <v>3.2</v>
+      </c>
+      <c r="AB28">
+        <v>2.4</v>
+      </c>
+      <c r="AC28">
+        <v>1.01</v>
+      </c>
+      <c r="AD28">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE28">
+        <v>1.24</v>
+      </c>
+      <c r="AF28">
+        <v>3.48</v>
+      </c>
+      <c r="AG28">
+        <v>1.8</v>
+      </c>
+      <c r="AH28">
+        <v>1.9</v>
+      </c>
+      <c r="AI28">
+        <v>1.67</v>
+      </c>
+      <c r="AJ28">
+        <v>2.1</v>
+      </c>
+      <c r="AK28">
+        <v>1.42</v>
+      </c>
+      <c r="AL28">
+        <v>1.27</v>
+      </c>
+      <c r="AM28">
+        <v>1.37</v>
+      </c>
+      <c r="AN28">
+        <v>3</v>
+      </c>
+      <c r="AO28">
+        <v>3</v>
+      </c>
+      <c r="AP28">
+        <v>3</v>
+      </c>
+      <c r="AQ28">
+        <v>1.5</v>
+      </c>
+      <c r="AR28">
+        <v>1.62</v>
+      </c>
+      <c r="AS28">
+        <v>1.65</v>
+      </c>
+      <c r="AT28">
+        <v>3.27</v>
+      </c>
+      <c r="AU28">
+        <v>4</v>
+      </c>
+      <c r="AV28">
+        <v>2</v>
+      </c>
+      <c r="AW28">
+        <v>11</v>
+      </c>
+      <c r="AX28">
+        <v>6</v>
+      </c>
+      <c r="AY28">
+        <v>15</v>
+      </c>
+      <c r="AZ28">
+        <v>8</v>
+      </c>
+      <c r="BA28">
+        <v>6</v>
+      </c>
+      <c r="BB28">
+        <v>4</v>
+      </c>
+      <c r="BC28">
+        <v>10</v>
+      </c>
+      <c r="BD28">
+        <v>2.05</v>
+      </c>
+      <c r="BE28">
+        <v>8</v>
+      </c>
+      <c r="BF28">
+        <v>1.95</v>
+      </c>
+      <c r="BG28">
+        <v>1.25</v>
+      </c>
+      <c r="BH28">
+        <v>3.6</v>
+      </c>
+      <c r="BI28">
+        <v>1.4</v>
+      </c>
+      <c r="BJ28">
+        <v>2.7</v>
+      </c>
+      <c r="BK28">
+        <v>1.7</v>
+      </c>
+      <c r="BL28">
+        <v>2.05</v>
+      </c>
+      <c r="BM28">
+        <v>2.09</v>
+      </c>
+      <c r="BN28">
+        <v>1.73</v>
+      </c>
+      <c r="BO28">
+        <v>2.6</v>
+      </c>
+      <c r="BP28">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="128">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -395,6 +395,9 @@
   </si>
   <si>
     <t>['47', '89']</t>
+  </si>
+  <si>
+    <t>['10', '14', '35', '50']</t>
   </si>
 </sst>
 </file>
@@ -756,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP28"/>
+  <dimension ref="A1:BP29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2947,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ11">
         <v>1</v>
@@ -3774,7 +3777,7 @@
         <v>1</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -6528,6 +6531,212 @@
       </c>
       <c r="BP28">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:68">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>7502637</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45534.58333333334</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>79</v>
+      </c>
+      <c r="H29" t="s">
+        <v>73</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>3</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>4</v>
+      </c>
+      <c r="N29">
+        <v>4</v>
+      </c>
+      <c r="O29" t="s">
+        <v>89</v>
+      </c>
+      <c r="P29" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q29">
+        <v>3.75</v>
+      </c>
+      <c r="R29">
+        <v>2.05</v>
+      </c>
+      <c r="S29">
+        <v>3.1</v>
+      </c>
+      <c r="T29">
+        <v>1.44</v>
+      </c>
+      <c r="U29">
+        <v>2.63</v>
+      </c>
+      <c r="V29">
+        <v>3.25</v>
+      </c>
+      <c r="W29">
+        <v>1.33</v>
+      </c>
+      <c r="X29">
+        <v>9</v>
+      </c>
+      <c r="Y29">
+        <v>1.07</v>
+      </c>
+      <c r="Z29">
+        <v>3</v>
+      </c>
+      <c r="AA29">
+        <v>3.15</v>
+      </c>
+      <c r="AB29">
+        <v>2.25</v>
+      </c>
+      <c r="AC29">
+        <v>1.06</v>
+      </c>
+      <c r="AD29">
+        <v>8.5</v>
+      </c>
+      <c r="AE29">
+        <v>1.36</v>
+      </c>
+      <c r="AF29">
+        <v>3.1</v>
+      </c>
+      <c r="AG29">
+        <v>2.02</v>
+      </c>
+      <c r="AH29">
+        <v>1.65</v>
+      </c>
+      <c r="AI29">
+        <v>1.83</v>
+      </c>
+      <c r="AJ29">
+        <v>1.83</v>
+      </c>
+      <c r="AK29">
+        <v>1.53</v>
+      </c>
+      <c r="AL29">
+        <v>1.3</v>
+      </c>
+      <c r="AM29">
+        <v>1.33</v>
+      </c>
+      <c r="AN29">
+        <v>1</v>
+      </c>
+      <c r="AO29">
+        <v>1</v>
+      </c>
+      <c r="AP29">
+        <v>0.5</v>
+      </c>
+      <c r="AQ29">
+        <v>2</v>
+      </c>
+      <c r="AR29">
+        <v>1.08</v>
+      </c>
+      <c r="AS29">
+        <v>1.41</v>
+      </c>
+      <c r="AT29">
+        <v>2.49</v>
+      </c>
+      <c r="AU29">
+        <v>5</v>
+      </c>
+      <c r="AV29">
+        <v>7</v>
+      </c>
+      <c r="AW29">
+        <v>13</v>
+      </c>
+      <c r="AX29">
+        <v>3</v>
+      </c>
+      <c r="AY29">
+        <v>18</v>
+      </c>
+      <c r="AZ29">
+        <v>10</v>
+      </c>
+      <c r="BA29">
+        <v>10</v>
+      </c>
+      <c r="BB29">
+        <v>1</v>
+      </c>
+      <c r="BC29">
+        <v>11</v>
+      </c>
+      <c r="BD29">
+        <v>2.2</v>
+      </c>
+      <c r="BE29">
+        <v>6.5</v>
+      </c>
+      <c r="BF29">
+        <v>2.01</v>
+      </c>
+      <c r="BG29">
+        <v>1.21</v>
+      </c>
+      <c r="BH29">
+        <v>3.9</v>
+      </c>
+      <c r="BI29">
+        <v>1.4</v>
+      </c>
+      <c r="BJ29">
+        <v>2.7</v>
+      </c>
+      <c r="BK29">
+        <v>1.67</v>
+      </c>
+      <c r="BL29">
+        <v>2.07</v>
+      </c>
+      <c r="BM29">
+        <v>2.07</v>
+      </c>
+      <c r="BN29">
+        <v>1.67</v>
+      </c>
+      <c r="BO29">
+        <v>2.6</v>
+      </c>
+      <c r="BP29">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="134">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -340,6 +340,15 @@
     <t>['56']</t>
   </si>
   <si>
+    <t>['64']</t>
+  </si>
+  <si>
+    <t>['61']</t>
+  </si>
+  <si>
+    <t>['14', '43', '45+7', '53', '79']</t>
+  </si>
+  <si>
     <t>['24', '27']</t>
   </si>
   <si>
@@ -398,6 +407,15 @@
   </si>
   <si>
     <t>['10', '14', '35', '50']</t>
+  </si>
+  <si>
+    <t>['27']</t>
+  </si>
+  <si>
+    <t>['45+4', '90+4']</t>
+  </si>
+  <si>
+    <t>['46']</t>
   </si>
 </sst>
 </file>
@@ -759,7 +777,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP29"/>
+  <dimension ref="A1:BP33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1018,7 +1036,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -1224,7 +1242,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -1430,7 +1448,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -1636,7 +1654,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1842,7 +1860,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2048,7 +2066,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2254,7 +2272,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q8">
         <v>2.5</v>
@@ -2460,7 +2478,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -2872,7 +2890,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3156,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ12">
         <v>1</v>
@@ -3284,7 +3302,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -3362,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13">
         <v>3</v>
@@ -3490,7 +3508,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -3571,7 +3589,7 @@
         <v>0</v>
       </c>
       <c r="AQ14">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3696,7 +3714,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -3902,7 +3920,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -4189,7 +4207,7 @@
         <v>1</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4395,7 +4413,7 @@
         <v>3</v>
       </c>
       <c r="AQ18">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4520,7 +4538,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q19">
         <v>2.79</v>
@@ -4726,7 +4744,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5344,7 +5362,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5756,7 +5774,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q25">
         <v>2.91</v>
@@ -5962,7 +5980,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6168,7 +6186,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q27">
         <v>3.25</v>
@@ -6580,7 +6598,7 @@
         <v>89</v>
       </c>
       <c r="P29" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -6737,6 +6755,830 @@
       </c>
       <c r="BP29">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:68">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>7502635</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45535.29166666666</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" t="s">
+        <v>72</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30" t="s">
+        <v>89</v>
+      </c>
+      <c r="P30" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q30">
+        <v>3.3</v>
+      </c>
+      <c r="R30">
+        <v>2</v>
+      </c>
+      <c r="S30">
+        <v>3.1</v>
+      </c>
+      <c r="T30">
+        <v>1.42</v>
+      </c>
+      <c r="U30">
+        <v>2.74</v>
+      </c>
+      <c r="V30">
+        <v>2.98</v>
+      </c>
+      <c r="W30">
+        <v>1.36</v>
+      </c>
+      <c r="X30">
+        <v>7.7</v>
+      </c>
+      <c r="Y30">
+        <v>1.06</v>
+      </c>
+      <c r="Z30">
+        <v>2.6</v>
+      </c>
+      <c r="AA30">
+        <v>3.1</v>
+      </c>
+      <c r="AB30">
+        <v>2.37</v>
+      </c>
+      <c r="AC30">
+        <v>1.03</v>
+      </c>
+      <c r="AD30">
+        <v>9</v>
+      </c>
+      <c r="AE30">
+        <v>1.29</v>
+      </c>
+      <c r="AF30">
+        <v>3.3</v>
+      </c>
+      <c r="AG30">
+        <v>1.98</v>
+      </c>
+      <c r="AH30">
+        <v>1.68</v>
+      </c>
+      <c r="AI30">
+        <v>1.73</v>
+      </c>
+      <c r="AJ30">
+        <v>2</v>
+      </c>
+      <c r="AK30">
+        <v>1.51</v>
+      </c>
+      <c r="AL30">
+        <v>1.31</v>
+      </c>
+      <c r="AM30">
+        <v>1.42</v>
+      </c>
+      <c r="AN30">
+        <v>1</v>
+      </c>
+      <c r="AO30">
+        <v>1</v>
+      </c>
+      <c r="AP30">
+        <v>0.5</v>
+      </c>
+      <c r="AQ30">
+        <v>2</v>
+      </c>
+      <c r="AR30">
+        <v>1.33</v>
+      </c>
+      <c r="AS30">
+        <v>1.22</v>
+      </c>
+      <c r="AT30">
+        <v>2.55</v>
+      </c>
+      <c r="AU30">
+        <v>2</v>
+      </c>
+      <c r="AV30">
+        <v>4</v>
+      </c>
+      <c r="AW30">
+        <v>6</v>
+      </c>
+      <c r="AX30">
+        <v>8</v>
+      </c>
+      <c r="AY30">
+        <v>8</v>
+      </c>
+      <c r="AZ30">
+        <v>12</v>
+      </c>
+      <c r="BA30">
+        <v>10</v>
+      </c>
+      <c r="BB30">
+        <v>2</v>
+      </c>
+      <c r="BC30">
+        <v>12</v>
+      </c>
+      <c r="BD30">
+        <v>1.98</v>
+      </c>
+      <c r="BE30">
+        <v>7.2</v>
+      </c>
+      <c r="BF30">
+        <v>2.17</v>
+      </c>
+      <c r="BG30">
+        <v>1.2</v>
+      </c>
+      <c r="BH30">
+        <v>4</v>
+      </c>
+      <c r="BI30">
+        <v>1.28</v>
+      </c>
+      <c r="BJ30">
+        <v>3.35</v>
+      </c>
+      <c r="BK30">
+        <v>1.47</v>
+      </c>
+      <c r="BL30">
+        <v>2.5</v>
+      </c>
+      <c r="BM30">
+        <v>1.98</v>
+      </c>
+      <c r="BN30">
+        <v>1.82</v>
+      </c>
+      <c r="BO30">
+        <v>2.37</v>
+      </c>
+      <c r="BP30">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:68">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>7502639</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45535.41666666666</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>87</v>
+      </c>
+      <c r="H31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>2</v>
+      </c>
+      <c r="O31" t="s">
+        <v>108</v>
+      </c>
+      <c r="P31" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q31">
+        <v>2.75</v>
+      </c>
+      <c r="R31">
+        <v>2.1</v>
+      </c>
+      <c r="S31">
+        <v>4.33</v>
+      </c>
+      <c r="T31">
+        <v>1.44</v>
+      </c>
+      <c r="U31">
+        <v>2.63</v>
+      </c>
+      <c r="V31">
+        <v>3.25</v>
+      </c>
+      <c r="W31">
+        <v>1.33</v>
+      </c>
+      <c r="X31">
+        <v>9</v>
+      </c>
+      <c r="Y31">
+        <v>1.07</v>
+      </c>
+      <c r="Z31">
+        <v>1.93</v>
+      </c>
+      <c r="AA31">
+        <v>3.25</v>
+      </c>
+      <c r="AB31">
+        <v>3.4</v>
+      </c>
+      <c r="AC31">
+        <v>1.05</v>
+      </c>
+      <c r="AD31">
+        <v>8.5</v>
+      </c>
+      <c r="AE31">
+        <v>1.33</v>
+      </c>
+      <c r="AF31">
+        <v>3</v>
+      </c>
+      <c r="AG31">
+        <v>2.02</v>
+      </c>
+      <c r="AH31">
+        <v>1.65</v>
+      </c>
+      <c r="AI31">
+        <v>1.91</v>
+      </c>
+      <c r="AJ31">
+        <v>1.8</v>
+      </c>
+      <c r="AK31">
+        <v>1.22</v>
+      </c>
+      <c r="AL31">
+        <v>1.29</v>
+      </c>
+      <c r="AM31">
+        <v>1.73</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
+        <v>1</v>
+      </c>
+      <c r="AP31">
+        <v>1</v>
+      </c>
+      <c r="AQ31">
+        <v>1</v>
+      </c>
+      <c r="AR31">
+        <v>1.31</v>
+      </c>
+      <c r="AS31">
+        <v>1.81</v>
+      </c>
+      <c r="AT31">
+        <v>3.12</v>
+      </c>
+      <c r="AU31">
+        <v>4</v>
+      </c>
+      <c r="AV31">
+        <v>2</v>
+      </c>
+      <c r="AW31">
+        <v>3</v>
+      </c>
+      <c r="AX31">
+        <v>7</v>
+      </c>
+      <c r="AY31">
+        <v>7</v>
+      </c>
+      <c r="AZ31">
+        <v>9</v>
+      </c>
+      <c r="BA31">
+        <v>5</v>
+      </c>
+      <c r="BB31">
+        <v>4</v>
+      </c>
+      <c r="BC31">
+        <v>9</v>
+      </c>
+      <c r="BD31">
+        <v>1.82</v>
+      </c>
+      <c r="BE31">
+        <v>7.4</v>
+      </c>
+      <c r="BF31">
+        <v>2.47</v>
+      </c>
+      <c r="BG31">
+        <v>1.15</v>
+      </c>
+      <c r="BH31">
+        <v>4.75</v>
+      </c>
+      <c r="BI31">
+        <v>1.29</v>
+      </c>
+      <c r="BJ31">
+        <v>3.3</v>
+      </c>
+      <c r="BK31">
+        <v>1.49</v>
+      </c>
+      <c r="BL31">
+        <v>2.53</v>
+      </c>
+      <c r="BM31">
+        <v>1.82</v>
+      </c>
+      <c r="BN31">
+        <v>1.98</v>
+      </c>
+      <c r="BO31">
+        <v>2.24</v>
+      </c>
+      <c r="BP31">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:68">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>7502632</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45535.47916666666</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>84</v>
+      </c>
+      <c r="H32" t="s">
+        <v>75</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>2</v>
+      </c>
+      <c r="N32">
+        <v>3</v>
+      </c>
+      <c r="O32" t="s">
+        <v>109</v>
+      </c>
+      <c r="P32" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q32">
+        <v>2.5</v>
+      </c>
+      <c r="R32">
+        <v>2.1</v>
+      </c>
+      <c r="S32">
+        <v>5</v>
+      </c>
+      <c r="T32">
+        <v>1.44</v>
+      </c>
+      <c r="U32">
+        <v>2.63</v>
+      </c>
+      <c r="V32">
+        <v>3.25</v>
+      </c>
+      <c r="W32">
+        <v>1.33</v>
+      </c>
+      <c r="X32">
+        <v>9</v>
+      </c>
+      <c r="Y32">
+        <v>1.07</v>
+      </c>
+      <c r="Z32">
+        <v>1.88</v>
+      </c>
+      <c r="AA32">
+        <v>3.61</v>
+      </c>
+      <c r="AB32">
+        <v>3.34</v>
+      </c>
+      <c r="AC32">
+        <v>1.04</v>
+      </c>
+      <c r="AD32">
+        <v>9</v>
+      </c>
+      <c r="AE32">
+        <v>1.3</v>
+      </c>
+      <c r="AF32">
+        <v>3.2</v>
+      </c>
+      <c r="AG32">
+        <v>2.02</v>
+      </c>
+      <c r="AH32">
+        <v>1.65</v>
+      </c>
+      <c r="AI32">
+        <v>2</v>
+      </c>
+      <c r="AJ32">
+        <v>1.73</v>
+      </c>
+      <c r="AK32">
+        <v>1.17</v>
+      </c>
+      <c r="AL32">
+        <v>1.25</v>
+      </c>
+      <c r="AM32">
+        <v>1.91</v>
+      </c>
+      <c r="AN32">
+        <v>0</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>0</v>
+      </c>
+      <c r="AQ32">
+        <v>1.5</v>
+      </c>
+      <c r="AR32">
+        <v>2.27</v>
+      </c>
+      <c r="AS32">
+        <v>1.45</v>
+      </c>
+      <c r="AT32">
+        <v>3.72</v>
+      </c>
+      <c r="AU32">
+        <v>4</v>
+      </c>
+      <c r="AV32">
+        <v>6</v>
+      </c>
+      <c r="AW32">
+        <v>6</v>
+      </c>
+      <c r="AX32">
+        <v>10</v>
+      </c>
+      <c r="AY32">
+        <v>10</v>
+      </c>
+      <c r="AZ32">
+        <v>16</v>
+      </c>
+      <c r="BA32">
+        <v>3</v>
+      </c>
+      <c r="BB32">
+        <v>4</v>
+      </c>
+      <c r="BC32">
+        <v>7</v>
+      </c>
+      <c r="BD32">
+        <v>1.39</v>
+      </c>
+      <c r="BE32">
+        <v>7.6</v>
+      </c>
+      <c r="BF32">
+        <v>3.92</v>
+      </c>
+      <c r="BG32">
+        <v>1.18</v>
+      </c>
+      <c r="BH32">
+        <v>4.33</v>
+      </c>
+      <c r="BI32">
+        <v>1.33</v>
+      </c>
+      <c r="BJ32">
+        <v>3</v>
+      </c>
+      <c r="BK32">
+        <v>1.49</v>
+      </c>
+      <c r="BL32">
+        <v>2.45</v>
+      </c>
+      <c r="BM32">
+        <v>1.9</v>
+      </c>
+      <c r="BN32">
+        <v>1.9</v>
+      </c>
+      <c r="BO32">
+        <v>2.35</v>
+      </c>
+      <c r="BP32">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:68">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>7502631</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45536.29166666666</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>81</v>
+      </c>
+      <c r="H33" t="s">
+        <v>70</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>5</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>6</v>
+      </c>
+      <c r="O33" t="s">
+        <v>110</v>
+      </c>
+      <c r="P33" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q33">
+        <v>3.2</v>
+      </c>
+      <c r="R33">
+        <v>2.1</v>
+      </c>
+      <c r="S33">
+        <v>3.5</v>
+      </c>
+      <c r="T33">
+        <v>1.44</v>
+      </c>
+      <c r="U33">
+        <v>2.63</v>
+      </c>
+      <c r="V33">
+        <v>3.25</v>
+      </c>
+      <c r="W33">
+        <v>1.33</v>
+      </c>
+      <c r="X33">
+        <v>9</v>
+      </c>
+      <c r="Y33">
+        <v>1.07</v>
+      </c>
+      <c r="Z33">
+        <v>2.6</v>
+      </c>
+      <c r="AA33">
+        <v>3.2</v>
+      </c>
+      <c r="AB33">
+        <v>2.5</v>
+      </c>
+      <c r="AC33">
+        <v>1.06</v>
+      </c>
+      <c r="AD33">
+        <v>8</v>
+      </c>
+      <c r="AE33">
+        <v>1.35</v>
+      </c>
+      <c r="AF33">
+        <v>3</v>
+      </c>
+      <c r="AG33">
+        <v>2.02</v>
+      </c>
+      <c r="AH33">
+        <v>1.65</v>
+      </c>
+      <c r="AI33">
+        <v>1.83</v>
+      </c>
+      <c r="AJ33">
+        <v>1.83</v>
+      </c>
+      <c r="AK33">
+        <v>1.36</v>
+      </c>
+      <c r="AL33">
+        <v>1.28</v>
+      </c>
+      <c r="AM33">
+        <v>1.43</v>
+      </c>
+      <c r="AN33">
+        <v>0</v>
+      </c>
+      <c r="AO33">
+        <v>3</v>
+      </c>
+      <c r="AP33">
+        <v>1.5</v>
+      </c>
+      <c r="AQ33">
+        <v>1.5</v>
+      </c>
+      <c r="AR33">
+        <v>1.04</v>
+      </c>
+      <c r="AS33">
+        <v>1.75</v>
+      </c>
+      <c r="AT33">
+        <v>2.79</v>
+      </c>
+      <c r="AU33">
+        <v>8</v>
+      </c>
+      <c r="AV33">
+        <v>4</v>
+      </c>
+      <c r="AW33">
+        <v>2</v>
+      </c>
+      <c r="AX33">
+        <v>10</v>
+      </c>
+      <c r="AY33">
+        <v>10</v>
+      </c>
+      <c r="AZ33">
+        <v>14</v>
+      </c>
+      <c r="BA33">
+        <v>3</v>
+      </c>
+      <c r="BB33">
+        <v>10</v>
+      </c>
+      <c r="BC33">
+        <v>13</v>
+      </c>
+      <c r="BD33">
+        <v>1.98</v>
+      </c>
+      <c r="BE33">
+        <v>6.65</v>
+      </c>
+      <c r="BF33">
+        <v>2.22</v>
+      </c>
+      <c r="BG33">
+        <v>1.11</v>
+      </c>
+      <c r="BH33">
+        <v>5.1</v>
+      </c>
+      <c r="BI33">
+        <v>1.27</v>
+      </c>
+      <c r="BJ33">
+        <v>3.55</v>
+      </c>
+      <c r="BK33">
+        <v>1.48</v>
+      </c>
+      <c r="BL33">
+        <v>2.55</v>
+      </c>
+      <c r="BM33">
+        <v>1.82</v>
+      </c>
+      <c r="BN33">
+        <v>1.98</v>
+      </c>
+      <c r="BO33">
+        <v>2.35</v>
+      </c>
+      <c r="BP33">
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="141">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -349,6 +349,15 @@
     <t>['14', '43', '45+7', '53', '79']</t>
   </si>
   <si>
+    <t>['32', '46']</t>
+  </si>
+  <si>
+    <t>['26']</t>
+  </si>
+  <si>
+    <t>['16']</t>
+  </si>
+  <si>
     <t>['24', '27']</t>
   </si>
   <si>
@@ -416,6 +425,18 @@
   </si>
   <si>
     <t>['46']</t>
+  </si>
+  <si>
+    <t>['8', '45', '90+3']</t>
+  </si>
+  <si>
+    <t>['19', '49', '71']</t>
+  </si>
+  <si>
+    <t>['40']</t>
+  </si>
+  <si>
+    <t>['14', '61', '74']</t>
   </si>
 </sst>
 </file>
@@ -777,7 +798,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP33"/>
+  <dimension ref="A1:BP37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1036,7 +1057,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -1242,7 +1263,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -1448,7 +1469,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -1529,7 +1550,7 @@
         <v>2</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1654,7 +1675,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1860,7 +1881,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2066,7 +2087,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2272,7 +2293,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q8">
         <v>2.5</v>
@@ -2478,7 +2499,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -2890,7 +2911,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3177,7 +3198,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3302,7 +3323,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -3383,7 +3404,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3508,7 +3529,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -3714,7 +3735,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -3792,7 +3813,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ15">
         <v>2</v>
@@ -3920,7 +3941,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -4204,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ17">
         <v>2</v>
@@ -4538,7 +4559,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q19">
         <v>2.79</v>
@@ -4744,7 +4765,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5362,7 +5383,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5774,7 +5795,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q25">
         <v>2.91</v>
@@ -5980,7 +6001,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6186,7 +6207,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q27">
         <v>3.25</v>
@@ -6598,7 +6619,7 @@
         <v>89</v>
       </c>
       <c r="P29" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -6804,7 +6825,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7216,7 +7237,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7422,7 +7443,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7579,6 +7600,830 @@
       </c>
       <c r="BP33">
         <v>1.55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:68">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>7502633</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45536.41666666666</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34" t="s">
+        <v>83</v>
+      </c>
+      <c r="H34" t="s">
+        <v>86</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
+      <c r="M34">
+        <v>3</v>
+      </c>
+      <c r="N34">
+        <v>5</v>
+      </c>
+      <c r="O34" t="s">
+        <v>111</v>
+      </c>
+      <c r="P34" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q34">
+        <v>3.1</v>
+      </c>
+      <c r="R34">
+        <v>2.15</v>
+      </c>
+      <c r="S34">
+        <v>3.2</v>
+      </c>
+      <c r="T34">
+        <v>1.36</v>
+      </c>
+      <c r="U34">
+        <v>2.9</v>
+      </c>
+      <c r="V34">
+        <v>2.62</v>
+      </c>
+      <c r="W34">
+        <v>1.42</v>
+      </c>
+      <c r="X34">
+        <v>6</v>
+      </c>
+      <c r="Y34">
+        <v>1.09</v>
+      </c>
+      <c r="Z34">
+        <v>2.44</v>
+      </c>
+      <c r="AA34">
+        <v>3.15</v>
+      </c>
+      <c r="AB34">
+        <v>2.54</v>
+      </c>
+      <c r="AC34">
+        <v>1.01</v>
+      </c>
+      <c r="AD34">
+        <v>10.5</v>
+      </c>
+      <c r="AE34">
+        <v>1.22</v>
+      </c>
+      <c r="AF34">
+        <v>3.7</v>
+      </c>
+      <c r="AG34">
+        <v>1.81</v>
+      </c>
+      <c r="AH34">
+        <v>2.01</v>
+      </c>
+      <c r="AI34">
+        <v>1.62</v>
+      </c>
+      <c r="AJ34">
+        <v>2.2</v>
+      </c>
+      <c r="AK34">
+        <v>1.47</v>
+      </c>
+      <c r="AL34">
+        <v>1.22</v>
+      </c>
+      <c r="AM34">
+        <v>1.5</v>
+      </c>
+      <c r="AN34">
+        <v>1</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>0.5</v>
+      </c>
+      <c r="AQ34">
+        <v>1.5</v>
+      </c>
+      <c r="AR34">
+        <v>1.57</v>
+      </c>
+      <c r="AS34">
+        <v>0.96</v>
+      </c>
+      <c r="AT34">
+        <v>2.53</v>
+      </c>
+      <c r="AU34">
+        <v>7</v>
+      </c>
+      <c r="AV34">
+        <v>6</v>
+      </c>
+      <c r="AW34">
+        <v>9</v>
+      </c>
+      <c r="AX34">
+        <v>5</v>
+      </c>
+      <c r="AY34">
+        <v>16</v>
+      </c>
+      <c r="AZ34">
+        <v>11</v>
+      </c>
+      <c r="BA34">
+        <v>1</v>
+      </c>
+      <c r="BB34">
+        <v>9</v>
+      </c>
+      <c r="BC34">
+        <v>10</v>
+      </c>
+      <c r="BD34">
+        <v>1.85</v>
+      </c>
+      <c r="BE34">
+        <v>7.2</v>
+      </c>
+      <c r="BF34">
+        <v>2.35</v>
+      </c>
+      <c r="BG34">
+        <v>1.18</v>
+      </c>
+      <c r="BH34">
+        <v>4.33</v>
+      </c>
+      <c r="BI34">
+        <v>1.33</v>
+      </c>
+      <c r="BJ34">
+        <v>3</v>
+      </c>
+      <c r="BK34">
+        <v>1.48</v>
+      </c>
+      <c r="BL34">
+        <v>2.47</v>
+      </c>
+      <c r="BM34">
+        <v>1.95</v>
+      </c>
+      <c r="BN34">
+        <v>1.85</v>
+      </c>
+      <c r="BO34">
+        <v>2.35</v>
+      </c>
+      <c r="BP34">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:68">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>7502636</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45536.47916666666</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35" t="s">
+        <v>82</v>
+      </c>
+      <c r="H35" t="s">
+        <v>74</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>3</v>
+      </c>
+      <c r="N35">
+        <v>4</v>
+      </c>
+      <c r="O35" t="s">
+        <v>112</v>
+      </c>
+      <c r="P35" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q35">
+        <v>2.57</v>
+      </c>
+      <c r="R35">
+        <v>2.06</v>
+      </c>
+      <c r="S35">
+        <v>4.33</v>
+      </c>
+      <c r="T35">
+        <v>1.44</v>
+      </c>
+      <c r="U35">
+        <v>2.67</v>
+      </c>
+      <c r="V35">
+        <v>3.04</v>
+      </c>
+      <c r="W35">
+        <v>1.35</v>
+      </c>
+      <c r="X35">
+        <v>7.9</v>
+      </c>
+      <c r="Y35">
+        <v>1.06</v>
+      </c>
+      <c r="Z35">
+        <v>1.91</v>
+      </c>
+      <c r="AA35">
+        <v>3.3</v>
+      </c>
+      <c r="AB35">
+        <v>3.5</v>
+      </c>
+      <c r="AC35">
+        <v>1.03</v>
+      </c>
+      <c r="AD35">
+        <v>8.1</v>
+      </c>
+      <c r="AE35">
+        <v>1.33</v>
+      </c>
+      <c r="AF35">
+        <v>2.93</v>
+      </c>
+      <c r="AG35">
+        <v>2</v>
+      </c>
+      <c r="AH35">
+        <v>1.7</v>
+      </c>
+      <c r="AI35">
+        <v>1.87</v>
+      </c>
+      <c r="AJ35">
+        <v>1.83</v>
+      </c>
+      <c r="AK35">
+        <v>1.26</v>
+      </c>
+      <c r="AL35">
+        <v>1.3</v>
+      </c>
+      <c r="AM35">
+        <v>1.78</v>
+      </c>
+      <c r="AN35">
+        <v>0</v>
+      </c>
+      <c r="AO35">
+        <v>3</v>
+      </c>
+      <c r="AP35">
+        <v>0</v>
+      </c>
+      <c r="AQ35">
+        <v>3</v>
+      </c>
+      <c r="AR35">
+        <v>1.95</v>
+      </c>
+      <c r="AS35">
+        <v>1.66</v>
+      </c>
+      <c r="AT35">
+        <v>3.61</v>
+      </c>
+      <c r="AU35">
+        <v>4</v>
+      </c>
+      <c r="AV35">
+        <v>5</v>
+      </c>
+      <c r="AW35">
+        <v>8</v>
+      </c>
+      <c r="AX35">
+        <v>6</v>
+      </c>
+      <c r="AY35">
+        <v>12</v>
+      </c>
+      <c r="AZ35">
+        <v>11</v>
+      </c>
+      <c r="BA35">
+        <v>10</v>
+      </c>
+      <c r="BB35">
+        <v>3</v>
+      </c>
+      <c r="BC35">
+        <v>13</v>
+      </c>
+      <c r="BD35">
+        <v>1.55</v>
+      </c>
+      <c r="BE35">
+        <v>8.9</v>
+      </c>
+      <c r="BF35">
+        <v>2.88</v>
+      </c>
+      <c r="BG35">
+        <v>1.17</v>
+      </c>
+      <c r="BH35">
+        <v>4.5</v>
+      </c>
+      <c r="BI35">
+        <v>1.3</v>
+      </c>
+      <c r="BJ35">
+        <v>3.2</v>
+      </c>
+      <c r="BK35">
+        <v>1.45</v>
+      </c>
+      <c r="BL35">
+        <v>2.55</v>
+      </c>
+      <c r="BM35">
+        <v>1.85</v>
+      </c>
+      <c r="BN35">
+        <v>1.95</v>
+      </c>
+      <c r="BO35">
+        <v>2.27</v>
+      </c>
+      <c r="BP35">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:68">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>7502634</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45536.58333333334</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="G36" t="s">
+        <v>76</v>
+      </c>
+      <c r="H36" t="s">
+        <v>77</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>2</v>
+      </c>
+      <c r="O36" t="s">
+        <v>113</v>
+      </c>
+      <c r="P36" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q36">
+        <v>2.89</v>
+      </c>
+      <c r="R36">
+        <v>2.17</v>
+      </c>
+      <c r="S36">
+        <v>3.35</v>
+      </c>
+      <c r="T36">
+        <v>1.35</v>
+      </c>
+      <c r="U36">
+        <v>3.04</v>
+      </c>
+      <c r="V36">
+        <v>2.63</v>
+      </c>
+      <c r="W36">
+        <v>1.45</v>
+      </c>
+      <c r="X36">
+        <v>6.45</v>
+      </c>
+      <c r="Y36">
+        <v>1.09</v>
+      </c>
+      <c r="Z36">
+        <v>2.15</v>
+      </c>
+      <c r="AA36">
+        <v>3.4</v>
+      </c>
+      <c r="AB36">
+        <v>2.88</v>
+      </c>
+      <c r="AC36">
+        <v>1.05</v>
+      </c>
+      <c r="AD36">
+        <v>8</v>
+      </c>
+      <c r="AE36">
+        <v>1.22</v>
+      </c>
+      <c r="AF36">
+        <v>3.7</v>
+      </c>
+      <c r="AG36">
+        <v>1.75</v>
+      </c>
+      <c r="AH36">
+        <v>1.95</v>
+      </c>
+      <c r="AI36">
+        <v>1.63</v>
+      </c>
+      <c r="AJ36">
+        <v>2.14</v>
+      </c>
+      <c r="AK36">
+        <v>1.32</v>
+      </c>
+      <c r="AL36">
+        <v>1.3</v>
+      </c>
+      <c r="AM36">
+        <v>1.57</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36">
+        <v>3</v>
+      </c>
+      <c r="AP36">
+        <v>1</v>
+      </c>
+      <c r="AQ36">
+        <v>2</v>
+      </c>
+      <c r="AR36">
+        <v>0.82</v>
+      </c>
+      <c r="AS36">
+        <v>1.99</v>
+      </c>
+      <c r="AT36">
+        <v>2.81</v>
+      </c>
+      <c r="AU36">
+        <v>6</v>
+      </c>
+      <c r="AV36">
+        <v>4</v>
+      </c>
+      <c r="AW36">
+        <v>4</v>
+      </c>
+      <c r="AX36">
+        <v>6</v>
+      </c>
+      <c r="AY36">
+        <v>10</v>
+      </c>
+      <c r="AZ36">
+        <v>10</v>
+      </c>
+      <c r="BA36">
+        <v>4</v>
+      </c>
+      <c r="BB36">
+        <v>8</v>
+      </c>
+      <c r="BC36">
+        <v>12</v>
+      </c>
+      <c r="BD36">
+        <v>1.76</v>
+      </c>
+      <c r="BE36">
+        <v>7.3</v>
+      </c>
+      <c r="BF36">
+        <v>2.5</v>
+      </c>
+      <c r="BG36">
+        <v>1.17</v>
+      </c>
+      <c r="BH36">
+        <v>4.5</v>
+      </c>
+      <c r="BI36">
+        <v>1.3</v>
+      </c>
+      <c r="BJ36">
+        <v>3.2</v>
+      </c>
+      <c r="BK36">
+        <v>1.46</v>
+      </c>
+      <c r="BL36">
+        <v>2.52</v>
+      </c>
+      <c r="BM36">
+        <v>1.88</v>
+      </c>
+      <c r="BN36">
+        <v>1.92</v>
+      </c>
+      <c r="BO36">
+        <v>2.3</v>
+      </c>
+      <c r="BP36">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:68">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>7502638</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45536.58333333334</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37" t="s">
+        <v>85</v>
+      </c>
+      <c r="H37" t="s">
+        <v>71</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>3</v>
+      </c>
+      <c r="N37">
+        <v>3</v>
+      </c>
+      <c r="O37" t="s">
+        <v>89</v>
+      </c>
+      <c r="P37" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q37">
+        <v>2.5</v>
+      </c>
+      <c r="R37">
+        <v>2.2</v>
+      </c>
+      <c r="S37">
+        <v>4.33</v>
+      </c>
+      <c r="T37">
+        <v>1.4</v>
+      </c>
+      <c r="U37">
+        <v>2.75</v>
+      </c>
+      <c r="V37">
+        <v>2.75</v>
+      </c>
+      <c r="W37">
+        <v>1.4</v>
+      </c>
+      <c r="X37">
+        <v>8</v>
+      </c>
+      <c r="Y37">
+        <v>1.08</v>
+      </c>
+      <c r="Z37">
+        <v>1.91</v>
+      </c>
+      <c r="AA37">
+        <v>3.04</v>
+      </c>
+      <c r="AB37">
+        <v>3.27</v>
+      </c>
+      <c r="AC37">
+        <v>1.02</v>
+      </c>
+      <c r="AD37">
+        <v>10</v>
+      </c>
+      <c r="AE37">
+        <v>1.25</v>
+      </c>
+      <c r="AF37">
+        <v>3.6</v>
+      </c>
+      <c r="AG37">
+        <v>1.84</v>
+      </c>
+      <c r="AH37">
+        <v>2</v>
+      </c>
+      <c r="AI37">
+        <v>1.8</v>
+      </c>
+      <c r="AJ37">
+        <v>1.91</v>
+      </c>
+      <c r="AK37">
+        <v>1.2</v>
+      </c>
+      <c r="AL37">
+        <v>1.29</v>
+      </c>
+      <c r="AM37">
+        <v>2.05</v>
+      </c>
+      <c r="AN37">
+        <v>1</v>
+      </c>
+      <c r="AO37">
+        <v>1</v>
+      </c>
+      <c r="AP37">
+        <v>0.5</v>
+      </c>
+      <c r="AQ37">
+        <v>2</v>
+      </c>
+      <c r="AR37">
+        <v>0.91</v>
+      </c>
+      <c r="AS37">
+        <v>1.6</v>
+      </c>
+      <c r="AT37">
+        <v>2.51</v>
+      </c>
+      <c r="AU37">
+        <v>5</v>
+      </c>
+      <c r="AV37">
+        <v>5</v>
+      </c>
+      <c r="AW37">
+        <v>11</v>
+      </c>
+      <c r="AX37">
+        <v>3</v>
+      </c>
+      <c r="AY37">
+        <v>16</v>
+      </c>
+      <c r="AZ37">
+        <v>8</v>
+      </c>
+      <c r="BA37">
+        <v>6</v>
+      </c>
+      <c r="BB37">
+        <v>3</v>
+      </c>
+      <c r="BC37">
+        <v>9</v>
+      </c>
+      <c r="BD37">
+        <v>1.44</v>
+      </c>
+      <c r="BE37">
+        <v>7.3</v>
+      </c>
+      <c r="BF37">
+        <v>3.65</v>
+      </c>
+      <c r="BG37">
+        <v>1.2</v>
+      </c>
+      <c r="BH37">
+        <v>4.25</v>
+      </c>
+      <c r="BI37">
+        <v>1.38</v>
+      </c>
+      <c r="BJ37">
+        <v>2.88</v>
+      </c>
+      <c r="BK37">
+        <v>1.7</v>
+      </c>
+      <c r="BL37">
+        <v>2.05</v>
+      </c>
+      <c r="BM37">
+        <v>2.12</v>
+      </c>
+      <c r="BN37">
+        <v>1.66</v>
+      </c>
+      <c r="BO37">
+        <v>2.85</v>
+      </c>
+      <c r="BP37">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -433,10 +433,10 @@
     <t>['19', '49', '71']</t>
   </si>
   <si>
+    <t>['14', '61', '74']</t>
+  </si>
+  <si>
     <t>['40']</t>
-  </si>
-  <si>
-    <t>['14', '61', '74']</t>
   </si>
 </sst>
 </file>
@@ -8019,7 +8019,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>7502634</v>
+        <v>7502638</v>
       </c>
       <c r="C36" t="s">
         <v>68</v>
@@ -8034,190 +8034,190 @@
         <v>4</v>
       </c>
       <c r="G36" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H36" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <v>1</v>
       </c>
       <c r="K36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O36" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="P36" t="s">
         <v>139</v>
       </c>
       <c r="Q36">
-        <v>2.89</v>
+        <v>2.5</v>
       </c>
       <c r="R36">
-        <v>2.17</v>
+        <v>2.2</v>
       </c>
       <c r="S36">
-        <v>3.35</v>
+        <v>4.33</v>
       </c>
       <c r="T36">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="U36">
+        <v>2.75</v>
+      </c>
+      <c r="V36">
+        <v>2.75</v>
+      </c>
+      <c r="W36">
+        <v>1.4</v>
+      </c>
+      <c r="X36">
+        <v>8</v>
+      </c>
+      <c r="Y36">
+        <v>1.08</v>
+      </c>
+      <c r="Z36">
+        <v>1.91</v>
+      </c>
+      <c r="AA36">
         <v>3.04</v>
       </c>
-      <c r="V36">
-        <v>2.63</v>
-      </c>
-      <c r="W36">
-        <v>1.45</v>
-      </c>
-      <c r="X36">
-        <v>6.45</v>
-      </c>
-      <c r="Y36">
-        <v>1.09</v>
-      </c>
-      <c r="Z36">
-        <v>2.15</v>
-      </c>
-      <c r="AA36">
-        <v>3.4</v>
-      </c>
       <c r="AB36">
-        <v>2.88</v>
+        <v>3.27</v>
       </c>
       <c r="AC36">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="AD36">
+        <v>10</v>
+      </c>
+      <c r="AE36">
+        <v>1.25</v>
+      </c>
+      <c r="AF36">
+        <v>3.6</v>
+      </c>
+      <c r="AG36">
+        <v>1.84</v>
+      </c>
+      <c r="AH36">
+        <v>2</v>
+      </c>
+      <c r="AI36">
+        <v>1.8</v>
+      </c>
+      <c r="AJ36">
+        <v>1.91</v>
+      </c>
+      <c r="AK36">
+        <v>1.2</v>
+      </c>
+      <c r="AL36">
+        <v>1.29</v>
+      </c>
+      <c r="AM36">
+        <v>2.05</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36">
+        <v>1</v>
+      </c>
+      <c r="AP36">
+        <v>0.5</v>
+      </c>
+      <c r="AQ36">
+        <v>2</v>
+      </c>
+      <c r="AR36">
+        <v>0.91</v>
+      </c>
+      <c r="AS36">
+        <v>1.6</v>
+      </c>
+      <c r="AT36">
+        <v>2.51</v>
+      </c>
+      <c r="AU36">
+        <v>5</v>
+      </c>
+      <c r="AV36">
+        <v>5</v>
+      </c>
+      <c r="AW36">
+        <v>11</v>
+      </c>
+      <c r="AX36">
+        <v>3</v>
+      </c>
+      <c r="AY36">
+        <v>16</v>
+      </c>
+      <c r="AZ36">
         <v>8</v>
       </c>
-      <c r="AE36">
-        <v>1.22</v>
-      </c>
-      <c r="AF36">
-        <v>3.7</v>
-      </c>
-      <c r="AG36">
-        <v>1.75</v>
-      </c>
-      <c r="AH36">
-        <v>1.95</v>
-      </c>
-      <c r="AI36">
-        <v>1.63</v>
-      </c>
-      <c r="AJ36">
-        <v>2.14</v>
-      </c>
-      <c r="AK36">
-        <v>1.32</v>
-      </c>
-      <c r="AL36">
-        <v>1.3</v>
-      </c>
-      <c r="AM36">
-        <v>1.57</v>
-      </c>
-      <c r="AN36">
-        <v>1</v>
-      </c>
-      <c r="AO36">
-        <v>3</v>
-      </c>
-      <c r="AP36">
-        <v>1</v>
-      </c>
-      <c r="AQ36">
-        <v>2</v>
-      </c>
-      <c r="AR36">
-        <v>0.82</v>
-      </c>
-      <c r="AS36">
-        <v>1.99</v>
-      </c>
-      <c r="AT36">
-        <v>2.81</v>
-      </c>
-      <c r="AU36">
+      <c r="BA36">
         <v>6</v>
       </c>
-      <c r="AV36">
-        <v>4</v>
-      </c>
-      <c r="AW36">
-        <v>4</v>
-      </c>
-      <c r="AX36">
-        <v>6</v>
-      </c>
-      <c r="AY36">
-        <v>10</v>
-      </c>
-      <c r="AZ36">
-        <v>10</v>
-      </c>
-      <c r="BA36">
-        <v>4</v>
-      </c>
       <c r="BB36">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BC36">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD36">
-        <v>1.76</v>
+        <v>1.44</v>
       </c>
       <c r="BE36">
         <v>7.3</v>
       </c>
       <c r="BF36">
-        <v>2.5</v>
+        <v>3.65</v>
       </c>
       <c r="BG36">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="BH36">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="BI36">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="BJ36">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="BK36">
-        <v>1.46</v>
+        <v>1.7</v>
       </c>
       <c r="BL36">
-        <v>2.52</v>
+        <v>2.05</v>
       </c>
       <c r="BM36">
-        <v>1.88</v>
+        <v>2.12</v>
       </c>
       <c r="BN36">
-        <v>1.92</v>
+        <v>1.66</v>
       </c>
       <c r="BO36">
-        <v>2.3</v>
+        <v>2.85</v>
       </c>
       <c r="BP36">
-        <v>1.55</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="37" spans="1:68">
@@ -8225,7 +8225,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>7502638</v>
+        <v>7502634</v>
       </c>
       <c r="C37" t="s">
         <v>68</v>
@@ -8240,190 +8240,190 @@
         <v>4</v>
       </c>
       <c r="G37" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H37" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37">
         <v>1</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O37" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="P37" t="s">
         <v>140</v>
       </c>
       <c r="Q37">
-        <v>2.5</v>
+        <v>2.89</v>
       </c>
       <c r="R37">
-        <v>2.2</v>
+        <v>2.17</v>
       </c>
       <c r="S37">
-        <v>4.33</v>
+        <v>3.35</v>
       </c>
       <c r="T37">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="U37">
-        <v>2.75</v>
+        <v>3.04</v>
       </c>
       <c r="V37">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W37">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="X37">
+        <v>6.45</v>
+      </c>
+      <c r="Y37">
+        <v>1.09</v>
+      </c>
+      <c r="Z37">
+        <v>2.15</v>
+      </c>
+      <c r="AA37">
+        <v>3.4</v>
+      </c>
+      <c r="AB37">
+        <v>2.88</v>
+      </c>
+      <c r="AC37">
+        <v>1.05</v>
+      </c>
+      <c r="AD37">
         <v>8</v>
       </c>
-      <c r="Y37">
-        <v>1.08</v>
-      </c>
-      <c r="Z37">
-        <v>1.91</v>
-      </c>
-      <c r="AA37">
-        <v>3.04</v>
-      </c>
-      <c r="AB37">
-        <v>3.27</v>
-      </c>
-      <c r="AC37">
-        <v>1.02</v>
-      </c>
-      <c r="AD37">
+      <c r="AE37">
+        <v>1.22</v>
+      </c>
+      <c r="AF37">
+        <v>3.7</v>
+      </c>
+      <c r="AG37">
+        <v>1.75</v>
+      </c>
+      <c r="AH37">
+        <v>1.95</v>
+      </c>
+      <c r="AI37">
+        <v>1.63</v>
+      </c>
+      <c r="AJ37">
+        <v>2.14</v>
+      </c>
+      <c r="AK37">
+        <v>1.32</v>
+      </c>
+      <c r="AL37">
+        <v>1.3</v>
+      </c>
+      <c r="AM37">
+        <v>1.57</v>
+      </c>
+      <c r="AN37">
+        <v>1</v>
+      </c>
+      <c r="AO37">
+        <v>3</v>
+      </c>
+      <c r="AP37">
+        <v>1</v>
+      </c>
+      <c r="AQ37">
+        <v>2</v>
+      </c>
+      <c r="AR37">
+        <v>0.82</v>
+      </c>
+      <c r="AS37">
+        <v>1.99</v>
+      </c>
+      <c r="AT37">
+        <v>2.81</v>
+      </c>
+      <c r="AU37">
+        <v>6</v>
+      </c>
+      <c r="AV37">
+        <v>4</v>
+      </c>
+      <c r="AW37">
+        <v>4</v>
+      </c>
+      <c r="AX37">
+        <v>6</v>
+      </c>
+      <c r="AY37">
         <v>10</v>
       </c>
-      <c r="AE37">
-        <v>1.25</v>
-      </c>
-      <c r="AF37">
-        <v>3.6</v>
-      </c>
-      <c r="AG37">
-        <v>1.84</v>
-      </c>
-      <c r="AH37">
-        <v>2</v>
-      </c>
-      <c r="AI37">
-        <v>1.8</v>
-      </c>
-      <c r="AJ37">
-        <v>1.91</v>
-      </c>
-      <c r="AK37">
-        <v>1.2</v>
-      </c>
-      <c r="AL37">
-        <v>1.29</v>
-      </c>
-      <c r="AM37">
-        <v>2.05</v>
-      </c>
-      <c r="AN37">
-        <v>1</v>
-      </c>
-      <c r="AO37">
-        <v>1</v>
-      </c>
-      <c r="AP37">
-        <v>0.5</v>
-      </c>
-      <c r="AQ37">
-        <v>2</v>
-      </c>
-      <c r="AR37">
-        <v>0.91</v>
-      </c>
-      <c r="AS37">
-        <v>1.6</v>
-      </c>
-      <c r="AT37">
-        <v>2.51</v>
-      </c>
-      <c r="AU37">
-        <v>5</v>
-      </c>
-      <c r="AV37">
-        <v>5</v>
-      </c>
-      <c r="AW37">
-        <v>11</v>
-      </c>
-      <c r="AX37">
-        <v>3</v>
-      </c>
-      <c r="AY37">
-        <v>16</v>
-      </c>
       <c r="AZ37">
+        <v>10</v>
+      </c>
+      <c r="BA37">
+        <v>4</v>
+      </c>
+      <c r="BB37">
         <v>8</v>
       </c>
-      <c r="BA37">
-        <v>6</v>
-      </c>
-      <c r="BB37">
-        <v>3</v>
-      </c>
       <c r="BC37">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD37">
-        <v>1.44</v>
+        <v>1.76</v>
       </c>
       <c r="BE37">
         <v>7.3</v>
       </c>
       <c r="BF37">
-        <v>3.65</v>
+        <v>2.5</v>
       </c>
       <c r="BG37">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="BH37">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="BI37">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="BJ37">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="BK37">
-        <v>1.7</v>
+        <v>1.46</v>
       </c>
       <c r="BL37">
-        <v>2.05</v>
+        <v>2.52</v>
       </c>
       <c r="BM37">
-        <v>2.12</v>
+        <v>1.88</v>
       </c>
       <c r="BN37">
-        <v>1.66</v>
+        <v>1.92</v>
       </c>
       <c r="BO37">
-        <v>2.85</v>
+        <v>2.3</v>
       </c>
       <c r="BP37">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -433,10 +433,10 @@
     <t>['19', '49', '71']</t>
   </si>
   <si>
+    <t>['40']</t>
+  </si>
+  <si>
     <t>['14', '61', '74']</t>
-  </si>
-  <si>
-    <t>['40']</t>
   </si>
 </sst>
 </file>
@@ -8019,7 +8019,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>7502638</v>
+        <v>7502634</v>
       </c>
       <c r="C36" t="s">
         <v>68</v>
@@ -8034,190 +8034,190 @@
         <v>4</v>
       </c>
       <c r="G36" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H36" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36">
         <v>1</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O36" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="P36" t="s">
         <v>139</v>
       </c>
       <c r="Q36">
-        <v>2.5</v>
+        <v>2.89</v>
       </c>
       <c r="R36">
-        <v>2.2</v>
+        <v>2.17</v>
       </c>
       <c r="S36">
-        <v>4.33</v>
+        <v>3.35</v>
       </c>
       <c r="T36">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="U36">
-        <v>2.75</v>
+        <v>3.04</v>
       </c>
       <c r="V36">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W36">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="X36">
+        <v>6.45</v>
+      </c>
+      <c r="Y36">
+        <v>1.09</v>
+      </c>
+      <c r="Z36">
+        <v>2.15</v>
+      </c>
+      <c r="AA36">
+        <v>3.4</v>
+      </c>
+      <c r="AB36">
+        <v>2.88</v>
+      </c>
+      <c r="AC36">
+        <v>1.05</v>
+      </c>
+      <c r="AD36">
         <v>8</v>
       </c>
-      <c r="Y36">
-        <v>1.08</v>
-      </c>
-      <c r="Z36">
-        <v>1.91</v>
-      </c>
-      <c r="AA36">
-        <v>3.04</v>
-      </c>
-      <c r="AB36">
-        <v>3.27</v>
-      </c>
-      <c r="AC36">
-        <v>1.02</v>
-      </c>
-      <c r="AD36">
+      <c r="AE36">
+        <v>1.22</v>
+      </c>
+      <c r="AF36">
+        <v>3.7</v>
+      </c>
+      <c r="AG36">
+        <v>1.75</v>
+      </c>
+      <c r="AH36">
+        <v>1.95</v>
+      </c>
+      <c r="AI36">
+        <v>1.63</v>
+      </c>
+      <c r="AJ36">
+        <v>2.14</v>
+      </c>
+      <c r="AK36">
+        <v>1.32</v>
+      </c>
+      <c r="AL36">
+        <v>1.3</v>
+      </c>
+      <c r="AM36">
+        <v>1.57</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36">
+        <v>3</v>
+      </c>
+      <c r="AP36">
+        <v>1</v>
+      </c>
+      <c r="AQ36">
+        <v>2</v>
+      </c>
+      <c r="AR36">
+        <v>0.82</v>
+      </c>
+      <c r="AS36">
+        <v>1.99</v>
+      </c>
+      <c r="AT36">
+        <v>2.81</v>
+      </c>
+      <c r="AU36">
+        <v>6</v>
+      </c>
+      <c r="AV36">
+        <v>4</v>
+      </c>
+      <c r="AW36">
+        <v>4</v>
+      </c>
+      <c r="AX36">
+        <v>6</v>
+      </c>
+      <c r="AY36">
         <v>10</v>
       </c>
-      <c r="AE36">
-        <v>1.25</v>
-      </c>
-      <c r="AF36">
-        <v>3.6</v>
-      </c>
-      <c r="AG36">
-        <v>1.84</v>
-      </c>
-      <c r="AH36">
-        <v>2</v>
-      </c>
-      <c r="AI36">
-        <v>1.8</v>
-      </c>
-      <c r="AJ36">
-        <v>1.91</v>
-      </c>
-      <c r="AK36">
-        <v>1.2</v>
-      </c>
-      <c r="AL36">
-        <v>1.29</v>
-      </c>
-      <c r="AM36">
-        <v>2.05</v>
-      </c>
-      <c r="AN36">
-        <v>1</v>
-      </c>
-      <c r="AO36">
-        <v>1</v>
-      </c>
-      <c r="AP36">
-        <v>0.5</v>
-      </c>
-      <c r="AQ36">
-        <v>2</v>
-      </c>
-      <c r="AR36">
-        <v>0.91</v>
-      </c>
-      <c r="AS36">
-        <v>1.6</v>
-      </c>
-      <c r="AT36">
-        <v>2.51</v>
-      </c>
-      <c r="AU36">
-        <v>5</v>
-      </c>
-      <c r="AV36">
-        <v>5</v>
-      </c>
-      <c r="AW36">
-        <v>11</v>
-      </c>
-      <c r="AX36">
-        <v>3</v>
-      </c>
-      <c r="AY36">
-        <v>16</v>
-      </c>
       <c r="AZ36">
+        <v>10</v>
+      </c>
+      <c r="BA36">
+        <v>4</v>
+      </c>
+      <c r="BB36">
         <v>8</v>
       </c>
-      <c r="BA36">
-        <v>6</v>
-      </c>
-      <c r="BB36">
-        <v>3</v>
-      </c>
       <c r="BC36">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD36">
-        <v>1.44</v>
+        <v>1.76</v>
       </c>
       <c r="BE36">
         <v>7.3</v>
       </c>
       <c r="BF36">
-        <v>3.65</v>
+        <v>2.5</v>
       </c>
       <c r="BG36">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="BH36">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="BI36">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="BJ36">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="BK36">
-        <v>1.7</v>
+        <v>1.46</v>
       </c>
       <c r="BL36">
-        <v>2.05</v>
+        <v>2.52</v>
       </c>
       <c r="BM36">
-        <v>2.12</v>
+        <v>1.88</v>
       </c>
       <c r="BN36">
-        <v>1.66</v>
+        <v>1.92</v>
       </c>
       <c r="BO36">
-        <v>2.85</v>
+        <v>2.3</v>
       </c>
       <c r="BP36">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="37" spans="1:68">
@@ -8225,7 +8225,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>7502634</v>
+        <v>7502638</v>
       </c>
       <c r="C37" t="s">
         <v>68</v>
@@ -8240,190 +8240,190 @@
         <v>4</v>
       </c>
       <c r="G37" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H37" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>1</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O37" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="P37" t="s">
         <v>140</v>
       </c>
       <c r="Q37">
-        <v>2.89</v>
+        <v>2.5</v>
       </c>
       <c r="R37">
-        <v>2.17</v>
+        <v>2.2</v>
       </c>
       <c r="S37">
-        <v>3.35</v>
+        <v>4.33</v>
       </c>
       <c r="T37">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="U37">
+        <v>2.75</v>
+      </c>
+      <c r="V37">
+        <v>2.75</v>
+      </c>
+      <c r="W37">
+        <v>1.4</v>
+      </c>
+      <c r="X37">
+        <v>8</v>
+      </c>
+      <c r="Y37">
+        <v>1.08</v>
+      </c>
+      <c r="Z37">
+        <v>1.91</v>
+      </c>
+      <c r="AA37">
         <v>3.04</v>
       </c>
-      <c r="V37">
-        <v>2.63</v>
-      </c>
-      <c r="W37">
-        <v>1.45</v>
-      </c>
-      <c r="X37">
-        <v>6.45</v>
-      </c>
-      <c r="Y37">
-        <v>1.09</v>
-      </c>
-      <c r="Z37">
-        <v>2.15</v>
-      </c>
-      <c r="AA37">
-        <v>3.4</v>
-      </c>
       <c r="AB37">
-        <v>2.88</v>
+        <v>3.27</v>
       </c>
       <c r="AC37">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="AD37">
+        <v>10</v>
+      </c>
+      <c r="AE37">
+        <v>1.25</v>
+      </c>
+      <c r="AF37">
+        <v>3.6</v>
+      </c>
+      <c r="AG37">
+        <v>1.84</v>
+      </c>
+      <c r="AH37">
+        <v>2</v>
+      </c>
+      <c r="AI37">
+        <v>1.8</v>
+      </c>
+      <c r="AJ37">
+        <v>1.91</v>
+      </c>
+      <c r="AK37">
+        <v>1.2</v>
+      </c>
+      <c r="AL37">
+        <v>1.29</v>
+      </c>
+      <c r="AM37">
+        <v>2.05</v>
+      </c>
+      <c r="AN37">
+        <v>1</v>
+      </c>
+      <c r="AO37">
+        <v>1</v>
+      </c>
+      <c r="AP37">
+        <v>0.5</v>
+      </c>
+      <c r="AQ37">
+        <v>2</v>
+      </c>
+      <c r="AR37">
+        <v>0.91</v>
+      </c>
+      <c r="AS37">
+        <v>1.6</v>
+      </c>
+      <c r="AT37">
+        <v>2.51</v>
+      </c>
+      <c r="AU37">
+        <v>5</v>
+      </c>
+      <c r="AV37">
+        <v>5</v>
+      </c>
+      <c r="AW37">
+        <v>11</v>
+      </c>
+      <c r="AX37">
+        <v>3</v>
+      </c>
+      <c r="AY37">
+        <v>16</v>
+      </c>
+      <c r="AZ37">
         <v>8</v>
       </c>
-      <c r="AE37">
-        <v>1.22</v>
-      </c>
-      <c r="AF37">
-        <v>3.7</v>
-      </c>
-      <c r="AG37">
-        <v>1.75</v>
-      </c>
-      <c r="AH37">
-        <v>1.95</v>
-      </c>
-      <c r="AI37">
-        <v>1.63</v>
-      </c>
-      <c r="AJ37">
-        <v>2.14</v>
-      </c>
-      <c r="AK37">
-        <v>1.32</v>
-      </c>
-      <c r="AL37">
-        <v>1.3</v>
-      </c>
-      <c r="AM37">
-        <v>1.57</v>
-      </c>
-      <c r="AN37">
-        <v>1</v>
-      </c>
-      <c r="AO37">
-        <v>3</v>
-      </c>
-      <c r="AP37">
-        <v>1</v>
-      </c>
-      <c r="AQ37">
-        <v>2</v>
-      </c>
-      <c r="AR37">
-        <v>0.82</v>
-      </c>
-      <c r="AS37">
-        <v>1.99</v>
-      </c>
-      <c r="AT37">
-        <v>2.81</v>
-      </c>
-      <c r="AU37">
+      <c r="BA37">
         <v>6</v>
       </c>
-      <c r="AV37">
-        <v>4</v>
-      </c>
-      <c r="AW37">
-        <v>4</v>
-      </c>
-      <c r="AX37">
-        <v>6</v>
-      </c>
-      <c r="AY37">
-        <v>10</v>
-      </c>
-      <c r="AZ37">
-        <v>10</v>
-      </c>
-      <c r="BA37">
-        <v>4</v>
-      </c>
       <c r="BB37">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BC37">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD37">
-        <v>1.76</v>
+        <v>1.44</v>
       </c>
       <c r="BE37">
         <v>7.3</v>
       </c>
       <c r="BF37">
-        <v>2.5</v>
+        <v>3.65</v>
       </c>
       <c r="BG37">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="BH37">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="BI37">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="BJ37">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="BK37">
-        <v>1.46</v>
+        <v>1.7</v>
       </c>
       <c r="BL37">
-        <v>2.52</v>
+        <v>2.05</v>
       </c>
       <c r="BM37">
-        <v>1.88</v>
+        <v>2.12</v>
       </c>
       <c r="BN37">
-        <v>1.92</v>
+        <v>1.66</v>
       </c>
       <c r="BO37">
-        <v>2.3</v>
+        <v>2.85</v>
       </c>
       <c r="BP37">
-        <v>1.55</v>
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="143">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -358,6 +358,9 @@
     <t>['16']</t>
   </si>
   <si>
+    <t>['22', '82', '90+14']</t>
+  </si>
+  <si>
     <t>['24', '27']</t>
   </si>
   <si>
@@ -437,6 +440,9 @@
   </si>
   <si>
     <t>['14', '61', '74']</t>
+  </si>
+  <si>
+    <t>['51', '68']</t>
   </si>
 </sst>
 </file>
@@ -798,7 +804,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP37"/>
+  <dimension ref="A1:BP38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1057,7 +1063,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -1263,7 +1269,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -1469,7 +1475,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -1675,7 +1681,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1881,7 +1887,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2087,7 +2093,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2165,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ7">
         <v>2</v>
@@ -2293,7 +2299,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q8">
         <v>2.5</v>
@@ -2499,7 +2505,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -2786,7 +2792,7 @@
         <v>1</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2911,7 +2917,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3323,7 +3329,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -3529,7 +3535,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -3735,7 +3741,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -3941,7 +3947,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -4559,7 +4565,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q19">
         <v>2.79</v>
@@ -4765,7 +4771,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5255,7 +5261,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ22">
         <v>0</v>
@@ -5383,7 +5389,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5795,7 +5801,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q25">
         <v>2.91</v>
@@ -6001,7 +6007,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6207,7 +6213,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q27">
         <v>3.25</v>
@@ -6288,7 +6294,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR27">
         <v>1.33</v>
@@ -6619,7 +6625,7 @@
         <v>89</v>
       </c>
       <c r="P29" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -6825,7 +6831,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7237,7 +7243,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7443,7 +7449,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7649,7 +7655,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -7855,7 +7861,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q35">
         <v>2.57</v>
@@ -8061,7 +8067,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q36">
         <v>2.89</v>
@@ -8267,7 +8273,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q37">
         <v>2.5</v>
@@ -8424,6 +8430,212 @@
       </c>
       <c r="BP37">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:68">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>7502642</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45548.58333333334</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38" t="s">
+        <v>75</v>
+      </c>
+      <c r="H38" t="s">
+        <v>81</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>3</v>
+      </c>
+      <c r="M38">
+        <v>2</v>
+      </c>
+      <c r="N38">
+        <v>5</v>
+      </c>
+      <c r="O38" t="s">
+        <v>114</v>
+      </c>
+      <c r="P38" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q38">
+        <v>3</v>
+      </c>
+      <c r="R38">
+        <v>2.1</v>
+      </c>
+      <c r="S38">
+        <v>3.5</v>
+      </c>
+      <c r="T38">
+        <v>1.4</v>
+      </c>
+      <c r="U38">
+        <v>2.75</v>
+      </c>
+      <c r="V38">
+        <v>3</v>
+      </c>
+      <c r="W38">
+        <v>1.36</v>
+      </c>
+      <c r="X38">
+        <v>8</v>
+      </c>
+      <c r="Y38">
+        <v>1.08</v>
+      </c>
+      <c r="Z38">
+        <v>2.4</v>
+      </c>
+      <c r="AA38">
+        <v>3.1</v>
+      </c>
+      <c r="AB38">
+        <v>2.85</v>
+      </c>
+      <c r="AC38">
+        <v>1.05</v>
+      </c>
+      <c r="AD38">
+        <v>8.5</v>
+      </c>
+      <c r="AE38">
+        <v>1.3</v>
+      </c>
+      <c r="AF38">
+        <v>3.3</v>
+      </c>
+      <c r="AG38">
+        <v>1.9</v>
+      </c>
+      <c r="AH38">
+        <v>1.8</v>
+      </c>
+      <c r="AI38">
+        <v>1.73</v>
+      </c>
+      <c r="AJ38">
+        <v>2</v>
+      </c>
+      <c r="AK38">
+        <v>1.38</v>
+      </c>
+      <c r="AL38">
+        <v>1.25</v>
+      </c>
+      <c r="AM38">
+        <v>1.57</v>
+      </c>
+      <c r="AN38">
+        <v>1.5</v>
+      </c>
+      <c r="AO38">
+        <v>1</v>
+      </c>
+      <c r="AP38">
+        <v>2</v>
+      </c>
+      <c r="AQ38">
+        <v>0.67</v>
+      </c>
+      <c r="AR38">
+        <v>1.5</v>
+      </c>
+      <c r="AS38">
+        <v>0.9</v>
+      </c>
+      <c r="AT38">
+        <v>2.4</v>
+      </c>
+      <c r="AU38">
+        <v>7</v>
+      </c>
+      <c r="AV38">
+        <v>7</v>
+      </c>
+      <c r="AW38">
+        <v>10</v>
+      </c>
+      <c r="AX38">
+        <v>3</v>
+      </c>
+      <c r="AY38">
+        <v>17</v>
+      </c>
+      <c r="AZ38">
+        <v>10</v>
+      </c>
+      <c r="BA38">
+        <v>9</v>
+      </c>
+      <c r="BB38">
+        <v>3</v>
+      </c>
+      <c r="BC38">
+        <v>12</v>
+      </c>
+      <c r="BD38">
+        <v>1.71</v>
+      </c>
+      <c r="BE38">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF38">
+        <v>2.46</v>
+      </c>
+      <c r="BG38">
+        <v>1.2</v>
+      </c>
+      <c r="BH38">
+        <v>4</v>
+      </c>
+      <c r="BI38">
+        <v>1.36</v>
+      </c>
+      <c r="BJ38">
+        <v>2.9</v>
+      </c>
+      <c r="BK38">
+        <v>1.59</v>
+      </c>
+      <c r="BL38">
+        <v>2.28</v>
+      </c>
+      <c r="BM38">
+        <v>1.88</v>
+      </c>
+      <c r="BN38">
+        <v>1.92</v>
+      </c>
+      <c r="BO38">
+        <v>2.49</v>
+      </c>
+      <c r="BP38">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="148">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -361,6 +361,12 @@
     <t>['22', '82', '90+14']</t>
   </si>
   <si>
+    <t>['6']</t>
+  </si>
+  <si>
+    <t>['90+7']</t>
+  </si>
+  <si>
     <t>['24', '27']</t>
   </si>
   <si>
@@ -443,6 +449,15 @@
   </si>
   <si>
     <t>['51', '68']</t>
+  </si>
+  <si>
+    <t>['11', '66']</t>
+  </si>
+  <si>
+    <t>['30', '66', '82', '90+4']</t>
+  </si>
+  <si>
+    <t>['2', '18']</t>
   </si>
 </sst>
 </file>
@@ -804,7 +819,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP38"/>
+  <dimension ref="A1:BP42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1063,7 +1078,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -1141,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1269,7 +1284,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -1347,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ3">
         <v>2</v>
@@ -1475,7 +1490,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -1681,7 +1696,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1759,10 +1774,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ5">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1887,7 +1902,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2093,7 +2108,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2299,7 +2314,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q8">
         <v>2.5</v>
@@ -2380,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2505,7 +2520,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -2789,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AQ10">
         <v>0.67</v>
@@ -2917,7 +2932,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3329,7 +3344,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -3410,7 +3425,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ13">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3535,7 +3550,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -3741,7 +3756,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -3947,7 +3962,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -4565,7 +4580,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q19">
         <v>2.79</v>
@@ -4771,7 +4786,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -4852,7 +4867,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR20">
         <v>1.01</v>
@@ -5055,7 +5070,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AQ21">
         <v>2</v>
@@ -5389,7 +5404,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5673,7 +5688,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ24">
         <v>0.5</v>
@@ -5801,7 +5816,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q25">
         <v>2.91</v>
@@ -5882,7 +5897,7 @@
         <v>2</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR25">
         <v>1.23</v>
@@ -6007,7 +6022,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6085,10 +6100,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AQ26">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR26">
         <v>1.66</v>
@@ -6213,7 +6228,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q27">
         <v>3.25</v>
@@ -6291,7 +6306,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ27">
         <v>0.67</v>
@@ -6625,7 +6640,7 @@
         <v>89</v>
       </c>
       <c r="P29" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -6831,7 +6846,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7243,7 +7258,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7449,7 +7464,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7655,7 +7670,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -7861,7 +7876,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q35">
         <v>2.57</v>
@@ -8067,7 +8082,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q36">
         <v>2.89</v>
@@ -8148,7 +8163,7 @@
         <v>1</v>
       </c>
       <c r="AQ36">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR36">
         <v>0.82</v>
@@ -8273,7 +8288,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q37">
         <v>2.5</v>
@@ -8479,7 +8494,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8636,6 +8651,830 @@
       </c>
       <c r="BP38">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:68">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>7502641</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45549.29166666666</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39" t="s">
+        <v>78</v>
+      </c>
+      <c r="H39" t="s">
+        <v>85</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>2</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>2</v>
+      </c>
+      <c r="N39">
+        <v>3</v>
+      </c>
+      <c r="O39" t="s">
+        <v>115</v>
+      </c>
+      <c r="P39" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q39">
+        <v>3.1</v>
+      </c>
+      <c r="R39">
+        <v>2.1</v>
+      </c>
+      <c r="S39">
+        <v>3.6</v>
+      </c>
+      <c r="T39">
+        <v>1.44</v>
+      </c>
+      <c r="U39">
+        <v>2.63</v>
+      </c>
+      <c r="V39">
+        <v>3.25</v>
+      </c>
+      <c r="W39">
+        <v>1.33</v>
+      </c>
+      <c r="X39">
+        <v>9</v>
+      </c>
+      <c r="Y39">
+        <v>1.07</v>
+      </c>
+      <c r="Z39">
+        <v>2.05</v>
+      </c>
+      <c r="AA39">
+        <v>3.25</v>
+      </c>
+      <c r="AB39">
+        <v>3.45</v>
+      </c>
+      <c r="AC39">
+        <v>1.05</v>
+      </c>
+      <c r="AD39">
+        <v>8</v>
+      </c>
+      <c r="AE39">
+        <v>1.29</v>
+      </c>
+      <c r="AF39">
+        <v>3.3</v>
+      </c>
+      <c r="AG39">
+        <v>1.9</v>
+      </c>
+      <c r="AH39">
+        <v>1.8</v>
+      </c>
+      <c r="AI39">
+        <v>1.83</v>
+      </c>
+      <c r="AJ39">
+        <v>1.83</v>
+      </c>
+      <c r="AK39">
+        <v>1.33</v>
+      </c>
+      <c r="AL39">
+        <v>1.27</v>
+      </c>
+      <c r="AM39">
+        <v>1.47</v>
+      </c>
+      <c r="AN39">
+        <v>1</v>
+      </c>
+      <c r="AO39">
+        <v>0.5</v>
+      </c>
+      <c r="AP39">
+        <v>0.67</v>
+      </c>
+      <c r="AQ39">
+        <v>1.33</v>
+      </c>
+      <c r="AR39">
+        <v>1.92</v>
+      </c>
+      <c r="AS39">
+        <v>1.34</v>
+      </c>
+      <c r="AT39">
+        <v>3.26</v>
+      </c>
+      <c r="AU39">
+        <v>4</v>
+      </c>
+      <c r="AV39">
+        <v>5</v>
+      </c>
+      <c r="AW39">
+        <v>5</v>
+      </c>
+      <c r="AX39">
+        <v>3</v>
+      </c>
+      <c r="AY39">
+        <v>9</v>
+      </c>
+      <c r="AZ39">
+        <v>8</v>
+      </c>
+      <c r="BA39">
+        <v>2</v>
+      </c>
+      <c r="BB39">
+        <v>6</v>
+      </c>
+      <c r="BC39">
+        <v>8</v>
+      </c>
+      <c r="BD39">
+        <v>1.6</v>
+      </c>
+      <c r="BE39">
+        <v>7</v>
+      </c>
+      <c r="BF39">
+        <v>2.96</v>
+      </c>
+      <c r="BG39">
+        <v>1.17</v>
+      </c>
+      <c r="BH39">
+        <v>4.5</v>
+      </c>
+      <c r="BI39">
+        <v>1.3</v>
+      </c>
+      <c r="BJ39">
+        <v>3.2</v>
+      </c>
+      <c r="BK39">
+        <v>1.52</v>
+      </c>
+      <c r="BL39">
+        <v>2.48</v>
+      </c>
+      <c r="BM39">
+        <v>1.85</v>
+      </c>
+      <c r="BN39">
+        <v>1.95</v>
+      </c>
+      <c r="BO39">
+        <v>2.31</v>
+      </c>
+      <c r="BP39">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:68">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>7502647</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45549.41666666666</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>73</v>
+      </c>
+      <c r="H40" t="s">
+        <v>77</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40" t="s">
+        <v>89</v>
+      </c>
+      <c r="P40" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q40">
+        <v>2.63</v>
+      </c>
+      <c r="R40">
+        <v>2</v>
+      </c>
+      <c r="S40">
+        <v>4.2</v>
+      </c>
+      <c r="T40">
+        <v>1.43</v>
+      </c>
+      <c r="U40">
+        <v>2.78</v>
+      </c>
+      <c r="V40">
+        <v>3.19</v>
+      </c>
+      <c r="W40">
+        <v>1.35</v>
+      </c>
+      <c r="X40">
+        <v>8.1</v>
+      </c>
+      <c r="Y40">
+        <v>1.06</v>
+      </c>
+      <c r="Z40">
+        <v>2</v>
+      </c>
+      <c r="AA40">
+        <v>3.15</v>
+      </c>
+      <c r="AB40">
+        <v>3.75</v>
+      </c>
+      <c r="AC40">
+        <v>1.05</v>
+      </c>
+      <c r="AD40">
+        <v>8</v>
+      </c>
+      <c r="AE40">
+        <v>1.3</v>
+      </c>
+      <c r="AF40">
+        <v>3.2</v>
+      </c>
+      <c r="AG40">
+        <v>2</v>
+      </c>
+      <c r="AH40">
+        <v>1.7</v>
+      </c>
+      <c r="AI40">
+        <v>1.83</v>
+      </c>
+      <c r="AJ40">
+        <v>1.83</v>
+      </c>
+      <c r="AK40">
+        <v>1.25</v>
+      </c>
+      <c r="AL40">
+        <v>1.3</v>
+      </c>
+      <c r="AM40">
+        <v>1.8</v>
+      </c>
+      <c r="AN40">
+        <v>3</v>
+      </c>
+      <c r="AO40">
+        <v>2</v>
+      </c>
+      <c r="AP40">
+        <v>2</v>
+      </c>
+      <c r="AQ40">
+        <v>2.33</v>
+      </c>
+      <c r="AR40">
+        <v>1.4</v>
+      </c>
+      <c r="AS40">
+        <v>1.66</v>
+      </c>
+      <c r="AT40">
+        <v>3.06</v>
+      </c>
+      <c r="AU40">
+        <v>5</v>
+      </c>
+      <c r="AV40">
+        <v>5</v>
+      </c>
+      <c r="AW40">
+        <v>11</v>
+      </c>
+      <c r="AX40">
+        <v>7</v>
+      </c>
+      <c r="AY40">
+        <v>16</v>
+      </c>
+      <c r="AZ40">
+        <v>12</v>
+      </c>
+      <c r="BA40">
+        <v>8</v>
+      </c>
+      <c r="BB40">
+        <v>3</v>
+      </c>
+      <c r="BC40">
+        <v>11</v>
+      </c>
+      <c r="BD40">
+        <v>1.66</v>
+      </c>
+      <c r="BE40">
+        <v>8</v>
+      </c>
+      <c r="BF40">
+        <v>2.65</v>
+      </c>
+      <c r="BG40">
+        <v>1.18</v>
+      </c>
+      <c r="BH40">
+        <v>4.33</v>
+      </c>
+      <c r="BI40">
+        <v>1.33</v>
+      </c>
+      <c r="BJ40">
+        <v>3</v>
+      </c>
+      <c r="BK40">
+        <v>1.55</v>
+      </c>
+      <c r="BL40">
+        <v>2.3</v>
+      </c>
+      <c r="BM40">
+        <v>1.98</v>
+      </c>
+      <c r="BN40">
+        <v>1.82</v>
+      </c>
+      <c r="BO40">
+        <v>2.3</v>
+      </c>
+      <c r="BP40">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:68">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>7502646</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45550.29166666666</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="G41" t="s">
+        <v>71</v>
+      </c>
+      <c r="H41" t="s">
+        <v>87</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>4</v>
+      </c>
+      <c r="N41">
+        <v>4</v>
+      </c>
+      <c r="O41" t="s">
+        <v>89</v>
+      </c>
+      <c r="P41" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q41">
+        <v>3.1</v>
+      </c>
+      <c r="R41">
+        <v>1.95</v>
+      </c>
+      <c r="S41">
+        <v>3.6</v>
+      </c>
+      <c r="T41">
+        <v>1.5</v>
+      </c>
+      <c r="U41">
+        <v>2.45</v>
+      </c>
+      <c r="V41">
+        <v>3.25</v>
+      </c>
+      <c r="W41">
+        <v>1.3</v>
+      </c>
+      <c r="X41">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="Y41">
+        <v>1.04</v>
+      </c>
+      <c r="Z41">
+        <v>2.32</v>
+      </c>
+      <c r="AA41">
+        <v>3</v>
+      </c>
+      <c r="AB41">
+        <v>2.83</v>
+      </c>
+      <c r="AC41">
+        <v>1.05</v>
+      </c>
+      <c r="AD41">
+        <v>8</v>
+      </c>
+      <c r="AE41">
+        <v>1.4</v>
+      </c>
+      <c r="AF41">
+        <v>2.8</v>
+      </c>
+      <c r="AG41">
+        <v>2.1</v>
+      </c>
+      <c r="AH41">
+        <v>1.67</v>
+      </c>
+      <c r="AI41">
+        <v>1.9</v>
+      </c>
+      <c r="AJ41">
+        <v>1.83</v>
+      </c>
+      <c r="AK41">
+        <v>1.38</v>
+      </c>
+      <c r="AL41">
+        <v>1.3</v>
+      </c>
+      <c r="AM41">
+        <v>1.53</v>
+      </c>
+      <c r="AN41">
+        <v>0.5</v>
+      </c>
+      <c r="AO41">
+        <v>1</v>
+      </c>
+      <c r="AP41">
+        <v>0.33</v>
+      </c>
+      <c r="AQ41">
+        <v>1.67</v>
+      </c>
+      <c r="AR41">
+        <v>1.42</v>
+      </c>
+      <c r="AS41">
+        <v>1.43</v>
+      </c>
+      <c r="AT41">
+        <v>2.85</v>
+      </c>
+      <c r="AU41">
+        <v>4</v>
+      </c>
+      <c r="AV41">
+        <v>6</v>
+      </c>
+      <c r="AW41">
+        <v>1</v>
+      </c>
+      <c r="AX41">
+        <v>5</v>
+      </c>
+      <c r="AY41">
+        <v>5</v>
+      </c>
+      <c r="AZ41">
+        <v>11</v>
+      </c>
+      <c r="BA41">
+        <v>0</v>
+      </c>
+      <c r="BB41">
+        <v>2</v>
+      </c>
+      <c r="BC41">
+        <v>2</v>
+      </c>
+      <c r="BD41">
+        <v>1.73</v>
+      </c>
+      <c r="BE41">
+        <v>7.8</v>
+      </c>
+      <c r="BF41">
+        <v>2.51</v>
+      </c>
+      <c r="BG41">
+        <v>1.2</v>
+      </c>
+      <c r="BH41">
+        <v>4</v>
+      </c>
+      <c r="BI41">
+        <v>1.36</v>
+      </c>
+      <c r="BJ41">
+        <v>2.9</v>
+      </c>
+      <c r="BK41">
+        <v>1.57</v>
+      </c>
+      <c r="BL41">
+        <v>2.25</v>
+      </c>
+      <c r="BM41">
+        <v>2</v>
+      </c>
+      <c r="BN41">
+        <v>1.8</v>
+      </c>
+      <c r="BO41">
+        <v>2.4</v>
+      </c>
+      <c r="BP41">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:68">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>7502640</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45550.29166666666</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H42" t="s">
+        <v>79</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+      <c r="K42">
+        <v>2</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>2</v>
+      </c>
+      <c r="N42">
+        <v>3</v>
+      </c>
+      <c r="O42" t="s">
+        <v>116</v>
+      </c>
+      <c r="P42" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q42">
+        <v>2.1</v>
+      </c>
+      <c r="R42">
+        <v>2.3</v>
+      </c>
+      <c r="S42">
+        <v>5.5</v>
+      </c>
+      <c r="T42">
+        <v>1.36</v>
+      </c>
+      <c r="U42">
+        <v>3</v>
+      </c>
+      <c r="V42">
+        <v>2.63</v>
+      </c>
+      <c r="W42">
+        <v>1.44</v>
+      </c>
+      <c r="X42">
+        <v>7</v>
+      </c>
+      <c r="Y42">
+        <v>1.1</v>
+      </c>
+      <c r="Z42">
+        <v>1.51</v>
+      </c>
+      <c r="AA42">
+        <v>3.75</v>
+      </c>
+      <c r="AB42">
+        <v>5.2</v>
+      </c>
+      <c r="AC42">
+        <v>1.01</v>
+      </c>
+      <c r="AD42">
+        <v>11</v>
+      </c>
+      <c r="AE42">
+        <v>1.22</v>
+      </c>
+      <c r="AF42">
+        <v>3.8</v>
+      </c>
+      <c r="AG42">
+        <v>2</v>
+      </c>
+      <c r="AH42">
+        <v>1.84</v>
+      </c>
+      <c r="AI42">
+        <v>2</v>
+      </c>
+      <c r="AJ42">
+        <v>1.73</v>
+      </c>
+      <c r="AK42">
+        <v>1.13</v>
+      </c>
+      <c r="AL42">
+        <v>1.19</v>
+      </c>
+      <c r="AM42">
+        <v>2.01</v>
+      </c>
+      <c r="AN42">
+        <v>1</v>
+      </c>
+      <c r="AO42">
+        <v>1</v>
+      </c>
+      <c r="AP42">
+        <v>0.67</v>
+      </c>
+      <c r="AQ42">
+        <v>1.67</v>
+      </c>
+      <c r="AR42">
+        <v>1.49</v>
+      </c>
+      <c r="AS42">
+        <v>1.19</v>
+      </c>
+      <c r="AT42">
+        <v>2.68</v>
+      </c>
+      <c r="AU42">
+        <v>6</v>
+      </c>
+      <c r="AV42">
+        <v>6</v>
+      </c>
+      <c r="AW42">
+        <v>8</v>
+      </c>
+      <c r="AX42">
+        <v>2</v>
+      </c>
+      <c r="AY42">
+        <v>14</v>
+      </c>
+      <c r="AZ42">
+        <v>8</v>
+      </c>
+      <c r="BA42">
+        <v>7</v>
+      </c>
+      <c r="BB42">
+        <v>2</v>
+      </c>
+      <c r="BC42">
+        <v>9</v>
+      </c>
+      <c r="BD42">
+        <v>1.4</v>
+      </c>
+      <c r="BE42">
+        <v>7.7</v>
+      </c>
+      <c r="BF42">
+        <v>4.06</v>
+      </c>
+      <c r="BG42">
+        <v>1.2</v>
+      </c>
+      <c r="BH42">
+        <v>4</v>
+      </c>
+      <c r="BI42">
+        <v>1.39</v>
+      </c>
+      <c r="BJ42">
+        <v>2.75</v>
+      </c>
+      <c r="BK42">
+        <v>1.7</v>
+      </c>
+      <c r="BL42">
+        <v>2.05</v>
+      </c>
+      <c r="BM42">
+        <v>2.09</v>
+      </c>
+      <c r="BN42">
+        <v>1.73</v>
+      </c>
+      <c r="BO42">
+        <v>2.55</v>
+      </c>
+      <c r="BP42">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="153">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -367,6 +367,15 @@
     <t>['90+7']</t>
   </si>
   <si>
+    <t>['86']</t>
+  </si>
+  <si>
+    <t>['7', '9']</t>
+  </si>
+  <si>
+    <t>['17', '41']</t>
+  </si>
+  <si>
     <t>['24', '27']</t>
   </si>
   <si>
@@ -458,6 +467,12 @@
   </si>
   <si>
     <t>['2', '18']</t>
+  </si>
+  <si>
+    <t>['69']</t>
+  </si>
+  <si>
+    <t>['39', '49']</t>
   </si>
 </sst>
 </file>
@@ -819,7 +834,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP42"/>
+  <dimension ref="A1:BP46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1078,7 +1093,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -1284,7 +1299,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -1365,7 +1380,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ3">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1490,7 +1505,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -1568,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ4">
         <v>1.5</v>
@@ -1696,7 +1711,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1902,7 +1917,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -1980,10 +1995,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2108,7 +2123,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2314,7 +2329,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q8">
         <v>2.5</v>
@@ -2520,7 +2535,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -2601,7 +2616,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ9">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2932,7 +2947,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3344,7 +3359,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -3550,7 +3565,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -3756,7 +3771,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -3834,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ15">
         <v>2</v>
@@ -3962,7 +3977,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -4452,7 +4467,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ18">
         <v>1.5</v>
@@ -4580,7 +4595,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q19">
         <v>2.79</v>
@@ -4661,7 +4676,7 @@
         <v>1</v>
       </c>
       <c r="AQ19">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4786,7 +4801,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5279,7 +5294,7 @@
         <v>2</v>
       </c>
       <c r="AQ22">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR22">
         <v>1.3</v>
@@ -5404,7 +5419,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5482,10 +5497,10 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ23">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR23">
         <v>1.93</v>
@@ -5691,7 +5706,7 @@
         <v>2</v>
       </c>
       <c r="AQ24">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR24">
         <v>1.31</v>
@@ -5816,7 +5831,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q25">
         <v>2.91</v>
@@ -5894,7 +5909,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ25">
         <v>1.67</v>
@@ -6022,7 +6037,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6228,7 +6243,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q27">
         <v>3.25</v>
@@ -6512,10 +6527,10 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ28">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR28">
         <v>1.62</v>
@@ -6640,7 +6655,7 @@
         <v>89</v>
       </c>
       <c r="P29" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -6846,7 +6861,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7258,7 +7273,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7464,7 +7479,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7670,7 +7685,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -7748,7 +7763,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ34">
         <v>1.5</v>
@@ -7876,7 +7891,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q35">
         <v>2.57</v>
@@ -8082,7 +8097,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q36">
         <v>2.89</v>
@@ -8288,7 +8303,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q37">
         <v>2.5</v>
@@ -8494,7 +8509,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8700,7 +8715,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9112,7 +9127,7 @@
         <v>89</v>
       </c>
       <c r="P41" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9226,10 +9241,10 @@
         <v>0</v>
       </c>
       <c r="BB41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD41">
         <v>1.73</v>
@@ -9318,7 +9333,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -9475,6 +9490,830 @@
       </c>
       <c r="BP42">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:68">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>7502648</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45550.36458333334</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43" t="s">
+        <v>74</v>
+      </c>
+      <c r="H43" t="s">
+        <v>76</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>2</v>
+      </c>
+      <c r="O43" t="s">
+        <v>117</v>
+      </c>
+      <c r="P43" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q43">
+        <v>2.8</v>
+      </c>
+      <c r="R43">
+        <v>2.1</v>
+      </c>
+      <c r="S43">
+        <v>3.6</v>
+      </c>
+      <c r="T43">
+        <v>1.36</v>
+      </c>
+      <c r="U43">
+        <v>3.12</v>
+      </c>
+      <c r="V43">
+        <v>2.77</v>
+      </c>
+      <c r="W43">
+        <v>1.43</v>
+      </c>
+      <c r="X43">
+        <v>6.75</v>
+      </c>
+      <c r="Y43">
+        <v>1.08</v>
+      </c>
+      <c r="Z43">
+        <v>2.2</v>
+      </c>
+      <c r="AA43">
+        <v>3.25</v>
+      </c>
+      <c r="AB43">
+        <v>2.79</v>
+      </c>
+      <c r="AC43">
+        <v>1.02</v>
+      </c>
+      <c r="AD43">
+        <v>10</v>
+      </c>
+      <c r="AE43">
+        <v>1.25</v>
+      </c>
+      <c r="AF43">
+        <v>3.6</v>
+      </c>
+      <c r="AG43">
+        <v>1.9</v>
+      </c>
+      <c r="AH43">
+        <v>1.94</v>
+      </c>
+      <c r="AI43">
+        <v>1.67</v>
+      </c>
+      <c r="AJ43">
+        <v>2.1</v>
+      </c>
+      <c r="AK43">
+        <v>1.34</v>
+      </c>
+      <c r="AL43">
+        <v>1.29</v>
+      </c>
+      <c r="AM43">
+        <v>1.64</v>
+      </c>
+      <c r="AN43">
+        <v>2</v>
+      </c>
+      <c r="AO43">
+        <v>0.5</v>
+      </c>
+      <c r="AP43">
+        <v>1.67</v>
+      </c>
+      <c r="AQ43">
+        <v>0.67</v>
+      </c>
+      <c r="AR43">
+        <v>1.55</v>
+      </c>
+      <c r="AS43">
+        <v>1.52</v>
+      </c>
+      <c r="AT43">
+        <v>3.07</v>
+      </c>
+      <c r="AU43">
+        <v>2</v>
+      </c>
+      <c r="AV43">
+        <v>4</v>
+      </c>
+      <c r="AW43">
+        <v>7</v>
+      </c>
+      <c r="AX43">
+        <v>6</v>
+      </c>
+      <c r="AY43">
+        <v>9</v>
+      </c>
+      <c r="AZ43">
+        <v>10</v>
+      </c>
+      <c r="BA43">
+        <v>6</v>
+      </c>
+      <c r="BB43">
+        <v>5</v>
+      </c>
+      <c r="BC43">
+        <v>11</v>
+      </c>
+      <c r="BD43">
+        <v>1.98</v>
+      </c>
+      <c r="BE43">
+        <v>6.65</v>
+      </c>
+      <c r="BF43">
+        <v>2.22</v>
+      </c>
+      <c r="BG43">
+        <v>1.15</v>
+      </c>
+      <c r="BH43">
+        <v>4.75</v>
+      </c>
+      <c r="BI43">
+        <v>1.29</v>
+      </c>
+      <c r="BJ43">
+        <v>3.4</v>
+      </c>
+      <c r="BK43">
+        <v>1.44</v>
+      </c>
+      <c r="BL43">
+        <v>2.6</v>
+      </c>
+      <c r="BM43">
+        <v>1.9</v>
+      </c>
+      <c r="BN43">
+        <v>1.9</v>
+      </c>
+      <c r="BO43">
+        <v>2.1</v>
+      </c>
+      <c r="BP43">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:68">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>7502645</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45550.47916666666</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44" t="s">
+        <v>72</v>
+      </c>
+      <c r="H44" t="s">
+        <v>84</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44" t="s">
+        <v>89</v>
+      </c>
+      <c r="P44" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q44">
+        <v>2.85</v>
+      </c>
+      <c r="R44">
+        <v>2</v>
+      </c>
+      <c r="S44">
+        <v>3.6</v>
+      </c>
+      <c r="T44">
+        <v>1.45</v>
+      </c>
+      <c r="U44">
+        <v>2.55</v>
+      </c>
+      <c r="V44">
+        <v>2.9</v>
+      </c>
+      <c r="W44">
+        <v>1.35</v>
+      </c>
+      <c r="X44">
+        <v>6.8</v>
+      </c>
+      <c r="Y44">
+        <v>1.07</v>
+      </c>
+      <c r="Z44">
+        <v>2.08</v>
+      </c>
+      <c r="AA44">
+        <v>3.1</v>
+      </c>
+      <c r="AB44">
+        <v>3.2</v>
+      </c>
+      <c r="AC44">
+        <v>1.04</v>
+      </c>
+      <c r="AD44">
+        <v>7.8</v>
+      </c>
+      <c r="AE44">
+        <v>1.32</v>
+      </c>
+      <c r="AF44">
+        <v>3.1</v>
+      </c>
+      <c r="AG44">
+        <v>1.95</v>
+      </c>
+      <c r="AH44">
+        <v>1.7</v>
+      </c>
+      <c r="AI44">
+        <v>1.75</v>
+      </c>
+      <c r="AJ44">
+        <v>1.93</v>
+      </c>
+      <c r="AK44">
+        <v>1.3</v>
+      </c>
+      <c r="AL44">
+        <v>1.28</v>
+      </c>
+      <c r="AM44">
+        <v>1.49</v>
+      </c>
+      <c r="AN44">
+        <v>2</v>
+      </c>
+      <c r="AO44">
+        <v>1.5</v>
+      </c>
+      <c r="AP44">
+        <v>1.33</v>
+      </c>
+      <c r="AQ44">
+        <v>2</v>
+      </c>
+      <c r="AR44">
+        <v>1.58</v>
+      </c>
+      <c r="AS44">
+        <v>1.33</v>
+      </c>
+      <c r="AT44">
+        <v>2.91</v>
+      </c>
+      <c r="AU44">
+        <v>5</v>
+      </c>
+      <c r="AV44">
+        <v>4</v>
+      </c>
+      <c r="AW44">
+        <v>2</v>
+      </c>
+      <c r="AX44">
+        <v>2</v>
+      </c>
+      <c r="AY44">
+        <v>7</v>
+      </c>
+      <c r="AZ44">
+        <v>6</v>
+      </c>
+      <c r="BA44">
+        <v>10</v>
+      </c>
+      <c r="BB44">
+        <v>2</v>
+      </c>
+      <c r="BC44">
+        <v>12</v>
+      </c>
+      <c r="BD44">
+        <v>1.6</v>
+      </c>
+      <c r="BE44">
+        <v>6.85</v>
+      </c>
+      <c r="BF44">
+        <v>2.99</v>
+      </c>
+      <c r="BG44">
+        <v>1.21</v>
+      </c>
+      <c r="BH44">
+        <v>3.9</v>
+      </c>
+      <c r="BI44">
+        <v>1.4</v>
+      </c>
+      <c r="BJ44">
+        <v>2.7</v>
+      </c>
+      <c r="BK44">
+        <v>1.7</v>
+      </c>
+      <c r="BL44">
+        <v>2.05</v>
+      </c>
+      <c r="BM44">
+        <v>2.07</v>
+      </c>
+      <c r="BN44">
+        <v>1.67</v>
+      </c>
+      <c r="BO44">
+        <v>2.6</v>
+      </c>
+      <c r="BP44">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:68">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>7502643</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45550.47916666666</v>
+      </c>
+      <c r="F45">
+        <v>5</v>
+      </c>
+      <c r="G45" t="s">
+        <v>86</v>
+      </c>
+      <c r="H45" t="s">
+        <v>80</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>3</v>
+      </c>
+      <c r="L45">
+        <v>2</v>
+      </c>
+      <c r="M45">
+        <v>2</v>
+      </c>
+      <c r="N45">
+        <v>4</v>
+      </c>
+      <c r="O45" t="s">
+        <v>118</v>
+      </c>
+      <c r="P45" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q45">
+        <v>2.25</v>
+      </c>
+      <c r="R45">
+        <v>2.2</v>
+      </c>
+      <c r="S45">
+        <v>4.5</v>
+      </c>
+      <c r="T45">
+        <v>1.32</v>
+      </c>
+      <c r="U45">
+        <v>3.3</v>
+      </c>
+      <c r="V45">
+        <v>2.62</v>
+      </c>
+      <c r="W45">
+        <v>1.48</v>
+      </c>
+      <c r="X45">
+        <v>6.15</v>
+      </c>
+      <c r="Y45">
+        <v>1.1</v>
+      </c>
+      <c r="Z45">
+        <v>1.75</v>
+      </c>
+      <c r="AA45">
+        <v>3.4</v>
+      </c>
+      <c r="AB45">
+        <v>3.95</v>
+      </c>
+      <c r="AC45">
+        <v>1.01</v>
+      </c>
+      <c r="AD45">
+        <v>11</v>
+      </c>
+      <c r="AE45">
+        <v>1.24</v>
+      </c>
+      <c r="AF45">
+        <v>4.01</v>
+      </c>
+      <c r="AG45">
+        <v>1.7</v>
+      </c>
+      <c r="AH45">
+        <v>1.95</v>
+      </c>
+      <c r="AI45">
+        <v>1.67</v>
+      </c>
+      <c r="AJ45">
+        <v>2.1</v>
+      </c>
+      <c r="AK45">
+        <v>1.21</v>
+      </c>
+      <c r="AL45">
+        <v>1.25</v>
+      </c>
+      <c r="AM45">
+        <v>1.99</v>
+      </c>
+      <c r="AN45">
+        <v>3</v>
+      </c>
+      <c r="AO45">
+        <v>0</v>
+      </c>
+      <c r="AP45">
+        <v>2.33</v>
+      </c>
+      <c r="AQ45">
+        <v>0.33</v>
+      </c>
+      <c r="AR45">
+        <v>1.61</v>
+      </c>
+      <c r="AS45">
+        <v>1.49</v>
+      </c>
+      <c r="AT45">
+        <v>3.1</v>
+      </c>
+      <c r="AU45">
+        <v>7</v>
+      </c>
+      <c r="AV45">
+        <v>4</v>
+      </c>
+      <c r="AW45">
+        <v>3</v>
+      </c>
+      <c r="AX45">
+        <v>8</v>
+      </c>
+      <c r="AY45">
+        <v>10</v>
+      </c>
+      <c r="AZ45">
+        <v>12</v>
+      </c>
+      <c r="BA45">
+        <v>5</v>
+      </c>
+      <c r="BB45">
+        <v>4</v>
+      </c>
+      <c r="BC45">
+        <v>9</v>
+      </c>
+      <c r="BD45">
+        <v>1.62</v>
+      </c>
+      <c r="BE45">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF45">
+        <v>2.65</v>
+      </c>
+      <c r="BG45">
+        <v>1.15</v>
+      </c>
+      <c r="BH45">
+        <v>4.75</v>
+      </c>
+      <c r="BI45">
+        <v>1.29</v>
+      </c>
+      <c r="BJ45">
+        <v>3.3</v>
+      </c>
+      <c r="BK45">
+        <v>1.48</v>
+      </c>
+      <c r="BL45">
+        <v>2.5</v>
+      </c>
+      <c r="BM45">
+        <v>1.92</v>
+      </c>
+      <c r="BN45">
+        <v>1.88</v>
+      </c>
+      <c r="BO45">
+        <v>2.1</v>
+      </c>
+      <c r="BP45">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:68">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7502644</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45551.58333333334</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46" t="s">
+        <v>83</v>
+      </c>
+      <c r="H46" t="s">
+        <v>82</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="L46">
+        <v>2</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>2</v>
+      </c>
+      <c r="O46" t="s">
+        <v>119</v>
+      </c>
+      <c r="P46" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q46">
+        <v>3.28</v>
+      </c>
+      <c r="R46">
+        <v>2.19</v>
+      </c>
+      <c r="S46">
+        <v>3.34</v>
+      </c>
+      <c r="T46">
+        <v>1.4</v>
+      </c>
+      <c r="U46">
+        <v>2.92</v>
+      </c>
+      <c r="V46">
+        <v>2.99</v>
+      </c>
+      <c r="W46">
+        <v>1.38</v>
+      </c>
+      <c r="X46">
+        <v>7.1</v>
+      </c>
+      <c r="Y46">
+        <v>1.06</v>
+      </c>
+      <c r="Z46">
+        <v>2.59</v>
+      </c>
+      <c r="AA46">
+        <v>3.15</v>
+      </c>
+      <c r="AB46">
+        <v>2.6</v>
+      </c>
+      <c r="AC46">
+        <v>1.03</v>
+      </c>
+      <c r="AD46">
+        <v>9</v>
+      </c>
+      <c r="AE46">
+        <v>1.29</v>
+      </c>
+      <c r="AF46">
+        <v>3.3</v>
+      </c>
+      <c r="AG46">
+        <v>1.96</v>
+      </c>
+      <c r="AH46">
+        <v>1.76</v>
+      </c>
+      <c r="AI46">
+        <v>1.73</v>
+      </c>
+      <c r="AJ46">
+        <v>2</v>
+      </c>
+      <c r="AK46">
+        <v>1.44</v>
+      </c>
+      <c r="AL46">
+        <v>1.32</v>
+      </c>
+      <c r="AM46">
+        <v>1.44</v>
+      </c>
+      <c r="AN46">
+        <v>0.5</v>
+      </c>
+      <c r="AO46">
+        <v>2</v>
+      </c>
+      <c r="AP46">
+        <v>1.33</v>
+      </c>
+      <c r="AQ46">
+        <v>1.33</v>
+      </c>
+      <c r="AR46">
+        <v>1.7</v>
+      </c>
+      <c r="AS46">
+        <v>1.12</v>
+      </c>
+      <c r="AT46">
+        <v>2.82</v>
+      </c>
+      <c r="AU46">
+        <v>4</v>
+      </c>
+      <c r="AV46">
+        <v>0</v>
+      </c>
+      <c r="AW46">
+        <v>10</v>
+      </c>
+      <c r="AX46">
+        <v>6</v>
+      </c>
+      <c r="AY46">
+        <v>14</v>
+      </c>
+      <c r="AZ46">
+        <v>6</v>
+      </c>
+      <c r="BA46">
+        <v>2</v>
+      </c>
+      <c r="BB46">
+        <v>6</v>
+      </c>
+      <c r="BC46">
+        <v>8</v>
+      </c>
+      <c r="BD46">
+        <v>2.04</v>
+      </c>
+      <c r="BE46">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF46">
+        <v>2</v>
+      </c>
+      <c r="BG46">
+        <v>1.12</v>
+      </c>
+      <c r="BH46">
+        <v>5</v>
+      </c>
+      <c r="BI46">
+        <v>1.26</v>
+      </c>
+      <c r="BJ46">
+        <v>3.34</v>
+      </c>
+      <c r="BK46">
+        <v>1.47</v>
+      </c>
+      <c r="BL46">
+        <v>2.42</v>
+      </c>
+      <c r="BM46">
+        <v>2</v>
+      </c>
+      <c r="BN46">
+        <v>1.8</v>
+      </c>
+      <c r="BO46">
+        <v>2.28</v>
+      </c>
+      <c r="BP46">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="155">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -376,6 +376,9 @@
     <t>['17', '41']</t>
   </si>
   <si>
+    <t>['82', '83']</t>
+  </si>
+  <si>
     <t>['24', '27']</t>
   </si>
   <si>
@@ -473,6 +476,9 @@
   </si>
   <si>
     <t>['39', '49']</t>
+  </si>
+  <si>
+    <t>['21']</t>
   </si>
 </sst>
 </file>
@@ -834,7 +840,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP46"/>
+  <dimension ref="A1:BP47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1093,7 +1099,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -1299,7 +1305,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -1505,7 +1511,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -1711,7 +1717,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1917,7 +1923,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2123,7 +2129,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2329,7 +2335,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q8">
         <v>2.5</v>
@@ -2535,7 +2541,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -2947,7 +2953,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3359,7 +3365,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -3565,7 +3571,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -3771,7 +3777,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -3977,7 +3983,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -4261,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ17">
         <v>2</v>
@@ -4470,7 +4476,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ18">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4595,7 +4601,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q19">
         <v>2.79</v>
@@ -4801,7 +4807,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5419,7 +5425,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5831,7 +5837,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q25">
         <v>2.91</v>
@@ -6037,7 +6043,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6243,7 +6249,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q27">
         <v>3.25</v>
@@ -6655,7 +6661,7 @@
         <v>89</v>
       </c>
       <c r="P29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -6861,7 +6867,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7273,7 +7279,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7354,7 +7360,7 @@
         <v>0</v>
       </c>
       <c r="AQ32">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR32">
         <v>2.27</v>
@@ -7479,7 +7485,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7685,7 +7691,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -7891,7 +7897,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q35">
         <v>2.57</v>
@@ -8097,7 +8103,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q36">
         <v>2.89</v>
@@ -8303,7 +8309,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q37">
         <v>2.5</v>
@@ -8381,7 +8387,7 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ37">
         <v>2</v>
@@ -8509,7 +8515,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8715,7 +8721,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9127,7 +9133,7 @@
         <v>89</v>
       </c>
       <c r="P41" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9333,7 +9339,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -9745,7 +9751,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q44">
         <v>2.85</v>
@@ -9951,7 +9957,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q45">
         <v>2.25</v>
@@ -10314,6 +10320,212 @@
       </c>
       <c r="BP46">
         <v>1.53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:68">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7502655</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45563.29166666666</v>
+      </c>
+      <c r="F47">
+        <v>6</v>
+      </c>
+      <c r="G47" t="s">
+        <v>85</v>
+      </c>
+      <c r="H47" t="s">
+        <v>75</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>2</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>3</v>
+      </c>
+      <c r="O47" t="s">
+        <v>120</v>
+      </c>
+      <c r="P47" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q47">
+        <v>2.6</v>
+      </c>
+      <c r="R47">
+        <v>2.1</v>
+      </c>
+      <c r="S47">
+        <v>4.75</v>
+      </c>
+      <c r="T47">
+        <v>1.44</v>
+      </c>
+      <c r="U47">
+        <v>2.63</v>
+      </c>
+      <c r="V47">
+        <v>3.25</v>
+      </c>
+      <c r="W47">
+        <v>1.33</v>
+      </c>
+      <c r="X47">
+        <v>10</v>
+      </c>
+      <c r="Y47">
+        <v>1.06</v>
+      </c>
+      <c r="Z47">
+        <v>1.93</v>
+      </c>
+      <c r="AA47">
+        <v>3.4</v>
+      </c>
+      <c r="AB47">
+        <v>3.88</v>
+      </c>
+      <c r="AC47">
+        <v>1.02</v>
+      </c>
+      <c r="AD47">
+        <v>7.4</v>
+      </c>
+      <c r="AE47">
+        <v>1.36</v>
+      </c>
+      <c r="AF47">
+        <v>3</v>
+      </c>
+      <c r="AG47">
+        <v>2.15</v>
+      </c>
+      <c r="AH47">
+        <v>1.65</v>
+      </c>
+      <c r="AI47">
+        <v>2</v>
+      </c>
+      <c r="AJ47">
+        <v>1.73</v>
+      </c>
+      <c r="AK47">
+        <v>1.2</v>
+      </c>
+      <c r="AL47">
+        <v>1.25</v>
+      </c>
+      <c r="AM47">
+        <v>1.85</v>
+      </c>
+      <c r="AN47">
+        <v>0.5</v>
+      </c>
+      <c r="AO47">
+        <v>1.5</v>
+      </c>
+      <c r="AP47">
+        <v>1.33</v>
+      </c>
+      <c r="AQ47">
+        <v>1</v>
+      </c>
+      <c r="AR47">
+        <v>1.36</v>
+      </c>
+      <c r="AS47">
+        <v>1.61</v>
+      </c>
+      <c r="AT47">
+        <v>2.97</v>
+      </c>
+      <c r="AU47">
+        <v>5</v>
+      </c>
+      <c r="AV47">
+        <v>7</v>
+      </c>
+      <c r="AW47">
+        <v>10</v>
+      </c>
+      <c r="AX47">
+        <v>7</v>
+      </c>
+      <c r="AY47">
+        <v>15</v>
+      </c>
+      <c r="AZ47">
+        <v>14</v>
+      </c>
+      <c r="BA47">
+        <v>4</v>
+      </c>
+      <c r="BB47">
+        <v>6</v>
+      </c>
+      <c r="BC47">
+        <v>10</v>
+      </c>
+      <c r="BD47">
+        <v>1.56</v>
+      </c>
+      <c r="BE47">
+        <v>8.9</v>
+      </c>
+      <c r="BF47">
+        <v>2.84</v>
+      </c>
+      <c r="BG47">
+        <v>1.22</v>
+      </c>
+      <c r="BH47">
+        <v>3.8</v>
+      </c>
+      <c r="BI47">
+        <v>1.38</v>
+      </c>
+      <c r="BJ47">
+        <v>2.8</v>
+      </c>
+      <c r="BK47">
+        <v>1.65</v>
+      </c>
+      <c r="BL47">
+        <v>2.1</v>
+      </c>
+      <c r="BM47">
+        <v>2</v>
+      </c>
+      <c r="BN47">
+        <v>1.73</v>
+      </c>
+      <c r="BO47">
+        <v>2.5</v>
+      </c>
+      <c r="BP47">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="163">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -379,6 +379,15 @@
     <t>['82', '83']</t>
   </si>
   <si>
+    <t>['16', '18', '38', '83']</t>
+  </si>
+  <si>
+    <t>['18']</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
     <t>['24', '27']</t>
   </si>
   <si>
@@ -479,6 +488,21 @@
   </si>
   <si>
     <t>['21']</t>
+  </si>
+  <si>
+    <t>['32', '79', '90+5']</t>
+  </si>
+  <si>
+    <t>['1', '66']</t>
+  </si>
+  <si>
+    <t>['28']</t>
+  </si>
+  <si>
+    <t>['65', '84']</t>
+  </si>
+  <si>
+    <t>['22']</t>
   </si>
 </sst>
 </file>
@@ -840,7 +864,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP47"/>
+  <dimension ref="A1:BP54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1099,7 +1123,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -1305,7 +1329,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -1511,7 +1535,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -1592,7 +1616,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ4">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1717,7 +1741,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1923,7 +1947,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2129,7 +2153,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2210,7 +2234,7 @@
         <v>2</v>
       </c>
       <c r="AQ7">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2335,7 +2359,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q8">
         <v>2.5</v>
@@ -2413,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AQ8">
         <v>1.67</v>
@@ -2541,7 +2565,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -2619,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ9">
         <v>2</v>
@@ -2953,7 +2977,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3031,10 +3055,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3237,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ12">
         <v>2</v>
@@ -3365,7 +3389,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -3443,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
         <v>2.33</v>
@@ -3571,7 +3595,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -3652,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="AQ14">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3777,7 +3801,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -3858,7 +3882,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ15">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -3983,7 +4007,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -4270,7 +4294,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ17">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4601,7 +4625,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q19">
         <v>2.79</v>
@@ -4679,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ19">
         <v>0.67</v>
@@ -4807,7 +4831,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -4885,7 +4909,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ20">
         <v>1.67</v>
@@ -5094,7 +5118,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ21">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR21">
         <v>1.84</v>
@@ -5425,7 +5449,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5837,7 +5861,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q25">
         <v>2.91</v>
@@ -6043,7 +6067,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6249,7 +6273,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q27">
         <v>3.25</v>
@@ -6661,7 +6685,7 @@
         <v>89</v>
       </c>
       <c r="P29" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -6739,10 +6763,10 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ29">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR29">
         <v>1.08</v>
@@ -6867,7 +6891,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -6945,10 +6969,10 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ30">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR30">
         <v>1.33</v>
@@ -7151,10 +7175,10 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ31">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR31">
         <v>1.31</v>
@@ -7279,7 +7303,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7485,7 +7509,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7563,10 +7587,10 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ33">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR33">
         <v>1.04</v>
@@ -7691,7 +7715,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -7772,7 +7796,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ34">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR34">
         <v>1.57</v>
@@ -7897,7 +7921,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q35">
         <v>2.57</v>
@@ -8103,7 +8127,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q36">
         <v>2.89</v>
@@ -8181,7 +8205,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AQ36">
         <v>2.33</v>
@@ -8309,7 +8333,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q37">
         <v>2.5</v>
@@ -8515,7 +8539,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8721,7 +8745,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9133,7 +9157,7 @@
         <v>89</v>
       </c>
       <c r="P41" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9339,7 +9363,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -9751,7 +9775,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q44">
         <v>2.85</v>
@@ -9957,7 +9981,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q45">
         <v>2.25</v>
@@ -10369,7 +10393,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -10526,6 +10550,1448 @@
       </c>
       <c r="BP47">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:68">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>7502652</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45563.41666666666</v>
+      </c>
+      <c r="F48">
+        <v>6</v>
+      </c>
+      <c r="G48" t="s">
+        <v>82</v>
+      </c>
+      <c r="H48" t="s">
+        <v>86</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>3</v>
+      </c>
+      <c r="N48">
+        <v>3</v>
+      </c>
+      <c r="O48" t="s">
+        <v>89</v>
+      </c>
+      <c r="P48" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q48">
+        <v>3</v>
+      </c>
+      <c r="R48">
+        <v>2.2</v>
+      </c>
+      <c r="S48">
+        <v>3.5</v>
+      </c>
+      <c r="T48">
+        <v>1.4</v>
+      </c>
+      <c r="U48">
+        <v>2.75</v>
+      </c>
+      <c r="V48">
+        <v>2.75</v>
+      </c>
+      <c r="W48">
+        <v>1.4</v>
+      </c>
+      <c r="X48">
+        <v>8</v>
+      </c>
+      <c r="Y48">
+        <v>1.08</v>
+      </c>
+      <c r="Z48">
+        <v>2.3</v>
+      </c>
+      <c r="AA48">
+        <v>3.3</v>
+      </c>
+      <c r="AB48">
+        <v>2.72</v>
+      </c>
+      <c r="AC48">
+        <v>1.03</v>
+      </c>
+      <c r="AD48">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE48">
+        <v>1.28</v>
+      </c>
+      <c r="AF48">
+        <v>3.5</v>
+      </c>
+      <c r="AG48">
+        <v>1.93</v>
+      </c>
+      <c r="AH48">
+        <v>1.78</v>
+      </c>
+      <c r="AI48">
+        <v>1.67</v>
+      </c>
+      <c r="AJ48">
+        <v>2.1</v>
+      </c>
+      <c r="AK48">
+        <v>1.42</v>
+      </c>
+      <c r="AL48">
+        <v>1.25</v>
+      </c>
+      <c r="AM48">
+        <v>1.55</v>
+      </c>
+      <c r="AN48">
+        <v>0</v>
+      </c>
+      <c r="AO48">
+        <v>1.5</v>
+      </c>
+      <c r="AP48">
+        <v>0</v>
+      </c>
+      <c r="AQ48">
+        <v>2</v>
+      </c>
+      <c r="AR48">
+        <v>1.74</v>
+      </c>
+      <c r="AS48">
+        <v>1.22</v>
+      </c>
+      <c r="AT48">
+        <v>2.96</v>
+      </c>
+      <c r="AU48">
+        <v>3</v>
+      </c>
+      <c r="AV48">
+        <v>7</v>
+      </c>
+      <c r="AW48">
+        <v>11</v>
+      </c>
+      <c r="AX48">
+        <v>7</v>
+      </c>
+      <c r="AY48">
+        <v>14</v>
+      </c>
+      <c r="AZ48">
+        <v>14</v>
+      </c>
+      <c r="BA48">
+        <v>9</v>
+      </c>
+      <c r="BB48">
+        <v>3</v>
+      </c>
+      <c r="BC48">
+        <v>12</v>
+      </c>
+      <c r="BD48">
+        <v>1.63</v>
+      </c>
+      <c r="BE48">
+        <v>9</v>
+      </c>
+      <c r="BF48">
+        <v>2.62</v>
+      </c>
+      <c r="BG48">
+        <v>1.17</v>
+      </c>
+      <c r="BH48">
+        <v>4.5</v>
+      </c>
+      <c r="BI48">
+        <v>1.3</v>
+      </c>
+      <c r="BJ48">
+        <v>3.2</v>
+      </c>
+      <c r="BK48">
+        <v>1.5</v>
+      </c>
+      <c r="BL48">
+        <v>2.4</v>
+      </c>
+      <c r="BM48">
+        <v>1.85</v>
+      </c>
+      <c r="BN48">
+        <v>1.95</v>
+      </c>
+      <c r="BO48">
+        <v>2.25</v>
+      </c>
+      <c r="BP48">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:68">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>7502651</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45563.58333333334</v>
+      </c>
+      <c r="F49">
+        <v>6</v>
+      </c>
+      <c r="G49" t="s">
+        <v>81</v>
+      </c>
+      <c r="H49" t="s">
+        <v>74</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>2</v>
+      </c>
+      <c r="N49">
+        <v>2</v>
+      </c>
+      <c r="O49" t="s">
+        <v>89</v>
+      </c>
+      <c r="P49" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q49">
+        <v>2.75</v>
+      </c>
+      <c r="R49">
+        <v>2.25</v>
+      </c>
+      <c r="S49">
+        <v>3.75</v>
+      </c>
+      <c r="T49">
+        <v>1.36</v>
+      </c>
+      <c r="U49">
+        <v>3</v>
+      </c>
+      <c r="V49">
+        <v>2.63</v>
+      </c>
+      <c r="W49">
+        <v>1.44</v>
+      </c>
+      <c r="X49">
+        <v>7</v>
+      </c>
+      <c r="Y49">
+        <v>1.1</v>
+      </c>
+      <c r="Z49">
+        <v>2.02</v>
+      </c>
+      <c r="AA49">
+        <v>3.55</v>
+      </c>
+      <c r="AB49">
+        <v>3.2</v>
+      </c>
+      <c r="AC49">
+        <v>1.01</v>
+      </c>
+      <c r="AD49">
+        <v>7.9</v>
+      </c>
+      <c r="AE49">
+        <v>1.25</v>
+      </c>
+      <c r="AF49">
+        <v>3.75</v>
+      </c>
+      <c r="AG49">
+        <v>1.75</v>
+      </c>
+      <c r="AH49">
+        <v>1.9</v>
+      </c>
+      <c r="AI49">
+        <v>1.62</v>
+      </c>
+      <c r="AJ49">
+        <v>2.2</v>
+      </c>
+      <c r="AK49">
+        <v>1.33</v>
+      </c>
+      <c r="AL49">
+        <v>1.22</v>
+      </c>
+      <c r="AM49">
+        <v>1.72</v>
+      </c>
+      <c r="AN49">
+        <v>1.5</v>
+      </c>
+      <c r="AO49">
+        <v>3</v>
+      </c>
+      <c r="AP49">
+        <v>1</v>
+      </c>
+      <c r="AQ49">
+        <v>3</v>
+      </c>
+      <c r="AR49">
+        <v>1.23</v>
+      </c>
+      <c r="AS49">
+        <v>1.47</v>
+      </c>
+      <c r="AT49">
+        <v>2.7</v>
+      </c>
+      <c r="AU49">
+        <v>4</v>
+      </c>
+      <c r="AV49">
+        <v>4</v>
+      </c>
+      <c r="AW49">
+        <v>9</v>
+      </c>
+      <c r="AX49">
+        <v>3</v>
+      </c>
+      <c r="AY49">
+        <v>13</v>
+      </c>
+      <c r="AZ49">
+        <v>7</v>
+      </c>
+      <c r="BA49">
+        <v>3</v>
+      </c>
+      <c r="BB49">
+        <v>3</v>
+      </c>
+      <c r="BC49">
+        <v>6</v>
+      </c>
+      <c r="BD49">
+        <v>1.59</v>
+      </c>
+      <c r="BE49">
+        <v>7.1</v>
+      </c>
+      <c r="BF49">
+        <v>2.98</v>
+      </c>
+      <c r="BG49">
+        <v>1.09</v>
+      </c>
+      <c r="BH49">
+        <v>4.9</v>
+      </c>
+      <c r="BI49">
+        <v>1.22</v>
+      </c>
+      <c r="BJ49">
+        <v>3.34</v>
+      </c>
+      <c r="BK49">
+        <v>1.48</v>
+      </c>
+      <c r="BL49">
+        <v>2.47</v>
+      </c>
+      <c r="BM49">
+        <v>1.82</v>
+      </c>
+      <c r="BN49">
+        <v>1.98</v>
+      </c>
+      <c r="BO49">
+        <v>2.32</v>
+      </c>
+      <c r="BP49">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:68">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>7502654</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45563.6875</v>
+      </c>
+      <c r="F50">
+        <v>6</v>
+      </c>
+      <c r="G50" t="s">
+        <v>87</v>
+      </c>
+      <c r="H50" t="s">
+        <v>73</v>
+      </c>
+      <c r="I50">
+        <v>3</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>4</v>
+      </c>
+      <c r="L50">
+        <v>4</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>5</v>
+      </c>
+      <c r="O50" t="s">
+        <v>121</v>
+      </c>
+      <c r="P50" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q50">
+        <v>3.4</v>
+      </c>
+      <c r="R50">
+        <v>2.05</v>
+      </c>
+      <c r="S50">
+        <v>3.4</v>
+      </c>
+      <c r="T50">
+        <v>1.44</v>
+      </c>
+      <c r="U50">
+        <v>2.63</v>
+      </c>
+      <c r="V50">
+        <v>3.25</v>
+      </c>
+      <c r="W50">
+        <v>1.33</v>
+      </c>
+      <c r="X50">
+        <v>10</v>
+      </c>
+      <c r="Y50">
+        <v>1.06</v>
+      </c>
+      <c r="Z50">
+        <v>2.5</v>
+      </c>
+      <c r="AA50">
+        <v>3.2</v>
+      </c>
+      <c r="AB50">
+        <v>2.5</v>
+      </c>
+      <c r="AC50">
+        <v>1.02</v>
+      </c>
+      <c r="AD50">
+        <v>7.3</v>
+      </c>
+      <c r="AE50">
+        <v>1.36</v>
+      </c>
+      <c r="AF50">
+        <v>2.95</v>
+      </c>
+      <c r="AG50">
+        <v>2.13</v>
+      </c>
+      <c r="AH50">
+        <v>1.66</v>
+      </c>
+      <c r="AI50">
+        <v>1.83</v>
+      </c>
+      <c r="AJ50">
+        <v>1.83</v>
+      </c>
+      <c r="AK50">
+        <v>1.45</v>
+      </c>
+      <c r="AL50">
+        <v>1.3</v>
+      </c>
+      <c r="AM50">
+        <v>1.47</v>
+      </c>
+      <c r="AN50">
+        <v>1</v>
+      </c>
+      <c r="AO50">
+        <v>2</v>
+      </c>
+      <c r="AP50">
+        <v>1.67</v>
+      </c>
+      <c r="AQ50">
+        <v>1.33</v>
+      </c>
+      <c r="AR50">
+        <v>1.2</v>
+      </c>
+      <c r="AS50">
+        <v>1.36</v>
+      </c>
+      <c r="AT50">
+        <v>2.56</v>
+      </c>
+      <c r="AU50">
+        <v>6</v>
+      </c>
+      <c r="AV50">
+        <v>5</v>
+      </c>
+      <c r="AW50">
+        <v>4</v>
+      </c>
+      <c r="AX50">
+        <v>5</v>
+      </c>
+      <c r="AY50">
+        <v>10</v>
+      </c>
+      <c r="AZ50">
+        <v>10</v>
+      </c>
+      <c r="BA50">
+        <v>3</v>
+      </c>
+      <c r="BB50">
+        <v>8</v>
+      </c>
+      <c r="BC50">
+        <v>11</v>
+      </c>
+      <c r="BD50">
+        <v>1.88</v>
+      </c>
+      <c r="BE50">
+        <v>6.55</v>
+      </c>
+      <c r="BF50">
+        <v>2.38</v>
+      </c>
+      <c r="BG50">
+        <v>1.18</v>
+      </c>
+      <c r="BH50">
+        <v>4.33</v>
+      </c>
+      <c r="BI50">
+        <v>1.33</v>
+      </c>
+      <c r="BJ50">
+        <v>3</v>
+      </c>
+      <c r="BK50">
+        <v>1.57</v>
+      </c>
+      <c r="BL50">
+        <v>2.25</v>
+      </c>
+      <c r="BM50">
+        <v>1.9</v>
+      </c>
+      <c r="BN50">
+        <v>1.9</v>
+      </c>
+      <c r="BO50">
+        <v>2.3</v>
+      </c>
+      <c r="BP50">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:68">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>7502653</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45564.29166666666</v>
+      </c>
+      <c r="F51">
+        <v>6</v>
+      </c>
+      <c r="G51" t="s">
+        <v>80</v>
+      </c>
+      <c r="H51" t="s">
+        <v>83</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51" t="s">
+        <v>107</v>
+      </c>
+      <c r="P51" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q51">
+        <v>3</v>
+      </c>
+      <c r="R51">
+        <v>2.2</v>
+      </c>
+      <c r="S51">
+        <v>3.5</v>
+      </c>
+      <c r="T51">
+        <v>1.4</v>
+      </c>
+      <c r="U51">
+        <v>2.75</v>
+      </c>
+      <c r="V51">
+        <v>2.75</v>
+      </c>
+      <c r="W51">
+        <v>1.4</v>
+      </c>
+      <c r="X51">
+        <v>8</v>
+      </c>
+      <c r="Y51">
+        <v>1.08</v>
+      </c>
+      <c r="Z51">
+        <v>2.25</v>
+      </c>
+      <c r="AA51">
+        <v>3.25</v>
+      </c>
+      <c r="AB51">
+        <v>2.75</v>
+      </c>
+      <c r="AC51">
+        <v>1.03</v>
+      </c>
+      <c r="AD51">
+        <v>9</v>
+      </c>
+      <c r="AE51">
+        <v>1.3</v>
+      </c>
+      <c r="AF51">
+        <v>3.3</v>
+      </c>
+      <c r="AG51">
+        <v>1.85</v>
+      </c>
+      <c r="AH51">
+        <v>1.8</v>
+      </c>
+      <c r="AI51">
+        <v>1.67</v>
+      </c>
+      <c r="AJ51">
+        <v>2.1</v>
+      </c>
+      <c r="AK51">
+        <v>1.4</v>
+      </c>
+      <c r="AL51">
+        <v>1.25</v>
+      </c>
+      <c r="AM51">
+        <v>1.55</v>
+      </c>
+      <c r="AN51">
+        <v>0.5</v>
+      </c>
+      <c r="AO51">
+        <v>2</v>
+      </c>
+      <c r="AP51">
+        <v>1.33</v>
+      </c>
+      <c r="AQ51">
+        <v>1.33</v>
+      </c>
+      <c r="AR51">
+        <v>1.2</v>
+      </c>
+      <c r="AS51">
+        <v>1.77</v>
+      </c>
+      <c r="AT51">
+        <v>2.97</v>
+      </c>
+      <c r="AU51">
+        <v>3</v>
+      </c>
+      <c r="AV51">
+        <v>5</v>
+      </c>
+      <c r="AW51">
+        <v>3</v>
+      </c>
+      <c r="AX51">
+        <v>11</v>
+      </c>
+      <c r="AY51">
+        <v>6</v>
+      </c>
+      <c r="AZ51">
+        <v>16</v>
+      </c>
+      <c r="BA51">
+        <v>2</v>
+      </c>
+      <c r="BB51">
+        <v>6</v>
+      </c>
+      <c r="BC51">
+        <v>8</v>
+      </c>
+      <c r="BD51">
+        <v>1.7</v>
+      </c>
+      <c r="BE51">
+        <v>8.9</v>
+      </c>
+      <c r="BF51">
+        <v>2.47</v>
+      </c>
+      <c r="BG51">
+        <v>1.13</v>
+      </c>
+      <c r="BH51">
+        <v>5</v>
+      </c>
+      <c r="BI51">
+        <v>1.29</v>
+      </c>
+      <c r="BJ51">
+        <v>3.4</v>
+      </c>
+      <c r="BK51">
+        <v>1.44</v>
+      </c>
+      <c r="BL51">
+        <v>2.6</v>
+      </c>
+      <c r="BM51">
+        <v>1.88</v>
+      </c>
+      <c r="BN51">
+        <v>1.92</v>
+      </c>
+      <c r="BO51">
+        <v>2.1</v>
+      </c>
+      <c r="BP51">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:68">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>7502650</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45564.29166666666</v>
+      </c>
+      <c r="F52">
+        <v>6</v>
+      </c>
+      <c r="G52" t="s">
+        <v>76</v>
+      </c>
+      <c r="H52" t="s">
+        <v>78</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>2</v>
+      </c>
+      <c r="N52">
+        <v>2</v>
+      </c>
+      <c r="O52" t="s">
+        <v>89</v>
+      </c>
+      <c r="P52" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q52">
+        <v>3.2</v>
+      </c>
+      <c r="R52">
+        <v>2.2</v>
+      </c>
+      <c r="S52">
+        <v>3.25</v>
+      </c>
+      <c r="T52">
+        <v>1.4</v>
+      </c>
+      <c r="U52">
+        <v>2.75</v>
+      </c>
+      <c r="V52">
+        <v>2.75</v>
+      </c>
+      <c r="W52">
+        <v>1.4</v>
+      </c>
+      <c r="X52">
+        <v>8</v>
+      </c>
+      <c r="Y52">
+        <v>1.08</v>
+      </c>
+      <c r="Z52">
+        <v>2.45</v>
+      </c>
+      <c r="AA52">
+        <v>3.25</v>
+      </c>
+      <c r="AB52">
+        <v>2.5</v>
+      </c>
+      <c r="AC52">
+        <v>1.01</v>
+      </c>
+      <c r="AD52">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE52">
+        <v>1.3</v>
+      </c>
+      <c r="AF52">
+        <v>3.3</v>
+      </c>
+      <c r="AG52">
+        <v>1.83</v>
+      </c>
+      <c r="AH52">
+        <v>1.8</v>
+      </c>
+      <c r="AI52">
+        <v>1.67</v>
+      </c>
+      <c r="AJ52">
+        <v>2.1</v>
+      </c>
+      <c r="AK52">
+        <v>1.5</v>
+      </c>
+      <c r="AL52">
+        <v>1.25</v>
+      </c>
+      <c r="AM52">
+        <v>1.47</v>
+      </c>
+      <c r="AN52">
+        <v>1</v>
+      </c>
+      <c r="AO52">
+        <v>1</v>
+      </c>
+      <c r="AP52">
+        <v>0.67</v>
+      </c>
+      <c r="AQ52">
+        <v>1.67</v>
+      </c>
+      <c r="AR52">
+        <v>1.12</v>
+      </c>
+      <c r="AS52">
+        <v>1.44</v>
+      </c>
+      <c r="AT52">
+        <v>2.56</v>
+      </c>
+      <c r="AU52">
+        <v>0</v>
+      </c>
+      <c r="AV52">
+        <v>3</v>
+      </c>
+      <c r="AW52">
+        <v>2</v>
+      </c>
+      <c r="AX52">
+        <v>4</v>
+      </c>
+      <c r="AY52">
+        <v>2</v>
+      </c>
+      <c r="AZ52">
+        <v>7</v>
+      </c>
+      <c r="BA52">
+        <v>2</v>
+      </c>
+      <c r="BB52">
+        <v>10</v>
+      </c>
+      <c r="BC52">
+        <v>12</v>
+      </c>
+      <c r="BD52">
+        <v>2</v>
+      </c>
+      <c r="BE52">
+        <v>7.2</v>
+      </c>
+      <c r="BF52">
+        <v>2.14</v>
+      </c>
+      <c r="BG52">
+        <v>1.14</v>
+      </c>
+      <c r="BH52">
+        <v>4.7</v>
+      </c>
+      <c r="BI52">
+        <v>1.28</v>
+      </c>
+      <c r="BJ52">
+        <v>3.2</v>
+      </c>
+      <c r="BK52">
+        <v>1.49</v>
+      </c>
+      <c r="BL52">
+        <v>2.38</v>
+      </c>
+      <c r="BM52">
+        <v>1.85</v>
+      </c>
+      <c r="BN52">
+        <v>1.95</v>
+      </c>
+      <c r="BO52">
+        <v>2.2</v>
+      </c>
+      <c r="BP52">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7502656</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45564.41666666666</v>
+      </c>
+      <c r="F53">
+        <v>6</v>
+      </c>
+      <c r="G53" t="s">
+        <v>79</v>
+      </c>
+      <c r="H53" t="s">
+        <v>72</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+      <c r="O53" t="s">
+        <v>122</v>
+      </c>
+      <c r="P53" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q53">
+        <v>3.6</v>
+      </c>
+      <c r="R53">
+        <v>2</v>
+      </c>
+      <c r="S53">
+        <v>3.25</v>
+      </c>
+      <c r="T53">
+        <v>1.5</v>
+      </c>
+      <c r="U53">
+        <v>2.5</v>
+      </c>
+      <c r="V53">
+        <v>3.4</v>
+      </c>
+      <c r="W53">
+        <v>1.3</v>
+      </c>
+      <c r="X53">
+        <v>10</v>
+      </c>
+      <c r="Y53">
+        <v>1.06</v>
+      </c>
+      <c r="Z53">
+        <v>3</v>
+      </c>
+      <c r="AA53">
+        <v>3.1</v>
+      </c>
+      <c r="AB53">
+        <v>2.25</v>
+      </c>
+      <c r="AC53">
+        <v>1.06</v>
+      </c>
+      <c r="AD53">
+        <v>7</v>
+      </c>
+      <c r="AE53">
+        <v>1.42</v>
+      </c>
+      <c r="AF53">
+        <v>2.75</v>
+      </c>
+      <c r="AG53">
+        <v>2</v>
+      </c>
+      <c r="AH53">
+        <v>1.73</v>
+      </c>
+      <c r="AI53">
+        <v>1.91</v>
+      </c>
+      <c r="AJ53">
+        <v>1.8</v>
+      </c>
+      <c r="AK53">
+        <v>1.52</v>
+      </c>
+      <c r="AL53">
+        <v>1.3</v>
+      </c>
+      <c r="AM53">
+        <v>1.4</v>
+      </c>
+      <c r="AN53">
+        <v>0.5</v>
+      </c>
+      <c r="AO53">
+        <v>2</v>
+      </c>
+      <c r="AP53">
+        <v>0.67</v>
+      </c>
+      <c r="AQ53">
+        <v>1.67</v>
+      </c>
+      <c r="AR53">
+        <v>1.6</v>
+      </c>
+      <c r="AS53">
+        <v>1.24</v>
+      </c>
+      <c r="AT53">
+        <v>2.84</v>
+      </c>
+      <c r="AU53">
+        <v>4</v>
+      </c>
+      <c r="AV53">
+        <v>5</v>
+      </c>
+      <c r="AW53">
+        <v>2</v>
+      </c>
+      <c r="AX53">
+        <v>8</v>
+      </c>
+      <c r="AY53">
+        <v>6</v>
+      </c>
+      <c r="AZ53">
+        <v>13</v>
+      </c>
+      <c r="BA53">
+        <v>8</v>
+      </c>
+      <c r="BB53">
+        <v>12</v>
+      </c>
+      <c r="BC53">
+        <v>20</v>
+      </c>
+      <c r="BD53">
+        <v>2.15</v>
+      </c>
+      <c r="BE53">
+        <v>6.45</v>
+      </c>
+      <c r="BF53">
+        <v>2.06</v>
+      </c>
+      <c r="BG53">
+        <v>1.16</v>
+      </c>
+      <c r="BH53">
+        <v>3.85</v>
+      </c>
+      <c r="BI53">
+        <v>1.36</v>
+      </c>
+      <c r="BJ53">
+        <v>2.7</v>
+      </c>
+      <c r="BK53">
+        <v>1.67</v>
+      </c>
+      <c r="BL53">
+        <v>2.07</v>
+      </c>
+      <c r="BM53">
+        <v>2.06</v>
+      </c>
+      <c r="BN53">
+        <v>1.62</v>
+      </c>
+      <c r="BO53">
+        <v>2.65</v>
+      </c>
+      <c r="BP53">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7502657</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45564.47916666666</v>
+      </c>
+      <c r="F54">
+        <v>6</v>
+      </c>
+      <c r="G54" t="s">
+        <v>77</v>
+      </c>
+      <c r="H54" t="s">
+        <v>70</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>2</v>
+      </c>
+      <c r="O54" t="s">
+        <v>123</v>
+      </c>
+      <c r="P54" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q54">
+        <v>3.1</v>
+      </c>
+      <c r="R54">
+        <v>2.1</v>
+      </c>
+      <c r="S54">
+        <v>3.6</v>
+      </c>
+      <c r="T54">
+        <v>1.44</v>
+      </c>
+      <c r="U54">
+        <v>2.63</v>
+      </c>
+      <c r="V54">
+        <v>3.25</v>
+      </c>
+      <c r="W54">
+        <v>1.33</v>
+      </c>
+      <c r="X54">
+        <v>9</v>
+      </c>
+      <c r="Y54">
+        <v>1.07</v>
+      </c>
+      <c r="Z54">
+        <v>2.38</v>
+      </c>
+      <c r="AA54">
+        <v>3.1</v>
+      </c>
+      <c r="AB54">
+        <v>2.88</v>
+      </c>
+      <c r="AC54">
+        <v>1.05</v>
+      </c>
+      <c r="AD54">
+        <v>8</v>
+      </c>
+      <c r="AE54">
+        <v>1.29</v>
+      </c>
+      <c r="AF54">
+        <v>3.3</v>
+      </c>
+      <c r="AG54">
+        <v>1.98</v>
+      </c>
+      <c r="AH54">
+        <v>1.68</v>
+      </c>
+      <c r="AI54">
+        <v>1.83</v>
+      </c>
+      <c r="AJ54">
+        <v>1.83</v>
+      </c>
+      <c r="AK54">
+        <v>1.4</v>
+      </c>
+      <c r="AL54">
+        <v>1.28</v>
+      </c>
+      <c r="AM54">
+        <v>1.55</v>
+      </c>
+      <c r="AN54">
+        <v>0.5</v>
+      </c>
+      <c r="AO54">
+        <v>1.5</v>
+      </c>
+      <c r="AP54">
+        <v>0.67</v>
+      </c>
+      <c r="AQ54">
+        <v>1.33</v>
+      </c>
+      <c r="AR54">
+        <v>1.11</v>
+      </c>
+      <c r="AS54">
+        <v>1.72</v>
+      </c>
+      <c r="AT54">
+        <v>2.83</v>
+      </c>
+      <c r="AU54">
+        <v>3</v>
+      </c>
+      <c r="AV54">
+        <v>2</v>
+      </c>
+      <c r="AW54">
+        <v>9</v>
+      </c>
+      <c r="AX54">
+        <v>6</v>
+      </c>
+      <c r="AY54">
+        <v>12</v>
+      </c>
+      <c r="AZ54">
+        <v>8</v>
+      </c>
+      <c r="BA54">
+        <v>3</v>
+      </c>
+      <c r="BB54">
+        <v>3</v>
+      </c>
+      <c r="BC54">
+        <v>6</v>
+      </c>
+      <c r="BD54">
+        <v>2.2</v>
+      </c>
+      <c r="BE54">
+        <v>6.6</v>
+      </c>
+      <c r="BF54">
+        <v>2</v>
+      </c>
+      <c r="BG54">
+        <v>1.09</v>
+      </c>
+      <c r="BH54">
+        <v>5</v>
+      </c>
+      <c r="BI54">
+        <v>1.22</v>
+      </c>
+      <c r="BJ54">
+        <v>3.35</v>
+      </c>
+      <c r="BK54">
+        <v>1.49</v>
+      </c>
+      <c r="BL54">
+        <v>2.53</v>
+      </c>
+      <c r="BM54">
+        <v>1.8</v>
+      </c>
+      <c r="BN54">
+        <v>2</v>
+      </c>
+      <c r="BO54">
+        <v>2.23</v>
+      </c>
+      <c r="BP54">
+        <v>1.62</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="164">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -388,6 +388,9 @@
     <t>['58']</t>
   </si>
   <si>
+    <t>['23', '56', '68']</t>
+  </si>
+  <si>
     <t>['24', '27']</t>
   </si>
   <si>
@@ -493,10 +496,10 @@
     <t>['32', '79', '90+5']</t>
   </si>
   <si>
+    <t>['28']</t>
+  </si>
+  <si>
     <t>['1', '66']</t>
-  </si>
-  <si>
-    <t>['28']</t>
   </si>
   <si>
     <t>['65', '84']</t>
@@ -864,7 +867,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP54"/>
+  <dimension ref="A1:BP55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1123,7 +1126,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -1329,7 +1332,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -1535,7 +1538,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -1741,7 +1744,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1947,7 +1950,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2153,7 +2156,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2359,7 +2362,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q8">
         <v>2.5</v>
@@ -2565,7 +2568,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -2977,7 +2980,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3264,7 +3267,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ12">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3389,7 +3392,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -3595,7 +3598,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -3801,7 +3804,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -4007,7 +4010,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -4085,7 +4088,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ16">
         <v>3</v>
@@ -4625,7 +4628,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q19">
         <v>2.79</v>
@@ -4831,7 +4834,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5449,7 +5452,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5861,7 +5864,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q25">
         <v>2.91</v>
@@ -6067,7 +6070,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6273,7 +6276,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q27">
         <v>3.25</v>
@@ -6685,7 +6688,7 @@
         <v>89</v>
       </c>
       <c r="P29" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -6891,7 +6894,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7303,7 +7306,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7381,7 +7384,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ32">
         <v>1</v>
@@ -7509,7 +7512,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7715,7 +7718,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -7921,7 +7924,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q35">
         <v>2.57</v>
@@ -8127,7 +8130,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q36">
         <v>2.89</v>
@@ -8333,7 +8336,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q37">
         <v>2.5</v>
@@ -8414,7 +8417,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ37">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR37">
         <v>0.91</v>
@@ -8539,7 +8542,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8745,7 +8748,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9157,7 +9160,7 @@
         <v>89</v>
       </c>
       <c r="P41" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9363,7 +9366,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -9775,7 +9778,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q44">
         <v>2.85</v>
@@ -9981,7 +9984,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q45">
         <v>2.25</v>
@@ -10360,7 +10363,7 @@
         <v>69</v>
       </c>
       <c r="E47" s="2">
-        <v>45563.29166666666</v>
+        <v>45562.875</v>
       </c>
       <c r="F47">
         <v>6</v>
@@ -10393,7 +10396,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -10486,22 +10489,22 @@
         <v>2.97</v>
       </c>
       <c r="AU47">
+        <v>3</v>
+      </c>
+      <c r="AV47">
+        <v>4</v>
+      </c>
+      <c r="AW47">
+        <v>2</v>
+      </c>
+      <c r="AX47">
+        <v>3</v>
+      </c>
+      <c r="AY47">
         <v>5</v>
       </c>
-      <c r="AV47">
+      <c r="AZ47">
         <v>7</v>
-      </c>
-      <c r="AW47">
-        <v>10</v>
-      </c>
-      <c r="AX47">
-        <v>7</v>
-      </c>
-      <c r="AY47">
-        <v>15</v>
-      </c>
-      <c r="AZ47">
-        <v>14</v>
       </c>
       <c r="BA47">
         <v>4</v>
@@ -10566,7 +10569,7 @@
         <v>69</v>
       </c>
       <c r="E48" s="2">
-        <v>45563.41666666666</v>
+        <v>45562.875</v>
       </c>
       <c r="F48">
         <v>6</v>
@@ -10599,7 +10602,7 @@
         <v>89</v>
       </c>
       <c r="P48" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10692,31 +10695,31 @@
         <v>2.96</v>
       </c>
       <c r="AU48">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AV48">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AW48">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="AX48">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AY48">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="AZ48">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="BA48">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="BB48">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BC48">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="BD48">
         <v>1.63</v>
@@ -10763,7 +10766,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>7502651</v>
+        <v>7502654</v>
       </c>
       <c r="C49" t="s">
         <v>68</v>
@@ -10772,145 +10775,145 @@
         <v>69</v>
       </c>
       <c r="E49" s="2">
-        <v>45563.58333333334</v>
+        <v>45562.875</v>
       </c>
       <c r="F49">
         <v>6</v>
       </c>
       <c r="G49" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="H49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J49">
         <v>1</v>
       </c>
       <c r="K49">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N49">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O49" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q49">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="R49">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="S49">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="T49">
+        <v>1.44</v>
+      </c>
+      <c r="U49">
+        <v>2.63</v>
+      </c>
+      <c r="V49">
+        <v>3.25</v>
+      </c>
+      <c r="W49">
+        <v>1.33</v>
+      </c>
+      <c r="X49">
+        <v>10</v>
+      </c>
+      <c r="Y49">
+        <v>1.06</v>
+      </c>
+      <c r="Z49">
+        <v>2.5</v>
+      </c>
+      <c r="AA49">
+        <v>3.2</v>
+      </c>
+      <c r="AB49">
+        <v>2.5</v>
+      </c>
+      <c r="AC49">
+        <v>1.02</v>
+      </c>
+      <c r="AD49">
+        <v>7.3</v>
+      </c>
+      <c r="AE49">
         <v>1.36</v>
       </c>
-      <c r="U49">
-        <v>3</v>
-      </c>
-      <c r="V49">
-        <v>2.63</v>
-      </c>
-      <c r="W49">
-        <v>1.44</v>
-      </c>
-      <c r="X49">
-        <v>7</v>
-      </c>
-      <c r="Y49">
-        <v>1.1</v>
-      </c>
-      <c r="Z49">
-        <v>2.02</v>
-      </c>
-      <c r="AA49">
-        <v>3.55</v>
-      </c>
-      <c r="AB49">
-        <v>3.2</v>
-      </c>
-      <c r="AC49">
-        <v>1.01</v>
-      </c>
-      <c r="AD49">
-        <v>7.9</v>
-      </c>
-      <c r="AE49">
-        <v>1.25</v>
-      </c>
       <c r="AF49">
-        <v>3.75</v>
+        <v>2.95</v>
       </c>
       <c r="AG49">
-        <v>1.75</v>
+        <v>2.13</v>
       </c>
       <c r="AH49">
-        <v>1.9</v>
+        <v>1.66</v>
       </c>
       <c r="AI49">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="AJ49">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AK49">
+        <v>1.45</v>
+      </c>
+      <c r="AL49">
+        <v>1.3</v>
+      </c>
+      <c r="AM49">
+        <v>1.47</v>
+      </c>
+      <c r="AN49">
+        <v>1</v>
+      </c>
+      <c r="AO49">
+        <v>2</v>
+      </c>
+      <c r="AP49">
+        <v>1.67</v>
+      </c>
+      <c r="AQ49">
         <v>1.33</v>
       </c>
-      <c r="AL49">
-        <v>1.22</v>
-      </c>
-      <c r="AM49">
-        <v>1.72</v>
-      </c>
-      <c r="AN49">
-        <v>1.5</v>
-      </c>
-      <c r="AO49">
-        <v>3</v>
-      </c>
-      <c r="AP49">
-        <v>1</v>
-      </c>
-      <c r="AQ49">
-        <v>3</v>
-      </c>
       <c r="AR49">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="AS49">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="AT49">
-        <v>2.7</v>
+        <v>2.56</v>
       </c>
       <c r="AU49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV49">
         <v>4</v>
       </c>
       <c r="AW49">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AX49">
         <v>3</v>
       </c>
       <c r="AY49">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AZ49">
         <v>7</v>
@@ -10919,49 +10922,49 @@
         <v>3</v>
       </c>
       <c r="BB49">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BC49">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BD49">
-        <v>1.59</v>
+        <v>1.88</v>
       </c>
       <c r="BE49">
-        <v>7.1</v>
+        <v>6.55</v>
       </c>
       <c r="BF49">
-        <v>2.98</v>
+        <v>2.38</v>
       </c>
       <c r="BG49">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="BH49">
-        <v>4.9</v>
+        <v>4.33</v>
       </c>
       <c r="BI49">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="BJ49">
-        <v>3.34</v>
+        <v>3</v>
       </c>
       <c r="BK49">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="BL49">
-        <v>2.47</v>
+        <v>2.25</v>
       </c>
       <c r="BM49">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="BN49">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="BO49">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="BP49">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="50" spans="1:68">
@@ -10969,7 +10972,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>7502654</v>
+        <v>7502651</v>
       </c>
       <c r="C50" t="s">
         <v>68</v>
@@ -10978,196 +10981,196 @@
         <v>69</v>
       </c>
       <c r="E50" s="2">
-        <v>45563.6875</v>
+        <v>45562.875</v>
       </c>
       <c r="F50">
         <v>6</v>
       </c>
       <c r="G50" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H50" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J50">
         <v>1</v>
       </c>
       <c r="K50">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N50">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O50" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="P50" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q50">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="R50">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="S50">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="T50">
+        <v>1.36</v>
+      </c>
+      <c r="U50">
+        <v>3</v>
+      </c>
+      <c r="V50">
+        <v>2.63</v>
+      </c>
+      <c r="W50">
         <v>1.44</v>
       </c>
-      <c r="U50">
-        <v>2.63</v>
-      </c>
-      <c r="V50">
-        <v>3.25</v>
-      </c>
-      <c r="W50">
+      <c r="X50">
+        <v>7</v>
+      </c>
+      <c r="Y50">
+        <v>1.1</v>
+      </c>
+      <c r="Z50">
+        <v>2.02</v>
+      </c>
+      <c r="AA50">
+        <v>3.55</v>
+      </c>
+      <c r="AB50">
+        <v>3.2</v>
+      </c>
+      <c r="AC50">
+        <v>1.01</v>
+      </c>
+      <c r="AD50">
+        <v>7.9</v>
+      </c>
+      <c r="AE50">
+        <v>1.25</v>
+      </c>
+      <c r="AF50">
+        <v>3.75</v>
+      </c>
+      <c r="AG50">
+        <v>1.75</v>
+      </c>
+      <c r="AH50">
+        <v>1.9</v>
+      </c>
+      <c r="AI50">
+        <v>1.62</v>
+      </c>
+      <c r="AJ50">
+        <v>2.2</v>
+      </c>
+      <c r="AK50">
         <v>1.33</v>
       </c>
-      <c r="X50">
-        <v>10</v>
-      </c>
-      <c r="Y50">
-        <v>1.06</v>
-      </c>
-      <c r="Z50">
-        <v>2.5</v>
-      </c>
-      <c r="AA50">
-        <v>3.2</v>
-      </c>
-      <c r="AB50">
-        <v>2.5</v>
-      </c>
-      <c r="AC50">
-        <v>1.02</v>
-      </c>
-      <c r="AD50">
-        <v>7.3</v>
-      </c>
-      <c r="AE50">
-        <v>1.36</v>
-      </c>
-      <c r="AF50">
-        <v>2.95</v>
-      </c>
-      <c r="AG50">
-        <v>2.13</v>
-      </c>
-      <c r="AH50">
-        <v>1.66</v>
-      </c>
-      <c r="AI50">
-        <v>1.83</v>
-      </c>
-      <c r="AJ50">
-        <v>1.83</v>
-      </c>
-      <c r="AK50">
-        <v>1.45</v>
-      </c>
       <c r="AL50">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AM50">
+        <v>1.72</v>
+      </c>
+      <c r="AN50">
+        <v>1.5</v>
+      </c>
+      <c r="AO50">
+        <v>3</v>
+      </c>
+      <c r="AP50">
+        <v>1</v>
+      </c>
+      <c r="AQ50">
+        <v>3</v>
+      </c>
+      <c r="AR50">
+        <v>1.23</v>
+      </c>
+      <c r="AS50">
         <v>1.47</v>
       </c>
-      <c r="AN50">
-        <v>1</v>
-      </c>
-      <c r="AO50">
-        <v>2</v>
-      </c>
-      <c r="AP50">
-        <v>1.67</v>
-      </c>
-      <c r="AQ50">
-        <v>1.33</v>
-      </c>
-      <c r="AR50">
-        <v>1.2</v>
-      </c>
-      <c r="AS50">
-        <v>1.36</v>
-      </c>
       <c r="AT50">
-        <v>2.56</v>
+        <v>2.7</v>
       </c>
       <c r="AU50">
         <v>6</v>
       </c>
       <c r="AV50">
+        <v>2</v>
+      </c>
+      <c r="AW50">
+        <v>7</v>
+      </c>
+      <c r="AX50">
+        <v>3</v>
+      </c>
+      <c r="AY50">
+        <v>13</v>
+      </c>
+      <c r="AZ50">
         <v>5</v>
       </c>
-      <c r="AW50">
-        <v>4</v>
-      </c>
-      <c r="AX50">
-        <v>5</v>
-      </c>
-      <c r="AY50">
-        <v>10</v>
-      </c>
-      <c r="AZ50">
-        <v>10</v>
-      </c>
       <c r="BA50">
         <v>3</v>
       </c>
       <c r="BB50">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BC50">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BD50">
-        <v>1.88</v>
+        <v>1.59</v>
       </c>
       <c r="BE50">
-        <v>6.55</v>
+        <v>7.1</v>
       </c>
       <c r="BF50">
-        <v>2.38</v>
+        <v>2.98</v>
       </c>
       <c r="BG50">
-        <v>1.18</v>
+        <v>1.09</v>
       </c>
       <c r="BH50">
-        <v>4.33</v>
+        <v>4.9</v>
       </c>
       <c r="BI50">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="BJ50">
-        <v>3</v>
+        <v>3.34</v>
       </c>
       <c r="BK50">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="BL50">
-        <v>2.25</v>
+        <v>2.47</v>
       </c>
       <c r="BM50">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="BN50">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="BO50">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="BP50">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="51" spans="1:68">
@@ -11175,7 +11178,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>7502653</v>
+        <v>7502650</v>
       </c>
       <c r="C51" t="s">
         <v>68</v>
@@ -11184,16 +11187,16 @@
         <v>69</v>
       </c>
       <c r="E51" s="2">
-        <v>45564.29166666666</v>
+        <v>45563.875</v>
       </c>
       <c r="F51">
         <v>6</v>
       </c>
       <c r="G51" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H51" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -11205,28 +11208,28 @@
         <v>0</v>
       </c>
       <c r="L51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O51" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="P51" t="s">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="Q51">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="R51">
         <v>2.2</v>
       </c>
       <c r="S51">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="T51">
         <v>1.4</v>
@@ -11247,19 +11250,19 @@
         <v>1.08</v>
       </c>
       <c r="Z51">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="AA51">
         <v>3.25</v>
       </c>
       <c r="AB51">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="AC51">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD51">
-        <v>9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AE51">
         <v>1.3</v>
@@ -11268,7 +11271,7 @@
         <v>3.3</v>
       </c>
       <c r="AG51">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AH51">
         <v>1.8</v>
@@ -11280,100 +11283,100 @@
         <v>2.1</v>
       </c>
       <c r="AK51">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AL51">
         <v>1.25</v>
       </c>
       <c r="AM51">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="AN51">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AQ51">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="AR51">
-        <v>1.2</v>
+        <v>1.12</v>
       </c>
       <c r="AS51">
-        <v>1.77</v>
+        <v>1.44</v>
       </c>
       <c r="AT51">
-        <v>2.97</v>
+        <v>2.56</v>
       </c>
       <c r="AU51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV51">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AW51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX51">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AY51">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ51">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="BA51">
         <v>2</v>
       </c>
       <c r="BB51">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BC51">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BD51">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="BE51">
-        <v>8.9</v>
+        <v>7.2</v>
       </c>
       <c r="BF51">
-        <v>2.47</v>
+        <v>2.14</v>
       </c>
       <c r="BG51">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="BH51">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="BI51">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="BJ51">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="BK51">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="BL51">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="BM51">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="BN51">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="BO51">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="BP51">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="52" spans="1:68">
@@ -11381,7 +11384,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>7502650</v>
+        <v>7502653</v>
       </c>
       <c r="C52" t="s">
         <v>68</v>
@@ -11390,16 +11393,16 @@
         <v>69</v>
       </c>
       <c r="E52" s="2">
-        <v>45564.29166666666</v>
+        <v>45563.875</v>
       </c>
       <c r="F52">
         <v>6</v>
       </c>
       <c r="G52" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H52" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -11411,28 +11414,28 @@
         <v>0</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O52" t="s">
+        <v>107</v>
+      </c>
+      <c r="P52" t="s">
         <v>89</v>
       </c>
-      <c r="P52" t="s">
-        <v>161</v>
-      </c>
       <c r="Q52">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="R52">
         <v>2.2</v>
       </c>
       <c r="S52">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="T52">
         <v>1.4</v>
@@ -11453,19 +11456,19 @@
         <v>1.08</v>
       </c>
       <c r="Z52">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AA52">
         <v>3.25</v>
       </c>
       <c r="AB52">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AC52">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD52">
-        <v>8.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="AE52">
         <v>1.3</v>
@@ -11474,7 +11477,7 @@
         <v>3.3</v>
       </c>
       <c r="AG52">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AH52">
         <v>1.8</v>
@@ -11486,100 +11489,100 @@
         <v>2.1</v>
       </c>
       <c r="AK52">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AL52">
         <v>1.25</v>
       </c>
       <c r="AM52">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AN52">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP52">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="AQ52">
+        <v>1.33</v>
+      </c>
+      <c r="AR52">
+        <v>1.2</v>
+      </c>
+      <c r="AS52">
+        <v>1.77</v>
+      </c>
+      <c r="AT52">
+        <v>2.97</v>
+      </c>
+      <c r="AU52">
+        <v>2</v>
+      </c>
+      <c r="AV52">
+        <v>5</v>
+      </c>
+      <c r="AW52">
+        <v>2</v>
+      </c>
+      <c r="AX52">
+        <v>5</v>
+      </c>
+      <c r="AY52">
+        <v>4</v>
+      </c>
+      <c r="AZ52">
+        <v>10</v>
+      </c>
+      <c r="BA52">
+        <v>2</v>
+      </c>
+      <c r="BB52">
+        <v>6</v>
+      </c>
+      <c r="BC52">
+        <v>8</v>
+      </c>
+      <c r="BD52">
+        <v>1.7</v>
+      </c>
+      <c r="BE52">
+        <v>8.9</v>
+      </c>
+      <c r="BF52">
+        <v>2.47</v>
+      </c>
+      <c r="BG52">
+        <v>1.13</v>
+      </c>
+      <c r="BH52">
+        <v>5</v>
+      </c>
+      <c r="BI52">
+        <v>1.29</v>
+      </c>
+      <c r="BJ52">
+        <v>3.4</v>
+      </c>
+      <c r="BK52">
+        <v>1.44</v>
+      </c>
+      <c r="BL52">
+        <v>2.6</v>
+      </c>
+      <c r="BM52">
+        <v>1.88</v>
+      </c>
+      <c r="BN52">
+        <v>1.92</v>
+      </c>
+      <c r="BO52">
+        <v>2.1</v>
+      </c>
+      <c r="BP52">
         <v>1.67</v>
-      </c>
-      <c r="AR52">
-        <v>1.12</v>
-      </c>
-      <c r="AS52">
-        <v>1.44</v>
-      </c>
-      <c r="AT52">
-        <v>2.56</v>
-      </c>
-      <c r="AU52">
-        <v>0</v>
-      </c>
-      <c r="AV52">
-        <v>3</v>
-      </c>
-      <c r="AW52">
-        <v>2</v>
-      </c>
-      <c r="AX52">
-        <v>4</v>
-      </c>
-      <c r="AY52">
-        <v>2</v>
-      </c>
-      <c r="AZ52">
-        <v>7</v>
-      </c>
-      <c r="BA52">
-        <v>2</v>
-      </c>
-      <c r="BB52">
-        <v>10</v>
-      </c>
-      <c r="BC52">
-        <v>12</v>
-      </c>
-      <c r="BD52">
-        <v>2</v>
-      </c>
-      <c r="BE52">
-        <v>7.2</v>
-      </c>
-      <c r="BF52">
-        <v>2.14</v>
-      </c>
-      <c r="BG52">
-        <v>1.14</v>
-      </c>
-      <c r="BH52">
-        <v>4.7</v>
-      </c>
-      <c r="BI52">
-        <v>1.28</v>
-      </c>
-      <c r="BJ52">
-        <v>3.2</v>
-      </c>
-      <c r="BK52">
-        <v>1.49</v>
-      </c>
-      <c r="BL52">
-        <v>2.38</v>
-      </c>
-      <c r="BM52">
-        <v>1.85</v>
-      </c>
-      <c r="BN52">
-        <v>1.95</v>
-      </c>
-      <c r="BO52">
-        <v>2.2</v>
-      </c>
-      <c r="BP52">
-        <v>1.56</v>
       </c>
     </row>
     <row r="53" spans="1:68">
@@ -11596,7 +11599,7 @@
         <v>69</v>
       </c>
       <c r="E53" s="2">
-        <v>45564.41666666666</v>
+        <v>45563.875</v>
       </c>
       <c r="F53">
         <v>6</v>
@@ -11722,31 +11725,31 @@
         <v>2.84</v>
       </c>
       <c r="AU53">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AV53">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AW53">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AX53">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AY53">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AZ53">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="BA53">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BB53">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="BC53">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="BD53">
         <v>2.15</v>
@@ -11835,7 +11838,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -11992,6 +11995,212 @@
       </c>
       <c r="BP54">
         <v>1.62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:68">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>7502649</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45565.58333333334</v>
+      </c>
+      <c r="F55">
+        <v>6</v>
+      </c>
+      <c r="G55" t="s">
+        <v>84</v>
+      </c>
+      <c r="H55" t="s">
+        <v>71</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>3</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>3</v>
+      </c>
+      <c r="O55" t="s">
+        <v>124</v>
+      </c>
+      <c r="P55" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q55">
+        <v>2.6</v>
+      </c>
+      <c r="R55">
+        <v>2.2</v>
+      </c>
+      <c r="S55">
+        <v>4.33</v>
+      </c>
+      <c r="T55">
+        <v>1.4</v>
+      </c>
+      <c r="U55">
+        <v>2.75</v>
+      </c>
+      <c r="V55">
+        <v>2.75</v>
+      </c>
+      <c r="W55">
+        <v>1.4</v>
+      </c>
+      <c r="X55">
+        <v>8</v>
+      </c>
+      <c r="Y55">
+        <v>1.08</v>
+      </c>
+      <c r="Z55">
+        <v>1.93</v>
+      </c>
+      <c r="AA55">
+        <v>3.4</v>
+      </c>
+      <c r="AB55">
+        <v>3.2</v>
+      </c>
+      <c r="AC55">
+        <v>1.02</v>
+      </c>
+      <c r="AD55">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE55">
+        <v>1.25</v>
+      </c>
+      <c r="AF55">
+        <v>3.14</v>
+      </c>
+      <c r="AG55">
+        <v>1.95</v>
+      </c>
+      <c r="AH55">
+        <v>1.84</v>
+      </c>
+      <c r="AI55">
+        <v>1.8</v>
+      </c>
+      <c r="AJ55">
+        <v>1.91</v>
+      </c>
+      <c r="AK55">
+        <v>1.33</v>
+      </c>
+      <c r="AL55">
+        <v>1.25</v>
+      </c>
+      <c r="AM55">
+        <v>1.72</v>
+      </c>
+      <c r="AN55">
+        <v>0</v>
+      </c>
+      <c r="AO55">
+        <v>2</v>
+      </c>
+      <c r="AP55">
+        <v>1</v>
+      </c>
+      <c r="AQ55">
+        <v>1.33</v>
+      </c>
+      <c r="AR55">
+        <v>1.78</v>
+      </c>
+      <c r="AS55">
+        <v>1.35</v>
+      </c>
+      <c r="AT55">
+        <v>3.13</v>
+      </c>
+      <c r="AU55">
+        <v>4</v>
+      </c>
+      <c r="AV55">
+        <v>0</v>
+      </c>
+      <c r="AW55">
+        <v>8</v>
+      </c>
+      <c r="AX55">
+        <v>3</v>
+      </c>
+      <c r="AY55">
+        <v>12</v>
+      </c>
+      <c r="AZ55">
+        <v>3</v>
+      </c>
+      <c r="BA55">
+        <v>3</v>
+      </c>
+      <c r="BB55">
+        <v>3</v>
+      </c>
+      <c r="BC55">
+        <v>6</v>
+      </c>
+      <c r="BD55">
+        <v>1.61</v>
+      </c>
+      <c r="BE55">
+        <v>8.5</v>
+      </c>
+      <c r="BF55">
+        <v>2.73</v>
+      </c>
+      <c r="BG55">
+        <v>1.18</v>
+      </c>
+      <c r="BH55">
+        <v>4.1</v>
+      </c>
+      <c r="BI55">
+        <v>1.35</v>
+      </c>
+      <c r="BJ55">
+        <v>2.85</v>
+      </c>
+      <c r="BK55">
+        <v>1.58</v>
+      </c>
+      <c r="BL55">
+        <v>2.17</v>
+      </c>
+      <c r="BM55">
+        <v>2</v>
+      </c>
+      <c r="BN55">
+        <v>1.8</v>
+      </c>
+      <c r="BO55">
+        <v>2.4</v>
+      </c>
+      <c r="BP55">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="162">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -382,15 +382,9 @@
     <t>['16', '18', '38', '83']</t>
   </si>
   <si>
-    <t>['18']</t>
-  </si>
-  <si>
     <t>['58']</t>
   </si>
   <si>
-    <t>['23', '56', '68']</t>
-  </si>
-  <si>
     <t>['24', '27']</t>
   </si>
   <si>
@@ -496,10 +490,10 @@
     <t>['32', '79', '90+5']</t>
   </si>
   <si>
+    <t>['1', '66']</t>
+  </si>
+  <si>
     <t>['28']</t>
-  </si>
-  <si>
-    <t>['1', '66']</t>
   </si>
   <si>
     <t>['65', '84']</t>
@@ -867,7 +861,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP55"/>
+  <dimension ref="A1:BP53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1126,7 +1120,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -1332,7 +1326,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -1538,7 +1532,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -1744,7 +1738,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1950,7 +1944,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2156,7 +2150,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2362,7 +2356,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q8">
         <v>2.5</v>
@@ -2568,7 +2562,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -2980,7 +2974,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3058,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ11">
         <v>1.67</v>
@@ -3267,7 +3261,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ12">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3392,7 +3386,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -3598,7 +3592,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -3804,7 +3798,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -4010,7 +4004,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -4088,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ16">
         <v>3</v>
@@ -4297,7 +4291,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ17">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4628,7 +4622,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Q19">
         <v>2.79</v>
@@ -4834,7 +4828,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5452,7 +5446,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5864,7 +5858,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Q25">
         <v>2.91</v>
@@ -6070,7 +6064,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6276,7 +6270,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q27">
         <v>3.25</v>
@@ -6688,7 +6682,7 @@
         <v>89</v>
       </c>
       <c r="P29" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -6766,7 +6760,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ29">
         <v>1.33</v>
@@ -6894,7 +6888,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -6975,7 +6969,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ30">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR30">
         <v>1.33</v>
@@ -7306,7 +7300,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7384,7 +7378,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ32">
         <v>1</v>
@@ -7512,7 +7506,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7718,7 +7712,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -7924,7 +7918,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q35">
         <v>2.57</v>
@@ -8130,7 +8124,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q36">
         <v>2.89</v>
@@ -8336,7 +8330,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q37">
         <v>2.5</v>
@@ -8417,7 +8411,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ37">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AR37">
         <v>0.91</v>
@@ -8542,7 +8536,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8748,7 +8742,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9160,7 +9154,7 @@
         <v>89</v>
       </c>
       <c r="P41" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9366,7 +9360,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -9778,7 +9772,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Q44">
         <v>2.85</v>
@@ -9984,7 +9978,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q45">
         <v>2.25</v>
@@ -10363,7 +10357,7 @@
         <v>69</v>
       </c>
       <c r="E47" s="2">
-        <v>45562.875</v>
+        <v>45563.29166666666</v>
       </c>
       <c r="F47">
         <v>6</v>
@@ -10396,7 +10390,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -10569,7 +10563,7 @@
         <v>69</v>
       </c>
       <c r="E48" s="2">
-        <v>45562.875</v>
+        <v>45563.41666666666</v>
       </c>
       <c r="F48">
         <v>6</v>
@@ -10602,7 +10596,7 @@
         <v>89</v>
       </c>
       <c r="P48" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10695,31 +10689,31 @@
         <v>2.96</v>
       </c>
       <c r="AU48">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV48">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW48">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AX48">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY48">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AZ48">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BA48">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BB48">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC48">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BD48">
         <v>1.63</v>
@@ -10766,7 +10760,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>7502654</v>
+        <v>7502651</v>
       </c>
       <c r="C49" t="s">
         <v>68</v>
@@ -10775,196 +10769,196 @@
         <v>69</v>
       </c>
       <c r="E49" s="2">
-        <v>45562.875</v>
+        <v>45563.58333333334</v>
       </c>
       <c r="F49">
         <v>6</v>
       </c>
       <c r="G49" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H49" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J49">
         <v>1</v>
       </c>
       <c r="K49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L49">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N49">
+        <v>2</v>
+      </c>
+      <c r="O49" t="s">
+        <v>89</v>
+      </c>
+      <c r="P49" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q49">
+        <v>2.75</v>
+      </c>
+      <c r="R49">
+        <v>2.25</v>
+      </c>
+      <c r="S49">
+        <v>3.75</v>
+      </c>
+      <c r="T49">
+        <v>1.36</v>
+      </c>
+      <c r="U49">
+        <v>3</v>
+      </c>
+      <c r="V49">
+        <v>2.63</v>
+      </c>
+      <c r="W49">
+        <v>1.44</v>
+      </c>
+      <c r="X49">
+        <v>7</v>
+      </c>
+      <c r="Y49">
+        <v>1.1</v>
+      </c>
+      <c r="Z49">
+        <v>2.02</v>
+      </c>
+      <c r="AA49">
+        <v>3.55</v>
+      </c>
+      <c r="AB49">
+        <v>3.2</v>
+      </c>
+      <c r="AC49">
+        <v>1.01</v>
+      </c>
+      <c r="AD49">
+        <v>7.9</v>
+      </c>
+      <c r="AE49">
+        <v>1.25</v>
+      </c>
+      <c r="AF49">
+        <v>3.75</v>
+      </c>
+      <c r="AG49">
+        <v>1.75</v>
+      </c>
+      <c r="AH49">
+        <v>1.9</v>
+      </c>
+      <c r="AI49">
+        <v>1.62</v>
+      </c>
+      <c r="AJ49">
+        <v>2.2</v>
+      </c>
+      <c r="AK49">
+        <v>1.33</v>
+      </c>
+      <c r="AL49">
+        <v>1.22</v>
+      </c>
+      <c r="AM49">
+        <v>1.72</v>
+      </c>
+      <c r="AN49">
+        <v>1.5</v>
+      </c>
+      <c r="AO49">
+        <v>3</v>
+      </c>
+      <c r="AP49">
+        <v>1</v>
+      </c>
+      <c r="AQ49">
+        <v>3</v>
+      </c>
+      <c r="AR49">
+        <v>1.23</v>
+      </c>
+      <c r="AS49">
+        <v>1.47</v>
+      </c>
+      <c r="AT49">
+        <v>2.7</v>
+      </c>
+      <c r="AU49">
+        <v>6</v>
+      </c>
+      <c r="AV49">
+        <v>2</v>
+      </c>
+      <c r="AW49">
+        <v>7</v>
+      </c>
+      <c r="AX49">
+        <v>3</v>
+      </c>
+      <c r="AY49">
+        <v>13</v>
+      </c>
+      <c r="AZ49">
         <v>5</v>
       </c>
-      <c r="O49" t="s">
-        <v>121</v>
-      </c>
-      <c r="P49" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q49">
-        <v>3.4</v>
-      </c>
-      <c r="R49">
-        <v>2.05</v>
-      </c>
-      <c r="S49">
-        <v>3.4</v>
-      </c>
-      <c r="T49">
-        <v>1.44</v>
-      </c>
-      <c r="U49">
-        <v>2.63</v>
-      </c>
-      <c r="V49">
-        <v>3.25</v>
-      </c>
-      <c r="W49">
-        <v>1.33</v>
-      </c>
-      <c r="X49">
-        <v>10</v>
-      </c>
-      <c r="Y49">
-        <v>1.06</v>
-      </c>
-      <c r="Z49">
-        <v>2.5</v>
-      </c>
-      <c r="AA49">
-        <v>3.2</v>
-      </c>
-      <c r="AB49">
-        <v>2.5</v>
-      </c>
-      <c r="AC49">
-        <v>1.02</v>
-      </c>
-      <c r="AD49">
-        <v>7.3</v>
-      </c>
-      <c r="AE49">
-        <v>1.36</v>
-      </c>
-      <c r="AF49">
-        <v>2.95</v>
-      </c>
-      <c r="AG49">
-        <v>2.13</v>
-      </c>
-      <c r="AH49">
-        <v>1.66</v>
-      </c>
-      <c r="AI49">
-        <v>1.83</v>
-      </c>
-      <c r="AJ49">
-        <v>1.83</v>
-      </c>
-      <c r="AK49">
-        <v>1.45</v>
-      </c>
-      <c r="AL49">
-        <v>1.3</v>
-      </c>
-      <c r="AM49">
-        <v>1.47</v>
-      </c>
-      <c r="AN49">
-        <v>1</v>
-      </c>
-      <c r="AO49">
-        <v>2</v>
-      </c>
-      <c r="AP49">
-        <v>1.67</v>
-      </c>
-      <c r="AQ49">
-        <v>1.33</v>
-      </c>
-      <c r="AR49">
-        <v>1.2</v>
-      </c>
-      <c r="AS49">
-        <v>1.36</v>
-      </c>
-      <c r="AT49">
-        <v>2.56</v>
-      </c>
-      <c r="AU49">
-        <v>3</v>
-      </c>
-      <c r="AV49">
-        <v>4</v>
-      </c>
-      <c r="AW49">
-        <v>2</v>
-      </c>
-      <c r="AX49">
-        <v>3</v>
-      </c>
-      <c r="AY49">
-        <v>5</v>
-      </c>
-      <c r="AZ49">
-        <v>7</v>
-      </c>
       <c r="BA49">
         <v>3</v>
       </c>
       <c r="BB49">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BC49">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BD49">
-        <v>1.88</v>
+        <v>1.59</v>
       </c>
       <c r="BE49">
-        <v>6.55</v>
+        <v>7.1</v>
       </c>
       <c r="BF49">
-        <v>2.38</v>
+        <v>2.98</v>
       </c>
       <c r="BG49">
-        <v>1.18</v>
+        <v>1.09</v>
       </c>
       <c r="BH49">
-        <v>4.33</v>
+        <v>4.9</v>
       </c>
       <c r="BI49">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="BJ49">
-        <v>3</v>
+        <v>3.34</v>
       </c>
       <c r="BK49">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="BL49">
-        <v>2.25</v>
+        <v>2.47</v>
       </c>
       <c r="BM49">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="BN49">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="BO49">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="BP49">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="50" spans="1:68">
@@ -10972,7 +10966,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>7502651</v>
+        <v>7502654</v>
       </c>
       <c r="C50" t="s">
         <v>68</v>
@@ -10981,196 +10975,196 @@
         <v>69</v>
       </c>
       <c r="E50" s="2">
-        <v>45562.875</v>
+        <v>45563.6875</v>
       </c>
       <c r="F50">
         <v>6</v>
       </c>
       <c r="G50" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="H50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J50">
         <v>1</v>
       </c>
       <c r="K50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N50">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O50" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Q50">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="R50">
+        <v>2.05</v>
+      </c>
+      <c r="S50">
+        <v>3.4</v>
+      </c>
+      <c r="T50">
+        <v>1.44</v>
+      </c>
+      <c r="U50">
+        <v>2.63</v>
+      </c>
+      <c r="V50">
+        <v>3.25</v>
+      </c>
+      <c r="W50">
+        <v>1.33</v>
+      </c>
+      <c r="X50">
+        <v>10</v>
+      </c>
+      <c r="Y50">
+        <v>1.06</v>
+      </c>
+      <c r="Z50">
+        <v>2.5</v>
+      </c>
+      <c r="AA50">
+        <v>3.2</v>
+      </c>
+      <c r="AB50">
+        <v>2.5</v>
+      </c>
+      <c r="AC50">
+        <v>1.02</v>
+      </c>
+      <c r="AD50">
+        <v>7.3</v>
+      </c>
+      <c r="AE50">
+        <v>1.36</v>
+      </c>
+      <c r="AF50">
+        <v>2.95</v>
+      </c>
+      <c r="AG50">
+        <v>2.13</v>
+      </c>
+      <c r="AH50">
+        <v>1.66</v>
+      </c>
+      <c r="AI50">
+        <v>1.83</v>
+      </c>
+      <c r="AJ50">
+        <v>1.83</v>
+      </c>
+      <c r="AK50">
+        <v>1.45</v>
+      </c>
+      <c r="AL50">
+        <v>1.3</v>
+      </c>
+      <c r="AM50">
+        <v>1.47</v>
+      </c>
+      <c r="AN50">
+        <v>1</v>
+      </c>
+      <c r="AO50">
+        <v>2</v>
+      </c>
+      <c r="AP50">
+        <v>1.67</v>
+      </c>
+      <c r="AQ50">
+        <v>1.33</v>
+      </c>
+      <c r="AR50">
+        <v>1.2</v>
+      </c>
+      <c r="AS50">
+        <v>1.36</v>
+      </c>
+      <c r="AT50">
+        <v>2.56</v>
+      </c>
+      <c r="AU50">
+        <v>3</v>
+      </c>
+      <c r="AV50">
+        <v>4</v>
+      </c>
+      <c r="AW50">
+        <v>2</v>
+      </c>
+      <c r="AX50">
+        <v>3</v>
+      </c>
+      <c r="AY50">
+        <v>5</v>
+      </c>
+      <c r="AZ50">
+        <v>7</v>
+      </c>
+      <c r="BA50">
+        <v>3</v>
+      </c>
+      <c r="BB50">
+        <v>8</v>
+      </c>
+      <c r="BC50">
+        <v>11</v>
+      </c>
+      <c r="BD50">
+        <v>1.88</v>
+      </c>
+      <c r="BE50">
+        <v>6.55</v>
+      </c>
+      <c r="BF50">
+        <v>2.38</v>
+      </c>
+      <c r="BG50">
+        <v>1.18</v>
+      </c>
+      <c r="BH50">
+        <v>4.33</v>
+      </c>
+      <c r="BI50">
+        <v>1.33</v>
+      </c>
+      <c r="BJ50">
+        <v>3</v>
+      </c>
+      <c r="BK50">
+        <v>1.57</v>
+      </c>
+      <c r="BL50">
         <v>2.25</v>
       </c>
-      <c r="S50">
-        <v>3.75</v>
-      </c>
-      <c r="T50">
-        <v>1.36</v>
-      </c>
-      <c r="U50">
-        <v>3</v>
-      </c>
-      <c r="V50">
-        <v>2.63</v>
-      </c>
-      <c r="W50">
-        <v>1.44</v>
-      </c>
-      <c r="X50">
-        <v>7</v>
-      </c>
-      <c r="Y50">
-        <v>1.1</v>
-      </c>
-      <c r="Z50">
-        <v>2.02</v>
-      </c>
-      <c r="AA50">
-        <v>3.55</v>
-      </c>
-      <c r="AB50">
-        <v>3.2</v>
-      </c>
-      <c r="AC50">
-        <v>1.01</v>
-      </c>
-      <c r="AD50">
-        <v>7.9</v>
-      </c>
-      <c r="AE50">
-        <v>1.25</v>
-      </c>
-      <c r="AF50">
-        <v>3.75</v>
-      </c>
-      <c r="AG50">
-        <v>1.75</v>
-      </c>
-      <c r="AH50">
+      <c r="BM50">
         <v>1.9</v>
       </c>
-      <c r="AI50">
-        <v>1.62</v>
-      </c>
-      <c r="AJ50">
-        <v>2.2</v>
-      </c>
-      <c r="AK50">
-        <v>1.33</v>
-      </c>
-      <c r="AL50">
-        <v>1.22</v>
-      </c>
-      <c r="AM50">
-        <v>1.72</v>
-      </c>
-      <c r="AN50">
-        <v>1.5</v>
-      </c>
-      <c r="AO50">
-        <v>3</v>
-      </c>
-      <c r="AP50">
-        <v>1</v>
-      </c>
-      <c r="AQ50">
-        <v>3</v>
-      </c>
-      <c r="AR50">
-        <v>1.23</v>
-      </c>
-      <c r="AS50">
-        <v>1.47</v>
-      </c>
-      <c r="AT50">
-        <v>2.7</v>
-      </c>
-      <c r="AU50">
-        <v>6</v>
-      </c>
-      <c r="AV50">
-        <v>2</v>
-      </c>
-      <c r="AW50">
-        <v>7</v>
-      </c>
-      <c r="AX50">
-        <v>3</v>
-      </c>
-      <c r="AY50">
-        <v>13</v>
-      </c>
-      <c r="AZ50">
-        <v>5</v>
-      </c>
-      <c r="BA50">
-        <v>3</v>
-      </c>
-      <c r="BB50">
-        <v>3</v>
-      </c>
-      <c r="BC50">
-        <v>6</v>
-      </c>
-      <c r="BD50">
-        <v>1.59</v>
-      </c>
-      <c r="BE50">
-        <v>7.1</v>
-      </c>
-      <c r="BF50">
-        <v>2.98</v>
-      </c>
-      <c r="BG50">
-        <v>1.09</v>
-      </c>
-      <c r="BH50">
-        <v>4.9</v>
-      </c>
-      <c r="BI50">
-        <v>1.22</v>
-      </c>
-      <c r="BJ50">
-        <v>3.34</v>
-      </c>
-      <c r="BK50">
-        <v>1.48</v>
-      </c>
-      <c r="BL50">
-        <v>2.47</v>
-      </c>
-      <c r="BM50">
-        <v>1.82</v>
-      </c>
       <c r="BN50">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="BO50">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="BP50">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="51" spans="1:68">
@@ -11178,7 +11172,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>7502650</v>
+        <v>7502653</v>
       </c>
       <c r="C51" t="s">
         <v>68</v>
@@ -11187,16 +11181,16 @@
         <v>69</v>
       </c>
       <c r="E51" s="2">
-        <v>45563.875</v>
+        <v>45564.29166666666</v>
       </c>
       <c r="F51">
         <v>6</v>
       </c>
       <c r="G51" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -11208,28 +11202,28 @@
         <v>0</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O51" t="s">
+        <v>107</v>
+      </c>
+      <c r="P51" t="s">
         <v>89</v>
       </c>
-      <c r="P51" t="s">
-        <v>162</v>
-      </c>
       <c r="Q51">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="R51">
         <v>2.2</v>
       </c>
       <c r="S51">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="T51">
         <v>1.4</v>
@@ -11250,19 +11244,19 @@
         <v>1.08</v>
       </c>
       <c r="Z51">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AA51">
         <v>3.25</v>
       </c>
       <c r="AB51">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AC51">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD51">
-        <v>8.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="AE51">
         <v>1.3</v>
@@ -11271,7 +11265,7 @@
         <v>3.3</v>
       </c>
       <c r="AG51">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AH51">
         <v>1.8</v>
@@ -11283,49 +11277,49 @@
         <v>2.1</v>
       </c>
       <c r="AK51">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AL51">
         <v>1.25</v>
       </c>
       <c r="AM51">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AN51">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP51">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="AQ51">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="AR51">
-        <v>1.12</v>
+        <v>1.2</v>
       </c>
       <c r="AS51">
-        <v>1.44</v>
+        <v>1.77</v>
       </c>
       <c r="AT51">
-        <v>2.56</v>
+        <v>2.97</v>
       </c>
       <c r="AU51">
+        <v>2</v>
+      </c>
+      <c r="AV51">
         <v>5</v>
       </c>
-      <c r="AV51">
-        <v>2</v>
-      </c>
       <c r="AW51">
         <v>2</v>
       </c>
       <c r="AX51">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AY51">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AZ51">
         <v>10</v>
@@ -11334,49 +11328,49 @@
         <v>2</v>
       </c>
       <c r="BB51">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BC51">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BD51">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="BE51">
-        <v>7.2</v>
+        <v>8.9</v>
       </c>
       <c r="BF51">
-        <v>2.14</v>
+        <v>2.47</v>
       </c>
       <c r="BG51">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="BH51">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="BI51">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="BJ51">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="BK51">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="BL51">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="BM51">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="BN51">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="BO51">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="BP51">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="52" spans="1:68">
@@ -11384,7 +11378,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>7502653</v>
+        <v>7502650</v>
       </c>
       <c r="C52" t="s">
         <v>68</v>
@@ -11393,16 +11387,16 @@
         <v>69</v>
       </c>
       <c r="E52" s="2">
-        <v>45563.875</v>
+        <v>45564.29166666666</v>
       </c>
       <c r="F52">
         <v>6</v>
       </c>
       <c r="G52" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H52" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -11414,28 +11408,28 @@
         <v>0</v>
       </c>
       <c r="L52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O52" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="P52" t="s">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="Q52">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="R52">
         <v>2.2</v>
       </c>
       <c r="S52">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="T52">
         <v>1.4</v>
@@ -11456,19 +11450,19 @@
         <v>1.08</v>
       </c>
       <c r="Z52">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="AA52">
         <v>3.25</v>
       </c>
       <c r="AB52">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="AC52">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD52">
-        <v>9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AE52">
         <v>1.3</v>
@@ -11477,7 +11471,7 @@
         <v>3.3</v>
       </c>
       <c r="AG52">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AH52">
         <v>1.8</v>
@@ -11489,49 +11483,49 @@
         <v>2.1</v>
       </c>
       <c r="AK52">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AL52">
         <v>1.25</v>
       </c>
       <c r="AM52">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="AN52">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP52">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AQ52">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="AR52">
-        <v>1.2</v>
+        <v>1.12</v>
       </c>
       <c r="AS52">
-        <v>1.77</v>
+        <v>1.44</v>
       </c>
       <c r="AT52">
-        <v>2.97</v>
+        <v>2.56</v>
       </c>
       <c r="AU52">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV52">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AW52">
         <v>2</v>
       </c>
       <c r="AX52">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AY52">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AZ52">
         <v>10</v>
@@ -11540,49 +11534,49 @@
         <v>2</v>
       </c>
       <c r="BB52">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BC52">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BD52">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="BE52">
-        <v>8.9</v>
+        <v>7.2</v>
       </c>
       <c r="BF52">
-        <v>2.47</v>
+        <v>2.14</v>
       </c>
       <c r="BG52">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="BH52">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="BI52">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="BJ52">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="BK52">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="BL52">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="BM52">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="BN52">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="BO52">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="BP52">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="53" spans="1:68">
@@ -11590,7 +11584,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>7502656</v>
+        <v>7502657</v>
       </c>
       <c r="C53" t="s">
         <v>68</v>
@@ -11599,22 +11593,22 @@
         <v>69</v>
       </c>
       <c r="E53" s="2">
-        <v>45563.875</v>
+        <v>45564.47916666666</v>
       </c>
       <c r="F53">
         <v>6</v>
       </c>
       <c r="G53" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H53" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53">
         <v>1</v>
@@ -11632,575 +11626,163 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c r="Q53">
+        <v>3.1</v>
+      </c>
+      <c r="R53">
+        <v>2.1</v>
+      </c>
+      <c r="S53">
         <v>3.6</v>
       </c>
-      <c r="R53">
-        <v>2</v>
-      </c>
-      <c r="S53">
+      <c r="T53">
+        <v>1.44</v>
+      </c>
+      <c r="U53">
+        <v>2.63</v>
+      </c>
+      <c r="V53">
         <v>3.25</v>
       </c>
-      <c r="T53">
-        <v>1.5</v>
-      </c>
-      <c r="U53">
-        <v>2.5</v>
-      </c>
-      <c r="V53">
-        <v>3.4</v>
-      </c>
       <c r="W53">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X53">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y53">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="Z53">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="AA53">
         <v>3.1</v>
       </c>
       <c r="AB53">
-        <v>2.25</v>
+        <v>2.88</v>
       </c>
       <c r="AC53">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AD53">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE53">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="AF53">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="AG53">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AH53">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="AI53">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AJ53">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AK53">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="AL53">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AM53">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AN53">
         <v>0.5</v>
       </c>
       <c r="AO53">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AP53">
         <v>0.67</v>
       </c>
       <c r="AQ53">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="AR53">
-        <v>1.6</v>
+        <v>1.11</v>
       </c>
       <c r="AS53">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AT53">
-        <v>2.84</v>
+        <v>2.83</v>
       </c>
       <c r="AU53">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AV53">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AW53">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX53">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY53">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AZ53">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BA53">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB53">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC53">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BD53">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="BE53">
-        <v>6.45</v>
+        <v>6.6</v>
       </c>
       <c r="BF53">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="BG53">
-        <v>1.16</v>
+        <v>1.09</v>
       </c>
       <c r="BH53">
-        <v>3.85</v>
+        <v>5</v>
       </c>
       <c r="BI53">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="BJ53">
-        <v>2.7</v>
+        <v>3.35</v>
       </c>
       <c r="BK53">
-        <v>1.67</v>
+        <v>1.49</v>
       </c>
       <c r="BL53">
-        <v>2.07</v>
+        <v>2.53</v>
       </c>
       <c r="BM53">
-        <v>2.06</v>
+        <v>1.8</v>
       </c>
       <c r="BN53">
+        <v>2</v>
+      </c>
+      <c r="BO53">
+        <v>2.23</v>
+      </c>
+      <c r="BP53">
         <v>1.62</v>
-      </c>
-      <c r="BO53">
-        <v>2.65</v>
-      </c>
-      <c r="BP53">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="54" spans="1:68">
-      <c r="A54" s="1">
-        <v>53</v>
-      </c>
-      <c r="B54">
-        <v>7502657</v>
-      </c>
-      <c r="C54" t="s">
-        <v>68</v>
-      </c>
-      <c r="D54" t="s">
-        <v>69</v>
-      </c>
-      <c r="E54" s="2">
-        <v>45564.47916666666</v>
-      </c>
-      <c r="F54">
-        <v>6</v>
-      </c>
-      <c r="G54" t="s">
-        <v>77</v>
-      </c>
-      <c r="H54" t="s">
-        <v>70</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>1</v>
-      </c>
-      <c r="K54">
-        <v>1</v>
-      </c>
-      <c r="L54">
-        <v>1</v>
-      </c>
-      <c r="M54">
-        <v>1</v>
-      </c>
-      <c r="N54">
-        <v>2</v>
-      </c>
-      <c r="O54" t="s">
-        <v>123</v>
-      </c>
-      <c r="P54" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q54">
-        <v>3.1</v>
-      </c>
-      <c r="R54">
-        <v>2.1</v>
-      </c>
-      <c r="S54">
-        <v>3.6</v>
-      </c>
-      <c r="T54">
-        <v>1.44</v>
-      </c>
-      <c r="U54">
-        <v>2.63</v>
-      </c>
-      <c r="V54">
-        <v>3.25</v>
-      </c>
-      <c r="W54">
-        <v>1.33</v>
-      </c>
-      <c r="X54">
-        <v>9</v>
-      </c>
-      <c r="Y54">
-        <v>1.07</v>
-      </c>
-      <c r="Z54">
-        <v>2.38</v>
-      </c>
-      <c r="AA54">
-        <v>3.1</v>
-      </c>
-      <c r="AB54">
-        <v>2.88</v>
-      </c>
-      <c r="AC54">
-        <v>1.05</v>
-      </c>
-      <c r="AD54">
-        <v>8</v>
-      </c>
-      <c r="AE54">
-        <v>1.29</v>
-      </c>
-      <c r="AF54">
-        <v>3.3</v>
-      </c>
-      <c r="AG54">
-        <v>1.98</v>
-      </c>
-      <c r="AH54">
-        <v>1.68</v>
-      </c>
-      <c r="AI54">
-        <v>1.83</v>
-      </c>
-      <c r="AJ54">
-        <v>1.83</v>
-      </c>
-      <c r="AK54">
-        <v>1.4</v>
-      </c>
-      <c r="AL54">
-        <v>1.28</v>
-      </c>
-      <c r="AM54">
-        <v>1.55</v>
-      </c>
-      <c r="AN54">
-        <v>0.5</v>
-      </c>
-      <c r="AO54">
-        <v>1.5</v>
-      </c>
-      <c r="AP54">
-        <v>0.67</v>
-      </c>
-      <c r="AQ54">
-        <v>1.33</v>
-      </c>
-      <c r="AR54">
-        <v>1.11</v>
-      </c>
-      <c r="AS54">
-        <v>1.72</v>
-      </c>
-      <c r="AT54">
-        <v>2.83</v>
-      </c>
-      <c r="AU54">
-        <v>3</v>
-      </c>
-      <c r="AV54">
-        <v>2</v>
-      </c>
-      <c r="AW54">
-        <v>9</v>
-      </c>
-      <c r="AX54">
-        <v>6</v>
-      </c>
-      <c r="AY54">
-        <v>12</v>
-      </c>
-      <c r="AZ54">
-        <v>8</v>
-      </c>
-      <c r="BA54">
-        <v>3</v>
-      </c>
-      <c r="BB54">
-        <v>3</v>
-      </c>
-      <c r="BC54">
-        <v>6</v>
-      </c>
-      <c r="BD54">
-        <v>2.2</v>
-      </c>
-      <c r="BE54">
-        <v>6.6</v>
-      </c>
-      <c r="BF54">
-        <v>2</v>
-      </c>
-      <c r="BG54">
-        <v>1.09</v>
-      </c>
-      <c r="BH54">
-        <v>5</v>
-      </c>
-      <c r="BI54">
-        <v>1.22</v>
-      </c>
-      <c r="BJ54">
-        <v>3.35</v>
-      </c>
-      <c r="BK54">
-        <v>1.49</v>
-      </c>
-      <c r="BL54">
-        <v>2.53</v>
-      </c>
-      <c r="BM54">
-        <v>1.8</v>
-      </c>
-      <c r="BN54">
-        <v>2</v>
-      </c>
-      <c r="BO54">
-        <v>2.23</v>
-      </c>
-      <c r="BP54">
-        <v>1.62</v>
-      </c>
-    </row>
-    <row r="55" spans="1:68">
-      <c r="A55" s="1">
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <v>7502649</v>
-      </c>
-      <c r="C55" t="s">
-        <v>68</v>
-      </c>
-      <c r="D55" t="s">
-        <v>69</v>
-      </c>
-      <c r="E55" s="2">
-        <v>45565.58333333334</v>
-      </c>
-      <c r="F55">
-        <v>6</v>
-      </c>
-      <c r="G55" t="s">
-        <v>84</v>
-      </c>
-      <c r="H55" t="s">
-        <v>71</v>
-      </c>
-      <c r="I55">
-        <v>1</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>1</v>
-      </c>
-      <c r="L55">
-        <v>3</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>3</v>
-      </c>
-      <c r="O55" t="s">
-        <v>124</v>
-      </c>
-      <c r="P55" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q55">
-        <v>2.6</v>
-      </c>
-      <c r="R55">
-        <v>2.2</v>
-      </c>
-      <c r="S55">
-        <v>4.33</v>
-      </c>
-      <c r="T55">
-        <v>1.4</v>
-      </c>
-      <c r="U55">
-        <v>2.75</v>
-      </c>
-      <c r="V55">
-        <v>2.75</v>
-      </c>
-      <c r="W55">
-        <v>1.4</v>
-      </c>
-      <c r="X55">
-        <v>8</v>
-      </c>
-      <c r="Y55">
-        <v>1.08</v>
-      </c>
-      <c r="Z55">
-        <v>1.93</v>
-      </c>
-      <c r="AA55">
-        <v>3.4</v>
-      </c>
-      <c r="AB55">
-        <v>3.2</v>
-      </c>
-      <c r="AC55">
-        <v>1.02</v>
-      </c>
-      <c r="AD55">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AE55">
-        <v>1.25</v>
-      </c>
-      <c r="AF55">
-        <v>3.14</v>
-      </c>
-      <c r="AG55">
-        <v>1.95</v>
-      </c>
-      <c r="AH55">
-        <v>1.84</v>
-      </c>
-      <c r="AI55">
-        <v>1.8</v>
-      </c>
-      <c r="AJ55">
-        <v>1.91</v>
-      </c>
-      <c r="AK55">
-        <v>1.33</v>
-      </c>
-      <c r="AL55">
-        <v>1.25</v>
-      </c>
-      <c r="AM55">
-        <v>1.72</v>
-      </c>
-      <c r="AN55">
-        <v>0</v>
-      </c>
-      <c r="AO55">
-        <v>2</v>
-      </c>
-      <c r="AP55">
-        <v>1</v>
-      </c>
-      <c r="AQ55">
-        <v>1.33</v>
-      </c>
-      <c r="AR55">
-        <v>1.78</v>
-      </c>
-      <c r="AS55">
-        <v>1.35</v>
-      </c>
-      <c r="AT55">
-        <v>3.13</v>
-      </c>
-      <c r="AU55">
-        <v>4</v>
-      </c>
-      <c r="AV55">
-        <v>0</v>
-      </c>
-      <c r="AW55">
-        <v>8</v>
-      </c>
-      <c r="AX55">
-        <v>3</v>
-      </c>
-      <c r="AY55">
-        <v>12</v>
-      </c>
-      <c r="AZ55">
-        <v>3</v>
-      </c>
-      <c r="BA55">
-        <v>3</v>
-      </c>
-      <c r="BB55">
-        <v>3</v>
-      </c>
-      <c r="BC55">
-        <v>6</v>
-      </c>
-      <c r="BD55">
-        <v>1.61</v>
-      </c>
-      <c r="BE55">
-        <v>8.5</v>
-      </c>
-      <c r="BF55">
-        <v>2.73</v>
-      </c>
-      <c r="BG55">
-        <v>1.18</v>
-      </c>
-      <c r="BH55">
-        <v>4.1</v>
-      </c>
-      <c r="BI55">
-        <v>1.35</v>
-      </c>
-      <c r="BJ55">
-        <v>2.85</v>
-      </c>
-      <c r="BK55">
-        <v>1.58</v>
-      </c>
-      <c r="BL55">
-        <v>2.17</v>
-      </c>
-      <c r="BM55">
-        <v>2</v>
-      </c>
-      <c r="BN55">
-        <v>1.8</v>
-      </c>
-      <c r="BO55">
-        <v>2.4</v>
-      </c>
-      <c r="BP55">
-        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="164">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -382,7 +382,13 @@
     <t>['16', '18', '38', '83']</t>
   </si>
   <si>
+    <t>['18']</t>
+  </si>
+  <si>
     <t>['58']</t>
+  </si>
+  <si>
+    <t>['23', '56', '68']</t>
   </si>
   <si>
     <t>['24', '27']</t>
@@ -861,7 +867,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP53"/>
+  <dimension ref="A1:BP55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1120,7 +1126,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -1228,7 +1234,7 @@
         <v>11</v>
       </c>
       <c r="AZ2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA2">
         <v>5</v>
@@ -1326,7 +1332,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -1431,10 +1437,10 @@
         <v>3</v>
       </c>
       <c r="AY3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA3">
         <v>2</v>
@@ -1532,7 +1538,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -1637,10 +1643,10 @@
         <v>2</v>
       </c>
       <c r="AY4">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AZ4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA4">
         <v>8</v>
@@ -1738,7 +1744,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1843,10 +1849,10 @@
         <v>10</v>
       </c>
       <c r="AY5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA5">
         <v>1</v>
@@ -1944,7 +1950,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2150,7 +2156,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2255,10 +2261,10 @@
         <v>10</v>
       </c>
       <c r="AY7">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AZ7">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="BA7">
         <v>6</v>
@@ -2356,7 +2362,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q8">
         <v>2.5</v>
@@ -2562,7 +2568,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -2873,7 +2879,7 @@
         <v>3</v>
       </c>
       <c r="AY10">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ10">
         <v>5</v>
@@ -2974,7 +2980,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3052,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ11">
         <v>1.67</v>
@@ -3079,10 +3085,10 @@
         <v>4</v>
       </c>
       <c r="AY11">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ11">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA11">
         <v>5</v>
@@ -3261,7 +3267,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ12">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3285,10 +3291,10 @@
         <v>6</v>
       </c>
       <c r="AY12">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ12">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA12">
         <v>4</v>
@@ -3386,7 +3392,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -3491,10 +3497,10 @@
         <v>10</v>
       </c>
       <c r="AY13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ13">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="BA13">
         <v>6</v>
@@ -3592,7 +3598,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -3697,10 +3703,10 @@
         <v>11</v>
       </c>
       <c r="AY14">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AZ14">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="BA14">
         <v>9</v>
@@ -3798,7 +3804,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -3903,10 +3909,10 @@
         <v>4</v>
       </c>
       <c r="AY15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ15">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA15">
         <v>2</v>
@@ -4004,7 +4010,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -4082,7 +4088,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ16">
         <v>3</v>
@@ -4109,10 +4115,10 @@
         <v>7</v>
       </c>
       <c r="AY16">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA16">
         <v>12</v>
@@ -4291,7 +4297,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ17">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4315,7 +4321,7 @@
         <v>3</v>
       </c>
       <c r="AY17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ17">
         <v>8</v>
@@ -4521,10 +4527,10 @@
         <v>7</v>
       </c>
       <c r="AY18">
+        <v>20</v>
+      </c>
+      <c r="AZ18">
         <v>14</v>
-      </c>
-      <c r="AZ18">
-        <v>12</v>
       </c>
       <c r="BA18">
         <v>6</v>
@@ -4622,7 +4628,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q19">
         <v>2.79</v>
@@ -4727,10 +4733,10 @@
         <v>7</v>
       </c>
       <c r="AY19">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ19">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA19">
         <v>6</v>
@@ -4828,7 +4834,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -4933,7 +4939,7 @@
         <v>5</v>
       </c>
       <c r="AY20">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ20">
         <v>13</v>
@@ -5142,7 +5148,7 @@
         <v>14</v>
       </c>
       <c r="AZ21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA21">
         <v>8</v>
@@ -5345,10 +5351,10 @@
         <v>7</v>
       </c>
       <c r="AY22">
+        <v>14</v>
+      </c>
+      <c r="AZ22">
         <v>13</v>
-      </c>
-      <c r="AZ22">
-        <v>12</v>
       </c>
       <c r="BA22">
         <v>5</v>
@@ -5446,7 +5452,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5551,10 +5557,10 @@
         <v>5</v>
       </c>
       <c r="AY23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA23">
         <v>1</v>
@@ -5757,10 +5763,10 @@
         <v>8</v>
       </c>
       <c r="AY24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ24">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA24">
         <v>3</v>
@@ -5858,7 +5864,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q25">
         <v>2.91</v>
@@ -5963,10 +5969,10 @@
         <v>7</v>
       </c>
       <c r="AY25">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ25">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA25">
         <v>8</v>
@@ -6064,7 +6070,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6169,7 +6175,7 @@
         <v>4</v>
       </c>
       <c r="AY26">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ26">
         <v>8</v>
@@ -6270,7 +6276,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q27">
         <v>3.25</v>
@@ -6375,7 +6381,7 @@
         <v>4</v>
       </c>
       <c r="AY27">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ27">
         <v>8</v>
@@ -6581,10 +6587,10 @@
         <v>6</v>
       </c>
       <c r="AY28">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA28">
         <v>6</v>
@@ -6682,7 +6688,7 @@
         <v>89</v>
       </c>
       <c r="P29" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -6760,7 +6766,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ29">
         <v>1.33</v>
@@ -6787,10 +6793,10 @@
         <v>3</v>
       </c>
       <c r="AY29">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AZ29">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA29">
         <v>10</v>
@@ -6888,7 +6894,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -6969,7 +6975,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ30">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR30">
         <v>1.33</v>
@@ -7300,7 +7306,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7378,7 +7384,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ32">
         <v>1</v>
@@ -7506,7 +7512,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7611,7 +7617,7 @@
         <v>10</v>
       </c>
       <c r="AY33">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ33">
         <v>14</v>
@@ -7712,7 +7718,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -7918,7 +7924,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q35">
         <v>2.57</v>
@@ -8124,7 +8130,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q36">
         <v>2.89</v>
@@ -8330,7 +8336,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q37">
         <v>2.5</v>
@@ -8411,7 +8417,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ37">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR37">
         <v>0.91</v>
@@ -8536,7 +8542,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8742,7 +8748,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9154,7 +9160,7 @@
         <v>89</v>
       </c>
       <c r="P41" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9360,7 +9366,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -9772,7 +9778,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q44">
         <v>2.85</v>
@@ -9978,7 +9984,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q45">
         <v>2.25</v>
@@ -10390,7 +10396,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -10483,22 +10489,22 @@
         <v>2.97</v>
       </c>
       <c r="AU47">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV47">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW47">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AX47">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AY47">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AZ47">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="BA47">
         <v>4</v>
@@ -10596,7 +10602,7 @@
         <v>89</v>
       </c>
       <c r="P48" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10689,22 +10695,22 @@
         <v>2.96</v>
       </c>
       <c r="AU48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV48">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW48">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AX48">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AY48">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ48">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="BA48">
         <v>9</v>
@@ -10802,7 +10808,7 @@
         <v>89</v>
       </c>
       <c r="P49" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -10895,13 +10901,13 @@
         <v>2.7</v>
       </c>
       <c r="AU49">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW49">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX49">
         <v>3</v>
@@ -10910,7 +10916,7 @@
         <v>13</v>
       </c>
       <c r="AZ49">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA49">
         <v>3</v>
@@ -11008,7 +11014,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11101,22 +11107,22 @@
         <v>2.56</v>
       </c>
       <c r="AU50">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV50">
+        <v>5</v>
+      </c>
+      <c r="AW50">
         <v>4</v>
       </c>
-      <c r="AW50">
-        <v>2</v>
-      </c>
       <c r="AX50">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY50">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AZ50">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA50">
         <v>3</v>
@@ -11307,22 +11313,22 @@
         <v>2.97</v>
       </c>
       <c r="AU51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV51">
         <v>5</v>
       </c>
       <c r="AW51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX51">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AY51">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AZ51">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BA51">
         <v>2</v>
@@ -11420,7 +11426,7 @@
         <v>89</v>
       </c>
       <c r="P52" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q52">
         <v>3.2</v>
@@ -11513,22 +11519,22 @@
         <v>2.56</v>
       </c>
       <c r="AU52">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AV52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW52">
         <v>2</v>
       </c>
       <c r="AX52">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AY52">
+        <v>2</v>
+      </c>
+      <c r="AZ52">
         <v>7</v>
-      </c>
-      <c r="AZ52">
-        <v>10</v>
       </c>
       <c r="BA52">
         <v>2</v>
@@ -11584,7 +11590,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>7502657</v>
+        <v>7502656</v>
       </c>
       <c r="C53" t="s">
         <v>68</v>
@@ -11593,22 +11599,22 @@
         <v>69</v>
       </c>
       <c r="E53" s="2">
-        <v>45564.47916666666</v>
+        <v>45564.41666666666</v>
       </c>
       <c r="F53">
         <v>6</v>
       </c>
       <c r="G53" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53">
         <v>1</v>
@@ -11626,163 +11632,575 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="Q53">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="R53">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S53">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="T53">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U53">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V53">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W53">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X53">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y53">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="Z53">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="AA53">
         <v>3.1</v>
       </c>
       <c r="AB53">
-        <v>2.88</v>
+        <v>2.25</v>
       </c>
       <c r="AC53">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AD53">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE53">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AF53">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="AG53">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AH53">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="AI53">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AJ53">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AK53">
+        <v>1.52</v>
+      </c>
+      <c r="AL53">
+        <v>1.3</v>
+      </c>
+      <c r="AM53">
         <v>1.4</v>
-      </c>
-      <c r="AL53">
-        <v>1.28</v>
-      </c>
-      <c r="AM53">
-        <v>1.55</v>
       </c>
       <c r="AN53">
         <v>0.5</v>
       </c>
       <c r="AO53">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP53">
         <v>0.67</v>
       </c>
       <c r="AQ53">
+        <v>1.67</v>
+      </c>
+      <c r="AR53">
+        <v>1.6</v>
+      </c>
+      <c r="AS53">
+        <v>1.24</v>
+      </c>
+      <c r="AT53">
+        <v>2.84</v>
+      </c>
+      <c r="AU53">
+        <v>4</v>
+      </c>
+      <c r="AV53">
+        <v>5</v>
+      </c>
+      <c r="AW53">
+        <v>2</v>
+      </c>
+      <c r="AX53">
+        <v>8</v>
+      </c>
+      <c r="AY53">
+        <v>6</v>
+      </c>
+      <c r="AZ53">
+        <v>13</v>
+      </c>
+      <c r="BA53">
+        <v>8</v>
+      </c>
+      <c r="BB53">
+        <v>12</v>
+      </c>
+      <c r="BC53">
+        <v>20</v>
+      </c>
+      <c r="BD53">
+        <v>2.15</v>
+      </c>
+      <c r="BE53">
+        <v>6.45</v>
+      </c>
+      <c r="BF53">
+        <v>2.06</v>
+      </c>
+      <c r="BG53">
+        <v>1.16</v>
+      </c>
+      <c r="BH53">
+        <v>3.85</v>
+      </c>
+      <c r="BI53">
+        <v>1.36</v>
+      </c>
+      <c r="BJ53">
+        <v>2.7</v>
+      </c>
+      <c r="BK53">
+        <v>1.67</v>
+      </c>
+      <c r="BL53">
+        <v>2.07</v>
+      </c>
+      <c r="BM53">
+        <v>2.06</v>
+      </c>
+      <c r="BN53">
+        <v>1.62</v>
+      </c>
+      <c r="BO53">
+        <v>2.65</v>
+      </c>
+      <c r="BP53">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7502657</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45564.47916666666</v>
+      </c>
+      <c r="F54">
+        <v>6</v>
+      </c>
+      <c r="G54" t="s">
+        <v>77</v>
+      </c>
+      <c r="H54" t="s">
+        <v>70</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>2</v>
+      </c>
+      <c r="O54" t="s">
+        <v>123</v>
+      </c>
+      <c r="P54" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q54">
+        <v>3.1</v>
+      </c>
+      <c r="R54">
+        <v>2.1</v>
+      </c>
+      <c r="S54">
+        <v>3.6</v>
+      </c>
+      <c r="T54">
+        <v>1.44</v>
+      </c>
+      <c r="U54">
+        <v>2.63</v>
+      </c>
+      <c r="V54">
+        <v>3.25</v>
+      </c>
+      <c r="W54">
         <v>1.33</v>
       </c>
-      <c r="AR53">
+      <c r="X54">
+        <v>9</v>
+      </c>
+      <c r="Y54">
+        <v>1.07</v>
+      </c>
+      <c r="Z54">
+        <v>2.38</v>
+      </c>
+      <c r="AA54">
+        <v>3.1</v>
+      </c>
+      <c r="AB54">
+        <v>2.88</v>
+      </c>
+      <c r="AC54">
+        <v>1.05</v>
+      </c>
+      <c r="AD54">
+        <v>8</v>
+      </c>
+      <c r="AE54">
+        <v>1.29</v>
+      </c>
+      <c r="AF54">
+        <v>3.3</v>
+      </c>
+      <c r="AG54">
+        <v>1.98</v>
+      </c>
+      <c r="AH54">
+        <v>1.68</v>
+      </c>
+      <c r="AI54">
+        <v>1.83</v>
+      </c>
+      <c r="AJ54">
+        <v>1.83</v>
+      </c>
+      <c r="AK54">
+        <v>1.4</v>
+      </c>
+      <c r="AL54">
+        <v>1.28</v>
+      </c>
+      <c r="AM54">
+        <v>1.55</v>
+      </c>
+      <c r="AN54">
+        <v>0.5</v>
+      </c>
+      <c r="AO54">
+        <v>1.5</v>
+      </c>
+      <c r="AP54">
+        <v>0.67</v>
+      </c>
+      <c r="AQ54">
+        <v>1.33</v>
+      </c>
+      <c r="AR54">
         <v>1.11</v>
       </c>
-      <c r="AS53">
+      <c r="AS54">
         <v>1.72</v>
       </c>
-      <c r="AT53">
+      <c r="AT54">
         <v>2.83</v>
       </c>
-      <c r="AU53">
-        <v>2</v>
-      </c>
-      <c r="AV53">
-        <v>0</v>
-      </c>
-      <c r="AW53">
+      <c r="AU54">
+        <v>3</v>
+      </c>
+      <c r="AV54">
+        <v>2</v>
+      </c>
+      <c r="AW54">
+        <v>9</v>
+      </c>
+      <c r="AX54">
+        <v>6</v>
+      </c>
+      <c r="AY54">
+        <v>12</v>
+      </c>
+      <c r="AZ54">
+        <v>8</v>
+      </c>
+      <c r="BA54">
+        <v>3</v>
+      </c>
+      <c r="BB54">
+        <v>3</v>
+      </c>
+      <c r="BC54">
+        <v>6</v>
+      </c>
+      <c r="BD54">
+        <v>2.2</v>
+      </c>
+      <c r="BE54">
+        <v>6.6</v>
+      </c>
+      <c r="BF54">
+        <v>2</v>
+      </c>
+      <c r="BG54">
+        <v>1.09</v>
+      </c>
+      <c r="BH54">
         <v>5</v>
       </c>
-      <c r="AX53">
+      <c r="BI54">
+        <v>1.22</v>
+      </c>
+      <c r="BJ54">
+        <v>3.35</v>
+      </c>
+      <c r="BK54">
+        <v>1.49</v>
+      </c>
+      <c r="BL54">
+        <v>2.53</v>
+      </c>
+      <c r="BM54">
+        <v>1.8</v>
+      </c>
+      <c r="BN54">
+        <v>2</v>
+      </c>
+      <c r="BO54">
+        <v>2.23</v>
+      </c>
+      <c r="BP54">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:68">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>7502649</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45565.58333333334</v>
+      </c>
+      <c r="F55">
         <v>6</v>
       </c>
-      <c r="AY53">
-        <v>7</v>
-      </c>
-      <c r="AZ53">
+      <c r="G55" t="s">
+        <v>84</v>
+      </c>
+      <c r="H55" t="s">
+        <v>71</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>3</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>3</v>
+      </c>
+      <c r="O55" t="s">
+        <v>124</v>
+      </c>
+      <c r="P55" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q55">
+        <v>2.6</v>
+      </c>
+      <c r="R55">
+        <v>2.2</v>
+      </c>
+      <c r="S55">
+        <v>4.33</v>
+      </c>
+      <c r="T55">
+        <v>1.4</v>
+      </c>
+      <c r="U55">
+        <v>2.75</v>
+      </c>
+      <c r="V55">
+        <v>2.75</v>
+      </c>
+      <c r="W55">
+        <v>1.4</v>
+      </c>
+      <c r="X55">
+        <v>8</v>
+      </c>
+      <c r="Y55">
+        <v>1.08</v>
+      </c>
+      <c r="Z55">
+        <v>1.93</v>
+      </c>
+      <c r="AA55">
+        <v>3.4</v>
+      </c>
+      <c r="AB55">
+        <v>3.2</v>
+      </c>
+      <c r="AC55">
+        <v>1.02</v>
+      </c>
+      <c r="AD55">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE55">
+        <v>1.25</v>
+      </c>
+      <c r="AF55">
+        <v>3.14</v>
+      </c>
+      <c r="AG55">
+        <v>1.95</v>
+      </c>
+      <c r="AH55">
+        <v>1.84</v>
+      </c>
+      <c r="AI55">
+        <v>1.8</v>
+      </c>
+      <c r="AJ55">
+        <v>1.91</v>
+      </c>
+      <c r="AK55">
+        <v>1.33</v>
+      </c>
+      <c r="AL55">
+        <v>1.25</v>
+      </c>
+      <c r="AM55">
+        <v>1.72</v>
+      </c>
+      <c r="AN55">
+        <v>0</v>
+      </c>
+      <c r="AO55">
+        <v>2</v>
+      </c>
+      <c r="AP55">
+        <v>1</v>
+      </c>
+      <c r="AQ55">
+        <v>1.33</v>
+      </c>
+      <c r="AR55">
+        <v>1.78</v>
+      </c>
+      <c r="AS55">
+        <v>1.35</v>
+      </c>
+      <c r="AT55">
+        <v>3.13</v>
+      </c>
+      <c r="AU55">
+        <v>4</v>
+      </c>
+      <c r="AV55">
+        <v>0</v>
+      </c>
+      <c r="AW55">
+        <v>8</v>
+      </c>
+      <c r="AX55">
+        <v>3</v>
+      </c>
+      <c r="AY55">
+        <v>12</v>
+      </c>
+      <c r="AZ55">
+        <v>3</v>
+      </c>
+      <c r="BA55">
+        <v>3</v>
+      </c>
+      <c r="BB55">
+        <v>3</v>
+      </c>
+      <c r="BC55">
         <v>6</v>
       </c>
-      <c r="BA53">
-        <v>3</v>
-      </c>
-      <c r="BB53">
-        <v>3</v>
-      </c>
-      <c r="BC53">
-        <v>6</v>
-      </c>
-      <c r="BD53">
-        <v>2.2</v>
-      </c>
-      <c r="BE53">
-        <v>6.6</v>
-      </c>
-      <c r="BF53">
-        <v>2</v>
-      </c>
-      <c r="BG53">
-        <v>1.09</v>
-      </c>
-      <c r="BH53">
-        <v>5</v>
-      </c>
-      <c r="BI53">
-        <v>1.22</v>
-      </c>
-      <c r="BJ53">
-        <v>3.35</v>
-      </c>
-      <c r="BK53">
-        <v>1.49</v>
-      </c>
-      <c r="BL53">
-        <v>2.53</v>
-      </c>
-      <c r="BM53">
+      <c r="BD55">
+        <v>1.61</v>
+      </c>
+      <c r="BE55">
+        <v>8.5</v>
+      </c>
+      <c r="BF55">
+        <v>2.73</v>
+      </c>
+      <c r="BG55">
+        <v>1.18</v>
+      </c>
+      <c r="BH55">
+        <v>4.1</v>
+      </c>
+      <c r="BI55">
+        <v>1.35</v>
+      </c>
+      <c r="BJ55">
+        <v>2.85</v>
+      </c>
+      <c r="BK55">
+        <v>1.58</v>
+      </c>
+      <c r="BL55">
+        <v>2.17</v>
+      </c>
+      <c r="BM55">
+        <v>2</v>
+      </c>
+      <c r="BN55">
         <v>1.8</v>
       </c>
-      <c r="BN53">
-        <v>2</v>
-      </c>
-      <c r="BO53">
-        <v>2.23</v>
-      </c>
-      <c r="BP53">
-        <v>1.62</v>
+      <c r="BO55">
+        <v>2.4</v>
+      </c>
+      <c r="BP55">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="165">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -506,6 +506,9 @@
   </si>
   <si>
     <t>['22']</t>
+  </si>
+  <si>
+    <t>['10', '78']</t>
   </si>
 </sst>
 </file>
@@ -867,7 +870,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP55"/>
+  <dimension ref="A1:BP56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1207,7 +1210,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ2">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2234,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ7">
         <v>1.33</v>
@@ -5324,7 +5327,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ22">
         <v>0.33</v>
@@ -5945,7 +5948,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ25">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR25">
         <v>1.23</v>
@@ -8620,7 +8623,7 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ38">
         <v>0.67</v>
@@ -9241,7 +9244,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ41">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR41">
         <v>1.42</v>
@@ -12201,6 +12204,212 @@
       </c>
       <c r="BP55">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7502660</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45568.875</v>
+      </c>
+      <c r="F56">
+        <v>7</v>
+      </c>
+      <c r="G56" t="s">
+        <v>75</v>
+      </c>
+      <c r="H56" t="s">
+        <v>87</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>2</v>
+      </c>
+      <c r="N56">
+        <v>2</v>
+      </c>
+      <c r="O56" t="s">
+        <v>89</v>
+      </c>
+      <c r="P56" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q56">
+        <v>3.08</v>
+      </c>
+      <c r="R56">
+        <v>2.12</v>
+      </c>
+      <c r="S56">
+        <v>3.78</v>
+      </c>
+      <c r="T56">
+        <v>1.45</v>
+      </c>
+      <c r="U56">
+        <v>2.74</v>
+      </c>
+      <c r="V56">
+        <v>3.25</v>
+      </c>
+      <c r="W56">
+        <v>1.34</v>
+      </c>
+      <c r="X56">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y56">
+        <v>1.05</v>
+      </c>
+      <c r="Z56">
+        <v>2.26</v>
+      </c>
+      <c r="AA56">
+        <v>3.3</v>
+      </c>
+      <c r="AB56">
+        <v>2.7</v>
+      </c>
+      <c r="AC56">
+        <v>1.05</v>
+      </c>
+      <c r="AD56">
+        <v>8</v>
+      </c>
+      <c r="AE56">
+        <v>1.33</v>
+      </c>
+      <c r="AF56">
+        <v>3</v>
+      </c>
+      <c r="AG56">
+        <v>2.02</v>
+      </c>
+      <c r="AH56">
+        <v>1.74</v>
+      </c>
+      <c r="AI56">
+        <v>1.83</v>
+      </c>
+      <c r="AJ56">
+        <v>1.83</v>
+      </c>
+      <c r="AK56">
+        <v>1.36</v>
+      </c>
+      <c r="AL56">
+        <v>1.34</v>
+      </c>
+      <c r="AM56">
+        <v>1.55</v>
+      </c>
+      <c r="AN56">
+        <v>2</v>
+      </c>
+      <c r="AO56">
+        <v>1.67</v>
+      </c>
+      <c r="AP56">
+        <v>1.5</v>
+      </c>
+      <c r="AQ56">
+        <v>2</v>
+      </c>
+      <c r="AR56">
+        <v>1.67</v>
+      </c>
+      <c r="AS56">
+        <v>1.43</v>
+      </c>
+      <c r="AT56">
+        <v>3.1</v>
+      </c>
+      <c r="AU56">
+        <v>2</v>
+      </c>
+      <c r="AV56">
+        <v>0</v>
+      </c>
+      <c r="AW56">
+        <v>3</v>
+      </c>
+      <c r="AX56">
+        <v>0</v>
+      </c>
+      <c r="AY56">
+        <v>5</v>
+      </c>
+      <c r="AZ56">
+        <v>0</v>
+      </c>
+      <c r="BA56">
+        <v>4</v>
+      </c>
+      <c r="BB56">
+        <v>1</v>
+      </c>
+      <c r="BC56">
+        <v>5</v>
+      </c>
+      <c r="BD56">
+        <v>1.88</v>
+      </c>
+      <c r="BE56">
+        <v>6.65</v>
+      </c>
+      <c r="BF56">
+        <v>2.36</v>
+      </c>
+      <c r="BG56">
+        <v>1.11</v>
+      </c>
+      <c r="BH56">
+        <v>4.7</v>
+      </c>
+      <c r="BI56">
+        <v>1.25</v>
+      </c>
+      <c r="BJ56">
+        <v>3.14</v>
+      </c>
+      <c r="BK56">
+        <v>1.48</v>
+      </c>
+      <c r="BL56">
+        <v>2.47</v>
+      </c>
+      <c r="BM56">
+        <v>1.85</v>
+      </c>
+      <c r="BN56">
+        <v>1.85</v>
+      </c>
+      <c r="BO56">
+        <v>2.35</v>
+      </c>
+      <c r="BP56">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="169">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -391,6 +391,12 @@
     <t>['23', '56', '68']</t>
   </si>
   <si>
+    <t>['24']</t>
+  </si>
+  <si>
+    <t>['10', '34', '38']</t>
+  </si>
+  <si>
     <t>['24', '27']</t>
   </si>
   <si>
@@ -509,6 +515,12 @@
   </si>
   <si>
     <t>['10', '78']</t>
+  </si>
+  <si>
+    <t>['3']</t>
+  </si>
+  <si>
+    <t>['11', '15']</t>
   </si>
 </sst>
 </file>
@@ -870,7 +882,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP56"/>
+  <dimension ref="A1:BP61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1129,7 +1141,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -1207,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ2">
         <v>2</v>
@@ -1335,7 +1347,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -1416,7 +1428,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ3">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1541,7 +1553,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -1619,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ4">
         <v>2</v>
@@ -1747,7 +1759,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1953,7 +1965,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2159,7 +2171,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2365,7 +2377,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q8">
         <v>2.5</v>
@@ -2571,7 +2583,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -2652,7 +2664,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ9">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2855,10 +2867,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AQ10">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2983,7 +2995,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3267,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
         <v>1.33</v>
@@ -3395,7 +3407,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -3601,7 +3613,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -3807,7 +3819,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -3885,10 +3897,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ15">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4013,7 +4025,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -4631,7 +4643,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q19">
         <v>2.79</v>
@@ -4712,7 +4724,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ19">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4837,7 +4849,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5121,7 +5133,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AQ21">
         <v>1.33</v>
@@ -5455,7 +5467,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5533,10 +5545,10 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ23">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR23">
         <v>1.93</v>
@@ -5742,7 +5754,7 @@
         <v>2</v>
       </c>
       <c r="AQ24">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR24">
         <v>1.31</v>
@@ -5867,7 +5879,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q25">
         <v>2.91</v>
@@ -6073,7 +6085,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6151,7 +6163,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ26">
         <v>1.33</v>
@@ -6279,7 +6291,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q27">
         <v>3.25</v>
@@ -6360,7 +6372,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ27">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR27">
         <v>1.33</v>
@@ -6566,7 +6578,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ28">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR28">
         <v>1.62</v>
@@ -6691,7 +6703,7 @@
         <v>89</v>
       </c>
       <c r="P29" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -6772,7 +6784,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ29">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR29">
         <v>1.08</v>
@@ -6897,7 +6909,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -6975,7 +6987,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ30">
         <v>1.67</v>
@@ -7309,7 +7321,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7515,7 +7527,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7721,7 +7733,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -7799,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ34">
         <v>2</v>
@@ -7927,7 +7939,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q35">
         <v>2.57</v>
@@ -8133,7 +8145,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q36">
         <v>2.89</v>
@@ -8339,7 +8351,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q37">
         <v>2.5</v>
@@ -8545,7 +8557,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8626,7 +8638,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ38">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR38">
         <v>1.5</v>
@@ -8751,7 +8763,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -8829,7 +8841,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AQ39">
         <v>1.33</v>
@@ -9163,7 +9175,7 @@
         <v>89</v>
       </c>
       <c r="P41" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9369,7 +9381,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -9447,7 +9459,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ42">
         <v>1.67</v>
@@ -9656,7 +9668,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ43">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR43">
         <v>1.55</v>
@@ -9781,7 +9793,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q44">
         <v>2.85</v>
@@ -9859,10 +9871,10 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ44">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR44">
         <v>1.58</v>
@@ -9987,7 +9999,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q45">
         <v>2.25</v>
@@ -10271,10 +10283,10 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ46">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR46">
         <v>1.7</v>
@@ -10399,7 +10411,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -10605,7 +10617,7 @@
         <v>89</v>
       </c>
       <c r="P48" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10811,7 +10823,7 @@
         <v>89</v>
       </c>
       <c r="P49" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11017,7 +11029,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11098,7 +11110,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ50">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR50">
         <v>1.2</v>
@@ -11301,7 +11313,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ51">
         <v>1.33</v>
@@ -11429,7 +11441,7 @@
         <v>89</v>
       </c>
       <c r="P52" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q52">
         <v>3.2</v>
@@ -11841,7 +11853,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12220,10 +12232,10 @@
         <v>69</v>
       </c>
       <c r="E56" s="2">
-        <v>45568.875</v>
+        <v>45569.58333333334</v>
       </c>
       <c r="F56">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G56" t="s">
         <v>75</v>
@@ -12253,7 +12265,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q56">
         <v>3.08</v>
@@ -12349,28 +12361,28 @@
         <v>2</v>
       </c>
       <c r="AV56">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AW56">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AX56">
         <v>0</v>
       </c>
       <c r="AY56">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AZ56">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BA56">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BB56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC56">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BD56">
         <v>1.88</v>
@@ -12410,6 +12422,1036 @@
       </c>
       <c r="BP56">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7502658</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45570.29166666666</v>
+      </c>
+      <c r="F57">
+        <v>7</v>
+      </c>
+      <c r="G57" t="s">
+        <v>78</v>
+      </c>
+      <c r="H57" t="s">
+        <v>73</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>2</v>
+      </c>
+      <c r="O57" t="s">
+        <v>109</v>
+      </c>
+      <c r="P57" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q57">
+        <v>3</v>
+      </c>
+      <c r="R57">
+        <v>2</v>
+      </c>
+      <c r="S57">
+        <v>3.75</v>
+      </c>
+      <c r="T57">
+        <v>1.45</v>
+      </c>
+      <c r="U57">
+        <v>2.73</v>
+      </c>
+      <c r="V57">
+        <v>3.26</v>
+      </c>
+      <c r="W57">
+        <v>1.33</v>
+      </c>
+      <c r="X57">
+        <v>8.4</v>
+      </c>
+      <c r="Y57">
+        <v>1.05</v>
+      </c>
+      <c r="Z57">
+        <v>2.3</v>
+      </c>
+      <c r="AA57">
+        <v>3.1</v>
+      </c>
+      <c r="AB57">
+        <v>2.8</v>
+      </c>
+      <c r="AC57">
+        <v>1.05</v>
+      </c>
+      <c r="AD57">
+        <v>8</v>
+      </c>
+      <c r="AE57">
+        <v>1.33</v>
+      </c>
+      <c r="AF57">
+        <v>3</v>
+      </c>
+      <c r="AG57">
+        <v>2.1</v>
+      </c>
+      <c r="AH57">
+        <v>1.61</v>
+      </c>
+      <c r="AI57">
+        <v>1.83</v>
+      </c>
+      <c r="AJ57">
+        <v>1.83</v>
+      </c>
+      <c r="AK57">
+        <v>1.38</v>
+      </c>
+      <c r="AL57">
+        <v>1.32</v>
+      </c>
+      <c r="AM57">
+        <v>1.54</v>
+      </c>
+      <c r="AN57">
+        <v>0.67</v>
+      </c>
+      <c r="AO57">
+        <v>1.33</v>
+      </c>
+      <c r="AP57">
+        <v>0.75</v>
+      </c>
+      <c r="AQ57">
+        <v>1.25</v>
+      </c>
+      <c r="AR57">
+        <v>1.67</v>
+      </c>
+      <c r="AS57">
+        <v>1.36</v>
+      </c>
+      <c r="AT57">
+        <v>3.03</v>
+      </c>
+      <c r="AU57">
+        <v>6</v>
+      </c>
+      <c r="AV57">
+        <v>3</v>
+      </c>
+      <c r="AW57">
+        <v>7</v>
+      </c>
+      <c r="AX57">
+        <v>4</v>
+      </c>
+      <c r="AY57">
+        <v>13</v>
+      </c>
+      <c r="AZ57">
+        <v>7</v>
+      </c>
+      <c r="BA57">
+        <v>5</v>
+      </c>
+      <c r="BB57">
+        <v>3</v>
+      </c>
+      <c r="BC57">
+        <v>8</v>
+      </c>
+      <c r="BD57">
+        <v>0</v>
+      </c>
+      <c r="BE57">
+        <v>0</v>
+      </c>
+      <c r="BF57">
+        <v>0</v>
+      </c>
+      <c r="BG57">
+        <v>1.18</v>
+      </c>
+      <c r="BH57">
+        <v>4.5</v>
+      </c>
+      <c r="BI57">
+        <v>1.34</v>
+      </c>
+      <c r="BJ57">
+        <v>3.1</v>
+      </c>
+      <c r="BK57">
+        <v>1.61</v>
+      </c>
+      <c r="BL57">
+        <v>2.23</v>
+      </c>
+      <c r="BM57">
+        <v>2.02</v>
+      </c>
+      <c r="BN57">
+        <v>1.74</v>
+      </c>
+      <c r="BO57">
+        <v>2.7</v>
+      </c>
+      <c r="BP57">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7502666</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45570.41666666666</v>
+      </c>
+      <c r="F58">
+        <v>7</v>
+      </c>
+      <c r="G58" t="s">
+        <v>70</v>
+      </c>
+      <c r="H58" t="s">
+        <v>76</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58" t="s">
+        <v>125</v>
+      </c>
+      <c r="P58" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q58">
+        <v>2.25</v>
+      </c>
+      <c r="R58">
+        <v>2.2</v>
+      </c>
+      <c r="S58">
+        <v>4.5</v>
+      </c>
+      <c r="T58">
+        <v>1.34</v>
+      </c>
+      <c r="U58">
+        <v>3.22</v>
+      </c>
+      <c r="V58">
+        <v>2.7</v>
+      </c>
+      <c r="W58">
+        <v>1.46</v>
+      </c>
+      <c r="X58">
+        <v>6.35</v>
+      </c>
+      <c r="Y58">
+        <v>1.1</v>
+      </c>
+      <c r="Z58">
+        <v>1.65</v>
+      </c>
+      <c r="AA58">
+        <v>3.7</v>
+      </c>
+      <c r="AB58">
+        <v>4.33</v>
+      </c>
+      <c r="AC58">
+        <v>1.01</v>
+      </c>
+      <c r="AD58">
+        <v>11</v>
+      </c>
+      <c r="AE58">
+        <v>1.2</v>
+      </c>
+      <c r="AF58">
+        <v>4</v>
+      </c>
+      <c r="AG58">
+        <v>1.81</v>
+      </c>
+      <c r="AH58">
+        <v>2.01</v>
+      </c>
+      <c r="AI58">
+        <v>1.67</v>
+      </c>
+      <c r="AJ58">
+        <v>2.1</v>
+      </c>
+      <c r="AK58">
+        <v>1.18</v>
+      </c>
+      <c r="AL58">
+        <v>1.24</v>
+      </c>
+      <c r="AM58">
+        <v>2.07</v>
+      </c>
+      <c r="AN58">
+        <v>0.67</v>
+      </c>
+      <c r="AO58">
+        <v>0.67</v>
+      </c>
+      <c r="AP58">
+        <v>1.25</v>
+      </c>
+      <c r="AQ58">
+        <v>0.5</v>
+      </c>
+      <c r="AR58">
+        <v>1.6</v>
+      </c>
+      <c r="AS58">
+        <v>1.43</v>
+      </c>
+      <c r="AT58">
+        <v>3.03</v>
+      </c>
+      <c r="AU58">
+        <v>4</v>
+      </c>
+      <c r="AV58">
+        <v>4</v>
+      </c>
+      <c r="AW58">
+        <v>3</v>
+      </c>
+      <c r="AX58">
+        <v>7</v>
+      </c>
+      <c r="AY58">
+        <v>7</v>
+      </c>
+      <c r="AZ58">
+        <v>11</v>
+      </c>
+      <c r="BA58">
+        <v>3</v>
+      </c>
+      <c r="BB58">
+        <v>4</v>
+      </c>
+      <c r="BC58">
+        <v>7</v>
+      </c>
+      <c r="BD58">
+        <v>1.43</v>
+      </c>
+      <c r="BE58">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF58">
+        <v>3.35</v>
+      </c>
+      <c r="BG58">
+        <v>1.1</v>
+      </c>
+      <c r="BH58">
+        <v>4.9</v>
+      </c>
+      <c r="BI58">
+        <v>1.22</v>
+      </c>
+      <c r="BJ58">
+        <v>3.34</v>
+      </c>
+      <c r="BK58">
+        <v>1.43</v>
+      </c>
+      <c r="BL58">
+        <v>2.62</v>
+      </c>
+      <c r="BM58">
+        <v>1.92</v>
+      </c>
+      <c r="BN58">
+        <v>1.88</v>
+      </c>
+      <c r="BO58">
+        <v>2.25</v>
+      </c>
+      <c r="BP58">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7502662</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45570.47916666666</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59" t="s">
+        <v>80</v>
+      </c>
+      <c r="H59" t="s">
+        <v>82</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>2</v>
+      </c>
+      <c r="K59">
+        <v>2</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>2</v>
+      </c>
+      <c r="N59">
+        <v>2</v>
+      </c>
+      <c r="O59" t="s">
+        <v>89</v>
+      </c>
+      <c r="P59" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q59">
+        <v>3.1</v>
+      </c>
+      <c r="R59">
+        <v>2.1</v>
+      </c>
+      <c r="S59">
+        <v>3.2</v>
+      </c>
+      <c r="T59">
+        <v>1.35</v>
+      </c>
+      <c r="U59">
+        <v>3.18</v>
+      </c>
+      <c r="V59">
+        <v>2.74</v>
+      </c>
+      <c r="W59">
+        <v>1.45</v>
+      </c>
+      <c r="X59">
+        <v>6.6</v>
+      </c>
+      <c r="Y59">
+        <v>1.09</v>
+      </c>
+      <c r="Z59">
+        <v>2.5</v>
+      </c>
+      <c r="AA59">
+        <v>3.25</v>
+      </c>
+      <c r="AB59">
+        <v>2.5</v>
+      </c>
+      <c r="AC59">
+        <v>1.02</v>
+      </c>
+      <c r="AD59">
+        <v>10</v>
+      </c>
+      <c r="AE59">
+        <v>1.22</v>
+      </c>
+      <c r="AF59">
+        <v>3.8</v>
+      </c>
+      <c r="AG59">
+        <v>1.85</v>
+      </c>
+      <c r="AH59">
+        <v>1.97</v>
+      </c>
+      <c r="AI59">
+        <v>1.62</v>
+      </c>
+      <c r="AJ59">
+        <v>2.2</v>
+      </c>
+      <c r="AK59">
+        <v>1.47</v>
+      </c>
+      <c r="AL59">
+        <v>1.3</v>
+      </c>
+      <c r="AM59">
+        <v>1.46</v>
+      </c>
+      <c r="AN59">
+        <v>1.33</v>
+      </c>
+      <c r="AO59">
+        <v>1.33</v>
+      </c>
+      <c r="AP59">
+        <v>1</v>
+      </c>
+      <c r="AQ59">
+        <v>1.75</v>
+      </c>
+      <c r="AR59">
+        <v>1.13</v>
+      </c>
+      <c r="AS59">
+        <v>1.05</v>
+      </c>
+      <c r="AT59">
+        <v>2.18</v>
+      </c>
+      <c r="AU59">
+        <v>4</v>
+      </c>
+      <c r="AV59">
+        <v>8</v>
+      </c>
+      <c r="AW59">
+        <v>10</v>
+      </c>
+      <c r="AX59">
+        <v>9</v>
+      </c>
+      <c r="AY59">
+        <v>14</v>
+      </c>
+      <c r="AZ59">
+        <v>17</v>
+      </c>
+      <c r="BA59">
+        <v>9</v>
+      </c>
+      <c r="BB59">
+        <v>4</v>
+      </c>
+      <c r="BC59">
+        <v>13</v>
+      </c>
+      <c r="BD59">
+        <v>2.1</v>
+      </c>
+      <c r="BE59">
+        <v>7.2</v>
+      </c>
+      <c r="BF59">
+        <v>2.04</v>
+      </c>
+      <c r="BG59">
+        <v>1.09</v>
+      </c>
+      <c r="BH59">
+        <v>4.95</v>
+      </c>
+      <c r="BI59">
+        <v>1.22</v>
+      </c>
+      <c r="BJ59">
+        <v>3.35</v>
+      </c>
+      <c r="BK59">
+        <v>1.43</v>
+      </c>
+      <c r="BL59">
+        <v>2.62</v>
+      </c>
+      <c r="BM59">
+        <v>1.92</v>
+      </c>
+      <c r="BN59">
+        <v>1.88</v>
+      </c>
+      <c r="BO59">
+        <v>2.27</v>
+      </c>
+      <c r="BP59">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7502664</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45570.58333333334</v>
+      </c>
+      <c r="F60">
+        <v>7</v>
+      </c>
+      <c r="G60" t="s">
+        <v>72</v>
+      </c>
+      <c r="H60" t="s">
+        <v>81</v>
+      </c>
+      <c r="I60">
+        <v>3</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>3</v>
+      </c>
+      <c r="L60">
+        <v>3</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>3</v>
+      </c>
+      <c r="O60" t="s">
+        <v>126</v>
+      </c>
+      <c r="P60" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q60">
+        <v>2.7</v>
+      </c>
+      <c r="R60">
+        <v>2</v>
+      </c>
+      <c r="S60">
+        <v>4.2</v>
+      </c>
+      <c r="T60">
+        <v>1.45</v>
+      </c>
+      <c r="U60">
+        <v>2.72</v>
+      </c>
+      <c r="V60">
+        <v>3.27</v>
+      </c>
+      <c r="W60">
+        <v>1.33</v>
+      </c>
+      <c r="X60">
+        <v>8.4</v>
+      </c>
+      <c r="Y60">
+        <v>1.05</v>
+      </c>
+      <c r="Z60">
+        <v>2.01</v>
+      </c>
+      <c r="AA60">
+        <v>3.17</v>
+      </c>
+      <c r="AB60">
+        <v>3.37</v>
+      </c>
+      <c r="AC60">
+        <v>1.05</v>
+      </c>
+      <c r="AD60">
+        <v>8</v>
+      </c>
+      <c r="AE60">
+        <v>1.38</v>
+      </c>
+      <c r="AF60">
+        <v>3.01</v>
+      </c>
+      <c r="AG60">
+        <v>2.14</v>
+      </c>
+      <c r="AH60">
+        <v>1.66</v>
+      </c>
+      <c r="AI60">
+        <v>1.91</v>
+      </c>
+      <c r="AJ60">
+        <v>1.8</v>
+      </c>
+      <c r="AK60">
+        <v>1.28</v>
+      </c>
+      <c r="AL60">
+        <v>1.32</v>
+      </c>
+      <c r="AM60">
+        <v>1.69</v>
+      </c>
+      <c r="AN60">
+        <v>1.33</v>
+      </c>
+      <c r="AO60">
+        <v>0.67</v>
+      </c>
+      <c r="AP60">
+        <v>1.75</v>
+      </c>
+      <c r="AQ60">
+        <v>0.5</v>
+      </c>
+      <c r="AR60">
+        <v>1.51</v>
+      </c>
+      <c r="AS60">
+        <v>1.07</v>
+      </c>
+      <c r="AT60">
+        <v>2.58</v>
+      </c>
+      <c r="AU60">
+        <v>5</v>
+      </c>
+      <c r="AV60">
+        <v>6</v>
+      </c>
+      <c r="AW60">
+        <v>4</v>
+      </c>
+      <c r="AX60">
+        <v>5</v>
+      </c>
+      <c r="AY60">
+        <v>9</v>
+      </c>
+      <c r="AZ60">
+        <v>11</v>
+      </c>
+      <c r="BA60">
+        <v>1</v>
+      </c>
+      <c r="BB60">
+        <v>5</v>
+      </c>
+      <c r="BC60">
+        <v>6</v>
+      </c>
+      <c r="BD60">
+        <v>1.52</v>
+      </c>
+      <c r="BE60">
+        <v>7</v>
+      </c>
+      <c r="BF60">
+        <v>3.28</v>
+      </c>
+      <c r="BG60">
+        <v>1.22</v>
+      </c>
+      <c r="BH60">
+        <v>4</v>
+      </c>
+      <c r="BI60">
+        <v>1.42</v>
+      </c>
+      <c r="BJ60">
+        <v>2.75</v>
+      </c>
+      <c r="BK60">
+        <v>1.74</v>
+      </c>
+      <c r="BL60">
+        <v>2.02</v>
+      </c>
+      <c r="BM60">
+        <v>2.23</v>
+      </c>
+      <c r="BN60">
+        <v>1.61</v>
+      </c>
+      <c r="BO60">
+        <v>3</v>
+      </c>
+      <c r="BP60">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7502665</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45570.875</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61" t="s">
+        <v>83</v>
+      </c>
+      <c r="H61" t="s">
+        <v>84</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61" t="s">
+        <v>89</v>
+      </c>
+      <c r="P61" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q61">
+        <v>3.2</v>
+      </c>
+      <c r="R61">
+        <v>2.01</v>
+      </c>
+      <c r="S61">
+        <v>3.4</v>
+      </c>
+      <c r="T61">
+        <v>1.44</v>
+      </c>
+      <c r="U61">
+        <v>2.67</v>
+      </c>
+      <c r="V61">
+        <v>2.98</v>
+      </c>
+      <c r="W61">
+        <v>1.36</v>
+      </c>
+      <c r="X61">
+        <v>7.7</v>
+      </c>
+      <c r="Y61">
+        <v>1.06</v>
+      </c>
+      <c r="Z61">
+        <v>2.5</v>
+      </c>
+      <c r="AA61">
+        <v>3</v>
+      </c>
+      <c r="AB61">
+        <v>2.63</v>
+      </c>
+      <c r="AC61">
+        <v>1.02</v>
+      </c>
+      <c r="AD61">
+        <v>7.5</v>
+      </c>
+      <c r="AE61">
+        <v>1.28</v>
+      </c>
+      <c r="AF61">
+        <v>2.94</v>
+      </c>
+      <c r="AG61">
+        <v>2</v>
+      </c>
+      <c r="AH61">
+        <v>1.73</v>
+      </c>
+      <c r="AI61">
+        <v>1.77</v>
+      </c>
+      <c r="AJ61">
+        <v>1.94</v>
+      </c>
+      <c r="AK61">
+        <v>1.44</v>
+      </c>
+      <c r="AL61">
+        <v>1.33</v>
+      </c>
+      <c r="AM61">
+        <v>1.47</v>
+      </c>
+      <c r="AN61">
+        <v>1.33</v>
+      </c>
+      <c r="AO61">
+        <v>2</v>
+      </c>
+      <c r="AP61">
+        <v>1.25</v>
+      </c>
+      <c r="AQ61">
+        <v>1.75</v>
+      </c>
+      <c r="AR61">
+        <v>1.62</v>
+      </c>
+      <c r="AS61">
+        <v>1.19</v>
+      </c>
+      <c r="AT61">
+        <v>2.81</v>
+      </c>
+      <c r="AU61">
+        <v>4</v>
+      </c>
+      <c r="AV61">
+        <v>3</v>
+      </c>
+      <c r="AW61">
+        <v>5</v>
+      </c>
+      <c r="AX61">
+        <v>10</v>
+      </c>
+      <c r="AY61">
+        <v>9</v>
+      </c>
+      <c r="AZ61">
+        <v>13</v>
+      </c>
+      <c r="BA61">
+        <v>6</v>
+      </c>
+      <c r="BB61">
+        <v>7</v>
+      </c>
+      <c r="BC61">
+        <v>13</v>
+      </c>
+      <c r="BD61">
+        <v>2.22</v>
+      </c>
+      <c r="BE61">
+        <v>6.55</v>
+      </c>
+      <c r="BF61">
+        <v>1.99</v>
+      </c>
+      <c r="BG61">
+        <v>1.15</v>
+      </c>
+      <c r="BH61">
+        <v>5.42</v>
+      </c>
+      <c r="BI61">
+        <v>1.3</v>
+      </c>
+      <c r="BJ61">
+        <v>3.53</v>
+      </c>
+      <c r="BK61">
+        <v>1.52</v>
+      </c>
+      <c r="BL61">
+        <v>2.54</v>
+      </c>
+      <c r="BM61">
+        <v>1.9</v>
+      </c>
+      <c r="BN61">
+        <v>1.9</v>
+      </c>
+      <c r="BO61">
+        <v>2.28</v>
+      </c>
+      <c r="BP61">
+        <v>1.62</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="171">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -391,10 +391,16 @@
     <t>['23', '56', '68']</t>
   </si>
   <si>
+    <t>['10', '34', '38']</t>
+  </si>
+  <si>
     <t>['24']</t>
   </si>
   <si>
-    <t>['10', '34', '38']</t>
+    <t>['15']</t>
+  </si>
+  <si>
+    <t>['84']</t>
   </si>
   <si>
     <t>['24', '27']</t>
@@ -517,10 +523,10 @@
     <t>['10', '78']</t>
   </si>
   <si>
+    <t>['11', '15']</t>
+  </si>
+  <si>
     <t>['3']</t>
-  </si>
-  <si>
-    <t>['11', '15']</t>
   </si>
 </sst>
 </file>
@@ -882,7 +888,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP61"/>
+  <dimension ref="A1:BP64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1141,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -1347,7 +1353,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -1425,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ3">
         <v>1.75</v>
@@ -1553,7 +1559,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -1759,7 +1765,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1840,7 +1846,7 @@
         <v>2</v>
       </c>
       <c r="AQ5">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1965,7 +1971,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2043,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
         <v>0.33</v>
@@ -2171,7 +2177,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2377,7 +2383,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q8">
         <v>2.5</v>
@@ -2458,7 +2464,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ8">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2583,7 +2589,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -2995,7 +3001,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3407,7 +3413,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -3488,7 +3494,7 @@
         <v>1</v>
       </c>
       <c r="AQ13">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3613,7 +3619,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -3819,7 +3825,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -4025,7 +4031,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -4515,7 +4521,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ18">
         <v>1</v>
@@ -4643,7 +4649,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q19">
         <v>2.79</v>
@@ -4849,7 +4855,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -4930,7 +4936,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ20">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR20">
         <v>1.01</v>
@@ -5467,7 +5473,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5879,7 +5885,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q25">
         <v>2.91</v>
@@ -5957,7 +5963,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ25">
         <v>2</v>
@@ -6085,7 +6091,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6166,7 +6172,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ26">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR26">
         <v>1.66</v>
@@ -6291,7 +6297,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q27">
         <v>3.25</v>
@@ -6369,7 +6375,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ27">
         <v>0.5</v>
@@ -6575,7 +6581,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ28">
         <v>1.75</v>
@@ -6703,7 +6709,7 @@
         <v>89</v>
       </c>
       <c r="P29" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -6909,7 +6915,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7321,7 +7327,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7527,7 +7533,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7733,7 +7739,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -7939,7 +7945,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q35">
         <v>2.57</v>
@@ -8145,7 +8151,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q36">
         <v>2.89</v>
@@ -8226,7 +8232,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ36">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR36">
         <v>0.82</v>
@@ -8351,7 +8357,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q37">
         <v>2.5</v>
@@ -8557,7 +8563,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8763,7 +8769,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -8844,7 +8850,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ39">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR39">
         <v>1.92</v>
@@ -9050,7 +9056,7 @@
         <v>2</v>
       </c>
       <c r="AQ40">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR40">
         <v>1.4</v>
@@ -9175,7 +9181,7 @@
         <v>89</v>
       </c>
       <c r="P41" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9253,7 +9259,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ41">
         <v>2</v>
@@ -9381,7 +9387,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -9462,7 +9468,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ42">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR42">
         <v>1.49</v>
@@ -9665,7 +9671,7 @@
         <v>0.5</v>
       </c>
       <c r="AP43">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ43">
         <v>0.5</v>
@@ -9793,7 +9799,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q44">
         <v>2.85</v>
@@ -9999,7 +10005,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q45">
         <v>2.25</v>
@@ -10077,7 +10083,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ45">
         <v>0.33</v>
@@ -10411,7 +10417,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -10617,7 +10623,7 @@
         <v>89</v>
       </c>
       <c r="P48" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10823,7 +10829,7 @@
         <v>89</v>
       </c>
       <c r="P49" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11029,7 +11035,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11441,7 +11447,7 @@
         <v>89</v>
       </c>
       <c r="P52" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q52">
         <v>3.2</v>
@@ -11853,7 +11859,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12265,7 +12271,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q56">
         <v>3.08</v>
@@ -12429,7 +12435,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>7502658</v>
+        <v>7502662</v>
       </c>
       <c r="C57" t="s">
         <v>68</v>
@@ -12438,196 +12444,196 @@
         <v>69</v>
       </c>
       <c r="E57" s="2">
-        <v>45570.29166666666</v>
+        <v>45569.875</v>
       </c>
       <c r="F57">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H57" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N57">
         <v>2</v>
       </c>
       <c r="O57" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q57">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="R57">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S57">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="T57">
+        <v>1.35</v>
+      </c>
+      <c r="U57">
+        <v>3.18</v>
+      </c>
+      <c r="V57">
+        <v>2.74</v>
+      </c>
+      <c r="W57">
         <v>1.45</v>
       </c>
-      <c r="U57">
-        <v>2.73</v>
-      </c>
-      <c r="V57">
-        <v>3.26</v>
-      </c>
-      <c r="W57">
+      <c r="X57">
+        <v>6.6</v>
+      </c>
+      <c r="Y57">
+        <v>1.09</v>
+      </c>
+      <c r="Z57">
+        <v>2.5</v>
+      </c>
+      <c r="AA57">
+        <v>3.25</v>
+      </c>
+      <c r="AB57">
+        <v>2.5</v>
+      </c>
+      <c r="AC57">
+        <v>1.02</v>
+      </c>
+      <c r="AD57">
+        <v>10</v>
+      </c>
+      <c r="AE57">
+        <v>1.22</v>
+      </c>
+      <c r="AF57">
+        <v>3.8</v>
+      </c>
+      <c r="AG57">
+        <v>1.85</v>
+      </c>
+      <c r="AH57">
+        <v>1.97</v>
+      </c>
+      <c r="AI57">
+        <v>1.62</v>
+      </c>
+      <c r="AJ57">
+        <v>2.2</v>
+      </c>
+      <c r="AK57">
+        <v>1.47</v>
+      </c>
+      <c r="AL57">
+        <v>1.3</v>
+      </c>
+      <c r="AM57">
+        <v>1.46</v>
+      </c>
+      <c r="AN57">
         <v>1.33</v>
-      </c>
-      <c r="X57">
-        <v>8.4</v>
-      </c>
-      <c r="Y57">
-        <v>1.05</v>
-      </c>
-      <c r="Z57">
-        <v>2.3</v>
-      </c>
-      <c r="AA57">
-        <v>3.1</v>
-      </c>
-      <c r="AB57">
-        <v>2.8</v>
-      </c>
-      <c r="AC57">
-        <v>1.05</v>
-      </c>
-      <c r="AD57">
-        <v>8</v>
-      </c>
-      <c r="AE57">
-        <v>1.33</v>
-      </c>
-      <c r="AF57">
-        <v>3</v>
-      </c>
-      <c r="AG57">
-        <v>2.1</v>
-      </c>
-      <c r="AH57">
-        <v>1.61</v>
-      </c>
-      <c r="AI57">
-        <v>1.83</v>
-      </c>
-      <c r="AJ57">
-        <v>1.83</v>
-      </c>
-      <c r="AK57">
-        <v>1.38</v>
-      </c>
-      <c r="AL57">
-        <v>1.32</v>
-      </c>
-      <c r="AM57">
-        <v>1.54</v>
-      </c>
-      <c r="AN57">
-        <v>0.67</v>
       </c>
       <c r="AO57">
         <v>1.33</v>
       </c>
       <c r="AP57">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ57">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AR57">
-        <v>1.67</v>
+        <v>1.13</v>
       </c>
       <c r="AS57">
-        <v>1.36</v>
+        <v>1.05</v>
       </c>
       <c r="AT57">
-        <v>3.03</v>
+        <v>2.18</v>
       </c>
       <c r="AU57">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV57">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW57">
         <v>7</v>
       </c>
       <c r="AX57">
+        <v>6</v>
+      </c>
+      <c r="AY57">
+        <v>12</v>
+      </c>
+      <c r="AZ57">
+        <v>13</v>
+      </c>
+      <c r="BA57">
+        <v>9</v>
+      </c>
+      <c r="BB57">
         <v>4</v>
       </c>
-      <c r="AY57">
+      <c r="BC57">
         <v>13</v>
       </c>
-      <c r="AZ57">
-        <v>7</v>
-      </c>
-      <c r="BA57">
-        <v>5</v>
-      </c>
-      <c r="BB57">
-        <v>3</v>
-      </c>
-      <c r="BC57">
-        <v>8</v>
-      </c>
       <c r="BD57">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="BE57">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="BF57">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="BG57">
-        <v>1.18</v>
+        <v>1.09</v>
       </c>
       <c r="BH57">
-        <v>4.5</v>
+        <v>4.95</v>
       </c>
       <c r="BI57">
-        <v>1.34</v>
+        <v>1.22</v>
       </c>
       <c r="BJ57">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="BK57">
-        <v>1.61</v>
+        <v>1.43</v>
       </c>
       <c r="BL57">
-        <v>2.23</v>
+        <v>2.62</v>
       </c>
       <c r="BM57">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="BN57">
-        <v>1.74</v>
+        <v>1.88</v>
       </c>
       <c r="BO57">
-        <v>2.7</v>
+        <v>2.27</v>
       </c>
       <c r="BP57">
-        <v>1.43</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="58" spans="1:68">
@@ -12635,7 +12641,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>7502666</v>
+        <v>7502664</v>
       </c>
       <c r="C58" t="s">
         <v>68</v>
@@ -12644,34 +12650,34 @@
         <v>69</v>
       </c>
       <c r="E58" s="2">
-        <v>45570.41666666666</v>
+        <v>45569.875</v>
       </c>
       <c r="F58">
         <v>7</v>
       </c>
       <c r="G58" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H58" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J58">
         <v>0</v>
       </c>
       <c r="K58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M58">
         <v>0</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O58" t="s">
         <v>125</v>
@@ -12680,160 +12686,160 @@
         <v>89</v>
       </c>
       <c r="Q58">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="R58">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="S58">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="T58">
-        <v>1.34</v>
+        <v>1.45</v>
       </c>
       <c r="U58">
-        <v>3.22</v>
+        <v>2.72</v>
       </c>
       <c r="V58">
-        <v>2.7</v>
+        <v>3.27</v>
       </c>
       <c r="W58">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
       <c r="X58">
-        <v>6.35</v>
+        <v>8.4</v>
       </c>
       <c r="Y58">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="Z58">
-        <v>1.65</v>
+        <v>2.01</v>
       </c>
       <c r="AA58">
-        <v>3.7</v>
+        <v>3.17</v>
       </c>
       <c r="AB58">
-        <v>4.33</v>
+        <v>3.37</v>
       </c>
       <c r="AC58">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="AD58">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE58">
-        <v>1.2</v>
+        <v>1.38</v>
       </c>
       <c r="AF58">
-        <v>4</v>
+        <v>3.01</v>
       </c>
       <c r="AG58">
-        <v>1.81</v>
+        <v>2.14</v>
       </c>
       <c r="AH58">
-        <v>2.01</v>
+        <v>1.66</v>
       </c>
       <c r="AI58">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="AJ58">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="AK58">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AL58">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="AM58">
-        <v>2.07</v>
+        <v>1.69</v>
       </c>
       <c r="AN58">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="AO58">
         <v>0.67</v>
       </c>
       <c r="AP58">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AQ58">
         <v>0.5</v>
       </c>
       <c r="AR58">
-        <v>1.6</v>
+        <v>1.51</v>
       </c>
       <c r="AS58">
-        <v>1.43</v>
+        <v>1.07</v>
       </c>
       <c r="AT58">
-        <v>3.03</v>
+        <v>2.58</v>
       </c>
       <c r="AU58">
+        <v>3</v>
+      </c>
+      <c r="AV58">
+        <v>8</v>
+      </c>
+      <c r="AW58">
+        <v>0</v>
+      </c>
+      <c r="AX58">
         <v>4</v>
       </c>
-      <c r="AV58">
+      <c r="AY58">
+        <v>3</v>
+      </c>
+      <c r="AZ58">
+        <v>12</v>
+      </c>
+      <c r="BA58">
+        <v>1</v>
+      </c>
+      <c r="BB58">
+        <v>5</v>
+      </c>
+      <c r="BC58">
+        <v>6</v>
+      </c>
+      <c r="BD58">
+        <v>1.52</v>
+      </c>
+      <c r="BE58">
+        <v>7</v>
+      </c>
+      <c r="BF58">
+        <v>3.28</v>
+      </c>
+      <c r="BG58">
+        <v>1.22</v>
+      </c>
+      <c r="BH58">
         <v>4</v>
       </c>
-      <c r="AW58">
-        <v>3</v>
-      </c>
-      <c r="AX58">
-        <v>7</v>
-      </c>
-      <c r="AY58">
-        <v>7</v>
-      </c>
-      <c r="AZ58">
-        <v>11</v>
-      </c>
-      <c r="BA58">
-        <v>3</v>
-      </c>
-      <c r="BB58">
-        <v>4</v>
-      </c>
-      <c r="BC58">
-        <v>7</v>
-      </c>
-      <c r="BD58">
-        <v>1.43</v>
-      </c>
-      <c r="BE58">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="BF58">
-        <v>3.35</v>
-      </c>
-      <c r="BG58">
-        <v>1.1</v>
-      </c>
-      <c r="BH58">
-        <v>4.9</v>
-      </c>
       <c r="BI58">
-        <v>1.22</v>
+        <v>1.42</v>
       </c>
       <c r="BJ58">
-        <v>3.34</v>
+        <v>2.75</v>
       </c>
       <c r="BK58">
-        <v>1.43</v>
+        <v>1.74</v>
       </c>
       <c r="BL58">
-        <v>2.62</v>
+        <v>2.02</v>
       </c>
       <c r="BM58">
-        <v>1.92</v>
+        <v>2.23</v>
       </c>
       <c r="BN58">
-        <v>1.88</v>
+        <v>1.61</v>
       </c>
       <c r="BO58">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="BP58">
-        <v>1.57</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="59" spans="1:68">
@@ -12841,7 +12847,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>7502662</v>
+        <v>7502658</v>
       </c>
       <c r="C59" t="s">
         <v>68</v>
@@ -12850,196 +12856,196 @@
         <v>69</v>
       </c>
       <c r="E59" s="2">
-        <v>45570.47916666666</v>
+        <v>45570.29166666666</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G59" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H59" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N59">
         <v>2</v>
       </c>
       <c r="O59" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="P59" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q59">
+        <v>3</v>
+      </c>
+      <c r="R59">
+        <v>2</v>
+      </c>
+      <c r="S59">
+        <v>3.75</v>
+      </c>
+      <c r="T59">
+        <v>1.45</v>
+      </c>
+      <c r="U59">
+        <v>2.73</v>
+      </c>
+      <c r="V59">
+        <v>3.26</v>
+      </c>
+      <c r="W59">
+        <v>1.33</v>
+      </c>
+      <c r="X59">
+        <v>8.4</v>
+      </c>
+      <c r="Y59">
+        <v>1.05</v>
+      </c>
+      <c r="Z59">
+        <v>2.3</v>
+      </c>
+      <c r="AA59">
         <v>3.1</v>
       </c>
-      <c r="R59">
+      <c r="AB59">
+        <v>2.8</v>
+      </c>
+      <c r="AC59">
+        <v>1.05</v>
+      </c>
+      <c r="AD59">
+        <v>8</v>
+      </c>
+      <c r="AE59">
+        <v>1.33</v>
+      </c>
+      <c r="AF59">
+        <v>3</v>
+      </c>
+      <c r="AG59">
         <v>2.1</v>
       </c>
-      <c r="S59">
-        <v>3.2</v>
-      </c>
-      <c r="T59">
-        <v>1.35</v>
-      </c>
-      <c r="U59">
-        <v>3.18</v>
-      </c>
-      <c r="V59">
-        <v>2.74</v>
-      </c>
-      <c r="W59">
-        <v>1.45</v>
-      </c>
-      <c r="X59">
-        <v>6.6</v>
-      </c>
-      <c r="Y59">
-        <v>1.09</v>
-      </c>
-      <c r="Z59">
-        <v>2.5</v>
-      </c>
-      <c r="AA59">
-        <v>3.25</v>
-      </c>
-      <c r="AB59">
-        <v>2.5</v>
-      </c>
-      <c r="AC59">
-        <v>1.02</v>
-      </c>
-      <c r="AD59">
-        <v>10</v>
-      </c>
-      <c r="AE59">
-        <v>1.22</v>
-      </c>
-      <c r="AF59">
-        <v>3.8</v>
-      </c>
-      <c r="AG59">
-        <v>1.85</v>
-      </c>
       <c r="AH59">
-        <v>1.97</v>
+        <v>1.61</v>
       </c>
       <c r="AI59">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="AJ59">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AK59">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AL59">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="AM59">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="AN59">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AO59">
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ59">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="AR59">
-        <v>1.13</v>
+        <v>1.67</v>
       </c>
       <c r="AS59">
-        <v>1.05</v>
+        <v>1.36</v>
       </c>
       <c r="AT59">
-        <v>2.18</v>
+        <v>3.03</v>
       </c>
       <c r="AU59">
+        <v>6</v>
+      </c>
+      <c r="AV59">
+        <v>3</v>
+      </c>
+      <c r="AW59">
+        <v>7</v>
+      </c>
+      <c r="AX59">
         <v>4</v>
       </c>
-      <c r="AV59">
+      <c r="AY59">
+        <v>13</v>
+      </c>
+      <c r="AZ59">
+        <v>7</v>
+      </c>
+      <c r="BA59">
+        <v>5</v>
+      </c>
+      <c r="BB59">
+        <v>3</v>
+      </c>
+      <c r="BC59">
         <v>8</v>
       </c>
-      <c r="AW59">
-        <v>10</v>
-      </c>
-      <c r="AX59">
-        <v>9</v>
-      </c>
-      <c r="AY59">
-        <v>14</v>
-      </c>
-      <c r="AZ59">
-        <v>17</v>
-      </c>
-      <c r="BA59">
-        <v>9</v>
-      </c>
-      <c r="BB59">
-        <v>4</v>
-      </c>
-      <c r="BC59">
-        <v>13</v>
-      </c>
       <c r="BD59">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="BE59">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="BF59">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="BG59">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="BH59">
-        <v>4.95</v>
+        <v>4.5</v>
       </c>
       <c r="BI59">
-        <v>1.22</v>
+        <v>1.34</v>
       </c>
       <c r="BJ59">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="BK59">
+        <v>1.61</v>
+      </c>
+      <c r="BL59">
+        <v>2.23</v>
+      </c>
+      <c r="BM59">
+        <v>2.02</v>
+      </c>
+      <c r="BN59">
+        <v>1.74</v>
+      </c>
+      <c r="BO59">
+        <v>2.7</v>
+      </c>
+      <c r="BP59">
         <v>1.43</v>
-      </c>
-      <c r="BL59">
-        <v>2.62</v>
-      </c>
-      <c r="BM59">
-        <v>1.92</v>
-      </c>
-      <c r="BN59">
-        <v>1.88</v>
-      </c>
-      <c r="BO59">
-        <v>2.27</v>
-      </c>
-      <c r="BP59">
-        <v>1.56</v>
       </c>
     </row>
     <row r="60" spans="1:68">
@@ -13047,7 +13053,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>7502664</v>
+        <v>7502666</v>
       </c>
       <c r="C60" t="s">
         <v>68</v>
@@ -13056,34 +13062,34 @@
         <v>69</v>
       </c>
       <c r="E60" s="2">
-        <v>45570.58333333334</v>
+        <v>45570.41666666666</v>
       </c>
       <c r="F60">
         <v>7</v>
       </c>
       <c r="G60" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H60" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J60">
         <v>0</v>
       </c>
       <c r="K60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M60">
         <v>0</v>
       </c>
       <c r="N60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O60" t="s">
         <v>126</v>
@@ -13092,160 +13098,160 @@
         <v>89</v>
       </c>
       <c r="Q60">
+        <v>2.25</v>
+      </c>
+      <c r="R60">
+        <v>2.2</v>
+      </c>
+      <c r="S60">
+        <v>4.5</v>
+      </c>
+      <c r="T60">
+        <v>1.34</v>
+      </c>
+      <c r="U60">
+        <v>3.22</v>
+      </c>
+      <c r="V60">
         <v>2.7</v>
       </c>
-      <c r="R60">
-        <v>2</v>
-      </c>
-      <c r="S60">
-        <v>4.2</v>
-      </c>
-      <c r="T60">
-        <v>1.45</v>
-      </c>
-      <c r="U60">
-        <v>2.72</v>
-      </c>
-      <c r="V60">
-        <v>3.27</v>
-      </c>
       <c r="W60">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="X60">
-        <v>8.4</v>
+        <v>6.35</v>
       </c>
       <c r="Y60">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="Z60">
+        <v>1.65</v>
+      </c>
+      <c r="AA60">
+        <v>3.7</v>
+      </c>
+      <c r="AB60">
+        <v>4.33</v>
+      </c>
+      <c r="AC60">
+        <v>1.01</v>
+      </c>
+      <c r="AD60">
+        <v>11</v>
+      </c>
+      <c r="AE60">
+        <v>1.2</v>
+      </c>
+      <c r="AF60">
+        <v>4</v>
+      </c>
+      <c r="AG60">
+        <v>1.81</v>
+      </c>
+      <c r="AH60">
         <v>2.01</v>
       </c>
-      <c r="AA60">
-        <v>3.17</v>
-      </c>
-      <c r="AB60">
-        <v>3.37</v>
-      </c>
-      <c r="AC60">
-        <v>1.05</v>
-      </c>
-      <c r="AD60">
-        <v>8</v>
-      </c>
-      <c r="AE60">
-        <v>1.38</v>
-      </c>
-      <c r="AF60">
-        <v>3.01</v>
-      </c>
-      <c r="AG60">
-        <v>2.14</v>
-      </c>
-      <c r="AH60">
-        <v>1.66</v>
-      </c>
       <c r="AI60">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="AJ60">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="AK60">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="AL60">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="AM60">
-        <v>1.69</v>
+        <v>2.07</v>
       </c>
       <c r="AN60">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AO60">
         <v>0.67</v>
       </c>
       <c r="AP60">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="AQ60">
         <v>0.5</v>
       </c>
       <c r="AR60">
-        <v>1.51</v>
+        <v>1.6</v>
       </c>
       <c r="AS60">
-        <v>1.07</v>
+        <v>1.43</v>
       </c>
       <c r="AT60">
-        <v>2.58</v>
+        <v>3.03</v>
       </c>
       <c r="AU60">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV60">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW60">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX60">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY60">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AZ60">
         <v>11</v>
       </c>
       <c r="BA60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BB60">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC60">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD60">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
       <c r="BE60">
-        <v>7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="BF60">
-        <v>3.28</v>
+        <v>3.35</v>
       </c>
       <c r="BG60">
+        <v>1.1</v>
+      </c>
+      <c r="BH60">
+        <v>4.9</v>
+      </c>
+      <c r="BI60">
         <v>1.22</v>
       </c>
-      <c r="BH60">
-        <v>4</v>
-      </c>
-      <c r="BI60">
-        <v>1.42</v>
-      </c>
       <c r="BJ60">
-        <v>2.75</v>
+        <v>3.34</v>
       </c>
       <c r="BK60">
-        <v>1.74</v>
+        <v>1.43</v>
       </c>
       <c r="BL60">
-        <v>2.02</v>
+        <v>2.62</v>
       </c>
       <c r="BM60">
-        <v>2.23</v>
+        <v>1.92</v>
       </c>
       <c r="BN60">
-        <v>1.61</v>
+        <v>1.88</v>
       </c>
       <c r="BO60">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="BP60">
-        <v>1.35</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="61" spans="1:68">
@@ -13452,6 +13458,624 @@
       </c>
       <c r="BP61">
         <v>1.62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7502661</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45571.41666666666</v>
+      </c>
+      <c r="F62">
+        <v>7</v>
+      </c>
+      <c r="G62" t="s">
+        <v>74</v>
+      </c>
+      <c r="H62" t="s">
+        <v>77</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62" t="s">
+        <v>127</v>
+      </c>
+      <c r="P62" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q62">
+        <v>2.84</v>
+      </c>
+      <c r="R62">
+        <v>2.02</v>
+      </c>
+      <c r="S62">
+        <v>3.88</v>
+      </c>
+      <c r="T62">
+        <v>1.44</v>
+      </c>
+      <c r="U62">
+        <v>2.67</v>
+      </c>
+      <c r="V62">
+        <v>2.99</v>
+      </c>
+      <c r="W62">
+        <v>1.36</v>
+      </c>
+      <c r="X62">
+        <v>7.7</v>
+      </c>
+      <c r="Y62">
+        <v>1.06</v>
+      </c>
+      <c r="Z62">
+        <v>2.3</v>
+      </c>
+      <c r="AA62">
+        <v>3</v>
+      </c>
+      <c r="AB62">
+        <v>2.9</v>
+      </c>
+      <c r="AC62">
+        <v>1.02</v>
+      </c>
+      <c r="AD62">
+        <v>7.5</v>
+      </c>
+      <c r="AE62">
+        <v>1.28</v>
+      </c>
+      <c r="AF62">
+        <v>2.94</v>
+      </c>
+      <c r="AG62">
+        <v>2</v>
+      </c>
+      <c r="AH62">
+        <v>1.73</v>
+      </c>
+      <c r="AI62">
+        <v>1.8</v>
+      </c>
+      <c r="AJ62">
+        <v>1.9</v>
+      </c>
+      <c r="AK62">
+        <v>1.33</v>
+      </c>
+      <c r="AL62">
+        <v>1.32</v>
+      </c>
+      <c r="AM62">
+        <v>1.62</v>
+      </c>
+      <c r="AN62">
+        <v>1.67</v>
+      </c>
+      <c r="AO62">
+        <v>2.33</v>
+      </c>
+      <c r="AP62">
+        <v>2</v>
+      </c>
+      <c r="AQ62">
+        <v>1.75</v>
+      </c>
+      <c r="AR62">
+        <v>1.41</v>
+      </c>
+      <c r="AS62">
+        <v>1.58</v>
+      </c>
+      <c r="AT62">
+        <v>2.99</v>
+      </c>
+      <c r="AU62">
+        <v>2</v>
+      </c>
+      <c r="AV62">
+        <v>6</v>
+      </c>
+      <c r="AW62">
+        <v>4</v>
+      </c>
+      <c r="AX62">
+        <v>13</v>
+      </c>
+      <c r="AY62">
+        <v>6</v>
+      </c>
+      <c r="AZ62">
+        <v>19</v>
+      </c>
+      <c r="BA62">
+        <v>1</v>
+      </c>
+      <c r="BB62">
+        <v>15</v>
+      </c>
+      <c r="BC62">
+        <v>16</v>
+      </c>
+      <c r="BD62">
+        <v>1.93</v>
+      </c>
+      <c r="BE62">
+        <v>7.2</v>
+      </c>
+      <c r="BF62">
+        <v>2.23</v>
+      </c>
+      <c r="BG62">
+        <v>1.09</v>
+      </c>
+      <c r="BH62">
+        <v>5.05</v>
+      </c>
+      <c r="BI62">
+        <v>1.22</v>
+      </c>
+      <c r="BJ62">
+        <v>3.35</v>
+      </c>
+      <c r="BK62">
+        <v>1.44</v>
+      </c>
+      <c r="BL62">
+        <v>2.6</v>
+      </c>
+      <c r="BM62">
+        <v>1.77</v>
+      </c>
+      <c r="BN62">
+        <v>1.94</v>
+      </c>
+      <c r="BO62">
+        <v>2.25</v>
+      </c>
+      <c r="BP62">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7502659</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45571.47916666666</v>
+      </c>
+      <c r="F63">
+        <v>7</v>
+      </c>
+      <c r="G63" t="s">
+        <v>71</v>
+      </c>
+      <c r="H63" t="s">
+        <v>79</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>2</v>
+      </c>
+      <c r="O63" t="s">
+        <v>128</v>
+      </c>
+      <c r="P63" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q63">
+        <v>2.88</v>
+      </c>
+      <c r="R63">
+        <v>2</v>
+      </c>
+      <c r="S63">
+        <v>3.6</v>
+      </c>
+      <c r="T63">
+        <v>1.44</v>
+      </c>
+      <c r="U63">
+        <v>2.67</v>
+      </c>
+      <c r="V63">
+        <v>2.99</v>
+      </c>
+      <c r="W63">
+        <v>1.36</v>
+      </c>
+      <c r="X63">
+        <v>7.7</v>
+      </c>
+      <c r="Y63">
+        <v>1.06</v>
+      </c>
+      <c r="Z63">
+        <v>2.4</v>
+      </c>
+      <c r="AA63">
+        <v>3.2</v>
+      </c>
+      <c r="AB63">
+        <v>2.8</v>
+      </c>
+      <c r="AC63">
+        <v>1.05</v>
+      </c>
+      <c r="AD63">
+        <v>8</v>
+      </c>
+      <c r="AE63">
+        <v>1.29</v>
+      </c>
+      <c r="AF63">
+        <v>3.3</v>
+      </c>
+      <c r="AG63">
+        <v>2.02</v>
+      </c>
+      <c r="AH63">
+        <v>1.65</v>
+      </c>
+      <c r="AI63">
+        <v>1.73</v>
+      </c>
+      <c r="AJ63">
+        <v>2</v>
+      </c>
+      <c r="AK63">
+        <v>1.36</v>
+      </c>
+      <c r="AL63">
+        <v>1.33</v>
+      </c>
+      <c r="AM63">
+        <v>1.56</v>
+      </c>
+      <c r="AN63">
+        <v>0.33</v>
+      </c>
+      <c r="AO63">
+        <v>1.67</v>
+      </c>
+      <c r="AP63">
+        <v>0.5</v>
+      </c>
+      <c r="AQ63">
+        <v>1.5</v>
+      </c>
+      <c r="AR63">
+        <v>1.24</v>
+      </c>
+      <c r="AS63">
+        <v>1.16</v>
+      </c>
+      <c r="AT63">
+        <v>2.4</v>
+      </c>
+      <c r="AU63">
+        <v>3</v>
+      </c>
+      <c r="AV63">
+        <v>4</v>
+      </c>
+      <c r="AW63">
+        <v>2</v>
+      </c>
+      <c r="AX63">
+        <v>5</v>
+      </c>
+      <c r="AY63">
+        <v>5</v>
+      </c>
+      <c r="AZ63">
+        <v>9</v>
+      </c>
+      <c r="BA63">
+        <v>3</v>
+      </c>
+      <c r="BB63">
+        <v>3</v>
+      </c>
+      <c r="BC63">
+        <v>6</v>
+      </c>
+      <c r="BD63">
+        <v>1.84</v>
+      </c>
+      <c r="BE63">
+        <v>6.55</v>
+      </c>
+      <c r="BF63">
+        <v>2.44</v>
+      </c>
+      <c r="BG63">
+        <v>1.22</v>
+      </c>
+      <c r="BH63">
+        <v>3.7</v>
+      </c>
+      <c r="BI63">
+        <v>1.41</v>
+      </c>
+      <c r="BJ63">
+        <v>2.6</v>
+      </c>
+      <c r="BK63">
+        <v>1.69</v>
+      </c>
+      <c r="BL63">
+        <v>2.04</v>
+      </c>
+      <c r="BM63">
+        <v>2.07</v>
+      </c>
+      <c r="BN63">
+        <v>1.64</v>
+      </c>
+      <c r="BO63">
+        <v>2.6</v>
+      </c>
+      <c r="BP63">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7502663</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45571.47916666666</v>
+      </c>
+      <c r="F64">
+        <v>7</v>
+      </c>
+      <c r="G64" t="s">
+        <v>86</v>
+      </c>
+      <c r="H64" t="s">
+        <v>85</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64" t="s">
+        <v>128</v>
+      </c>
+      <c r="P64" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q64">
+        <v>2.88</v>
+      </c>
+      <c r="R64">
+        <v>2</v>
+      </c>
+      <c r="S64">
+        <v>3.5</v>
+      </c>
+      <c r="T64">
+        <v>1.44</v>
+      </c>
+      <c r="U64">
+        <v>2.67</v>
+      </c>
+      <c r="V64">
+        <v>2.94</v>
+      </c>
+      <c r="W64">
+        <v>1.37</v>
+      </c>
+      <c r="X64">
+        <v>7.6</v>
+      </c>
+      <c r="Y64">
+        <v>1.07</v>
+      </c>
+      <c r="Z64">
+        <v>2.4</v>
+      </c>
+      <c r="AA64">
+        <v>3.2</v>
+      </c>
+      <c r="AB64">
+        <v>2.8</v>
+      </c>
+      <c r="AC64">
+        <v>1.03</v>
+      </c>
+      <c r="AD64">
+        <v>9</v>
+      </c>
+      <c r="AE64">
+        <v>1.29</v>
+      </c>
+      <c r="AF64">
+        <v>3.3</v>
+      </c>
+      <c r="AG64">
+        <v>1.96</v>
+      </c>
+      <c r="AH64">
+        <v>1.7</v>
+      </c>
+      <c r="AI64">
+        <v>1.67</v>
+      </c>
+      <c r="AJ64">
+        <v>2.1</v>
+      </c>
+      <c r="AK64">
+        <v>1.4</v>
+      </c>
+      <c r="AL64">
+        <v>1.32</v>
+      </c>
+      <c r="AM64">
+        <v>1.51</v>
+      </c>
+      <c r="AN64">
+        <v>2.33</v>
+      </c>
+      <c r="AO64">
+        <v>1.33</v>
+      </c>
+      <c r="AP64">
+        <v>2.5</v>
+      </c>
+      <c r="AQ64">
+        <v>1</v>
+      </c>
+      <c r="AR64">
+        <v>1.67</v>
+      </c>
+      <c r="AS64">
+        <v>1.29</v>
+      </c>
+      <c r="AT64">
+        <v>2.96</v>
+      </c>
+      <c r="AU64">
+        <v>3</v>
+      </c>
+      <c r="AV64">
+        <v>4</v>
+      </c>
+      <c r="AW64">
+        <v>8</v>
+      </c>
+      <c r="AX64">
+        <v>8</v>
+      </c>
+      <c r="AY64">
+        <v>11</v>
+      </c>
+      <c r="AZ64">
+        <v>12</v>
+      </c>
+      <c r="BA64">
+        <v>5</v>
+      </c>
+      <c r="BB64">
+        <v>3</v>
+      </c>
+      <c r="BC64">
+        <v>8</v>
+      </c>
+      <c r="BD64">
+        <v>2.01</v>
+      </c>
+      <c r="BE64">
+        <v>6.45</v>
+      </c>
+      <c r="BF64">
+        <v>2.21</v>
+      </c>
+      <c r="BG64">
+        <v>1.23</v>
+      </c>
+      <c r="BH64">
+        <v>3.6</v>
+      </c>
+      <c r="BI64">
+        <v>1.42</v>
+      </c>
+      <c r="BJ64">
+        <v>2.55</v>
+      </c>
+      <c r="BK64">
+        <v>1.72</v>
+      </c>
+      <c r="BL64">
+        <v>2</v>
+      </c>
+      <c r="BM64">
+        <v>2.12</v>
+      </c>
+      <c r="BN64">
+        <v>1.61</v>
+      </c>
+      <c r="BO64">
+        <v>2.65</v>
+      </c>
+      <c r="BP64">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -13474,7 +13474,7 @@
         <v>69</v>
       </c>
       <c r="E62" s="2">
-        <v>45571.41666666666</v>
+        <v>45570.875</v>
       </c>
       <c r="F62">
         <v>7</v>
@@ -13600,7 +13600,7 @@
         <v>2.99</v>
       </c>
       <c r="AU62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV62">
         <v>6</v>
@@ -13609,13 +13609,13 @@
         <v>4</v>
       </c>
       <c r="AX62">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AY62">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AZ62">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA62">
         <v>1</v>
@@ -13680,7 +13680,7 @@
         <v>69</v>
       </c>
       <c r="E63" s="2">
-        <v>45571.47916666666</v>
+        <v>45570.875</v>
       </c>
       <c r="F63">
         <v>7</v>
@@ -13806,22 +13806,22 @@
         <v>2.4</v>
       </c>
       <c r="AU63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV63">
+        <v>3</v>
+      </c>
+      <c r="AW63">
+        <v>2</v>
+      </c>
+      <c r="AX63">
         <v>4</v>
       </c>
-      <c r="AW63">
-        <v>2</v>
-      </c>
-      <c r="AX63">
-        <v>5</v>
-      </c>
       <c r="AY63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ63">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA63">
         <v>3</v>
@@ -13886,7 +13886,7 @@
         <v>69</v>
       </c>
       <c r="E64" s="2">
-        <v>45571.47916666666</v>
+        <v>45570.875</v>
       </c>
       <c r="F64">
         <v>7</v>
@@ -14012,22 +14012,22 @@
         <v>2.96</v>
       </c>
       <c r="AU64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV64">
         <v>4</v>
       </c>
       <c r="AW64">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX64">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AY64">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ64">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BA64">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -391,12 +391,12 @@
     <t>['23', '56', '68']</t>
   </si>
   <si>
+    <t>['24']</t>
+  </si>
+  <si>
     <t>['10', '34', '38']</t>
   </si>
   <si>
-    <t>['24']</t>
-  </si>
-  <si>
     <t>['15']</t>
   </si>
   <si>
@@ -496,12 +496,12 @@
     <t>['2', '18']</t>
   </si>
   <si>
+    <t>['39', '49']</t>
+  </si>
+  <si>
     <t>['69']</t>
   </si>
   <si>
-    <t>['39', '49']</t>
-  </si>
-  <si>
     <t>['21']</t>
   </si>
   <si>
@@ -523,10 +523,10 @@
     <t>['10', '78']</t>
   </si>
   <si>
+    <t>['3']</t>
+  </si>
+  <si>
     <t>['11', '15']</t>
-  </si>
-  <si>
-    <t>['3']</t>
   </si>
 </sst>
 </file>
@@ -9757,7 +9757,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>7502645</v>
+        <v>7502643</v>
       </c>
       <c r="C44" t="s">
         <v>68</v>
@@ -9772,190 +9772,190 @@
         <v>5</v>
       </c>
       <c r="G44" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="H44" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O44" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="P44" t="s">
         <v>160</v>
       </c>
       <c r="Q44">
-        <v>2.85</v>
+        <v>2.25</v>
       </c>
       <c r="R44">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S44">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="T44">
-        <v>1.45</v>
+        <v>1.32</v>
       </c>
       <c r="U44">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="V44">
-        <v>2.9</v>
+        <v>2.62</v>
       </c>
       <c r="W44">
-        <v>1.35</v>
+        <v>1.48</v>
       </c>
       <c r="X44">
-        <v>6.8</v>
+        <v>6.15</v>
       </c>
       <c r="Y44">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="Z44">
-        <v>2.08</v>
+        <v>1.75</v>
       </c>
       <c r="AA44">
+        <v>3.4</v>
+      </c>
+      <c r="AB44">
+        <v>3.95</v>
+      </c>
+      <c r="AC44">
+        <v>1.01</v>
+      </c>
+      <c r="AD44">
+        <v>11</v>
+      </c>
+      <c r="AE44">
+        <v>1.24</v>
+      </c>
+      <c r="AF44">
+        <v>4.01</v>
+      </c>
+      <c r="AG44">
+        <v>1.7</v>
+      </c>
+      <c r="AH44">
+        <v>1.95</v>
+      </c>
+      <c r="AI44">
+        <v>1.67</v>
+      </c>
+      <c r="AJ44">
+        <v>2.1</v>
+      </c>
+      <c r="AK44">
+        <v>1.21</v>
+      </c>
+      <c r="AL44">
+        <v>1.25</v>
+      </c>
+      <c r="AM44">
+        <v>1.99</v>
+      </c>
+      <c r="AN44">
+        <v>3</v>
+      </c>
+      <c r="AO44">
+        <v>0</v>
+      </c>
+      <c r="AP44">
+        <v>2.5</v>
+      </c>
+      <c r="AQ44">
+        <v>0.33</v>
+      </c>
+      <c r="AR44">
+        <v>1.61</v>
+      </c>
+      <c r="AS44">
+        <v>1.49</v>
+      </c>
+      <c r="AT44">
         <v>3.1</v>
       </c>
-      <c r="AB44">
-        <v>3.2</v>
-      </c>
-      <c r="AC44">
-        <v>1.04</v>
-      </c>
-      <c r="AD44">
-        <v>7.8</v>
-      </c>
-      <c r="AE44">
-        <v>1.32</v>
-      </c>
-      <c r="AF44">
-        <v>3.1</v>
-      </c>
-      <c r="AG44">
-        <v>1.95</v>
-      </c>
-      <c r="AH44">
-        <v>1.7</v>
-      </c>
-      <c r="AI44">
-        <v>1.75</v>
-      </c>
-      <c r="AJ44">
-        <v>1.93</v>
-      </c>
-      <c r="AK44">
-        <v>1.3</v>
-      </c>
-      <c r="AL44">
-        <v>1.28</v>
-      </c>
-      <c r="AM44">
-        <v>1.49</v>
-      </c>
-      <c r="AN44">
-        <v>2</v>
-      </c>
-      <c r="AO44">
-        <v>1.5</v>
-      </c>
-      <c r="AP44">
-        <v>1.75</v>
-      </c>
-      <c r="AQ44">
-        <v>1.75</v>
-      </c>
-      <c r="AR44">
-        <v>1.58</v>
-      </c>
-      <c r="AS44">
-        <v>1.33</v>
-      </c>
-      <c r="AT44">
-        <v>2.91</v>
-      </c>
       <c r="AU44">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV44">
         <v>4</v>
       </c>
       <c r="AW44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX44">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AY44">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ44">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BA44">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BB44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC44">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD44">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="BE44">
-        <v>6.85</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BF44">
-        <v>2.99</v>
+        <v>2.65</v>
       </c>
       <c r="BG44">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="BH44">
-        <v>3.9</v>
+        <v>4.75</v>
       </c>
       <c r="BI44">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="BJ44">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="BK44">
-        <v>1.7</v>
+        <v>1.48</v>
       </c>
       <c r="BL44">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="BM44">
-        <v>2.07</v>
+        <v>1.92</v>
       </c>
       <c r="BN44">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="BO44">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="BP44">
-        <v>1.43</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="45" spans="1:68">
@@ -9963,7 +9963,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>7502643</v>
+        <v>7502645</v>
       </c>
       <c r="C45" t="s">
         <v>68</v>
@@ -9978,190 +9978,190 @@
         <v>5</v>
       </c>
       <c r="G45" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="H45" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N45">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O45" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="P45" t="s">
         <v>161</v>
       </c>
       <c r="Q45">
-        <v>2.25</v>
+        <v>2.85</v>
       </c>
       <c r="R45">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="S45">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="T45">
+        <v>1.45</v>
+      </c>
+      <c r="U45">
+        <v>2.55</v>
+      </c>
+      <c r="V45">
+        <v>2.9</v>
+      </c>
+      <c r="W45">
+        <v>1.35</v>
+      </c>
+      <c r="X45">
+        <v>6.8</v>
+      </c>
+      <c r="Y45">
+        <v>1.07</v>
+      </c>
+      <c r="Z45">
+        <v>2.08</v>
+      </c>
+      <c r="AA45">
+        <v>3.1</v>
+      </c>
+      <c r="AB45">
+        <v>3.2</v>
+      </c>
+      <c r="AC45">
+        <v>1.04</v>
+      </c>
+      <c r="AD45">
+        <v>7.8</v>
+      </c>
+      <c r="AE45">
         <v>1.32</v>
       </c>
-      <c r="U45">
-        <v>3.3</v>
-      </c>
-      <c r="V45">
-        <v>2.62</v>
-      </c>
-      <c r="W45">
-        <v>1.48</v>
-      </c>
-      <c r="X45">
-        <v>6.15</v>
-      </c>
-      <c r="Y45">
-        <v>1.1</v>
-      </c>
-      <c r="Z45">
+      <c r="AF45">
+        <v>3.1</v>
+      </c>
+      <c r="AG45">
+        <v>1.95</v>
+      </c>
+      <c r="AH45">
+        <v>1.7</v>
+      </c>
+      <c r="AI45">
         <v>1.75</v>
       </c>
-      <c r="AA45">
-        <v>3.4</v>
-      </c>
-      <c r="AB45">
-        <v>3.95</v>
-      </c>
-      <c r="AC45">
-        <v>1.01</v>
-      </c>
-      <c r="AD45">
-        <v>11</v>
-      </c>
-      <c r="AE45">
-        <v>1.24</v>
-      </c>
-      <c r="AF45">
-        <v>4.01</v>
-      </c>
-      <c r="AG45">
-        <v>1.7</v>
-      </c>
-      <c r="AH45">
-        <v>1.95</v>
-      </c>
-      <c r="AI45">
-        <v>1.67</v>
-      </c>
       <c r="AJ45">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="AK45">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AL45">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AM45">
-        <v>1.99</v>
+        <v>1.49</v>
       </c>
       <c r="AN45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO45">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="AQ45">
-        <v>0.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR45">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AS45">
-        <v>1.49</v>
+        <v>1.33</v>
       </c>
       <c r="AT45">
-        <v>3.1</v>
+        <v>2.91</v>
       </c>
       <c r="AU45">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV45">
         <v>4</v>
       </c>
       <c r="AW45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX45">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AY45">
+        <v>7</v>
+      </c>
+      <c r="AZ45">
+        <v>6</v>
+      </c>
+      <c r="BA45">
         <v>10</v>
       </c>
-      <c r="AZ45">
+      <c r="BB45">
+        <v>2</v>
+      </c>
+      <c r="BC45">
         <v>12</v>
       </c>
-      <c r="BA45">
-        <v>5</v>
-      </c>
-      <c r="BB45">
-        <v>4</v>
-      </c>
-      <c r="BC45">
-        <v>9</v>
-      </c>
       <c r="BD45">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="BE45">
-        <v>9.199999999999999</v>
+        <v>6.85</v>
       </c>
       <c r="BF45">
-        <v>2.65</v>
+        <v>2.99</v>
       </c>
       <c r="BG45">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="BH45">
-        <v>4.75</v>
+        <v>3.9</v>
       </c>
       <c r="BI45">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="BJ45">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="BK45">
-        <v>1.48</v>
+        <v>1.7</v>
       </c>
       <c r="BL45">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="BM45">
-        <v>1.92</v>
+        <v>2.07</v>
       </c>
       <c r="BN45">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="BO45">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="BP45">
-        <v>1.65</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="46" spans="1:68">
@@ -12435,7 +12435,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>7502662</v>
+        <v>7502658</v>
       </c>
       <c r="C57" t="s">
         <v>68</v>
@@ -12444,196 +12444,196 @@
         <v>69</v>
       </c>
       <c r="E57" s="2">
-        <v>45569.875</v>
+        <v>45570.29166666666</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G57" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H57" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N57">
         <v>2</v>
       </c>
       <c r="O57" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="P57" t="s">
         <v>169</v>
       </c>
       <c r="Q57">
+        <v>3</v>
+      </c>
+      <c r="R57">
+        <v>2</v>
+      </c>
+      <c r="S57">
+        <v>3.75</v>
+      </c>
+      <c r="T57">
+        <v>1.45</v>
+      </c>
+      <c r="U57">
+        <v>2.73</v>
+      </c>
+      <c r="V57">
+        <v>3.26</v>
+      </c>
+      <c r="W57">
+        <v>1.33</v>
+      </c>
+      <c r="X57">
+        <v>8.4</v>
+      </c>
+      <c r="Y57">
+        <v>1.05</v>
+      </c>
+      <c r="Z57">
+        <v>2.3</v>
+      </c>
+      <c r="AA57">
         <v>3.1</v>
       </c>
-      <c r="R57">
+      <c r="AB57">
+        <v>2.8</v>
+      </c>
+      <c r="AC57">
+        <v>1.05</v>
+      </c>
+      <c r="AD57">
+        <v>8</v>
+      </c>
+      <c r="AE57">
+        <v>1.33</v>
+      </c>
+      <c r="AF57">
+        <v>3</v>
+      </c>
+      <c r="AG57">
         <v>2.1</v>
       </c>
-      <c r="S57">
-        <v>3.2</v>
-      </c>
-      <c r="T57">
-        <v>1.35</v>
-      </c>
-      <c r="U57">
-        <v>3.18</v>
-      </c>
-      <c r="V57">
-        <v>2.74</v>
-      </c>
-      <c r="W57">
-        <v>1.45</v>
-      </c>
-      <c r="X57">
-        <v>6.6</v>
-      </c>
-      <c r="Y57">
-        <v>1.09</v>
-      </c>
-      <c r="Z57">
-        <v>2.5</v>
-      </c>
-      <c r="AA57">
-        <v>3.25</v>
-      </c>
-      <c r="AB57">
-        <v>2.5</v>
-      </c>
-      <c r="AC57">
-        <v>1.02</v>
-      </c>
-      <c r="AD57">
-        <v>10</v>
-      </c>
-      <c r="AE57">
-        <v>1.22</v>
-      </c>
-      <c r="AF57">
-        <v>3.8</v>
-      </c>
-      <c r="AG57">
-        <v>1.85</v>
-      </c>
       <c r="AH57">
-        <v>1.97</v>
+        <v>1.61</v>
       </c>
       <c r="AI57">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="AJ57">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AK57">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AL57">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="AM57">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="AN57">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AO57">
         <v>1.33</v>
       </c>
       <c r="AP57">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ57">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="AR57">
-        <v>1.13</v>
+        <v>1.67</v>
       </c>
       <c r="AS57">
-        <v>1.05</v>
+        <v>1.36</v>
       </c>
       <c r="AT57">
-        <v>2.18</v>
+        <v>3.03</v>
       </c>
       <c r="AU57">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV57">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AW57">
         <v>7</v>
       </c>
       <c r="AX57">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY57">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ57">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="BA57">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BB57">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC57">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BD57">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="BE57">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="BF57">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="BG57">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="BH57">
-        <v>4.95</v>
+        <v>4.5</v>
       </c>
       <c r="BI57">
-        <v>1.22</v>
+        <v>1.34</v>
       </c>
       <c r="BJ57">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="BK57">
+        <v>1.61</v>
+      </c>
+      <c r="BL57">
+        <v>2.23</v>
+      </c>
+      <c r="BM57">
+        <v>2.02</v>
+      </c>
+      <c r="BN57">
+        <v>1.74</v>
+      </c>
+      <c r="BO57">
+        <v>2.7</v>
+      </c>
+      <c r="BP57">
         <v>1.43</v>
-      </c>
-      <c r="BL57">
-        <v>2.62</v>
-      </c>
-      <c r="BM57">
-        <v>1.92</v>
-      </c>
-      <c r="BN57">
-        <v>1.88</v>
-      </c>
-      <c r="BO57">
-        <v>2.27</v>
-      </c>
-      <c r="BP57">
-        <v>1.56</v>
       </c>
     </row>
     <row r="58" spans="1:68">
@@ -12641,7 +12641,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>7502664</v>
+        <v>7502666</v>
       </c>
       <c r="C58" t="s">
         <v>68</v>
@@ -12650,34 +12650,34 @@
         <v>69</v>
       </c>
       <c r="E58" s="2">
-        <v>45569.875</v>
+        <v>45570.41666666666</v>
       </c>
       <c r="F58">
         <v>7</v>
       </c>
       <c r="G58" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H58" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J58">
         <v>0</v>
       </c>
       <c r="K58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M58">
         <v>0</v>
       </c>
       <c r="N58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O58" t="s">
         <v>125</v>
@@ -12686,160 +12686,160 @@
         <v>89</v>
       </c>
       <c r="Q58">
+        <v>2.25</v>
+      </c>
+      <c r="R58">
+        <v>2.2</v>
+      </c>
+      <c r="S58">
+        <v>4.5</v>
+      </c>
+      <c r="T58">
+        <v>1.34</v>
+      </c>
+      <c r="U58">
+        <v>3.22</v>
+      </c>
+      <c r="V58">
         <v>2.7</v>
       </c>
-      <c r="R58">
-        <v>2</v>
-      </c>
-      <c r="S58">
-        <v>4.2</v>
-      </c>
-      <c r="T58">
-        <v>1.45</v>
-      </c>
-      <c r="U58">
-        <v>2.72</v>
-      </c>
-      <c r="V58">
-        <v>3.27</v>
-      </c>
       <c r="W58">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="X58">
-        <v>8.4</v>
+        <v>6.35</v>
       </c>
       <c r="Y58">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="Z58">
+        <v>1.65</v>
+      </c>
+      <c r="AA58">
+        <v>3.7</v>
+      </c>
+      <c r="AB58">
+        <v>4.33</v>
+      </c>
+      <c r="AC58">
+        <v>1.01</v>
+      </c>
+      <c r="AD58">
+        <v>11</v>
+      </c>
+      <c r="AE58">
+        <v>1.2</v>
+      </c>
+      <c r="AF58">
+        <v>4</v>
+      </c>
+      <c r="AG58">
+        <v>1.81</v>
+      </c>
+      <c r="AH58">
         <v>2.01</v>
       </c>
-      <c r="AA58">
-        <v>3.17</v>
-      </c>
-      <c r="AB58">
-        <v>3.37</v>
-      </c>
-      <c r="AC58">
-        <v>1.05</v>
-      </c>
-      <c r="AD58">
-        <v>8</v>
-      </c>
-      <c r="AE58">
-        <v>1.38</v>
-      </c>
-      <c r="AF58">
-        <v>3.01</v>
-      </c>
-      <c r="AG58">
-        <v>2.14</v>
-      </c>
-      <c r="AH58">
-        <v>1.66</v>
-      </c>
       <c r="AI58">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="AJ58">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="AK58">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="AL58">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="AM58">
-        <v>1.69</v>
+        <v>2.07</v>
       </c>
       <c r="AN58">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AO58">
         <v>0.67</v>
       </c>
       <c r="AP58">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="AQ58">
         <v>0.5</v>
       </c>
       <c r="AR58">
-        <v>1.51</v>
+        <v>1.6</v>
       </c>
       <c r="AS58">
-        <v>1.07</v>
+        <v>1.43</v>
       </c>
       <c r="AT58">
-        <v>2.58</v>
+        <v>3.03</v>
       </c>
       <c r="AU58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV58">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AW58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AX58">
+        <v>7</v>
+      </c>
+      <c r="AY58">
+        <v>7</v>
+      </c>
+      <c r="AZ58">
+        <v>11</v>
+      </c>
+      <c r="BA58">
+        <v>3</v>
+      </c>
+      <c r="BB58">
         <v>4</v>
       </c>
-      <c r="AY58">
-        <v>3</v>
-      </c>
-      <c r="AZ58">
-        <v>12</v>
-      </c>
-      <c r="BA58">
-        <v>1</v>
-      </c>
-      <c r="BB58">
-        <v>5</v>
-      </c>
       <c r="BC58">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD58">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
       <c r="BE58">
-        <v>7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="BF58">
-        <v>3.28</v>
+        <v>3.35</v>
       </c>
       <c r="BG58">
+        <v>1.1</v>
+      </c>
+      <c r="BH58">
+        <v>4.9</v>
+      </c>
+      <c r="BI58">
         <v>1.22</v>
       </c>
-      <c r="BH58">
-        <v>4</v>
-      </c>
-      <c r="BI58">
-        <v>1.42</v>
-      </c>
       <c r="BJ58">
-        <v>2.75</v>
+        <v>3.34</v>
       </c>
       <c r="BK58">
-        <v>1.74</v>
+        <v>1.43</v>
       </c>
       <c r="BL58">
-        <v>2.02</v>
+        <v>2.62</v>
       </c>
       <c r="BM58">
-        <v>2.23</v>
+        <v>1.92</v>
       </c>
       <c r="BN58">
-        <v>1.61</v>
+        <v>1.88</v>
       </c>
       <c r="BO58">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="BP58">
-        <v>1.35</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="59" spans="1:68">
@@ -12847,7 +12847,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>7502658</v>
+        <v>7502662</v>
       </c>
       <c r="C59" t="s">
         <v>68</v>
@@ -12856,196 +12856,196 @@
         <v>69</v>
       </c>
       <c r="E59" s="2">
-        <v>45570.29166666666</v>
+        <v>45570.47916666666</v>
       </c>
       <c r="F59">
         <v>7</v>
       </c>
       <c r="G59" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H59" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N59">
         <v>2</v>
       </c>
       <c r="O59" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="P59" t="s">
         <v>170</v>
       </c>
       <c r="Q59">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="R59">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S59">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="T59">
+        <v>1.35</v>
+      </c>
+      <c r="U59">
+        <v>3.18</v>
+      </c>
+      <c r="V59">
+        <v>2.74</v>
+      </c>
+      <c r="W59">
         <v>1.45</v>
       </c>
-      <c r="U59">
-        <v>2.73</v>
-      </c>
-      <c r="V59">
-        <v>3.26</v>
-      </c>
-      <c r="W59">
+      <c r="X59">
+        <v>6.6</v>
+      </c>
+      <c r="Y59">
+        <v>1.09</v>
+      </c>
+      <c r="Z59">
+        <v>2.5</v>
+      </c>
+      <c r="AA59">
+        <v>3.25</v>
+      </c>
+      <c r="AB59">
+        <v>2.5</v>
+      </c>
+      <c r="AC59">
+        <v>1.02</v>
+      </c>
+      <c r="AD59">
+        <v>10</v>
+      </c>
+      <c r="AE59">
+        <v>1.22</v>
+      </c>
+      <c r="AF59">
+        <v>3.8</v>
+      </c>
+      <c r="AG59">
+        <v>1.85</v>
+      </c>
+      <c r="AH59">
+        <v>1.97</v>
+      </c>
+      <c r="AI59">
+        <v>1.62</v>
+      </c>
+      <c r="AJ59">
+        <v>2.2</v>
+      </c>
+      <c r="AK59">
+        <v>1.47</v>
+      </c>
+      <c r="AL59">
+        <v>1.3</v>
+      </c>
+      <c r="AM59">
+        <v>1.46</v>
+      </c>
+      <c r="AN59">
         <v>1.33</v>
-      </c>
-      <c r="X59">
-        <v>8.4</v>
-      </c>
-      <c r="Y59">
-        <v>1.05</v>
-      </c>
-      <c r="Z59">
-        <v>2.3</v>
-      </c>
-      <c r="AA59">
-        <v>3.1</v>
-      </c>
-      <c r="AB59">
-        <v>2.8</v>
-      </c>
-      <c r="AC59">
-        <v>1.05</v>
-      </c>
-      <c r="AD59">
-        <v>8</v>
-      </c>
-      <c r="AE59">
-        <v>1.33</v>
-      </c>
-      <c r="AF59">
-        <v>3</v>
-      </c>
-      <c r="AG59">
-        <v>2.1</v>
-      </c>
-      <c r="AH59">
-        <v>1.61</v>
-      </c>
-      <c r="AI59">
-        <v>1.83</v>
-      </c>
-      <c r="AJ59">
-        <v>1.83</v>
-      </c>
-      <c r="AK59">
-        <v>1.38</v>
-      </c>
-      <c r="AL59">
-        <v>1.32</v>
-      </c>
-      <c r="AM59">
-        <v>1.54</v>
-      </c>
-      <c r="AN59">
-        <v>0.67</v>
       </c>
       <c r="AO59">
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ59">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AR59">
-        <v>1.67</v>
+        <v>1.13</v>
       </c>
       <c r="AS59">
-        <v>1.36</v>
+        <v>1.05</v>
       </c>
       <c r="AT59">
-        <v>3.03</v>
+        <v>2.18</v>
       </c>
       <c r="AU59">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV59">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW59">
         <v>7</v>
       </c>
       <c r="AX59">
+        <v>6</v>
+      </c>
+      <c r="AY59">
+        <v>12</v>
+      </c>
+      <c r="AZ59">
+        <v>13</v>
+      </c>
+      <c r="BA59">
+        <v>9</v>
+      </c>
+      <c r="BB59">
         <v>4</v>
       </c>
-      <c r="AY59">
+      <c r="BC59">
         <v>13</v>
       </c>
-      <c r="AZ59">
-        <v>7</v>
-      </c>
-      <c r="BA59">
-        <v>5</v>
-      </c>
-      <c r="BB59">
-        <v>3</v>
-      </c>
-      <c r="BC59">
-        <v>8</v>
-      </c>
       <c r="BD59">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="BE59">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="BF59">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="BG59">
-        <v>1.18</v>
+        <v>1.09</v>
       </c>
       <c r="BH59">
-        <v>4.5</v>
+        <v>4.95</v>
       </c>
       <c r="BI59">
-        <v>1.34</v>
+        <v>1.22</v>
       </c>
       <c r="BJ59">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="BK59">
-        <v>1.61</v>
+        <v>1.43</v>
       </c>
       <c r="BL59">
-        <v>2.23</v>
+        <v>2.62</v>
       </c>
       <c r="BM59">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="BN59">
-        <v>1.74</v>
+        <v>1.88</v>
       </c>
       <c r="BO59">
-        <v>2.7</v>
+        <v>2.27</v>
       </c>
       <c r="BP59">
-        <v>1.43</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="60" spans="1:68">
@@ -13053,7 +13053,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>7502666</v>
+        <v>7502664</v>
       </c>
       <c r="C60" t="s">
         <v>68</v>
@@ -13062,34 +13062,34 @@
         <v>69</v>
       </c>
       <c r="E60" s="2">
-        <v>45570.41666666666</v>
+        <v>45570.58333333334</v>
       </c>
       <c r="F60">
         <v>7</v>
       </c>
       <c r="G60" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H60" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J60">
         <v>0</v>
       </c>
       <c r="K60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M60">
         <v>0</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O60" t="s">
         <v>126</v>
@@ -13098,160 +13098,160 @@
         <v>89</v>
       </c>
       <c r="Q60">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="R60">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="S60">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="T60">
-        <v>1.34</v>
+        <v>1.45</v>
       </c>
       <c r="U60">
-        <v>3.22</v>
+        <v>2.72</v>
       </c>
       <c r="V60">
-        <v>2.7</v>
+        <v>3.27</v>
       </c>
       <c r="W60">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
       <c r="X60">
-        <v>6.35</v>
+        <v>8.4</v>
       </c>
       <c r="Y60">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="Z60">
-        <v>1.65</v>
+        <v>2.01</v>
       </c>
       <c r="AA60">
-        <v>3.7</v>
+        <v>3.17</v>
       </c>
       <c r="AB60">
-        <v>4.33</v>
+        <v>3.37</v>
       </c>
       <c r="AC60">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="AD60">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE60">
-        <v>1.2</v>
+        <v>1.38</v>
       </c>
       <c r="AF60">
-        <v>4</v>
+        <v>3.01</v>
       </c>
       <c r="AG60">
-        <v>1.81</v>
+        <v>2.14</v>
       </c>
       <c r="AH60">
-        <v>2.01</v>
+        <v>1.66</v>
       </c>
       <c r="AI60">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="AJ60">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="AK60">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AL60">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="AM60">
-        <v>2.07</v>
+        <v>1.69</v>
       </c>
       <c r="AN60">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="AO60">
         <v>0.67</v>
       </c>
       <c r="AP60">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AQ60">
         <v>0.5</v>
       </c>
       <c r="AR60">
-        <v>1.6</v>
+        <v>1.51</v>
       </c>
       <c r="AS60">
-        <v>1.43</v>
+        <v>1.07</v>
       </c>
       <c r="AT60">
-        <v>3.03</v>
+        <v>2.58</v>
       </c>
       <c r="AU60">
+        <v>3</v>
+      </c>
+      <c r="AV60">
+        <v>8</v>
+      </c>
+      <c r="AW60">
+        <v>0</v>
+      </c>
+      <c r="AX60">
         <v>4</v>
       </c>
-      <c r="AV60">
+      <c r="AY60">
+        <v>3</v>
+      </c>
+      <c r="AZ60">
+        <v>12</v>
+      </c>
+      <c r="BA60">
+        <v>1</v>
+      </c>
+      <c r="BB60">
+        <v>5</v>
+      </c>
+      <c r="BC60">
+        <v>6</v>
+      </c>
+      <c r="BD60">
+        <v>1.52</v>
+      </c>
+      <c r="BE60">
+        <v>7</v>
+      </c>
+      <c r="BF60">
+        <v>3.28</v>
+      </c>
+      <c r="BG60">
+        <v>1.22</v>
+      </c>
+      <c r="BH60">
         <v>4</v>
       </c>
-      <c r="AW60">
-        <v>3</v>
-      </c>
-      <c r="AX60">
-        <v>7</v>
-      </c>
-      <c r="AY60">
-        <v>7</v>
-      </c>
-      <c r="AZ60">
-        <v>11</v>
-      </c>
-      <c r="BA60">
-        <v>3</v>
-      </c>
-      <c r="BB60">
-        <v>4</v>
-      </c>
-      <c r="BC60">
-        <v>7</v>
-      </c>
-      <c r="BD60">
-        <v>1.43</v>
-      </c>
-      <c r="BE60">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="BF60">
-        <v>3.35</v>
-      </c>
-      <c r="BG60">
-        <v>1.1</v>
-      </c>
-      <c r="BH60">
-        <v>4.9</v>
-      </c>
       <c r="BI60">
-        <v>1.22</v>
+        <v>1.42</v>
       </c>
       <c r="BJ60">
-        <v>3.34</v>
+        <v>2.75</v>
       </c>
       <c r="BK60">
-        <v>1.43</v>
+        <v>1.74</v>
       </c>
       <c r="BL60">
-        <v>2.62</v>
+        <v>2.02</v>
       </c>
       <c r="BM60">
-        <v>1.92</v>
+        <v>2.23</v>
       </c>
       <c r="BN60">
-        <v>1.88</v>
+        <v>1.61</v>
       </c>
       <c r="BO60">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="BP60">
-        <v>1.57</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="61" spans="1:68">
@@ -13268,10 +13268,10 @@
         <v>69</v>
       </c>
       <c r="E61" s="2">
-        <v>45570.875</v>
+        <v>45571.29166666666</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G61" t="s">
         <v>83</v>
@@ -13474,7 +13474,7 @@
         <v>69</v>
       </c>
       <c r="E62" s="2">
-        <v>45570.875</v>
+        <v>45571.41666666666</v>
       </c>
       <c r="F62">
         <v>7</v>
@@ -13671,7 +13671,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>7502659</v>
+        <v>7502663</v>
       </c>
       <c r="C63" t="s">
         <v>68</v>
@@ -13680,16 +13680,16 @@
         <v>69</v>
       </c>
       <c r="E63" s="2">
-        <v>45570.875</v>
+        <v>45571.47916666666</v>
       </c>
       <c r="F63">
         <v>7</v>
       </c>
       <c r="G63" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="H63" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -13704,16 +13704,16 @@
         <v>1</v>
       </c>
       <c r="M63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O63" t="s">
         <v>128</v>
       </c>
       <c r="P63" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="Q63">
         <v>2.88</v>
@@ -13722,7 +13722,7 @@
         <v>2</v>
       </c>
       <c r="S63">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="T63">
         <v>1.44</v>
@@ -13731,16 +13731,16 @@
         <v>2.67</v>
       </c>
       <c r="V63">
-        <v>2.99</v>
+        <v>2.94</v>
       </c>
       <c r="W63">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X63">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="Y63">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="Z63">
         <v>2.4</v>
@@ -13752,10 +13752,10 @@
         <v>2.8</v>
       </c>
       <c r="AC63">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AD63">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE63">
         <v>1.29</v>
@@ -13764,112 +13764,112 @@
         <v>3.3</v>
       </c>
       <c r="AG63">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="AH63">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="AI63">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AJ63">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AK63">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="AL63">
+        <v>1.32</v>
+      </c>
+      <c r="AM63">
+        <v>1.51</v>
+      </c>
+      <c r="AN63">
+        <v>2.33</v>
+      </c>
+      <c r="AO63">
         <v>1.33</v>
       </c>
-      <c r="AM63">
-        <v>1.56</v>
-      </c>
-      <c r="AN63">
-        <v>0.33</v>
-      </c>
-      <c r="AO63">
+      <c r="AP63">
+        <v>2.5</v>
+      </c>
+      <c r="AQ63">
+        <v>1</v>
+      </c>
+      <c r="AR63">
         <v>1.67</v>
       </c>
-      <c r="AP63">
-        <v>0.5</v>
-      </c>
-      <c r="AQ63">
-        <v>1.5</v>
-      </c>
-      <c r="AR63">
-        <v>1.24</v>
-      </c>
       <c r="AS63">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="AT63">
-        <v>2.4</v>
+        <v>2.96</v>
       </c>
       <c r="AU63">
         <v>2</v>
       </c>
       <c r="AV63">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW63">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AX63">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY63">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AZ63">
         <v>7</v>
       </c>
       <c r="BA63">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB63">
         <v>3</v>
       </c>
       <c r="BC63">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD63">
-        <v>1.84</v>
+        <v>2.01</v>
       </c>
       <c r="BE63">
-        <v>6.55</v>
+        <v>6.45</v>
       </c>
       <c r="BF63">
-        <v>2.44</v>
+        <v>2.21</v>
       </c>
       <c r="BG63">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="BH63">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="BI63">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="BJ63">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="BK63">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="BL63">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="BM63">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="BN63">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="BO63">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="BP63">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="64" spans="1:68">
@@ -13877,7 +13877,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>7502663</v>
+        <v>7502659</v>
       </c>
       <c r="C64" t="s">
         <v>68</v>
@@ -13886,16 +13886,16 @@
         <v>69</v>
       </c>
       <c r="E64" s="2">
-        <v>45570.875</v>
+        <v>45571.47916666666</v>
       </c>
       <c r="F64">
         <v>7</v>
       </c>
       <c r="G64" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="H64" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -13910,16 +13910,16 @@
         <v>1</v>
       </c>
       <c r="M64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O64" t="s">
         <v>128</v>
       </c>
       <c r="P64" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="Q64">
         <v>2.88</v>
@@ -13928,7 +13928,7 @@
         <v>2</v>
       </c>
       <c r="S64">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="T64">
         <v>1.44</v>
@@ -13937,16 +13937,16 @@
         <v>2.67</v>
       </c>
       <c r="V64">
-        <v>2.94</v>
+        <v>2.99</v>
       </c>
       <c r="W64">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X64">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="Y64">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="Z64">
         <v>2.4</v>
@@ -13958,10 +13958,10 @@
         <v>2.8</v>
       </c>
       <c r="AC64">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AD64">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE64">
         <v>1.29</v>
@@ -13970,112 +13970,112 @@
         <v>3.3</v>
       </c>
       <c r="AG64">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="AH64">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="AI64">
+        <v>1.73</v>
+      </c>
+      <c r="AJ64">
+        <v>2</v>
+      </c>
+      <c r="AK64">
+        <v>1.36</v>
+      </c>
+      <c r="AL64">
+        <v>1.33</v>
+      </c>
+      <c r="AM64">
+        <v>1.56</v>
+      </c>
+      <c r="AN64">
+        <v>0.33</v>
+      </c>
+      <c r="AO64">
         <v>1.67</v>
       </c>
-      <c r="AJ64">
-        <v>2.1</v>
-      </c>
-      <c r="AK64">
-        <v>1.4</v>
-      </c>
-      <c r="AL64">
-        <v>1.32</v>
-      </c>
-      <c r="AM64">
-        <v>1.51</v>
-      </c>
-      <c r="AN64">
-        <v>2.33</v>
-      </c>
-      <c r="AO64">
-        <v>1.33</v>
-      </c>
       <c r="AP64">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="AQ64">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR64">
-        <v>1.67</v>
+        <v>1.24</v>
       </c>
       <c r="AS64">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="AT64">
-        <v>2.96</v>
+        <v>2.4</v>
       </c>
       <c r="AU64">
         <v>2</v>
       </c>
       <c r="AV64">
+        <v>3</v>
+      </c>
+      <c r="AW64">
+        <v>2</v>
+      </c>
+      <c r="AX64">
         <v>4</v>
       </c>
-      <c r="AW64">
-        <v>7</v>
-      </c>
-      <c r="AX64">
-        <v>3</v>
-      </c>
       <c r="AY64">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AZ64">
         <v>7</v>
       </c>
       <c r="BA64">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BB64">
         <v>3</v>
       </c>
       <c r="BC64">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BD64">
-        <v>2.01</v>
+        <v>1.84</v>
       </c>
       <c r="BE64">
-        <v>6.45</v>
+        <v>6.55</v>
       </c>
       <c r="BF64">
-        <v>2.21</v>
+        <v>2.44</v>
       </c>
       <c r="BG64">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="BH64">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="BI64">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="BJ64">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="BK64">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="BL64">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="BM64">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="BN64">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="BO64">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="BP64">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="176">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -403,6 +403,15 @@
     <t>['84']</t>
   </si>
   <si>
+    <t>['9']</t>
+  </si>
+  <si>
+    <t>['90+7', '90+13']</t>
+  </si>
+  <si>
+    <t>['30', '90+14']</t>
+  </si>
+  <si>
     <t>['24', '27']</t>
   </si>
   <si>
@@ -527,6 +536,12 @@
   </si>
   <si>
     <t>['11', '15']</t>
+  </si>
+  <si>
+    <t>['27', '38', '83']</t>
+  </si>
+  <si>
+    <t>['24', '62']</t>
   </si>
 </sst>
 </file>
@@ -888,7 +903,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP64"/>
+  <dimension ref="A1:BP67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1147,7 +1162,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -1353,7 +1368,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -1559,7 +1574,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -1765,7 +1780,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1971,7 +1986,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2177,7 +2192,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2383,7 +2398,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q8">
         <v>2.5</v>
@@ -2589,7 +2604,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -2667,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ9">
         <v>1.75</v>
@@ -3001,7 +3016,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3079,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AQ11">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3413,7 +3428,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -3619,7 +3634,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -3825,7 +3840,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -4031,7 +4046,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -4112,7 +4127,7 @@
         <v>1</v>
       </c>
       <c r="AQ16">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4318,7 +4333,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ17">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4649,7 +4664,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q19">
         <v>2.79</v>
@@ -4727,7 +4742,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ19">
         <v>0.5</v>
@@ -4855,7 +4870,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -4933,7 +4948,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ20">
         <v>1.5</v>
@@ -5473,7 +5488,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5885,7 +5900,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q25">
         <v>2.91</v>
@@ -6091,7 +6106,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6297,7 +6312,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q27">
         <v>3.25</v>
@@ -6709,7 +6724,7 @@
         <v>89</v>
       </c>
       <c r="P29" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -6787,7 +6802,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AQ29">
         <v>1.25</v>
@@ -6915,7 +6930,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -6996,7 +7011,7 @@
         <v>1</v>
       </c>
       <c r="AQ30">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR30">
         <v>1.33</v>
@@ -7199,10 +7214,10 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ31">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR31">
         <v>1.31</v>
@@ -7327,7 +7342,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7533,7 +7548,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7739,7 +7754,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -7945,7 +7960,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q35">
         <v>2.57</v>
@@ -8026,7 +8041,7 @@
         <v>0</v>
       </c>
       <c r="AQ35">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AR35">
         <v>1.95</v>
@@ -8151,7 +8166,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q36">
         <v>2.89</v>
@@ -8357,7 +8372,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q37">
         <v>2.5</v>
@@ -8563,7 +8578,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8769,7 +8784,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9181,7 +9196,7 @@
         <v>89</v>
       </c>
       <c r="P41" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9387,7 +9402,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -9799,7 +9814,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10005,7 +10020,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q45">
         <v>2.85</v>
@@ -10417,7 +10432,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -10623,7 +10638,7 @@
         <v>89</v>
       </c>
       <c r="P48" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10829,7 +10844,7 @@
         <v>89</v>
       </c>
       <c r="P49" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -10910,7 +10925,7 @@
         <v>1</v>
       </c>
       <c r="AQ49">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AR49">
         <v>1.23</v>
@@ -11035,7 +11050,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11113,7 +11128,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ50">
         <v>1.25</v>
@@ -11447,7 +11462,7 @@
         <v>89</v>
       </c>
       <c r="P52" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q52">
         <v>3.2</v>
@@ -11528,7 +11543,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ52">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR52">
         <v>1.12</v>
@@ -11731,10 +11746,10 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AQ53">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR53">
         <v>1.6</v>
@@ -11859,7 +11874,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -11937,7 +11952,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ54">
         <v>1.33</v>
@@ -12271,7 +12286,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q56">
         <v>3.08</v>
@@ -12477,7 +12492,7 @@
         <v>109</v>
       </c>
       <c r="P57" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12889,7 +12904,7 @@
         <v>89</v>
       </c>
       <c r="P59" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -14075,6 +14090,624 @@
         <v>2.6</v>
       </c>
       <c r="BP64">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7502667</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45575.875</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65" t="s">
+        <v>77</v>
+      </c>
+      <c r="H65" t="s">
+        <v>78</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>2</v>
+      </c>
+      <c r="K65">
+        <v>3</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>3</v>
+      </c>
+      <c r="N65">
+        <v>4</v>
+      </c>
+      <c r="O65" t="s">
+        <v>129</v>
+      </c>
+      <c r="P65" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q65">
+        <v>3.4</v>
+      </c>
+      <c r="R65">
+        <v>2.05</v>
+      </c>
+      <c r="S65">
+        <v>3.4</v>
+      </c>
+      <c r="T65">
+        <v>1.44</v>
+      </c>
+      <c r="U65">
+        <v>2.63</v>
+      </c>
+      <c r="V65">
+        <v>3.25</v>
+      </c>
+      <c r="W65">
+        <v>1.33</v>
+      </c>
+      <c r="X65">
+        <v>10</v>
+      </c>
+      <c r="Y65">
+        <v>1.06</v>
+      </c>
+      <c r="Z65">
+        <v>2.6</v>
+      </c>
+      <c r="AA65">
+        <v>3</v>
+      </c>
+      <c r="AB65">
+        <v>2.6</v>
+      </c>
+      <c r="AC65">
+        <v>1.07</v>
+      </c>
+      <c r="AD65">
+        <v>7.5</v>
+      </c>
+      <c r="AE65">
+        <v>1.4</v>
+      </c>
+      <c r="AF65">
+        <v>2.8</v>
+      </c>
+      <c r="AG65">
+        <v>2.1</v>
+      </c>
+      <c r="AH65">
+        <v>1.68</v>
+      </c>
+      <c r="AI65">
+        <v>1.83</v>
+      </c>
+      <c r="AJ65">
+        <v>1.83</v>
+      </c>
+      <c r="AK65">
+        <v>1.44</v>
+      </c>
+      <c r="AL65">
+        <v>1.28</v>
+      </c>
+      <c r="AM65">
+        <v>1.5</v>
+      </c>
+      <c r="AN65">
+        <v>0.67</v>
+      </c>
+      <c r="AO65">
+        <v>1.67</v>
+      </c>
+      <c r="AP65">
+        <v>0.5</v>
+      </c>
+      <c r="AQ65">
+        <v>2</v>
+      </c>
+      <c r="AR65">
+        <v>1.18</v>
+      </c>
+      <c r="AS65">
+        <v>1.2</v>
+      </c>
+      <c r="AT65">
+        <v>2.38</v>
+      </c>
+      <c r="AU65">
+        <v>7</v>
+      </c>
+      <c r="AV65">
+        <v>8</v>
+      </c>
+      <c r="AW65">
+        <v>10</v>
+      </c>
+      <c r="AX65">
+        <v>5</v>
+      </c>
+      <c r="AY65">
+        <v>17</v>
+      </c>
+      <c r="AZ65">
+        <v>13</v>
+      </c>
+      <c r="BA65">
+        <v>6</v>
+      </c>
+      <c r="BB65">
+        <v>4</v>
+      </c>
+      <c r="BC65">
+        <v>10</v>
+      </c>
+      <c r="BD65">
+        <v>2.21</v>
+      </c>
+      <c r="BE65">
+        <v>8.9</v>
+      </c>
+      <c r="BF65">
+        <v>1.85</v>
+      </c>
+      <c r="BG65">
+        <v>1.08</v>
+      </c>
+      <c r="BH65">
+        <v>5.2</v>
+      </c>
+      <c r="BI65">
+        <v>1.2</v>
+      </c>
+      <c r="BJ65">
+        <v>3.54</v>
+      </c>
+      <c r="BK65">
+        <v>1.4</v>
+      </c>
+      <c r="BL65">
+        <v>2.56</v>
+      </c>
+      <c r="BM65">
+        <v>1.72</v>
+      </c>
+      <c r="BN65">
+        <v>2</v>
+      </c>
+      <c r="BO65">
+        <v>2.12</v>
+      </c>
+      <c r="BP65">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7502668</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45576.875</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66" t="s">
+        <v>87</v>
+      </c>
+      <c r="H66" t="s">
+        <v>72</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>2</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <v>3</v>
+      </c>
+      <c r="O66" t="s">
+        <v>130</v>
+      </c>
+      <c r="P66" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q66">
+        <v>3.25</v>
+      </c>
+      <c r="R66">
+        <v>2</v>
+      </c>
+      <c r="S66">
+        <v>3.6</v>
+      </c>
+      <c r="T66">
+        <v>1.5</v>
+      </c>
+      <c r="U66">
+        <v>2.5</v>
+      </c>
+      <c r="V66">
+        <v>3.4</v>
+      </c>
+      <c r="W66">
+        <v>1.3</v>
+      </c>
+      <c r="X66">
+        <v>10</v>
+      </c>
+      <c r="Y66">
+        <v>1.06</v>
+      </c>
+      <c r="Z66">
+        <v>2.45</v>
+      </c>
+      <c r="AA66">
+        <v>3</v>
+      </c>
+      <c r="AB66">
+        <v>2.7</v>
+      </c>
+      <c r="AC66">
+        <v>1.03</v>
+      </c>
+      <c r="AD66">
+        <v>6.95</v>
+      </c>
+      <c r="AE66">
+        <v>1.38</v>
+      </c>
+      <c r="AF66">
+        <v>3.11</v>
+      </c>
+      <c r="AG66">
+        <v>2.15</v>
+      </c>
+      <c r="AH66">
+        <v>1.57</v>
+      </c>
+      <c r="AI66">
+        <v>1.91</v>
+      </c>
+      <c r="AJ66">
+        <v>1.8</v>
+      </c>
+      <c r="AK66">
+        <v>1.42</v>
+      </c>
+      <c r="AL66">
+        <v>1.28</v>
+      </c>
+      <c r="AM66">
+        <v>1.53</v>
+      </c>
+      <c r="AN66">
+        <v>1.67</v>
+      </c>
+      <c r="AO66">
+        <v>1.67</v>
+      </c>
+      <c r="AP66">
+        <v>2</v>
+      </c>
+      <c r="AQ66">
+        <v>1.25</v>
+      </c>
+      <c r="AR66">
+        <v>1.24</v>
+      </c>
+      <c r="AS66">
+        <v>1.4</v>
+      </c>
+      <c r="AT66">
+        <v>2.64</v>
+      </c>
+      <c r="AU66">
+        <v>6</v>
+      </c>
+      <c r="AV66">
+        <v>4</v>
+      </c>
+      <c r="AW66">
+        <v>14</v>
+      </c>
+      <c r="AX66">
+        <v>5</v>
+      </c>
+      <c r="AY66">
+        <v>20</v>
+      </c>
+      <c r="AZ66">
+        <v>9</v>
+      </c>
+      <c r="BA66">
+        <v>4</v>
+      </c>
+      <c r="BB66">
+        <v>1</v>
+      </c>
+      <c r="BC66">
+        <v>5</v>
+      </c>
+      <c r="BD66">
+        <v>1.99</v>
+      </c>
+      <c r="BE66">
+        <v>7.1</v>
+      </c>
+      <c r="BF66">
+        <v>2.17</v>
+      </c>
+      <c r="BG66">
+        <v>1.13</v>
+      </c>
+      <c r="BH66">
+        <v>4.33</v>
+      </c>
+      <c r="BI66">
+        <v>1.28</v>
+      </c>
+      <c r="BJ66">
+        <v>2.97</v>
+      </c>
+      <c r="BK66">
+        <v>1.54</v>
+      </c>
+      <c r="BL66">
+        <v>2.19</v>
+      </c>
+      <c r="BM66">
+        <v>1.85</v>
+      </c>
+      <c r="BN66">
+        <v>1.85</v>
+      </c>
+      <c r="BO66">
+        <v>2.46</v>
+      </c>
+      <c r="BP66">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7502673</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45577.41666666666</v>
+      </c>
+      <c r="F67">
+        <v>8</v>
+      </c>
+      <c r="G67" t="s">
+        <v>79</v>
+      </c>
+      <c r="H67" t="s">
+        <v>74</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>2</v>
+      </c>
+      <c r="L67">
+        <v>2</v>
+      </c>
+      <c r="M67">
+        <v>2</v>
+      </c>
+      <c r="N67">
+        <v>4</v>
+      </c>
+      <c r="O67" t="s">
+        <v>131</v>
+      </c>
+      <c r="P67" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q67">
+        <v>3.12</v>
+      </c>
+      <c r="R67">
+        <v>2.03</v>
+      </c>
+      <c r="S67">
+        <v>3.42</v>
+      </c>
+      <c r="T67">
+        <v>1.44</v>
+      </c>
+      <c r="U67">
+        <v>2.67</v>
+      </c>
+      <c r="V67">
+        <v>3.04</v>
+      </c>
+      <c r="W67">
+        <v>1.35</v>
+      </c>
+      <c r="X67">
+        <v>8</v>
+      </c>
+      <c r="Y67">
+        <v>1.06</v>
+      </c>
+      <c r="Z67">
+        <v>2.4</v>
+      </c>
+      <c r="AA67">
+        <v>3.1</v>
+      </c>
+      <c r="AB67">
+        <v>2.6</v>
+      </c>
+      <c r="AC67">
+        <v>1.02</v>
+      </c>
+      <c r="AD67">
+        <v>7.5</v>
+      </c>
+      <c r="AE67">
+        <v>1.31</v>
+      </c>
+      <c r="AF67">
+        <v>2.82</v>
+      </c>
+      <c r="AG67">
+        <v>2</v>
+      </c>
+      <c r="AH67">
+        <v>1.65</v>
+      </c>
+      <c r="AI67">
+        <v>1.82</v>
+      </c>
+      <c r="AJ67">
+        <v>1.88</v>
+      </c>
+      <c r="AK67">
+        <v>1.43</v>
+      </c>
+      <c r="AL67">
+        <v>1.32</v>
+      </c>
+      <c r="AM67">
+        <v>1.49</v>
+      </c>
+      <c r="AN67">
+        <v>0.67</v>
+      </c>
+      <c r="AO67">
+        <v>3</v>
+      </c>
+      <c r="AP67">
+        <v>0.75</v>
+      </c>
+      <c r="AQ67">
+        <v>2.5</v>
+      </c>
+      <c r="AR67">
+        <v>1.38</v>
+      </c>
+      <c r="AS67">
+        <v>1.28</v>
+      </c>
+      <c r="AT67">
+        <v>2.66</v>
+      </c>
+      <c r="AU67">
+        <v>10</v>
+      </c>
+      <c r="AV67">
+        <v>7</v>
+      </c>
+      <c r="AW67">
+        <v>10</v>
+      </c>
+      <c r="AX67">
+        <v>3</v>
+      </c>
+      <c r="AY67">
+        <v>20</v>
+      </c>
+      <c r="AZ67">
+        <v>10</v>
+      </c>
+      <c r="BA67">
+        <v>11</v>
+      </c>
+      <c r="BB67">
+        <v>4</v>
+      </c>
+      <c r="BC67">
+        <v>15</v>
+      </c>
+      <c r="BD67">
+        <v>1.84</v>
+      </c>
+      <c r="BE67">
+        <v>8.5</v>
+      </c>
+      <c r="BF67">
+        <v>2.25</v>
+      </c>
+      <c r="BG67">
+        <v>1.14</v>
+      </c>
+      <c r="BH67">
+        <v>4.2</v>
+      </c>
+      <c r="BI67">
+        <v>1.3</v>
+      </c>
+      <c r="BJ67">
+        <v>2.88</v>
+      </c>
+      <c r="BK67">
+        <v>1.57</v>
+      </c>
+      <c r="BL67">
+        <v>2.14</v>
+      </c>
+      <c r="BM67">
+        <v>1.99</v>
+      </c>
+      <c r="BN67">
+        <v>1.73</v>
+      </c>
+      <c r="BO67">
+        <v>2.52</v>
+      </c>
+      <c r="BP67">
         <v>1.41</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="178">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -412,6 +412,9 @@
     <t>['30', '90+14']</t>
   </si>
   <si>
+    <t>['88']</t>
+  </si>
+  <si>
     <t>['24', '27']</t>
   </si>
   <si>
@@ -542,6 +545,9 @@
   </si>
   <si>
     <t>['24', '62']</t>
+  </si>
+  <si>
+    <t>['51', '78']</t>
   </si>
 </sst>
 </file>
@@ -903,7 +909,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP67"/>
+  <dimension ref="A1:BP70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1162,7 +1168,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -1368,7 +1374,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -1574,7 +1580,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -1780,7 +1786,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1858,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -1986,7 +1992,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2192,7 +2198,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2273,7 +2279,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ7">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2398,7 +2404,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q8">
         <v>2.5</v>
@@ -2604,7 +2610,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -3016,7 +3022,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3428,7 +3434,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -3634,7 +3640,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -3712,10 +3718,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AQ14">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3840,7 +3846,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -4046,7 +4052,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -4330,7 +4336,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ17">
         <v>1.25</v>
@@ -4539,7 +4545,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4664,7 +4670,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q19">
         <v>2.79</v>
@@ -4870,7 +4876,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5157,7 +5163,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ21">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR21">
         <v>1.84</v>
@@ -5488,7 +5494,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5772,7 +5778,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ24">
         <v>0.5</v>
@@ -5900,7 +5906,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q25">
         <v>2.91</v>
@@ -6106,7 +6112,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6312,7 +6318,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q27">
         <v>3.25</v>
@@ -6724,7 +6730,7 @@
         <v>89</v>
       </c>
       <c r="P29" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -6930,7 +6936,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7342,7 +7348,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7423,7 +7429,7 @@
         <v>1</v>
       </c>
       <c r="AQ32">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR32">
         <v>2.27</v>
@@ -7548,7 +7554,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7629,7 +7635,7 @@
         <v>1</v>
       </c>
       <c r="AQ33">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR33">
         <v>1.04</v>
@@ -7754,7 +7760,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -7960,7 +7966,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q35">
         <v>2.57</v>
@@ -8038,7 +8044,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AQ35">
         <v>2.5</v>
@@ -8166,7 +8172,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q36">
         <v>2.89</v>
@@ -8372,7 +8378,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q37">
         <v>2.5</v>
@@ -8450,7 +8456,7 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ37">
         <v>1.33</v>
@@ -8578,7 +8584,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8784,7 +8790,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9068,7 +9074,7 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ40">
         <v>1.75</v>
@@ -9196,7 +9202,7 @@
         <v>89</v>
       </c>
       <c r="P41" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9402,7 +9408,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -9814,7 +9820,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10020,7 +10026,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q45">
         <v>2.85</v>
@@ -10432,7 +10438,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -10510,10 +10516,10 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ47">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR47">
         <v>1.36</v>
@@ -10638,7 +10644,7 @@
         <v>89</v>
       </c>
       <c r="P48" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10716,7 +10722,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AQ48">
         <v>2</v>
@@ -10844,7 +10850,7 @@
         <v>89</v>
       </c>
       <c r="P49" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11050,7 +11056,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11337,7 +11343,7 @@
         <v>1</v>
       </c>
       <c r="AQ51">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR51">
         <v>1.2</v>
@@ -11462,7 +11468,7 @@
         <v>89</v>
       </c>
       <c r="P52" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q52">
         <v>3.2</v>
@@ -11874,7 +11880,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -11955,7 +11961,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ54">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR54">
         <v>1.11</v>
@@ -12286,7 +12292,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q56">
         <v>3.08</v>
@@ -12492,7 +12498,7 @@
         <v>109</v>
       </c>
       <c r="P57" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12904,7 +12910,7 @@
         <v>89</v>
       </c>
       <c r="P59" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -14107,10 +14113,10 @@
         <v>69</v>
       </c>
       <c r="E65" s="2">
-        <v>45575.875</v>
+        <v>45576.58333333334</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G65" t="s">
         <v>77</v>
@@ -14140,7 +14146,7 @@
         <v>129</v>
       </c>
       <c r="P65" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14313,10 +14319,10 @@
         <v>69</v>
       </c>
       <c r="E66" s="2">
-        <v>45576.875</v>
+        <v>45577.29166666666</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G66" t="s">
         <v>87</v>
@@ -14522,7 +14528,7 @@
         <v>45577.41666666666</v>
       </c>
       <c r="F67">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G67" t="s">
         <v>79</v>
@@ -14552,7 +14558,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q67">
         <v>3.12</v>
@@ -14709,6 +14715,624 @@
       </c>
       <c r="BP67">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7502674</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45577.875</v>
+      </c>
+      <c r="F68">
+        <v>8</v>
+      </c>
+      <c r="G68" t="s">
+        <v>73</v>
+      </c>
+      <c r="H68" t="s">
+        <v>70</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>2</v>
+      </c>
+      <c r="N68">
+        <v>2</v>
+      </c>
+      <c r="O68" t="s">
+        <v>89</v>
+      </c>
+      <c r="P68" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q68">
+        <v>2.96</v>
+      </c>
+      <c r="R68">
+        <v>2.05</v>
+      </c>
+      <c r="S68">
+        <v>3.58</v>
+      </c>
+      <c r="T68">
+        <v>1.44</v>
+      </c>
+      <c r="U68">
+        <v>2.67</v>
+      </c>
+      <c r="V68">
+        <v>3.04</v>
+      </c>
+      <c r="W68">
+        <v>1.35</v>
+      </c>
+      <c r="X68">
+        <v>7.9</v>
+      </c>
+      <c r="Y68">
+        <v>1.06</v>
+      </c>
+      <c r="Z68">
+        <v>2.46</v>
+      </c>
+      <c r="AA68">
+        <v>2.9</v>
+      </c>
+      <c r="AB68">
+        <v>3.18</v>
+      </c>
+      <c r="AC68">
+        <v>1.01</v>
+      </c>
+      <c r="AD68">
+        <v>7.6</v>
+      </c>
+      <c r="AE68">
+        <v>1.3</v>
+      </c>
+      <c r="AF68">
+        <v>2.88</v>
+      </c>
+      <c r="AG68">
+        <v>2</v>
+      </c>
+      <c r="AH68">
+        <v>1.7</v>
+      </c>
+      <c r="AI68">
+        <v>1.81</v>
+      </c>
+      <c r="AJ68">
+        <v>1.89</v>
+      </c>
+      <c r="AK68">
+        <v>1.38</v>
+      </c>
+      <c r="AL68">
+        <v>1.31</v>
+      </c>
+      <c r="AM68">
+        <v>1.55</v>
+      </c>
+      <c r="AN68">
+        <v>2</v>
+      </c>
+      <c r="AO68">
+        <v>1.33</v>
+      </c>
+      <c r="AP68">
+        <v>1.5</v>
+      </c>
+      <c r="AQ68">
+        <v>1.75</v>
+      </c>
+      <c r="AR68">
+        <v>1.55</v>
+      </c>
+      <c r="AS68">
+        <v>1.45</v>
+      </c>
+      <c r="AT68">
+        <v>3</v>
+      </c>
+      <c r="AU68">
+        <v>0</v>
+      </c>
+      <c r="AV68">
+        <v>3</v>
+      </c>
+      <c r="AW68">
+        <v>2</v>
+      </c>
+      <c r="AX68">
+        <v>5</v>
+      </c>
+      <c r="AY68">
+        <v>2</v>
+      </c>
+      <c r="AZ68">
+        <v>8</v>
+      </c>
+      <c r="BA68">
+        <v>3</v>
+      </c>
+      <c r="BB68">
+        <v>6</v>
+      </c>
+      <c r="BC68">
+        <v>9</v>
+      </c>
+      <c r="BD68">
+        <v>2.04</v>
+      </c>
+      <c r="BE68">
+        <v>6.95</v>
+      </c>
+      <c r="BF68">
+        <v>2.12</v>
+      </c>
+      <c r="BG68">
+        <v>1.25</v>
+      </c>
+      <c r="BH68">
+        <v>3.6</v>
+      </c>
+      <c r="BI68">
+        <v>1.4</v>
+      </c>
+      <c r="BJ68">
+        <v>2.7</v>
+      </c>
+      <c r="BK68">
+        <v>1.68</v>
+      </c>
+      <c r="BL68">
+        <v>2.15</v>
+      </c>
+      <c r="BM68">
+        <v>2.07</v>
+      </c>
+      <c r="BN68">
+        <v>1.72</v>
+      </c>
+      <c r="BO68">
+        <v>2.6</v>
+      </c>
+      <c r="BP68">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7502672</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45577.875</v>
+      </c>
+      <c r="F69">
+        <v>8</v>
+      </c>
+      <c r="G69" t="s">
+        <v>85</v>
+      </c>
+      <c r="H69" t="s">
+        <v>83</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69" t="s">
+        <v>89</v>
+      </c>
+      <c r="P69" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q69">
+        <v>2.49</v>
+      </c>
+      <c r="R69">
+        <v>2.07</v>
+      </c>
+      <c r="S69">
+        <v>4.55</v>
+      </c>
+      <c r="T69">
+        <v>1.43</v>
+      </c>
+      <c r="U69">
+        <v>2.7</v>
+      </c>
+      <c r="V69">
+        <v>2.99</v>
+      </c>
+      <c r="W69">
+        <v>1.36</v>
+      </c>
+      <c r="X69">
+        <v>7.8</v>
+      </c>
+      <c r="Y69">
+        <v>1.06</v>
+      </c>
+      <c r="Z69">
+        <v>1.87</v>
+      </c>
+      <c r="AA69">
+        <v>3.48</v>
+      </c>
+      <c r="AB69">
+        <v>4.12</v>
+      </c>
+      <c r="AC69">
+        <v>1.01</v>
+      </c>
+      <c r="AD69">
+        <v>7.7</v>
+      </c>
+      <c r="AE69">
+        <v>1.3</v>
+      </c>
+      <c r="AF69">
+        <v>2.88</v>
+      </c>
+      <c r="AG69">
+        <v>2</v>
+      </c>
+      <c r="AH69">
+        <v>1.7</v>
+      </c>
+      <c r="AI69">
+        <v>1.87</v>
+      </c>
+      <c r="AJ69">
+        <v>1.83</v>
+      </c>
+      <c r="AK69">
+        <v>1.24</v>
+      </c>
+      <c r="AL69">
+        <v>1.28</v>
+      </c>
+      <c r="AM69">
+        <v>1.84</v>
+      </c>
+      <c r="AN69">
+        <v>1.33</v>
+      </c>
+      <c r="AO69">
+        <v>1.33</v>
+      </c>
+      <c r="AP69">
+        <v>1.25</v>
+      </c>
+      <c r="AQ69">
+        <v>1.25</v>
+      </c>
+      <c r="AR69">
+        <v>1.47</v>
+      </c>
+      <c r="AS69">
+        <v>1.82</v>
+      </c>
+      <c r="AT69">
+        <v>3.29</v>
+      </c>
+      <c r="AU69">
+        <v>5</v>
+      </c>
+      <c r="AV69">
+        <v>2</v>
+      </c>
+      <c r="AW69">
+        <v>6</v>
+      </c>
+      <c r="AX69">
+        <v>2</v>
+      </c>
+      <c r="AY69">
+        <v>11</v>
+      </c>
+      <c r="AZ69">
+        <v>4</v>
+      </c>
+      <c r="BA69">
+        <v>11</v>
+      </c>
+      <c r="BB69">
+        <v>5</v>
+      </c>
+      <c r="BC69">
+        <v>16</v>
+      </c>
+      <c r="BD69">
+        <v>34</v>
+      </c>
+      <c r="BE69">
+        <v>29</v>
+      </c>
+      <c r="BF69">
+        <v>1.01</v>
+      </c>
+      <c r="BG69">
+        <v>1.14</v>
+      </c>
+      <c r="BH69">
+        <v>4.2</v>
+      </c>
+      <c r="BI69">
+        <v>1.3</v>
+      </c>
+      <c r="BJ69">
+        <v>2.88</v>
+      </c>
+      <c r="BK69">
+        <v>1.57</v>
+      </c>
+      <c r="BL69">
+        <v>2.14</v>
+      </c>
+      <c r="BM69">
+        <v>1.99</v>
+      </c>
+      <c r="BN69">
+        <v>1.73</v>
+      </c>
+      <c r="BO69">
+        <v>2.52</v>
+      </c>
+      <c r="BP69">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7502675</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45577.875</v>
+      </c>
+      <c r="F70">
+        <v>8</v>
+      </c>
+      <c r="G70" t="s">
+        <v>82</v>
+      </c>
+      <c r="H70" t="s">
+        <v>75</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70" t="s">
+        <v>132</v>
+      </c>
+      <c r="P70" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q70">
+        <v>2.88</v>
+      </c>
+      <c r="R70">
+        <v>2.1</v>
+      </c>
+      <c r="S70">
+        <v>4</v>
+      </c>
+      <c r="T70">
+        <v>1.44</v>
+      </c>
+      <c r="U70">
+        <v>2.63</v>
+      </c>
+      <c r="V70">
+        <v>3.25</v>
+      </c>
+      <c r="W70">
+        <v>1.33</v>
+      </c>
+      <c r="X70">
+        <v>9</v>
+      </c>
+      <c r="Y70">
+        <v>1.07</v>
+      </c>
+      <c r="Z70">
+        <v>2.17</v>
+      </c>
+      <c r="AA70">
+        <v>3.26</v>
+      </c>
+      <c r="AB70">
+        <v>3.38</v>
+      </c>
+      <c r="AC70">
+        <v>1.01</v>
+      </c>
+      <c r="AD70">
+        <v>7.5</v>
+      </c>
+      <c r="AE70">
+        <v>1.3</v>
+      </c>
+      <c r="AF70">
+        <v>2.88</v>
+      </c>
+      <c r="AG70">
+        <v>2</v>
+      </c>
+      <c r="AH70">
+        <v>1.7</v>
+      </c>
+      <c r="AI70">
+        <v>1.83</v>
+      </c>
+      <c r="AJ70">
+        <v>1.83</v>
+      </c>
+      <c r="AK70">
+        <v>1.28</v>
+      </c>
+      <c r="AL70">
+        <v>1.3</v>
+      </c>
+      <c r="AM70">
+        <v>1.71</v>
+      </c>
+      <c r="AN70">
+        <v>0</v>
+      </c>
+      <c r="AO70">
+        <v>1</v>
+      </c>
+      <c r="AP70">
+        <v>0.75</v>
+      </c>
+      <c r="AQ70">
+        <v>0.75</v>
+      </c>
+      <c r="AR70">
+        <v>1.69</v>
+      </c>
+      <c r="AS70">
+        <v>1.68</v>
+      </c>
+      <c r="AT70">
+        <v>3.37</v>
+      </c>
+      <c r="AU70">
+        <v>5</v>
+      </c>
+      <c r="AV70">
+        <v>4</v>
+      </c>
+      <c r="AW70">
+        <v>4</v>
+      </c>
+      <c r="AX70">
+        <v>7</v>
+      </c>
+      <c r="AY70">
+        <v>9</v>
+      </c>
+      <c r="AZ70">
+        <v>11</v>
+      </c>
+      <c r="BA70">
+        <v>2</v>
+      </c>
+      <c r="BB70">
+        <v>4</v>
+      </c>
+      <c r="BC70">
+        <v>6</v>
+      </c>
+      <c r="BD70">
+        <v>1.79</v>
+      </c>
+      <c r="BE70">
+        <v>7.4</v>
+      </c>
+      <c r="BF70">
+        <v>2.43</v>
+      </c>
+      <c r="BG70">
+        <v>1.17</v>
+      </c>
+      <c r="BH70">
+        <v>4.5</v>
+      </c>
+      <c r="BI70">
+        <v>1.3</v>
+      </c>
+      <c r="BJ70">
+        <v>3.2</v>
+      </c>
+      <c r="BK70">
+        <v>1.52</v>
+      </c>
+      <c r="BL70">
+        <v>2.46</v>
+      </c>
+      <c r="BM70">
+        <v>1.84</v>
+      </c>
+      <c r="BN70">
+        <v>1.95</v>
+      </c>
+      <c r="BO70">
+        <v>2.3</v>
+      </c>
+      <c r="BP70">
+        <v>1.58</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -14731,7 +14731,7 @@
         <v>69</v>
       </c>
       <c r="E68" s="2">
-        <v>45577.875</v>
+        <v>45578.47916666666</v>
       </c>
       <c r="F68">
         <v>8</v>
@@ -14857,22 +14857,22 @@
         <v>3</v>
       </c>
       <c r="AU68">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV68">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AW68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX68">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY68">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AZ68">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA68">
         <v>3</v>
@@ -14928,7 +14928,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>7502672</v>
+        <v>7502675</v>
       </c>
       <c r="C69" t="s">
         <v>68</v>
@@ -14937,16 +14937,16 @@
         <v>69</v>
       </c>
       <c r="E69" s="2">
-        <v>45577.875</v>
+        <v>45578.58333333334</v>
       </c>
       <c r="F69">
         <v>8</v>
       </c>
       <c r="G69" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H69" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -14958,61 +14958,61 @@
         <v>0</v>
       </c>
       <c r="L69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M69">
         <v>0</v>
       </c>
       <c r="N69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O69" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="P69" t="s">
         <v>89</v>
       </c>
       <c r="Q69">
-        <v>2.49</v>
+        <v>2.88</v>
       </c>
       <c r="R69">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="S69">
-        <v>4.55</v>
+        <v>4</v>
       </c>
       <c r="T69">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="U69">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="V69">
-        <v>2.99</v>
+        <v>3.25</v>
       </c>
       <c r="W69">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X69">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="Y69">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="Z69">
-        <v>1.87</v>
+        <v>2.17</v>
       </c>
       <c r="AA69">
-        <v>3.48</v>
+        <v>3.26</v>
       </c>
       <c r="AB69">
-        <v>4.12</v>
+        <v>3.38</v>
       </c>
       <c r="AC69">
         <v>1.01</v>
       </c>
       <c r="AD69">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AE69">
         <v>1.3</v>
@@ -15027,106 +15027,106 @@
         <v>1.7</v>
       </c>
       <c r="AI69">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="AJ69">
         <v>1.83</v>
       </c>
       <c r="AK69">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="AL69">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AM69">
-        <v>1.84</v>
+        <v>1.71</v>
       </c>
       <c r="AN69">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AO69">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP69">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="AQ69">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="AR69">
-        <v>1.47</v>
+        <v>1.69</v>
       </c>
       <c r="AS69">
-        <v>1.82</v>
+        <v>1.68</v>
       </c>
       <c r="AT69">
-        <v>3.29</v>
+        <v>3.37</v>
       </c>
       <c r="AU69">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV69">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW69">
+        <v>3</v>
+      </c>
+      <c r="AX69">
         <v>6</v>
       </c>
-      <c r="AX69">
-        <v>2</v>
-      </c>
       <c r="AY69">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ69">
+        <v>10</v>
+      </c>
+      <c r="BA69">
+        <v>2</v>
+      </c>
+      <c r="BB69">
         <v>4</v>
       </c>
-      <c r="BA69">
-        <v>11</v>
-      </c>
-      <c r="BB69">
-        <v>5</v>
-      </c>
       <c r="BC69">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="BD69">
-        <v>34</v>
+        <v>1.79</v>
       </c>
       <c r="BE69">
-        <v>29</v>
+        <v>7.4</v>
       </c>
       <c r="BF69">
-        <v>1.01</v>
+        <v>2.43</v>
       </c>
       <c r="BG69">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="BH69">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="BI69">
         <v>1.3</v>
       </c>
       <c r="BJ69">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="BK69">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="BL69">
-        <v>2.14</v>
+        <v>2.46</v>
       </c>
       <c r="BM69">
-        <v>1.99</v>
+        <v>1.84</v>
       </c>
       <c r="BN69">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="BO69">
-        <v>2.52</v>
+        <v>2.3</v>
       </c>
       <c r="BP69">
-        <v>1.41</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="70" spans="1:68">
@@ -15134,7 +15134,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>7502675</v>
+        <v>7502672</v>
       </c>
       <c r="C70" t="s">
         <v>68</v>
@@ -15143,16 +15143,16 @@
         <v>69</v>
       </c>
       <c r="E70" s="2">
-        <v>45577.875</v>
+        <v>45578.6875</v>
       </c>
       <c r="F70">
         <v>8</v>
       </c>
       <c r="G70" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H70" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -15164,61 +15164,61 @@
         <v>0</v>
       </c>
       <c r="L70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M70">
         <v>0</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O70" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="P70" t="s">
         <v>89</v>
       </c>
       <c r="Q70">
-        <v>2.88</v>
+        <v>2.49</v>
       </c>
       <c r="R70">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="S70">
-        <v>4</v>
+        <v>4.55</v>
       </c>
       <c r="T70">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="U70">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="V70">
-        <v>3.25</v>
+        <v>2.99</v>
       </c>
       <c r="W70">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X70">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="Y70">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="Z70">
-        <v>2.17</v>
+        <v>1.87</v>
       </c>
       <c r="AA70">
-        <v>3.26</v>
+        <v>3.48</v>
       </c>
       <c r="AB70">
-        <v>3.38</v>
+        <v>4.12</v>
       </c>
       <c r="AC70">
         <v>1.01</v>
       </c>
       <c r="AD70">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AE70">
         <v>1.3</v>
@@ -15233,106 +15233,106 @@
         <v>1.7</v>
       </c>
       <c r="AI70">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="AJ70">
         <v>1.83</v>
       </c>
       <c r="AK70">
+        <v>1.24</v>
+      </c>
+      <c r="AL70">
         <v>1.28</v>
       </c>
-      <c r="AL70">
-        <v>1.3</v>
-      </c>
       <c r="AM70">
-        <v>1.71</v>
+        <v>1.84</v>
       </c>
       <c r="AN70">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AO70">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP70">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="AQ70">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="AR70">
-        <v>1.69</v>
+        <v>1.47</v>
       </c>
       <c r="AS70">
-        <v>1.68</v>
+        <v>1.82</v>
       </c>
       <c r="AT70">
-        <v>3.37</v>
+        <v>3.29</v>
       </c>
       <c r="AU70">
         <v>5</v>
       </c>
       <c r="AV70">
+        <v>2</v>
+      </c>
+      <c r="AW70">
+        <v>5</v>
+      </c>
+      <c r="AX70">
+        <v>2</v>
+      </c>
+      <c r="AY70">
+        <v>10</v>
+      </c>
+      <c r="AZ70">
         <v>4</v>
       </c>
-      <c r="AW70">
-        <v>4</v>
-      </c>
-      <c r="AX70">
-        <v>7</v>
-      </c>
-      <c r="AY70">
-        <v>9</v>
-      </c>
-      <c r="AZ70">
+      <c r="BA70">
         <v>11</v>
       </c>
-      <c r="BA70">
-        <v>2</v>
-      </c>
       <c r="BB70">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC70">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="BD70">
-        <v>1.79</v>
+        <v>34</v>
       </c>
       <c r="BE70">
-        <v>7.4</v>
+        <v>29</v>
       </c>
       <c r="BF70">
-        <v>2.43</v>
+        <v>1.01</v>
       </c>
       <c r="BG70">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="BH70">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="BI70">
         <v>1.3</v>
       </c>
       <c r="BJ70">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="BK70">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="BL70">
-        <v>2.46</v>
+        <v>2.14</v>
       </c>
       <c r="BM70">
-        <v>1.84</v>
+        <v>1.99</v>
       </c>
       <c r="BN70">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="BO70">
-        <v>2.3</v>
+        <v>2.52</v>
       </c>
       <c r="BP70">
-        <v>1.58</v>
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="179">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -413,6 +413,9 @@
   </si>
   <si>
     <t>['88']</t>
+  </si>
+  <si>
+    <t>['81', '90+1']</t>
   </si>
   <si>
     <t>['24', '27']</t>
@@ -909,7 +912,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP70"/>
+  <dimension ref="A1:BP71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1168,7 +1171,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -1374,7 +1377,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -1580,7 +1583,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -1786,7 +1789,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1992,7 +1995,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2198,7 +2201,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2404,7 +2407,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q8">
         <v>2.5</v>
@@ -2482,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ8">
         <v>1.5</v>
@@ -2610,7 +2613,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -3022,7 +3025,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3309,7 +3312,7 @@
         <v>1</v>
       </c>
       <c r="AQ12">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3434,7 +3437,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -3640,7 +3643,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -3846,7 +3849,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -4052,7 +4055,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -4670,7 +4673,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q19">
         <v>2.79</v>
@@ -4876,7 +4879,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5494,7 +5497,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5906,7 +5909,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q25">
         <v>2.91</v>
@@ -6112,7 +6115,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6318,7 +6321,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q27">
         <v>3.25</v>
@@ -6730,7 +6733,7 @@
         <v>89</v>
       </c>
       <c r="P29" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -6936,7 +6939,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7348,7 +7351,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7554,7 +7557,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7760,7 +7763,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -7966,7 +7969,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q35">
         <v>2.57</v>
@@ -8172,7 +8175,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q36">
         <v>2.89</v>
@@ -8250,7 +8253,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ36">
         <v>1.75</v>
@@ -8378,7 +8381,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q37">
         <v>2.5</v>
@@ -8459,7 +8462,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ37">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR37">
         <v>0.91</v>
@@ -8584,7 +8587,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8790,7 +8793,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9202,7 +9205,7 @@
         <v>89</v>
       </c>
       <c r="P41" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9408,7 +9411,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -9820,7 +9823,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10026,7 +10029,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q45">
         <v>2.85</v>
@@ -10438,7 +10441,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -10644,7 +10647,7 @@
         <v>89</v>
       </c>
       <c r="P48" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10850,7 +10853,7 @@
         <v>89</v>
       </c>
       <c r="P49" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11056,7 +11059,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11468,7 +11471,7 @@
         <v>89</v>
       </c>
       <c r="P52" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q52">
         <v>3.2</v>
@@ -11546,7 +11549,7 @@
         <v>1</v>
       </c>
       <c r="AP52">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ52">
         <v>2</v>
@@ -11880,7 +11883,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12167,7 +12170,7 @@
         <v>1</v>
       </c>
       <c r="AQ55">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR55">
         <v>1.78</v>
@@ -12292,7 +12295,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q56">
         <v>3.08</v>
@@ -12498,7 +12501,7 @@
         <v>109</v>
       </c>
       <c r="P57" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12910,7 +12913,7 @@
         <v>89</v>
       </c>
       <c r="P59" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -14146,7 +14149,7 @@
         <v>129</v>
       </c>
       <c r="P65" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14558,7 +14561,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q67">
         <v>3.12</v>
@@ -14764,7 +14767,7 @@
         <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q68">
         <v>2.96</v>
@@ -15333,6 +15336,212 @@
       </c>
       <c r="BP70">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7502671</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45588.47916666666</v>
+      </c>
+      <c r="F71">
+        <v>8</v>
+      </c>
+      <c r="G71" t="s">
+        <v>76</v>
+      </c>
+      <c r="H71" t="s">
+        <v>71</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>2</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>3</v>
+      </c>
+      <c r="O71" t="s">
+        <v>133</v>
+      </c>
+      <c r="P71" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q71">
+        <v>2.75</v>
+      </c>
+      <c r="R71">
+        <v>2.2</v>
+      </c>
+      <c r="S71">
+        <v>4</v>
+      </c>
+      <c r="T71">
+        <v>1.4</v>
+      </c>
+      <c r="U71">
+        <v>2.75</v>
+      </c>
+      <c r="V71">
+        <v>2.75</v>
+      </c>
+      <c r="W71">
+        <v>1.4</v>
+      </c>
+      <c r="X71">
+        <v>8</v>
+      </c>
+      <c r="Y71">
+        <v>1.08</v>
+      </c>
+      <c r="Z71">
+        <v>2.12</v>
+      </c>
+      <c r="AA71">
+        <v>3.5</v>
+      </c>
+      <c r="AB71">
+        <v>3.4</v>
+      </c>
+      <c r="AC71">
+        <v>1.05</v>
+      </c>
+      <c r="AD71">
+        <v>8.5</v>
+      </c>
+      <c r="AE71">
+        <v>1.3</v>
+      </c>
+      <c r="AF71">
+        <v>3.3</v>
+      </c>
+      <c r="AG71">
+        <v>1.95</v>
+      </c>
+      <c r="AH71">
+        <v>1.86</v>
+      </c>
+      <c r="AI71">
+        <v>1.73</v>
+      </c>
+      <c r="AJ71">
+        <v>2</v>
+      </c>
+      <c r="AK71">
+        <v>1.3</v>
+      </c>
+      <c r="AL71">
+        <v>1.25</v>
+      </c>
+      <c r="AM71">
+        <v>1.7</v>
+      </c>
+      <c r="AN71">
+        <v>0.67</v>
+      </c>
+      <c r="AO71">
+        <v>1.33</v>
+      </c>
+      <c r="AP71">
+        <v>1.25</v>
+      </c>
+      <c r="AQ71">
+        <v>1</v>
+      </c>
+      <c r="AR71">
+        <v>0.8</v>
+      </c>
+      <c r="AS71">
+        <v>1.06</v>
+      </c>
+      <c r="AT71">
+        <v>1.86</v>
+      </c>
+      <c r="AU71">
+        <v>7</v>
+      </c>
+      <c r="AV71">
+        <v>3</v>
+      </c>
+      <c r="AW71">
+        <v>8</v>
+      </c>
+      <c r="AX71">
+        <v>3</v>
+      </c>
+      <c r="AY71">
+        <v>15</v>
+      </c>
+      <c r="AZ71">
+        <v>6</v>
+      </c>
+      <c r="BA71">
+        <v>2</v>
+      </c>
+      <c r="BB71">
+        <v>1</v>
+      </c>
+      <c r="BC71">
+        <v>3</v>
+      </c>
+      <c r="BD71">
+        <v>1.55</v>
+      </c>
+      <c r="BE71">
+        <v>6.95</v>
+      </c>
+      <c r="BF71">
+        <v>3.16</v>
+      </c>
+      <c r="BG71">
+        <v>1.16</v>
+      </c>
+      <c r="BH71">
+        <v>3.95</v>
+      </c>
+      <c r="BI71">
+        <v>1.33</v>
+      </c>
+      <c r="BJ71">
+        <v>2.73</v>
+      </c>
+      <c r="BK71">
+        <v>1.69</v>
+      </c>
+      <c r="BL71">
+        <v>2.15</v>
+      </c>
+      <c r="BM71">
+        <v>2.1</v>
+      </c>
+      <c r="BN71">
+        <v>1.72</v>
+      </c>
+      <c r="BO71">
+        <v>2.66</v>
+      </c>
+      <c r="BP71">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -15355,7 +15355,7 @@
         <v>45588.47916666666</v>
       </c>
       <c r="F71">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G71" t="s">
         <v>76</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="180">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -416,6 +416,9 @@
   </si>
   <si>
     <t>['81', '90+1']</t>
+  </si>
+  <si>
+    <t>['79']</t>
   </si>
   <si>
     <t>['24', '27']</t>
@@ -912,7 +915,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP71"/>
+  <dimension ref="A1:BP72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1171,7 +1174,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -1377,7 +1380,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -1583,7 +1586,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -1789,7 +1792,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1995,7 +1998,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2201,7 +2204,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2407,7 +2410,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q8">
         <v>2.5</v>
@@ -2613,7 +2616,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -2694,7 +2697,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ9">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3025,7 +3028,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3437,7 +3440,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -3643,7 +3646,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -3721,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ14">
         <v>1.75</v>
@@ -3849,7 +3852,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -4055,7 +4058,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -4673,7 +4676,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q19">
         <v>2.79</v>
@@ -4879,7 +4882,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5497,7 +5500,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5909,7 +5912,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q25">
         <v>2.91</v>
@@ -6115,7 +6118,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6321,7 +6324,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q27">
         <v>3.25</v>
@@ -6608,7 +6611,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ28">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR28">
         <v>1.62</v>
@@ -6733,7 +6736,7 @@
         <v>89</v>
       </c>
       <c r="P29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -6939,7 +6942,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7351,7 +7354,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7557,7 +7560,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7763,7 +7766,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -7969,7 +7972,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q35">
         <v>2.57</v>
@@ -8047,7 +8050,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ35">
         <v>2.5</v>
@@ -8175,7 +8178,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q36">
         <v>2.89</v>
@@ -8381,7 +8384,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q37">
         <v>2.5</v>
@@ -8587,7 +8590,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8793,7 +8796,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9205,7 +9208,7 @@
         <v>89</v>
       </c>
       <c r="P41" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9411,7 +9414,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -9823,7 +9826,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10029,7 +10032,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q45">
         <v>2.85</v>
@@ -10110,7 +10113,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ45">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR45">
         <v>1.58</v>
@@ -10441,7 +10444,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -10647,7 +10650,7 @@
         <v>89</v>
       </c>
       <c r="P48" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10725,7 +10728,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ48">
         <v>2</v>
@@ -10853,7 +10856,7 @@
         <v>89</v>
       </c>
       <c r="P49" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11059,7 +11062,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11471,7 +11474,7 @@
         <v>89</v>
       </c>
       <c r="P52" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q52">
         <v>3.2</v>
@@ -11883,7 +11886,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12295,7 +12298,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q56">
         <v>3.08</v>
@@ -12501,7 +12504,7 @@
         <v>109</v>
       </c>
       <c r="P57" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12913,7 +12916,7 @@
         <v>89</v>
       </c>
       <c r="P59" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13406,7 +13409,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ61">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR61">
         <v>1.62</v>
@@ -14149,7 +14152,7 @@
         <v>129</v>
       </c>
       <c r="P65" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14561,7 +14564,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q67">
         <v>3.12</v>
@@ -14767,7 +14770,7 @@
         <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q68">
         <v>2.96</v>
@@ -15051,7 +15054,7 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ69">
         <v>0.75</v>
@@ -15542,6 +15545,212 @@
       </c>
       <c r="BP71">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7502682</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45590.58333333334</v>
+      </c>
+      <c r="F72">
+        <v>9</v>
+      </c>
+      <c r="G72" t="s">
+        <v>82</v>
+      </c>
+      <c r="H72" t="s">
+        <v>84</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>2</v>
+      </c>
+      <c r="O72" t="s">
+        <v>134</v>
+      </c>
+      <c r="P72" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q72">
+        <v>3.1</v>
+      </c>
+      <c r="R72">
+        <v>2</v>
+      </c>
+      <c r="S72">
+        <v>3.5</v>
+      </c>
+      <c r="T72">
+        <v>1.47</v>
+      </c>
+      <c r="U72">
+        <v>2.5</v>
+      </c>
+      <c r="V72">
+        <v>3.05</v>
+      </c>
+      <c r="W72">
+        <v>1.33</v>
+      </c>
+      <c r="X72">
+        <v>7.9</v>
+      </c>
+      <c r="Y72">
+        <v>1.05</v>
+      </c>
+      <c r="Z72">
+        <v>2.5</v>
+      </c>
+      <c r="AA72">
+        <v>3.1</v>
+      </c>
+      <c r="AB72">
+        <v>2.85</v>
+      </c>
+      <c r="AC72">
+        <v>1.02</v>
+      </c>
+      <c r="AD72">
+        <v>7.3</v>
+      </c>
+      <c r="AE72">
+        <v>1.36</v>
+      </c>
+      <c r="AF72">
+        <v>2.95</v>
+      </c>
+      <c r="AG72">
+        <v>2.1</v>
+      </c>
+      <c r="AH72">
+        <v>1.68</v>
+      </c>
+      <c r="AI72">
+        <v>1.83</v>
+      </c>
+      <c r="AJ72">
+        <v>1.9</v>
+      </c>
+      <c r="AK72">
+        <v>1.4</v>
+      </c>
+      <c r="AL72">
+        <v>1.28</v>
+      </c>
+      <c r="AM72">
+        <v>1.52</v>
+      </c>
+      <c r="AN72">
+        <v>0.75</v>
+      </c>
+      <c r="AO72">
+        <v>1.75</v>
+      </c>
+      <c r="AP72">
+        <v>0.8</v>
+      </c>
+      <c r="AQ72">
+        <v>1.6</v>
+      </c>
+      <c r="AR72">
+        <v>1.62</v>
+      </c>
+      <c r="AS72">
+        <v>1.19</v>
+      </c>
+      <c r="AT72">
+        <v>2.81</v>
+      </c>
+      <c r="AU72">
+        <v>6</v>
+      </c>
+      <c r="AV72">
+        <v>4</v>
+      </c>
+      <c r="AW72">
+        <v>2</v>
+      </c>
+      <c r="AX72">
+        <v>5</v>
+      </c>
+      <c r="AY72">
+        <v>8</v>
+      </c>
+      <c r="AZ72">
+        <v>9</v>
+      </c>
+      <c r="BA72">
+        <v>7</v>
+      </c>
+      <c r="BB72">
+        <v>8</v>
+      </c>
+      <c r="BC72">
+        <v>15</v>
+      </c>
+      <c r="BD72">
+        <v>1.75</v>
+      </c>
+      <c r="BE72">
+        <v>8.5</v>
+      </c>
+      <c r="BF72">
+        <v>2.41</v>
+      </c>
+      <c r="BG72">
+        <v>1.12</v>
+      </c>
+      <c r="BH72">
+        <v>4.45</v>
+      </c>
+      <c r="BI72">
+        <v>1.32</v>
+      </c>
+      <c r="BJ72">
+        <v>3.07</v>
+      </c>
+      <c r="BK72">
+        <v>1.55</v>
+      </c>
+      <c r="BL72">
+        <v>2.29</v>
+      </c>
+      <c r="BM72">
+        <v>1.95</v>
+      </c>
+      <c r="BN72">
+        <v>1.85</v>
+      </c>
+      <c r="BO72">
+        <v>2.41</v>
+      </c>
+      <c r="BP72">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="185">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -421,6 +421,9 @@
     <t>['79']</t>
   </si>
   <si>
+    <t>['32']</t>
+  </si>
+  <si>
     <t>['24', '27']</t>
   </si>
   <si>
@@ -554,6 +557,18 @@
   </si>
   <si>
     <t>['51', '78']</t>
+  </si>
+  <si>
+    <t>['76', '88']</t>
+  </si>
+  <si>
+    <t>['23', '49', '80']</t>
+  </si>
+  <si>
+    <t>['41']</t>
+  </si>
+  <si>
+    <t>['56', '59', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -915,7 +930,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP72"/>
+  <dimension ref="A1:BP76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1174,7 +1189,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -1255,7 +1270,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ2">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1380,7 +1395,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -1586,7 +1601,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -1792,7 +1807,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1873,7 +1888,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1998,7 +2013,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2076,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ6">
         <v>0.33</v>
@@ -2204,7 +2219,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2410,7 +2425,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q8">
         <v>2.5</v>
@@ -2616,7 +2631,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -2903,7 +2918,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ10">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3028,7 +3043,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3312,7 +3327,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ12">
         <v>1</v>
@@ -3440,7 +3455,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -3646,7 +3661,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -3852,7 +3867,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -3930,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ15">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4058,7 +4073,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -4548,7 +4563,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
         <v>0.75</v>
@@ -4676,7 +4691,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q19">
         <v>2.79</v>
@@ -4882,7 +4897,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5500,7 +5515,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5912,7 +5927,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q25">
         <v>2.91</v>
@@ -5990,10 +6005,10 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ25">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR25">
         <v>1.23</v>
@@ -6118,7 +6133,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6199,7 +6214,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR26">
         <v>1.66</v>
@@ -6324,7 +6339,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q27">
         <v>3.25</v>
@@ -6405,7 +6420,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ27">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR27">
         <v>1.33</v>
@@ -6608,7 +6623,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ28">
         <v>1.6</v>
@@ -6736,7 +6751,7 @@
         <v>89</v>
       </c>
       <c r="P29" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -6817,7 +6832,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ29">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR29">
         <v>1.08</v>
@@ -6942,7 +6957,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7020,7 +7035,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ30">
         <v>1.25</v>
@@ -7354,7 +7369,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7560,7 +7575,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7766,7 +7781,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -7844,7 +7859,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ34">
         <v>2</v>
@@ -7972,7 +7987,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q35">
         <v>2.57</v>
@@ -8178,7 +8193,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q36">
         <v>2.89</v>
@@ -8384,7 +8399,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q37">
         <v>2.5</v>
@@ -8590,7 +8605,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8671,7 +8686,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ38">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR38">
         <v>1.5</v>
@@ -8796,7 +8811,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -8877,7 +8892,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR39">
         <v>1.92</v>
@@ -9208,7 +9223,7 @@
         <v>89</v>
       </c>
       <c r="P41" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9289,7 +9304,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ41">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR41">
         <v>1.42</v>
@@ -9414,7 +9429,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -9698,7 +9713,7 @@
         <v>0.5</v>
       </c>
       <c r="AP43">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ43">
         <v>0.5</v>
@@ -9826,7 +9841,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -9904,7 +9919,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ44">
         <v>0.33</v>
@@ -10032,7 +10047,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q45">
         <v>2.85</v>
@@ -10316,7 +10331,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ46">
         <v>1.75</v>
@@ -10444,7 +10459,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -10650,7 +10665,7 @@
         <v>89</v>
       </c>
       <c r="P48" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10856,7 +10871,7 @@
         <v>89</v>
       </c>
       <c r="P49" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11062,7 +11077,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11143,7 +11158,7 @@
         <v>2</v>
       </c>
       <c r="AQ50">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR50">
         <v>1.2</v>
@@ -11346,7 +11361,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ51">
         <v>1.25</v>
@@ -11474,7 +11489,7 @@
         <v>89</v>
       </c>
       <c r="P52" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q52">
         <v>3.2</v>
@@ -11886,7 +11901,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12298,7 +12313,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q56">
         <v>3.08</v>
@@ -12379,7 +12394,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ56">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR56">
         <v>1.67</v>
@@ -12504,7 +12519,7 @@
         <v>109</v>
       </c>
       <c r="P57" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12585,7 +12600,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ57">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR57">
         <v>1.67</v>
@@ -12916,7 +12931,7 @@
         <v>89</v>
       </c>
       <c r="P59" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -12994,7 +13009,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ59">
         <v>1.75</v>
@@ -13203,7 +13218,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ60">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR60">
         <v>1.51</v>
@@ -13406,7 +13421,7 @@
         <v>2</v>
       </c>
       <c r="AP61">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ61">
         <v>1.6</v>
@@ -13612,7 +13627,7 @@
         <v>2.33</v>
       </c>
       <c r="AP62">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ62">
         <v>1.75</v>
@@ -13818,10 +13833,10 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ63">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR63">
         <v>1.67</v>
@@ -14152,7 +14167,7 @@
         <v>129</v>
       </c>
       <c r="P65" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14564,7 +14579,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q67">
         <v>3.12</v>
@@ -14770,7 +14785,7 @@
         <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q68">
         <v>2.96</v>
@@ -15561,7 +15576,7 @@
         <v>69</v>
       </c>
       <c r="E72" s="2">
-        <v>45590.58333333334</v>
+        <v>45589.875</v>
       </c>
       <c r="F72">
         <v>9</v>
@@ -15594,7 +15609,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q72">
         <v>3.1</v>
@@ -15687,22 +15702,22 @@
         <v>2.81</v>
       </c>
       <c r="AU72">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV72">
+        <v>3</v>
+      </c>
+      <c r="AW72">
+        <v>2</v>
+      </c>
+      <c r="AX72">
         <v>4</v>
       </c>
-      <c r="AW72">
-        <v>2</v>
-      </c>
-      <c r="AX72">
-        <v>5</v>
-      </c>
       <c r="AY72">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ72">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA72">
         <v>7</v>
@@ -15751,6 +15766,830 @@
       </c>
       <c r="BP72">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7502679</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45591.29166666666</v>
+      </c>
+      <c r="F73">
+        <v>9</v>
+      </c>
+      <c r="G73" t="s">
+        <v>74</v>
+      </c>
+      <c r="H73" t="s">
+        <v>73</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>2</v>
+      </c>
+      <c r="N73">
+        <v>2</v>
+      </c>
+      <c r="O73" t="s">
+        <v>89</v>
+      </c>
+      <c r="P73" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q73">
+        <v>2.92</v>
+      </c>
+      <c r="R73">
+        <v>2.05</v>
+      </c>
+      <c r="S73">
+        <v>3.64</v>
+      </c>
+      <c r="T73">
+        <v>1.43</v>
+      </c>
+      <c r="U73">
+        <v>2.7</v>
+      </c>
+      <c r="V73">
+        <v>2.99</v>
+      </c>
+      <c r="W73">
+        <v>1.36</v>
+      </c>
+      <c r="X73">
+        <v>7.9</v>
+      </c>
+      <c r="Y73">
+        <v>1.06</v>
+      </c>
+      <c r="Z73">
+        <v>2.25</v>
+      </c>
+      <c r="AA73">
+        <v>3.1</v>
+      </c>
+      <c r="AB73">
+        <v>2.8</v>
+      </c>
+      <c r="AC73">
+        <v>1.01</v>
+      </c>
+      <c r="AD73">
+        <v>7.7</v>
+      </c>
+      <c r="AE73">
+        <v>1.3</v>
+      </c>
+      <c r="AF73">
+        <v>2.88</v>
+      </c>
+      <c r="AG73">
+        <v>2.05</v>
+      </c>
+      <c r="AH73">
+        <v>1.68</v>
+      </c>
+      <c r="AI73">
+        <v>1.81</v>
+      </c>
+      <c r="AJ73">
+        <v>1.89</v>
+      </c>
+      <c r="AK73">
+        <v>1.37</v>
+      </c>
+      <c r="AL73">
+        <v>1.31</v>
+      </c>
+      <c r="AM73">
+        <v>1.57</v>
+      </c>
+      <c r="AN73">
+        <v>2</v>
+      </c>
+      <c r="AO73">
+        <v>1.25</v>
+      </c>
+      <c r="AP73">
+        <v>1.6</v>
+      </c>
+      <c r="AQ73">
+        <v>1.6</v>
+      </c>
+      <c r="AR73">
+        <v>1.18</v>
+      </c>
+      <c r="AS73">
+        <v>1.25</v>
+      </c>
+      <c r="AT73">
+        <v>2.43</v>
+      </c>
+      <c r="AU73">
+        <v>3</v>
+      </c>
+      <c r="AV73">
+        <v>4</v>
+      </c>
+      <c r="AW73">
+        <v>7</v>
+      </c>
+      <c r="AX73">
+        <v>4</v>
+      </c>
+      <c r="AY73">
+        <v>10</v>
+      </c>
+      <c r="AZ73">
+        <v>8</v>
+      </c>
+      <c r="BA73">
+        <v>3</v>
+      </c>
+      <c r="BB73">
+        <v>9</v>
+      </c>
+      <c r="BC73">
+        <v>12</v>
+      </c>
+      <c r="BD73">
+        <v>1.91</v>
+      </c>
+      <c r="BE73">
+        <v>8.5</v>
+      </c>
+      <c r="BF73">
+        <v>2.2</v>
+      </c>
+      <c r="BG73">
+        <v>1.1</v>
+      </c>
+      <c r="BH73">
+        <v>4.8</v>
+      </c>
+      <c r="BI73">
+        <v>1.24</v>
+      </c>
+      <c r="BJ73">
+        <v>3.22</v>
+      </c>
+      <c r="BK73">
+        <v>1.46</v>
+      </c>
+      <c r="BL73">
+        <v>2.38</v>
+      </c>
+      <c r="BM73">
+        <v>1.85</v>
+      </c>
+      <c r="BN73">
+        <v>1.95</v>
+      </c>
+      <c r="BO73">
+        <v>2.26</v>
+      </c>
+      <c r="BP73">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7502677</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45591.41666666666</v>
+      </c>
+      <c r="F74">
+        <v>9</v>
+      </c>
+      <c r="G74" t="s">
+        <v>80</v>
+      </c>
+      <c r="H74" t="s">
+        <v>85</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>3</v>
+      </c>
+      <c r="N74">
+        <v>3</v>
+      </c>
+      <c r="O74" t="s">
+        <v>89</v>
+      </c>
+      <c r="P74" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q74">
+        <v>3.6</v>
+      </c>
+      <c r="R74">
+        <v>2.05</v>
+      </c>
+      <c r="S74">
+        <v>2.9</v>
+      </c>
+      <c r="T74">
+        <v>1.44</v>
+      </c>
+      <c r="U74">
+        <v>2.6</v>
+      </c>
+      <c r="V74">
+        <v>2.95</v>
+      </c>
+      <c r="W74">
+        <v>1.35</v>
+      </c>
+      <c r="X74">
+        <v>7.4</v>
+      </c>
+      <c r="Y74">
+        <v>1.06</v>
+      </c>
+      <c r="Z74">
+        <v>3</v>
+      </c>
+      <c r="AA74">
+        <v>3.1</v>
+      </c>
+      <c r="AB74">
+        <v>2.15</v>
+      </c>
+      <c r="AC74">
+        <v>1.01</v>
+      </c>
+      <c r="AD74">
+        <v>7.7</v>
+      </c>
+      <c r="AE74">
+        <v>1.33</v>
+      </c>
+      <c r="AF74">
+        <v>3.1</v>
+      </c>
+      <c r="AG74">
+        <v>2</v>
+      </c>
+      <c r="AH74">
+        <v>1.7</v>
+      </c>
+      <c r="AI74">
+        <v>1.8</v>
+      </c>
+      <c r="AJ74">
+        <v>1.95</v>
+      </c>
+      <c r="AK74">
+        <v>1.63</v>
+      </c>
+      <c r="AL74">
+        <v>1.25</v>
+      </c>
+      <c r="AM74">
+        <v>1.35</v>
+      </c>
+      <c r="AN74">
+        <v>1</v>
+      </c>
+      <c r="AO74">
+        <v>1</v>
+      </c>
+      <c r="AP74">
+        <v>0.8</v>
+      </c>
+      <c r="AQ74">
+        <v>1.4</v>
+      </c>
+      <c r="AR74">
+        <v>1.25</v>
+      </c>
+      <c r="AS74">
+        <v>1.26</v>
+      </c>
+      <c r="AT74">
+        <v>2.51</v>
+      </c>
+      <c r="AU74">
+        <v>4</v>
+      </c>
+      <c r="AV74">
+        <v>6</v>
+      </c>
+      <c r="AW74">
+        <v>1</v>
+      </c>
+      <c r="AX74">
+        <v>6</v>
+      </c>
+      <c r="AY74">
+        <v>5</v>
+      </c>
+      <c r="AZ74">
+        <v>12</v>
+      </c>
+      <c r="BA74">
+        <v>3</v>
+      </c>
+      <c r="BB74">
+        <v>9</v>
+      </c>
+      <c r="BC74">
+        <v>12</v>
+      </c>
+      <c r="BD74">
+        <v>2.2</v>
+      </c>
+      <c r="BE74">
+        <v>8.5</v>
+      </c>
+      <c r="BF74">
+        <v>1.83</v>
+      </c>
+      <c r="BG74">
+        <v>1.11</v>
+      </c>
+      <c r="BH74">
+        <v>4.7</v>
+      </c>
+      <c r="BI74">
+        <v>1.25</v>
+      </c>
+      <c r="BJ74">
+        <v>3.14</v>
+      </c>
+      <c r="BK74">
+        <v>1.47</v>
+      </c>
+      <c r="BL74">
+        <v>2.35</v>
+      </c>
+      <c r="BM74">
+        <v>1.88</v>
+      </c>
+      <c r="BN74">
+        <v>1.92</v>
+      </c>
+      <c r="BO74">
+        <v>2.3</v>
+      </c>
+      <c r="BP74">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7502683</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45591.47916666666</v>
+      </c>
+      <c r="F75">
+        <v>9</v>
+      </c>
+      <c r="G75" t="s">
+        <v>83</v>
+      </c>
+      <c r="H75" t="s">
+        <v>81</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>2</v>
+      </c>
+      <c r="O75" t="s">
+        <v>97</v>
+      </c>
+      <c r="P75" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q75">
+        <v>3.04</v>
+      </c>
+      <c r="R75">
+        <v>2.04</v>
+      </c>
+      <c r="S75">
+        <v>3.5</v>
+      </c>
+      <c r="T75">
+        <v>1.44</v>
+      </c>
+      <c r="U75">
+        <v>2.67</v>
+      </c>
+      <c r="V75">
+        <v>3.04</v>
+      </c>
+      <c r="W75">
+        <v>1.35</v>
+      </c>
+      <c r="X75">
+        <v>7.9</v>
+      </c>
+      <c r="Y75">
+        <v>1.06</v>
+      </c>
+      <c r="Z75">
+        <v>2.35</v>
+      </c>
+      <c r="AA75">
+        <v>3</v>
+      </c>
+      <c r="AB75">
+        <v>2.75</v>
+      </c>
+      <c r="AC75">
+        <v>1.01</v>
+      </c>
+      <c r="AD75">
+        <v>7.5</v>
+      </c>
+      <c r="AE75">
+        <v>1.3</v>
+      </c>
+      <c r="AF75">
+        <v>2.88</v>
+      </c>
+      <c r="AG75">
+        <v>2</v>
+      </c>
+      <c r="AH75">
+        <v>1.68</v>
+      </c>
+      <c r="AI75">
+        <v>1.82</v>
+      </c>
+      <c r="AJ75">
+        <v>1.88</v>
+      </c>
+      <c r="AK75">
+        <v>1.4</v>
+      </c>
+      <c r="AL75">
+        <v>1.31</v>
+      </c>
+      <c r="AM75">
+        <v>1.53</v>
+      </c>
+      <c r="AN75">
+        <v>1.25</v>
+      </c>
+      <c r="AO75">
+        <v>0.5</v>
+      </c>
+      <c r="AP75">
+        <v>1.2</v>
+      </c>
+      <c r="AQ75">
+        <v>0.6</v>
+      </c>
+      <c r="AR75">
+        <v>1.62</v>
+      </c>
+      <c r="AS75">
+        <v>1.26</v>
+      </c>
+      <c r="AT75">
+        <v>2.88</v>
+      </c>
+      <c r="AU75">
+        <v>7</v>
+      </c>
+      <c r="AV75">
+        <v>6</v>
+      </c>
+      <c r="AW75">
+        <v>11</v>
+      </c>
+      <c r="AX75">
+        <v>2</v>
+      </c>
+      <c r="AY75">
+        <v>18</v>
+      </c>
+      <c r="AZ75">
+        <v>8</v>
+      </c>
+      <c r="BA75">
+        <v>4</v>
+      </c>
+      <c r="BB75">
+        <v>4</v>
+      </c>
+      <c r="BC75">
+        <v>8</v>
+      </c>
+      <c r="BD75">
+        <v>1.83</v>
+      </c>
+      <c r="BE75">
+        <v>8</v>
+      </c>
+      <c r="BF75">
+        <v>2.2</v>
+      </c>
+      <c r="BG75">
+        <v>1.13</v>
+      </c>
+      <c r="BH75">
+        <v>4.25</v>
+      </c>
+      <c r="BI75">
+        <v>1.29</v>
+      </c>
+      <c r="BJ75">
+        <v>2.92</v>
+      </c>
+      <c r="BK75">
+        <v>1.55</v>
+      </c>
+      <c r="BL75">
+        <v>2.17</v>
+      </c>
+      <c r="BM75">
+        <v>2</v>
+      </c>
+      <c r="BN75">
+        <v>1.8</v>
+      </c>
+      <c r="BO75">
+        <v>2.49</v>
+      </c>
+      <c r="BP75">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7502681</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45591.58333333334</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76" t="s">
+        <v>86</v>
+      </c>
+      <c r="H76" t="s">
+        <v>87</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>3</v>
+      </c>
+      <c r="N76">
+        <v>4</v>
+      </c>
+      <c r="O76" t="s">
+        <v>135</v>
+      </c>
+      <c r="P76" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q76">
+        <v>2.8</v>
+      </c>
+      <c r="R76">
+        <v>2.11</v>
+      </c>
+      <c r="S76">
+        <v>3.64</v>
+      </c>
+      <c r="T76">
+        <v>1.4</v>
+      </c>
+      <c r="U76">
+        <v>2.82</v>
+      </c>
+      <c r="V76">
+        <v>2.82</v>
+      </c>
+      <c r="W76">
+        <v>1.4</v>
+      </c>
+      <c r="X76">
+        <v>7.2</v>
+      </c>
+      <c r="Y76">
+        <v>1.08</v>
+      </c>
+      <c r="Z76">
+        <v>2.12</v>
+      </c>
+      <c r="AA76">
+        <v>3.37</v>
+      </c>
+      <c r="AB76">
+        <v>3.35</v>
+      </c>
+      <c r="AC76">
+        <v>1</v>
+      </c>
+      <c r="AD76">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE76">
+        <v>1.25</v>
+      </c>
+      <c r="AF76">
+        <v>3.14</v>
+      </c>
+      <c r="AG76">
+        <v>1.95</v>
+      </c>
+      <c r="AH76">
+        <v>1.83</v>
+      </c>
+      <c r="AI76">
+        <v>1.73</v>
+      </c>
+      <c r="AJ76">
+        <v>1.99</v>
+      </c>
+      <c r="AK76">
+        <v>1.36</v>
+      </c>
+      <c r="AL76">
+        <v>1.3</v>
+      </c>
+      <c r="AM76">
+        <v>1.61</v>
+      </c>
+      <c r="AN76">
+        <v>2.5</v>
+      </c>
+      <c r="AO76">
+        <v>2</v>
+      </c>
+      <c r="AP76">
+        <v>2</v>
+      </c>
+      <c r="AQ76">
+        <v>2.2</v>
+      </c>
+      <c r="AR76">
+        <v>1.55</v>
+      </c>
+      <c r="AS76">
+        <v>1.43</v>
+      </c>
+      <c r="AT76">
+        <v>2.98</v>
+      </c>
+      <c r="AU76">
+        <v>2</v>
+      </c>
+      <c r="AV76">
+        <v>2</v>
+      </c>
+      <c r="AW76">
+        <v>2</v>
+      </c>
+      <c r="AX76">
+        <v>4</v>
+      </c>
+      <c r="AY76">
+        <v>4</v>
+      </c>
+      <c r="AZ76">
+        <v>6</v>
+      </c>
+      <c r="BA76">
+        <v>5</v>
+      </c>
+      <c r="BB76">
+        <v>5</v>
+      </c>
+      <c r="BC76">
+        <v>10</v>
+      </c>
+      <c r="BD76">
+        <v>1.75</v>
+      </c>
+      <c r="BE76">
+        <v>8</v>
+      </c>
+      <c r="BF76">
+        <v>2.42</v>
+      </c>
+      <c r="BG76">
+        <v>1.14</v>
+      </c>
+      <c r="BH76">
+        <v>4.2</v>
+      </c>
+      <c r="BI76">
+        <v>1.3</v>
+      </c>
+      <c r="BJ76">
+        <v>2.88</v>
+      </c>
+      <c r="BK76">
+        <v>1.56</v>
+      </c>
+      <c r="BL76">
+        <v>2.16</v>
+      </c>
+      <c r="BM76">
+        <v>1.98</v>
+      </c>
+      <c r="BN76">
+        <v>1.74</v>
+      </c>
+      <c r="BO76">
+        <v>2.52</v>
+      </c>
+      <c r="BP76">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -15702,22 +15702,22 @@
         <v>2.81</v>
       </c>
       <c r="AU72">
+        <v>6</v>
+      </c>
+      <c r="AV72">
+        <v>4</v>
+      </c>
+      <c r="AW72">
+        <v>2</v>
+      </c>
+      <c r="AX72">
         <v>5</v>
       </c>
-      <c r="AV72">
-        <v>3</v>
-      </c>
-      <c r="AW72">
-        <v>2</v>
-      </c>
-      <c r="AX72">
-        <v>4</v>
-      </c>
       <c r="AY72">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ72">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA72">
         <v>7</v>
@@ -15782,7 +15782,7 @@
         <v>69</v>
       </c>
       <c r="E73" s="2">
-        <v>45591.29166666666</v>
+        <v>45590.875</v>
       </c>
       <c r="F73">
         <v>9</v>
@@ -16526,31 +16526,31 @@
         <v>2.98</v>
       </c>
       <c r="AU76">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV76">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW76">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX76">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY76">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AZ76">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BA76">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB76">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BC76">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BD76">
         <v>1.75</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="189">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -424,6 +424,15 @@
     <t>['32']</t>
   </si>
   <si>
+    <t>['23']</t>
+  </si>
+  <si>
+    <t>['45+2']</t>
+  </si>
+  <si>
+    <t>['37', '45+4', '87']</t>
+  </si>
+  <si>
     <t>['24', '27']</t>
   </si>
   <si>
@@ -569,6 +578,9 @@
   </si>
   <si>
     <t>['56', '59', '90+5']</t>
+  </si>
+  <si>
+    <t>['9', '11', '76']</t>
   </si>
 </sst>
 </file>
@@ -930,7 +942,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP76"/>
+  <dimension ref="A1:BP79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1189,7 +1201,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -1395,7 +1407,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -1601,7 +1613,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -1679,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ4">
         <v>2</v>
@@ -1807,7 +1819,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2013,7 +2025,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2219,7 +2231,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2297,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ7">
         <v>1.25</v>
@@ -2425,7 +2437,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q8">
         <v>2.5</v>
@@ -2506,7 +2518,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ8">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2631,7 +2643,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -2915,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ10">
         <v>0.6</v>
@@ -3043,7 +3055,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3455,7 +3467,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -3661,7 +3673,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -3742,7 +3754,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ14">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3867,7 +3879,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -4073,7 +4085,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -4691,7 +4703,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q19">
         <v>2.79</v>
@@ -4772,7 +4784,7 @@
         <v>2</v>
       </c>
       <c r="AQ19">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4897,7 +4909,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -4978,7 +4990,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ20">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR20">
         <v>1.01</v>
@@ -5181,7 +5193,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ21">
         <v>1.25</v>
@@ -5387,7 +5399,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ22">
         <v>0.33</v>
@@ -5515,7 +5527,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5593,7 +5605,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ23">
         <v>1.75</v>
@@ -5802,7 +5814,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ24">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR24">
         <v>1.31</v>
@@ -5927,7 +5939,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q25">
         <v>2.91</v>
@@ -6133,7 +6145,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6339,7 +6351,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q27">
         <v>3.25</v>
@@ -6751,7 +6763,7 @@
         <v>89</v>
       </c>
       <c r="P29" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -6957,7 +6969,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7369,7 +7381,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7575,7 +7587,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7656,7 +7668,7 @@
         <v>1</v>
       </c>
       <c r="AQ33">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR33">
         <v>1.04</v>
@@ -7781,7 +7793,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -7987,7 +7999,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q35">
         <v>2.57</v>
@@ -8193,7 +8205,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q36">
         <v>2.89</v>
@@ -8399,7 +8411,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q37">
         <v>2.5</v>
@@ -8605,7 +8617,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8683,7 +8695,7 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ38">
         <v>0.6</v>
@@ -8811,7 +8823,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -8889,7 +8901,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ39">
         <v>1.4</v>
@@ -9223,7 +9235,7 @@
         <v>89</v>
       </c>
       <c r="P41" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9429,7 +9441,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -9510,7 +9522,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ42">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR42">
         <v>1.49</v>
@@ -9716,7 +9728,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ43">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR43">
         <v>1.55</v>
@@ -9841,7 +9853,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10047,7 +10059,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q45">
         <v>2.85</v>
@@ -10125,7 +10137,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ45">
         <v>1.6</v>
@@ -10459,7 +10471,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -10665,7 +10677,7 @@
         <v>89</v>
       </c>
       <c r="P48" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10871,7 +10883,7 @@
         <v>89</v>
       </c>
       <c r="P49" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11077,7 +11089,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11489,7 +11501,7 @@
         <v>89</v>
       </c>
       <c r="P52" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q52">
         <v>3.2</v>
@@ -11901,7 +11913,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -11982,7 +11994,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ54">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR54">
         <v>1.11</v>
@@ -12313,7 +12325,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q56">
         <v>3.08</v>
@@ -12391,7 +12403,7 @@
         <v>1.67</v>
       </c>
       <c r="AP56">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ56">
         <v>2.2</v>
@@ -12519,7 +12531,7 @@
         <v>109</v>
       </c>
       <c r="P57" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12597,7 +12609,7 @@
         <v>1.33</v>
       </c>
       <c r="AP57">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ57">
         <v>1.6</v>
@@ -12806,7 +12818,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ58">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR58">
         <v>1.6</v>
@@ -12931,7 +12943,7 @@
         <v>89</v>
       </c>
       <c r="P59" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13215,7 +13227,7 @@
         <v>0.67</v>
       </c>
       <c r="AP60">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ60">
         <v>0.6</v>
@@ -14042,7 +14054,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ64">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR64">
         <v>1.24</v>
@@ -14167,7 +14179,7 @@
         <v>129</v>
       </c>
       <c r="P65" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14579,7 +14591,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q67">
         <v>3.12</v>
@@ -14785,7 +14797,7 @@
         <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q68">
         <v>2.96</v>
@@ -14866,7 +14878,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ68">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR68">
         <v>1.55</v>
@@ -15576,10 +15588,10 @@
         <v>69</v>
       </c>
       <c r="E72" s="2">
-        <v>45589.875</v>
+        <v>45590.58333333334</v>
       </c>
       <c r="F72">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G72" t="s">
         <v>82</v>
@@ -15609,7 +15621,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q72">
         <v>3.1</v>
@@ -15782,7 +15794,7 @@
         <v>69</v>
       </c>
       <c r="E73" s="2">
-        <v>45590.875</v>
+        <v>45591.29166666666</v>
       </c>
       <c r="F73">
         <v>9</v>
@@ -15815,7 +15827,7 @@
         <v>89</v>
       </c>
       <c r="P73" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q73">
         <v>2.92</v>
@@ -16021,7 +16033,7 @@
         <v>89</v>
       </c>
       <c r="P74" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16227,7 +16239,7 @@
         <v>97</v>
       </c>
       <c r="P75" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q75">
         <v>3.04</v>
@@ -16403,7 +16415,7 @@
         <v>45591.58333333334</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G76" t="s">
         <v>86</v>
@@ -16433,7 +16445,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q76">
         <v>2.8</v>
@@ -16590,6 +16602,624 @@
       </c>
       <c r="BP76">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7502676</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45591.875</v>
+      </c>
+      <c r="F77">
+        <v>9</v>
+      </c>
+      <c r="G77" t="s">
+        <v>75</v>
+      </c>
+      <c r="H77" t="s">
+        <v>79</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77" t="s">
+        <v>136</v>
+      </c>
+      <c r="P77" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q77">
+        <v>3</v>
+      </c>
+      <c r="R77">
+        <v>2.05</v>
+      </c>
+      <c r="S77">
+        <v>4</v>
+      </c>
+      <c r="T77">
+        <v>1.44</v>
+      </c>
+      <c r="U77">
+        <v>2.63</v>
+      </c>
+      <c r="V77">
+        <v>3.25</v>
+      </c>
+      <c r="W77">
+        <v>1.33</v>
+      </c>
+      <c r="X77">
+        <v>10</v>
+      </c>
+      <c r="Y77">
+        <v>1.06</v>
+      </c>
+      <c r="Z77">
+        <v>2.1</v>
+      </c>
+      <c r="AA77">
+        <v>3.24</v>
+      </c>
+      <c r="AB77">
+        <v>3.52</v>
+      </c>
+      <c r="AC77">
+        <v>1.02</v>
+      </c>
+      <c r="AD77">
+        <v>7</v>
+      </c>
+      <c r="AE77">
+        <v>1.38</v>
+      </c>
+      <c r="AF77">
+        <v>3.01</v>
+      </c>
+      <c r="AG77">
+        <v>2.12</v>
+      </c>
+      <c r="AH77">
+        <v>1.6</v>
+      </c>
+      <c r="AI77">
+        <v>1.83</v>
+      </c>
+      <c r="AJ77">
+        <v>1.83</v>
+      </c>
+      <c r="AK77">
+        <v>1.35</v>
+      </c>
+      <c r="AL77">
+        <v>1.28</v>
+      </c>
+      <c r="AM77">
+        <v>1.62</v>
+      </c>
+      <c r="AN77">
+        <v>1.5</v>
+      </c>
+      <c r="AO77">
+        <v>1.5</v>
+      </c>
+      <c r="AP77">
+        <v>1.8</v>
+      </c>
+      <c r="AQ77">
+        <v>1.2</v>
+      </c>
+      <c r="AR77">
+        <v>1.55</v>
+      </c>
+      <c r="AS77">
+        <v>1.1</v>
+      </c>
+      <c r="AT77">
+        <v>2.65</v>
+      </c>
+      <c r="AU77">
+        <v>3</v>
+      </c>
+      <c r="AV77">
+        <v>6</v>
+      </c>
+      <c r="AW77">
+        <v>3</v>
+      </c>
+      <c r="AX77">
+        <v>3</v>
+      </c>
+      <c r="AY77">
+        <v>6</v>
+      </c>
+      <c r="AZ77">
+        <v>9</v>
+      </c>
+      <c r="BA77">
+        <v>4</v>
+      </c>
+      <c r="BB77">
+        <v>12</v>
+      </c>
+      <c r="BC77">
+        <v>16</v>
+      </c>
+      <c r="BD77">
+        <v>1.71</v>
+      </c>
+      <c r="BE77">
+        <v>6.7</v>
+      </c>
+      <c r="BF77">
+        <v>2.69</v>
+      </c>
+      <c r="BG77">
+        <v>1.13</v>
+      </c>
+      <c r="BH77">
+        <v>4.33</v>
+      </c>
+      <c r="BI77">
+        <v>1.28</v>
+      </c>
+      <c r="BJ77">
+        <v>2.97</v>
+      </c>
+      <c r="BK77">
+        <v>1.53</v>
+      </c>
+      <c r="BL77">
+        <v>2.21</v>
+      </c>
+      <c r="BM77">
+        <v>1.91</v>
+      </c>
+      <c r="BN77">
+        <v>1.8</v>
+      </c>
+      <c r="BO77">
+        <v>2.46</v>
+      </c>
+      <c r="BP77">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7502680</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45592.45833333334</v>
+      </c>
+      <c r="F78">
+        <v>9</v>
+      </c>
+      <c r="G78" t="s">
+        <v>78</v>
+      </c>
+      <c r="H78" t="s">
+        <v>70</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>2</v>
+      </c>
+      <c r="K78">
+        <v>3</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>3</v>
+      </c>
+      <c r="N78">
+        <v>4</v>
+      </c>
+      <c r="O78" t="s">
+        <v>137</v>
+      </c>
+      <c r="P78" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q78">
+        <v>3.1</v>
+      </c>
+      <c r="R78">
+        <v>2.1</v>
+      </c>
+      <c r="S78">
+        <v>3.6</v>
+      </c>
+      <c r="T78">
+        <v>1.44</v>
+      </c>
+      <c r="U78">
+        <v>2.63</v>
+      </c>
+      <c r="V78">
+        <v>3.25</v>
+      </c>
+      <c r="W78">
+        <v>1.33</v>
+      </c>
+      <c r="X78">
+        <v>9</v>
+      </c>
+      <c r="Y78">
+        <v>1.07</v>
+      </c>
+      <c r="Z78">
+        <v>2.38</v>
+      </c>
+      <c r="AA78">
+        <v>3.25</v>
+      </c>
+      <c r="AB78">
+        <v>2.97</v>
+      </c>
+      <c r="AC78">
+        <v>1.02</v>
+      </c>
+      <c r="AD78">
+        <v>7.5</v>
+      </c>
+      <c r="AE78">
+        <v>1.36</v>
+      </c>
+      <c r="AF78">
+        <v>3.17</v>
+      </c>
+      <c r="AG78">
+        <v>2.04</v>
+      </c>
+      <c r="AH78">
+        <v>1.65</v>
+      </c>
+      <c r="AI78">
+        <v>1.83</v>
+      </c>
+      <c r="AJ78">
+        <v>1.83</v>
+      </c>
+      <c r="AK78">
+        <v>1.38</v>
+      </c>
+      <c r="AL78">
+        <v>1.25</v>
+      </c>
+      <c r="AM78">
+        <v>1.57</v>
+      </c>
+      <c r="AN78">
+        <v>0.75</v>
+      </c>
+      <c r="AO78">
+        <v>1.75</v>
+      </c>
+      <c r="AP78">
+        <v>0.6</v>
+      </c>
+      <c r="AQ78">
+        <v>2</v>
+      </c>
+      <c r="AR78">
+        <v>1.7</v>
+      </c>
+      <c r="AS78">
+        <v>1.27</v>
+      </c>
+      <c r="AT78">
+        <v>2.97</v>
+      </c>
+      <c r="AU78">
+        <v>6</v>
+      </c>
+      <c r="AV78">
+        <v>10</v>
+      </c>
+      <c r="AW78">
+        <v>11</v>
+      </c>
+      <c r="AX78">
+        <v>5</v>
+      </c>
+      <c r="AY78">
+        <v>17</v>
+      </c>
+      <c r="AZ78">
+        <v>15</v>
+      </c>
+      <c r="BA78">
+        <v>5</v>
+      </c>
+      <c r="BB78">
+        <v>3</v>
+      </c>
+      <c r="BC78">
+        <v>8</v>
+      </c>
+      <c r="BD78">
+        <v>1.7</v>
+      </c>
+      <c r="BE78">
+        <v>6.55</v>
+      </c>
+      <c r="BF78">
+        <v>2.74</v>
+      </c>
+      <c r="BG78">
+        <v>1.22</v>
+      </c>
+      <c r="BH78">
+        <v>3.34</v>
+      </c>
+      <c r="BI78">
+        <v>1.45</v>
+      </c>
+      <c r="BJ78">
+        <v>2.41</v>
+      </c>
+      <c r="BK78">
+        <v>1.85</v>
+      </c>
+      <c r="BL78">
+        <v>1.85</v>
+      </c>
+      <c r="BM78">
+        <v>2.3</v>
+      </c>
+      <c r="BN78">
+        <v>1.49</v>
+      </c>
+      <c r="BO78">
+        <v>3.08</v>
+      </c>
+      <c r="BP78">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7502684</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45592.52083333334</v>
+      </c>
+      <c r="F79">
+        <v>9</v>
+      </c>
+      <c r="G79" t="s">
+        <v>72</v>
+      </c>
+      <c r="H79" t="s">
+        <v>76</v>
+      </c>
+      <c r="I79">
+        <v>2</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>2</v>
+      </c>
+      <c r="L79">
+        <v>3</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>3</v>
+      </c>
+      <c r="O79" t="s">
+        <v>138</v>
+      </c>
+      <c r="P79" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q79">
+        <v>2.5</v>
+      </c>
+      <c r="R79">
+        <v>2.2</v>
+      </c>
+      <c r="S79">
+        <v>4.33</v>
+      </c>
+      <c r="T79">
+        <v>1.4</v>
+      </c>
+      <c r="U79">
+        <v>2.75</v>
+      </c>
+      <c r="V79">
+        <v>2.75</v>
+      </c>
+      <c r="W79">
+        <v>1.4</v>
+      </c>
+      <c r="X79">
+        <v>8</v>
+      </c>
+      <c r="Y79">
+        <v>1.08</v>
+      </c>
+      <c r="Z79">
+        <v>1.91</v>
+      </c>
+      <c r="AA79">
+        <v>3.1</v>
+      </c>
+      <c r="AB79">
+        <v>3.19</v>
+      </c>
+      <c r="AC79">
+        <v>1</v>
+      </c>
+      <c r="AD79">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE79">
+        <v>1.25</v>
+      </c>
+      <c r="AF79">
+        <v>3.14</v>
+      </c>
+      <c r="AG79">
+        <v>1.81</v>
+      </c>
+      <c r="AH79">
+        <v>1.73</v>
+      </c>
+      <c r="AI79">
+        <v>1.8</v>
+      </c>
+      <c r="AJ79">
+        <v>1.91</v>
+      </c>
+      <c r="AK79">
+        <v>1.2</v>
+      </c>
+      <c r="AL79">
+        <v>1.22</v>
+      </c>
+      <c r="AM79">
+        <v>1.87</v>
+      </c>
+      <c r="AN79">
+        <v>1.75</v>
+      </c>
+      <c r="AO79">
+        <v>0.5</v>
+      </c>
+      <c r="AP79">
+        <v>2</v>
+      </c>
+      <c r="AQ79">
+        <v>0.4</v>
+      </c>
+      <c r="AR79">
+        <v>1.3</v>
+      </c>
+      <c r="AS79">
+        <v>1.4</v>
+      </c>
+      <c r="AT79">
+        <v>2.7</v>
+      </c>
+      <c r="AU79">
+        <v>7</v>
+      </c>
+      <c r="AV79">
+        <v>7</v>
+      </c>
+      <c r="AW79">
+        <v>5</v>
+      </c>
+      <c r="AX79">
+        <v>7</v>
+      </c>
+      <c r="AY79">
+        <v>12</v>
+      </c>
+      <c r="AZ79">
+        <v>14</v>
+      </c>
+      <c r="BA79">
+        <v>4</v>
+      </c>
+      <c r="BB79">
+        <v>3</v>
+      </c>
+      <c r="BC79">
+        <v>7</v>
+      </c>
+      <c r="BD79">
+        <v>1.66</v>
+      </c>
+      <c r="BE79">
+        <v>8.9</v>
+      </c>
+      <c r="BF79">
+        <v>2.56</v>
+      </c>
+      <c r="BG79">
+        <v>1.12</v>
+      </c>
+      <c r="BH79">
+        <v>4.5</v>
+      </c>
+      <c r="BI79">
+        <v>1.26</v>
+      </c>
+      <c r="BJ79">
+        <v>3.08</v>
+      </c>
+      <c r="BK79">
+        <v>1.5</v>
+      </c>
+      <c r="BL79">
+        <v>2.28</v>
+      </c>
+      <c r="BM79">
+        <v>1.91</v>
+      </c>
+      <c r="BN79">
+        <v>1.8</v>
+      </c>
+      <c r="BO79">
+        <v>2.35</v>
+      </c>
+      <c r="BP79">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="191">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -433,6 +433,9 @@
     <t>['37', '45+4', '87']</t>
   </si>
   <si>
+    <t>['34', '47']</t>
+  </si>
+  <si>
     <t>['24', '27']</t>
   </si>
   <si>
@@ -581,6 +584,9 @@
   </si>
   <si>
     <t>['9', '11', '76']</t>
+  </si>
+  <si>
+    <t>['52']</t>
   </si>
 </sst>
 </file>
@@ -942,7 +948,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP79"/>
+  <dimension ref="A1:BP80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1201,7 +1207,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -1407,7 +1413,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -1485,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
         <v>1.75</v>
@@ -1613,7 +1619,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -1819,7 +1825,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2025,7 +2031,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2231,7 +2237,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2437,7 +2443,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q8">
         <v>2.5</v>
@@ -2643,7 +2649,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -3055,7 +3061,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3467,7 +3473,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -3548,7 +3554,7 @@
         <v>1</v>
       </c>
       <c r="AQ13">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3673,7 +3679,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -3879,7 +3885,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -4085,7 +4091,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -4703,7 +4709,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q19">
         <v>2.79</v>
@@ -4909,7 +4915,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5527,7 +5533,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5939,7 +5945,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q25">
         <v>2.91</v>
@@ -6145,7 +6151,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6351,7 +6357,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q27">
         <v>3.25</v>
@@ -6429,7 +6435,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ27">
         <v>0.6</v>
@@ -6763,7 +6769,7 @@
         <v>89</v>
       </c>
       <c r="P29" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -6969,7 +6975,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7381,7 +7387,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7587,7 +7593,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7793,7 +7799,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -7999,7 +8005,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q35">
         <v>2.57</v>
@@ -8205,7 +8211,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q36">
         <v>2.89</v>
@@ -8286,7 +8292,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ36">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR36">
         <v>0.82</v>
@@ -8411,7 +8417,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q37">
         <v>2.5</v>
@@ -8617,7 +8623,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8823,7 +8829,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9110,7 +9116,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ40">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR40">
         <v>1.4</v>
@@ -9235,7 +9241,7 @@
         <v>89</v>
       </c>
       <c r="P41" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9313,7 +9319,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ41">
         <v>2.2</v>
@@ -9441,7 +9447,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -9853,7 +9859,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10059,7 +10065,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q45">
         <v>2.85</v>
@@ -10471,7 +10477,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -10677,7 +10683,7 @@
         <v>89</v>
       </c>
       <c r="P48" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10883,7 +10889,7 @@
         <v>89</v>
       </c>
       <c r="P49" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11089,7 +11095,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11501,7 +11507,7 @@
         <v>89</v>
       </c>
       <c r="P52" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q52">
         <v>3.2</v>
@@ -11913,7 +11919,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12325,7 +12331,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q56">
         <v>3.08</v>
@@ -12531,7 +12537,7 @@
         <v>109</v>
       </c>
       <c r="P57" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12943,7 +12949,7 @@
         <v>89</v>
       </c>
       <c r="P59" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13642,7 +13648,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ62">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR62">
         <v>1.41</v>
@@ -14051,7 +14057,7 @@
         <v>1.67</v>
       </c>
       <c r="AP64">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ64">
         <v>1.2</v>
@@ -14179,7 +14185,7 @@
         <v>129</v>
       </c>
       <c r="P65" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14591,7 +14597,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q67">
         <v>3.12</v>
@@ -14797,7 +14803,7 @@
         <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q68">
         <v>2.96</v>
@@ -15621,7 +15627,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q72">
         <v>3.1</v>
@@ -15827,7 +15833,7 @@
         <v>89</v>
       </c>
       <c r="P73" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q73">
         <v>2.92</v>
@@ -16033,7 +16039,7 @@
         <v>89</v>
       </c>
       <c r="P74" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16239,7 +16245,7 @@
         <v>97</v>
       </c>
       <c r="P75" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q75">
         <v>3.04</v>
@@ -16445,7 +16451,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q76">
         <v>2.8</v>
@@ -16618,10 +16624,10 @@
         <v>69</v>
       </c>
       <c r="E77" s="2">
-        <v>45591.875</v>
+        <v>45592.33333333334</v>
       </c>
       <c r="F77">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G77" t="s">
         <v>75</v>
@@ -16857,7 +16863,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17220,6 +17226,212 @@
       </c>
       <c r="BP79">
         <v>1.47</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7502678</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45593.625</v>
+      </c>
+      <c r="F80">
+        <v>9</v>
+      </c>
+      <c r="G80" t="s">
+        <v>71</v>
+      </c>
+      <c r="H80" t="s">
+        <v>77</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>2</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>3</v>
+      </c>
+      <c r="O80" t="s">
+        <v>139</v>
+      </c>
+      <c r="P80" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q80">
+        <v>3.6</v>
+      </c>
+      <c r="R80">
+        <v>2</v>
+      </c>
+      <c r="S80">
+        <v>3.25</v>
+      </c>
+      <c r="T80">
+        <v>1.5</v>
+      </c>
+      <c r="U80">
+        <v>2.5</v>
+      </c>
+      <c r="V80">
+        <v>3.4</v>
+      </c>
+      <c r="W80">
+        <v>1.3</v>
+      </c>
+      <c r="X80">
+        <v>10</v>
+      </c>
+      <c r="Y80">
+        <v>1.06</v>
+      </c>
+      <c r="Z80">
+        <v>2.7</v>
+      </c>
+      <c r="AA80">
+        <v>2.95</v>
+      </c>
+      <c r="AB80">
+        <v>2.65</v>
+      </c>
+      <c r="AC80">
+        <v>1.02</v>
+      </c>
+      <c r="AD80">
+        <v>7.1</v>
+      </c>
+      <c r="AE80">
+        <v>1.33</v>
+      </c>
+      <c r="AF80">
+        <v>2.73</v>
+      </c>
+      <c r="AG80">
+        <v>2.12</v>
+      </c>
+      <c r="AH80">
+        <v>1.58</v>
+      </c>
+      <c r="AI80">
+        <v>1.91</v>
+      </c>
+      <c r="AJ80">
+        <v>1.8</v>
+      </c>
+      <c r="AK80">
+        <v>1.47</v>
+      </c>
+      <c r="AL80">
+        <v>1.33</v>
+      </c>
+      <c r="AM80">
+        <v>1.44</v>
+      </c>
+      <c r="AN80">
+        <v>0.5</v>
+      </c>
+      <c r="AO80">
+        <v>1.75</v>
+      </c>
+      <c r="AP80">
+        <v>1</v>
+      </c>
+      <c r="AQ80">
+        <v>1.4</v>
+      </c>
+      <c r="AR80">
+        <v>1.09</v>
+      </c>
+      <c r="AS80">
+        <v>1.73</v>
+      </c>
+      <c r="AT80">
+        <v>2.82</v>
+      </c>
+      <c r="AU80">
+        <v>6</v>
+      </c>
+      <c r="AV80">
+        <v>3</v>
+      </c>
+      <c r="AW80">
+        <v>10</v>
+      </c>
+      <c r="AX80">
+        <v>1</v>
+      </c>
+      <c r="AY80">
+        <v>16</v>
+      </c>
+      <c r="AZ80">
+        <v>4</v>
+      </c>
+      <c r="BA80">
+        <v>2</v>
+      </c>
+      <c r="BB80">
+        <v>2</v>
+      </c>
+      <c r="BC80">
+        <v>4</v>
+      </c>
+      <c r="BD80">
+        <v>2.13</v>
+      </c>
+      <c r="BE80">
+        <v>6.45</v>
+      </c>
+      <c r="BF80">
+        <v>2.08</v>
+      </c>
+      <c r="BG80">
+        <v>1.17</v>
+      </c>
+      <c r="BH80">
+        <v>3.82</v>
+      </c>
+      <c r="BI80">
+        <v>1.36</v>
+      </c>
+      <c r="BJ80">
+        <v>2.7</v>
+      </c>
+      <c r="BK80">
+        <v>1.68</v>
+      </c>
+      <c r="BL80">
+        <v>2.06</v>
+      </c>
+      <c r="BM80">
+        <v>2.07</v>
+      </c>
+      <c r="BN80">
+        <v>1.61</v>
+      </c>
+      <c r="BO80">
+        <v>2.69</v>
+      </c>
+      <c r="BP80">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -17242,7 +17242,7 @@
         <v>69</v>
       </c>
       <c r="E80" s="2">
-        <v>45593.625</v>
+        <v>45592.875</v>
       </c>
       <c r="F80">
         <v>9</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -17242,10 +17242,10 @@
         <v>69</v>
       </c>
       <c r="E80" s="2">
-        <v>45592.875</v>
+        <v>45593.625</v>
       </c>
       <c r="F80">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G80" t="s">
         <v>71</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="191">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -948,7 +948,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP80"/>
+  <dimension ref="A1:BP81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2318,7 +2318,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ7">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3139,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ11">
         <v>2</v>
@@ -5202,7 +5202,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ21">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR21">
         <v>1.84</v>
@@ -6847,7 +6847,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ29">
         <v>1.6</v>
@@ -11382,7 +11382,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ51">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR51">
         <v>1.2</v>
@@ -11791,7 +11791,7 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ53">
         <v>1.25</v>
@@ -14675,7 +14675,7 @@
         <v>3</v>
       </c>
       <c r="AP67">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ67">
         <v>2.5</v>
@@ -15296,7 +15296,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ70">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR70">
         <v>1.47</v>
@@ -17432,6 +17432,212 @@
       </c>
       <c r="BP80">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="81" spans="1:68">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7502691</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45597.625</v>
+      </c>
+      <c r="F81">
+        <v>10</v>
+      </c>
+      <c r="G81" t="s">
+        <v>79</v>
+      </c>
+      <c r="H81" t="s">
+        <v>83</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81" t="s">
+        <v>107</v>
+      </c>
+      <c r="P81" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q81">
+        <v>2.88</v>
+      </c>
+      <c r="R81">
+        <v>2.2</v>
+      </c>
+      <c r="S81">
+        <v>3.75</v>
+      </c>
+      <c r="T81">
+        <v>1.4</v>
+      </c>
+      <c r="U81">
+        <v>2.75</v>
+      </c>
+      <c r="V81">
+        <v>2.75</v>
+      </c>
+      <c r="W81">
+        <v>1.4</v>
+      </c>
+      <c r="X81">
+        <v>8</v>
+      </c>
+      <c r="Y81">
+        <v>1.08</v>
+      </c>
+      <c r="Z81">
+        <v>2.15</v>
+      </c>
+      <c r="AA81">
+        <v>3.1</v>
+      </c>
+      <c r="AB81">
+        <v>3.1</v>
+      </c>
+      <c r="AC81">
+        <v>1.06</v>
+      </c>
+      <c r="AD81">
+        <v>8</v>
+      </c>
+      <c r="AE81">
+        <v>1.33</v>
+      </c>
+      <c r="AF81">
+        <v>3.1</v>
+      </c>
+      <c r="AG81">
+        <v>1.85</v>
+      </c>
+      <c r="AH81">
+        <v>1.8</v>
+      </c>
+      <c r="AI81">
+        <v>1.73</v>
+      </c>
+      <c r="AJ81">
+        <v>2</v>
+      </c>
+      <c r="AK81">
+        <v>1.35</v>
+      </c>
+      <c r="AL81">
+        <v>1.28</v>
+      </c>
+      <c r="AM81">
+        <v>1.6</v>
+      </c>
+      <c r="AN81">
+        <v>0.75</v>
+      </c>
+      <c r="AO81">
+        <v>1.25</v>
+      </c>
+      <c r="AP81">
+        <v>1.2</v>
+      </c>
+      <c r="AQ81">
+        <v>1</v>
+      </c>
+      <c r="AR81">
+        <v>1.68</v>
+      </c>
+      <c r="AS81">
+        <v>1.53</v>
+      </c>
+      <c r="AT81">
+        <v>3.21</v>
+      </c>
+      <c r="AU81">
+        <v>7</v>
+      </c>
+      <c r="AV81">
+        <v>4</v>
+      </c>
+      <c r="AW81">
+        <v>5</v>
+      </c>
+      <c r="AX81">
+        <v>7</v>
+      </c>
+      <c r="AY81">
+        <v>12</v>
+      </c>
+      <c r="AZ81">
+        <v>11</v>
+      </c>
+      <c r="BA81">
+        <v>3</v>
+      </c>
+      <c r="BB81">
+        <v>2</v>
+      </c>
+      <c r="BC81">
+        <v>5</v>
+      </c>
+      <c r="BD81">
+        <v>1.74</v>
+      </c>
+      <c r="BE81">
+        <v>7</v>
+      </c>
+      <c r="BF81">
+        <v>2.58</v>
+      </c>
+      <c r="BG81">
+        <v>1.05</v>
+      </c>
+      <c r="BH81">
+        <v>6.2</v>
+      </c>
+      <c r="BI81">
+        <v>1.14</v>
+      </c>
+      <c r="BJ81">
+        <v>4.15</v>
+      </c>
+      <c r="BK81">
+        <v>1.36</v>
+      </c>
+      <c r="BL81">
+        <v>2.92</v>
+      </c>
+      <c r="BM81">
+        <v>1.59</v>
+      </c>
+      <c r="BN81">
+        <v>2.21</v>
+      </c>
+      <c r="BO81">
+        <v>1.93</v>
+      </c>
+      <c r="BP81">
+        <v>1.77</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="199">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -436,6 +436,27 @@
     <t>['34', '47']</t>
   </si>
   <si>
+    <t>['5']</t>
+  </si>
+  <si>
+    <t>['1']</t>
+  </si>
+  <si>
+    <t>['44', '90+2']</t>
+  </si>
+  <si>
+    <t>['13']</t>
+  </si>
+  <si>
+    <t>['20']</t>
+  </si>
+  <si>
+    <t>['89']</t>
+  </si>
+  <si>
+    <t>['6', '14']</t>
+  </si>
+  <si>
     <t>['24', '27']</t>
   </si>
   <si>
@@ -445,18 +466,12 @@
     <t>['42']</t>
   </si>
   <si>
-    <t>['89']</t>
-  </si>
-  <si>
     <t>['3', '6', '9']</t>
   </si>
   <si>
     <t>['77']</t>
   </si>
   <si>
-    <t>['20']</t>
-  </si>
-  <si>
     <t>['32', '90+6']</t>
   </si>
   <si>
@@ -587,6 +602,15 @@
   </si>
   <si>
     <t>['52']</t>
+  </si>
+  <si>
+    <t>['31', '61']</t>
+  </si>
+  <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['66']</t>
   </si>
 </sst>
 </file>
@@ -948,7 +972,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP81"/>
+  <dimension ref="A1:BP89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1207,7 +1231,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -1285,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
         <v>2.2</v>
@@ -1413,7 +1437,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -1494,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="AQ3">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1619,7 +1643,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -1700,7 +1724,7 @@
         <v>2</v>
       </c>
       <c r="AQ4">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1825,7 +1849,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1903,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ5">
         <v>1.4</v>
@@ -2031,7 +2055,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2112,7 +2136,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ6">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2237,7 +2261,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2443,7 +2467,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Q8">
         <v>2.5</v>
@@ -2521,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ8">
         <v>1.2</v>
@@ -2649,7 +2673,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -2727,10 +2751,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2933,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ10">
         <v>0.6</v>
@@ -3061,7 +3085,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3473,7 +3497,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -3679,7 +3703,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -3885,7 +3909,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -4091,7 +4115,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -4172,7 +4196,7 @@
         <v>1</v>
       </c>
       <c r="AQ16">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4375,10 +4399,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ17">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4584,7 +4608,7 @@
         <v>2</v>
       </c>
       <c r="AQ18">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4709,7 +4733,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Q19">
         <v>2.79</v>
@@ -4787,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ19">
         <v>0.4</v>
@@ -4915,7 +4939,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -4993,7 +5017,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ20">
         <v>1.2</v>
@@ -5199,7 +5223,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ21">
         <v>1</v>
@@ -5408,7 +5432,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ22">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR22">
         <v>1.3</v>
@@ -5533,7 +5557,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5614,7 +5638,7 @@
         <v>2</v>
       </c>
       <c r="AQ23">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR23">
         <v>1.93</v>
@@ -5817,7 +5841,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ24">
         <v>0.4</v>
@@ -5945,7 +5969,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q25">
         <v>2.91</v>
@@ -6151,7 +6175,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6229,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ26">
         <v>1.4</v>
@@ -6357,7 +6381,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q27">
         <v>3.25</v>
@@ -6644,7 +6668,7 @@
         <v>2</v>
       </c>
       <c r="AQ28">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR28">
         <v>1.62</v>
@@ -6769,7 +6793,7 @@
         <v>89</v>
       </c>
       <c r="P29" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -6975,7 +6999,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7056,7 +7080,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ30">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR30">
         <v>1.33</v>
@@ -7259,7 +7283,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ31">
         <v>2</v>
@@ -7387,7 +7411,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7468,7 +7492,7 @@
         <v>1</v>
       </c>
       <c r="AQ32">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR32">
         <v>2.27</v>
@@ -7593,7 +7617,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7799,7 +7823,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -7880,7 +7904,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ34">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR34">
         <v>1.57</v>
@@ -8005,7 +8029,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q35">
         <v>2.57</v>
@@ -8086,7 +8110,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ35">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR35">
         <v>1.95</v>
@@ -8211,7 +8235,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q36">
         <v>2.89</v>
@@ -8289,7 +8313,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ36">
         <v>1.4</v>
@@ -8417,7 +8441,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q37">
         <v>2.5</v>
@@ -8495,7 +8519,7 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ37">
         <v>1</v>
@@ -8623,7 +8647,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8829,7 +8853,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -8907,7 +8931,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ39">
         <v>1.4</v>
@@ -9113,7 +9137,7 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ40">
         <v>1.4</v>
@@ -9241,7 +9265,7 @@
         <v>89</v>
       </c>
       <c r="P41" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9447,7 +9471,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -9525,7 +9549,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ42">
         <v>1.2</v>
@@ -9859,7 +9883,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -9940,7 +9964,7 @@
         <v>2</v>
       </c>
       <c r="AQ44">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR44">
         <v>1.61</v>
@@ -10065,7 +10089,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q45">
         <v>2.85</v>
@@ -10146,7 +10170,7 @@
         <v>2</v>
       </c>
       <c r="AQ45">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR45">
         <v>1.58</v>
@@ -10352,7 +10376,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ46">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR46">
         <v>1.7</v>
@@ -10477,7 +10501,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -10555,10 +10579,10 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ47">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR47">
         <v>1.36</v>
@@ -10683,7 +10707,7 @@
         <v>89</v>
       </c>
       <c r="P48" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10764,7 +10788,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ48">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR48">
         <v>1.74</v>
@@ -10889,7 +10913,7 @@
         <v>89</v>
       </c>
       <c r="P49" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -10970,7 +10994,7 @@
         <v>1</v>
       </c>
       <c r="AQ49">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR49">
         <v>1.23</v>
@@ -11095,7 +11119,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11173,7 +11197,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ50">
         <v>1.6</v>
@@ -11507,7 +11531,7 @@
         <v>89</v>
       </c>
       <c r="P52" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q52">
         <v>3.2</v>
@@ -11585,7 +11609,7 @@
         <v>1</v>
       </c>
       <c r="AP52">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ52">
         <v>2</v>
@@ -11794,7 +11818,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ53">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR53">
         <v>1.6</v>
@@ -11919,7 +11943,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -11997,7 +12021,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ54">
         <v>2</v>
@@ -12331,7 +12355,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q56">
         <v>3.08</v>
@@ -12537,7 +12561,7 @@
         <v>109</v>
       </c>
       <c r="P57" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12615,7 +12639,7 @@
         <v>1.33</v>
       </c>
       <c r="AP57">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ57">
         <v>1.6</v>
@@ -12821,7 +12845,7 @@
         <v>0.67</v>
       </c>
       <c r="AP58">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ58">
         <v>0.4</v>
@@ -12949,7 +12973,7 @@
         <v>89</v>
       </c>
       <c r="P59" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13030,7 +13054,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ59">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR59">
         <v>1.13</v>
@@ -13442,7 +13466,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ61">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR61">
         <v>1.62</v>
@@ -14185,7 +14209,7 @@
         <v>129</v>
       </c>
       <c r="P65" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14263,7 +14287,7 @@
         <v>1.67</v>
       </c>
       <c r="AP65">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ65">
         <v>2</v>
@@ -14469,10 +14493,10 @@
         <v>1.67</v>
       </c>
       <c r="AP66">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ66">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR66">
         <v>1.24</v>
@@ -14597,7 +14621,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q67">
         <v>3.12</v>
@@ -14678,7 +14702,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ67">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR67">
         <v>1.38</v>
@@ -14803,7 +14827,7 @@
         <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q68">
         <v>2.96</v>
@@ -14881,7 +14905,7 @@
         <v>1.33</v>
       </c>
       <c r="AP68">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ68">
         <v>2</v>
@@ -15090,7 +15114,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ69">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR69">
         <v>1.69</v>
@@ -15293,7 +15317,7 @@
         <v>1.33</v>
       </c>
       <c r="AP70">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ70">
         <v>1</v>
@@ -15499,7 +15523,7 @@
         <v>1.33</v>
       </c>
       <c r="AP71">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ71">
         <v>1</v>
@@ -15627,7 +15651,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Q72">
         <v>3.1</v>
@@ -15708,7 +15732,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ72">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR72">
         <v>1.62</v>
@@ -15833,7 +15857,7 @@
         <v>89</v>
       </c>
       <c r="P73" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q73">
         <v>2.92</v>
@@ -16039,7 +16063,7 @@
         <v>89</v>
       </c>
       <c r="P74" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16245,7 +16269,7 @@
         <v>97</v>
       </c>
       <c r="P75" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q75">
         <v>3.04</v>
@@ -16451,7 +16475,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q76">
         <v>2.8</v>
@@ -16863,7 +16887,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -16941,7 +16965,7 @@
         <v>1.75</v>
       </c>
       <c r="AP78">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ78">
         <v>2</v>
@@ -17275,7 +17299,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17638,6 +17662,1654 @@
       </c>
       <c r="BP81">
         <v>1.77</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7502686</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45598.33333333334</v>
+      </c>
+      <c r="F82">
+        <v>10</v>
+      </c>
+      <c r="G82" t="s">
+        <v>81</v>
+      </c>
+      <c r="H82" t="s">
+        <v>84</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>2</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>2</v>
+      </c>
+      <c r="O82" t="s">
+        <v>140</v>
+      </c>
+      <c r="P82" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q82">
+        <v>3.05</v>
+      </c>
+      <c r="R82">
+        <v>2.07</v>
+      </c>
+      <c r="S82">
+        <v>3.4</v>
+      </c>
+      <c r="T82">
+        <v>1.42</v>
+      </c>
+      <c r="U82">
+        <v>2.74</v>
+      </c>
+      <c r="V82">
+        <v>2.94</v>
+      </c>
+      <c r="W82">
+        <v>1.37</v>
+      </c>
+      <c r="X82">
+        <v>7.6</v>
+      </c>
+      <c r="Y82">
+        <v>1.07</v>
+      </c>
+      <c r="Z82">
+        <v>2.54</v>
+      </c>
+      <c r="AA82">
+        <v>3.25</v>
+      </c>
+      <c r="AB82">
+        <v>2.44</v>
+      </c>
+      <c r="AC82">
+        <v>1.01</v>
+      </c>
+      <c r="AD82">
+        <v>8</v>
+      </c>
+      <c r="AE82">
+        <v>1.28</v>
+      </c>
+      <c r="AF82">
+        <v>2.97</v>
+      </c>
+      <c r="AG82">
+        <v>2.02</v>
+      </c>
+      <c r="AH82">
+        <v>1.74</v>
+      </c>
+      <c r="AI82">
+        <v>1.77</v>
+      </c>
+      <c r="AJ82">
+        <v>1.94</v>
+      </c>
+      <c r="AK82">
+        <v>1.42</v>
+      </c>
+      <c r="AL82">
+        <v>1.31</v>
+      </c>
+      <c r="AM82">
+        <v>1.51</v>
+      </c>
+      <c r="AN82">
+        <v>1</v>
+      </c>
+      <c r="AO82">
+        <v>1.6</v>
+      </c>
+      <c r="AP82">
+        <v>1</v>
+      </c>
+      <c r="AQ82">
+        <v>1.5</v>
+      </c>
+      <c r="AR82">
+        <v>1.36</v>
+      </c>
+      <c r="AS82">
+        <v>1.24</v>
+      </c>
+      <c r="AT82">
+        <v>2.6</v>
+      </c>
+      <c r="AU82">
+        <v>6</v>
+      </c>
+      <c r="AV82">
+        <v>6</v>
+      </c>
+      <c r="AW82">
+        <v>3</v>
+      </c>
+      <c r="AX82">
+        <v>6</v>
+      </c>
+      <c r="AY82">
+        <v>9</v>
+      </c>
+      <c r="AZ82">
+        <v>12</v>
+      </c>
+      <c r="BA82">
+        <v>4</v>
+      </c>
+      <c r="BB82">
+        <v>2</v>
+      </c>
+      <c r="BC82">
+        <v>6</v>
+      </c>
+      <c r="BD82">
+        <v>2.21</v>
+      </c>
+      <c r="BE82">
+        <v>7</v>
+      </c>
+      <c r="BF82">
+        <v>1.96</v>
+      </c>
+      <c r="BG82">
+        <v>1.14</v>
+      </c>
+      <c r="BH82">
+        <v>4.2</v>
+      </c>
+      <c r="BI82">
+        <v>1.3</v>
+      </c>
+      <c r="BJ82">
+        <v>2.88</v>
+      </c>
+      <c r="BK82">
+        <v>1.57</v>
+      </c>
+      <c r="BL82">
+        <v>2.14</v>
+      </c>
+      <c r="BM82">
+        <v>2</v>
+      </c>
+      <c r="BN82">
+        <v>1.73</v>
+      </c>
+      <c r="BO82">
+        <v>2.56</v>
+      </c>
+      <c r="BP82">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7502685</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45598.45833333334</v>
+      </c>
+      <c r="F83">
+        <v>10</v>
+      </c>
+      <c r="G83" t="s">
+        <v>70</v>
+      </c>
+      <c r="H83" t="s">
+        <v>74</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>2</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>2</v>
+      </c>
+      <c r="N83">
+        <v>3</v>
+      </c>
+      <c r="O83" t="s">
+        <v>141</v>
+      </c>
+      <c r="P83" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q83">
+        <v>2.36</v>
+      </c>
+      <c r="R83">
+        <v>2.14</v>
+      </c>
+      <c r="S83">
+        <v>4.7</v>
+      </c>
+      <c r="T83">
+        <v>1.4</v>
+      </c>
+      <c r="U83">
+        <v>2.82</v>
+      </c>
+      <c r="V83">
+        <v>2.86</v>
+      </c>
+      <c r="W83">
+        <v>1.39</v>
+      </c>
+      <c r="X83">
+        <v>7.2</v>
+      </c>
+      <c r="Y83">
+        <v>1.08</v>
+      </c>
+      <c r="Z83">
+        <v>1.78</v>
+      </c>
+      <c r="AA83">
+        <v>3.4</v>
+      </c>
+      <c r="AB83">
+        <v>3.95</v>
+      </c>
+      <c r="AC83">
+        <v>1</v>
+      </c>
+      <c r="AD83">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE83">
+        <v>1.25</v>
+      </c>
+      <c r="AF83">
+        <v>3.14</v>
+      </c>
+      <c r="AG83">
+        <v>1.95</v>
+      </c>
+      <c r="AH83">
+        <v>1.79</v>
+      </c>
+      <c r="AI83">
+        <v>1.82</v>
+      </c>
+      <c r="AJ83">
+        <v>1.88</v>
+      </c>
+      <c r="AK83">
+        <v>1.21</v>
+      </c>
+      <c r="AL83">
+        <v>1.27</v>
+      </c>
+      <c r="AM83">
+        <v>1.95</v>
+      </c>
+      <c r="AN83">
+        <v>1.25</v>
+      </c>
+      <c r="AO83">
+        <v>2.5</v>
+      </c>
+      <c r="AP83">
+        <v>1</v>
+      </c>
+      <c r="AQ83">
+        <v>2.6</v>
+      </c>
+      <c r="AR83">
+        <v>1.45</v>
+      </c>
+      <c r="AS83">
+        <v>1.31</v>
+      </c>
+      <c r="AT83">
+        <v>2.76</v>
+      </c>
+      <c r="AU83">
+        <v>3</v>
+      </c>
+      <c r="AV83">
+        <v>6</v>
+      </c>
+      <c r="AW83">
+        <v>13</v>
+      </c>
+      <c r="AX83">
+        <v>9</v>
+      </c>
+      <c r="AY83">
+        <v>16</v>
+      </c>
+      <c r="AZ83">
+        <v>15</v>
+      </c>
+      <c r="BA83">
+        <v>6</v>
+      </c>
+      <c r="BB83">
+        <v>8</v>
+      </c>
+      <c r="BC83">
+        <v>14</v>
+      </c>
+      <c r="BD83">
+        <v>1.34</v>
+      </c>
+      <c r="BE83">
+        <v>10.25</v>
+      </c>
+      <c r="BF83">
+        <v>3.82</v>
+      </c>
+      <c r="BG83">
+        <v>1.12</v>
+      </c>
+      <c r="BH83">
+        <v>4.45</v>
+      </c>
+      <c r="BI83">
+        <v>1.27</v>
+      </c>
+      <c r="BJ83">
+        <v>3.04</v>
+      </c>
+      <c r="BK83">
+        <v>1.51</v>
+      </c>
+      <c r="BL83">
+        <v>2.26</v>
+      </c>
+      <c r="BM83">
+        <v>2</v>
+      </c>
+      <c r="BN83">
+        <v>1.73</v>
+      </c>
+      <c r="BO83">
+        <v>2.38</v>
+      </c>
+      <c r="BP83">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7502689</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45598.52083333334</v>
+      </c>
+      <c r="F84">
+        <v>10</v>
+      </c>
+      <c r="G84" t="s">
+        <v>85</v>
+      </c>
+      <c r="H84" t="s">
+        <v>82</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>2</v>
+      </c>
+      <c r="L84">
+        <v>2</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>3</v>
+      </c>
+      <c r="O84" t="s">
+        <v>142</v>
+      </c>
+      <c r="P84" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q84">
+        <v>2.52</v>
+      </c>
+      <c r="R84">
+        <v>2.02</v>
+      </c>
+      <c r="S84">
+        <v>4.7</v>
+      </c>
+      <c r="T84">
+        <v>1.46</v>
+      </c>
+      <c r="U84">
+        <v>2.6</v>
+      </c>
+      <c r="V84">
+        <v>3.04</v>
+      </c>
+      <c r="W84">
+        <v>1.35</v>
+      </c>
+      <c r="X84">
+        <v>7.9</v>
+      </c>
+      <c r="Y84">
+        <v>1.06</v>
+      </c>
+      <c r="Z84">
+        <v>1.96</v>
+      </c>
+      <c r="AA84">
+        <v>3.17</v>
+      </c>
+      <c r="AB84">
+        <v>3.5</v>
+      </c>
+      <c r="AC84">
+        <v>1.02</v>
+      </c>
+      <c r="AD84">
+        <v>7.2</v>
+      </c>
+      <c r="AE84">
+        <v>1.31</v>
+      </c>
+      <c r="AF84">
+        <v>2.82</v>
+      </c>
+      <c r="AG84">
+        <v>2.08</v>
+      </c>
+      <c r="AH84">
+        <v>1.7</v>
+      </c>
+      <c r="AI84">
+        <v>1.88</v>
+      </c>
+      <c r="AJ84">
+        <v>1.82</v>
+      </c>
+      <c r="AK84">
+        <v>1.22</v>
+      </c>
+      <c r="AL84">
+        <v>1.3</v>
+      </c>
+      <c r="AM84">
+        <v>1.84</v>
+      </c>
+      <c r="AN84">
+        <v>1.25</v>
+      </c>
+      <c r="AO84">
+        <v>1.75</v>
+      </c>
+      <c r="AP84">
+        <v>1.6</v>
+      </c>
+      <c r="AQ84">
+        <v>1.4</v>
+      </c>
+      <c r="AR84">
+        <v>1.48</v>
+      </c>
+      <c r="AS84">
+        <v>1.17</v>
+      </c>
+      <c r="AT84">
+        <v>2.65</v>
+      </c>
+      <c r="AU84">
+        <v>7</v>
+      </c>
+      <c r="AV84">
+        <v>3</v>
+      </c>
+      <c r="AW84">
+        <v>2</v>
+      </c>
+      <c r="AX84">
+        <v>12</v>
+      </c>
+      <c r="AY84">
+        <v>9</v>
+      </c>
+      <c r="AZ84">
+        <v>15</v>
+      </c>
+      <c r="BA84">
+        <v>6</v>
+      </c>
+      <c r="BB84">
+        <v>6</v>
+      </c>
+      <c r="BC84">
+        <v>12</v>
+      </c>
+      <c r="BD84">
+        <v>1.64</v>
+      </c>
+      <c r="BE84">
+        <v>7.2</v>
+      </c>
+      <c r="BF84">
+        <v>2.8</v>
+      </c>
+      <c r="BG84">
+        <v>1.24</v>
+      </c>
+      <c r="BH84">
+        <v>3.65</v>
+      </c>
+      <c r="BI84">
+        <v>1.44</v>
+      </c>
+      <c r="BJ84">
+        <v>2.6</v>
+      </c>
+      <c r="BK84">
+        <v>1.73</v>
+      </c>
+      <c r="BL84">
+        <v>1.99</v>
+      </c>
+      <c r="BM84">
+        <v>2.18</v>
+      </c>
+      <c r="BN84">
+        <v>1.61</v>
+      </c>
+      <c r="BO84">
+        <v>2.85</v>
+      </c>
+      <c r="BP84">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7502687</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45598.875</v>
+      </c>
+      <c r="F85">
+        <v>10</v>
+      </c>
+      <c r="G85" t="s">
+        <v>77</v>
+      </c>
+      <c r="H85" t="s">
+        <v>72</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85" t="s">
+        <v>143</v>
+      </c>
+      <c r="P85" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q85">
+        <v>3.14</v>
+      </c>
+      <c r="R85">
+        <v>1.99</v>
+      </c>
+      <c r="S85">
+        <v>3.52</v>
+      </c>
+      <c r="T85">
+        <v>1.47</v>
+      </c>
+      <c r="U85">
+        <v>2.57</v>
+      </c>
+      <c r="V85">
+        <v>3.2</v>
+      </c>
+      <c r="W85">
+        <v>1.32</v>
+      </c>
+      <c r="X85">
+        <v>8.5</v>
+      </c>
+      <c r="Y85">
+        <v>1.05</v>
+      </c>
+      <c r="Z85">
+        <v>2.5</v>
+      </c>
+      <c r="AA85">
+        <v>3.2</v>
+      </c>
+      <c r="AB85">
+        <v>2.8</v>
+      </c>
+      <c r="AC85">
+        <v>1.02</v>
+      </c>
+      <c r="AD85">
+        <v>7</v>
+      </c>
+      <c r="AE85">
+        <v>1.34</v>
+      </c>
+      <c r="AF85">
+        <v>2.69</v>
+      </c>
+      <c r="AG85">
+        <v>2.24</v>
+      </c>
+      <c r="AH85">
+        <v>1.62</v>
+      </c>
+      <c r="AI85">
+        <v>1.88</v>
+      </c>
+      <c r="AJ85">
+        <v>1.82</v>
+      </c>
+      <c r="AK85">
+        <v>1.41</v>
+      </c>
+      <c r="AL85">
+        <v>1.33</v>
+      </c>
+      <c r="AM85">
+        <v>1.5</v>
+      </c>
+      <c r="AN85">
+        <v>0.5</v>
+      </c>
+      <c r="AO85">
+        <v>1.25</v>
+      </c>
+      <c r="AP85">
+        <v>1</v>
+      </c>
+      <c r="AQ85">
+        <v>1</v>
+      </c>
+      <c r="AR85">
+        <v>1.38</v>
+      </c>
+      <c r="AS85">
+        <v>1.32</v>
+      </c>
+      <c r="AT85">
+        <v>2.7</v>
+      </c>
+      <c r="AU85">
+        <v>5</v>
+      </c>
+      <c r="AV85">
+        <v>2</v>
+      </c>
+      <c r="AW85">
+        <v>9</v>
+      </c>
+      <c r="AX85">
+        <v>9</v>
+      </c>
+      <c r="AY85">
+        <v>14</v>
+      </c>
+      <c r="AZ85">
+        <v>11</v>
+      </c>
+      <c r="BA85">
+        <v>2</v>
+      </c>
+      <c r="BB85">
+        <v>4</v>
+      </c>
+      <c r="BC85">
+        <v>6</v>
+      </c>
+      <c r="BD85">
+        <v>1.92</v>
+      </c>
+      <c r="BE85">
+        <v>7.1</v>
+      </c>
+      <c r="BF85">
+        <v>2.25</v>
+      </c>
+      <c r="BG85">
+        <v>1.13</v>
+      </c>
+      <c r="BH85">
+        <v>4.33</v>
+      </c>
+      <c r="BI85">
+        <v>1.28</v>
+      </c>
+      <c r="BJ85">
+        <v>2.97</v>
+      </c>
+      <c r="BK85">
+        <v>1.54</v>
+      </c>
+      <c r="BL85">
+        <v>2.19</v>
+      </c>
+      <c r="BM85">
+        <v>1.91</v>
+      </c>
+      <c r="BN85">
+        <v>1.8</v>
+      </c>
+      <c r="BO85">
+        <v>2.46</v>
+      </c>
+      <c r="BP85">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7502690</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45598.875</v>
+      </c>
+      <c r="F86">
+        <v>10</v>
+      </c>
+      <c r="G86" t="s">
+        <v>76</v>
+      </c>
+      <c r="H86" t="s">
+        <v>75</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>2</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>2</v>
+      </c>
+      <c r="O86" t="s">
+        <v>127</v>
+      </c>
+      <c r="P86" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q86">
+        <v>2.85</v>
+      </c>
+      <c r="R86">
+        <v>2.15</v>
+      </c>
+      <c r="S86">
+        <v>3.46</v>
+      </c>
+      <c r="T86">
+        <v>1.36</v>
+      </c>
+      <c r="U86">
+        <v>2.98</v>
+      </c>
+      <c r="V86">
+        <v>2.7</v>
+      </c>
+      <c r="W86">
+        <v>1.43</v>
+      </c>
+      <c r="X86">
+        <v>6.65</v>
+      </c>
+      <c r="Y86">
+        <v>1.09</v>
+      </c>
+      <c r="Z86">
+        <v>2.23</v>
+      </c>
+      <c r="AA86">
+        <v>3.52</v>
+      </c>
+      <c r="AB86">
+        <v>3.01</v>
+      </c>
+      <c r="AC86">
+        <v>1.02</v>
+      </c>
+      <c r="AD86">
+        <v>10</v>
+      </c>
+      <c r="AE86">
+        <v>1.22</v>
+      </c>
+      <c r="AF86">
+        <v>3.35</v>
+      </c>
+      <c r="AG86">
+        <v>1.89</v>
+      </c>
+      <c r="AH86">
+        <v>1.89</v>
+      </c>
+      <c r="AI86">
+        <v>1.66</v>
+      </c>
+      <c r="AJ86">
+        <v>2.09</v>
+      </c>
+      <c r="AK86">
+        <v>1.39</v>
+      </c>
+      <c r="AL86">
+        <v>1.28</v>
+      </c>
+      <c r="AM86">
+        <v>1.58</v>
+      </c>
+      <c r="AN86">
+        <v>1.25</v>
+      </c>
+      <c r="AO86">
+        <v>0.75</v>
+      </c>
+      <c r="AP86">
+        <v>1.2</v>
+      </c>
+      <c r="AQ86">
+        <v>0.8</v>
+      </c>
+      <c r="AR86">
+        <v>1.05</v>
+      </c>
+      <c r="AS86">
+        <v>1.57</v>
+      </c>
+      <c r="AT86">
+        <v>2.62</v>
+      </c>
+      <c r="AU86">
+        <v>2</v>
+      </c>
+      <c r="AV86">
+        <v>5</v>
+      </c>
+      <c r="AW86">
+        <v>12</v>
+      </c>
+      <c r="AX86">
+        <v>2</v>
+      </c>
+      <c r="AY86">
+        <v>14</v>
+      </c>
+      <c r="AZ86">
+        <v>7</v>
+      </c>
+      <c r="BA86">
+        <v>7</v>
+      </c>
+      <c r="BB86">
+        <v>2</v>
+      </c>
+      <c r="BC86">
+        <v>9</v>
+      </c>
+      <c r="BD86">
+        <v>1.8</v>
+      </c>
+      <c r="BE86">
+        <v>6.75</v>
+      </c>
+      <c r="BF86">
+        <v>2.49</v>
+      </c>
+      <c r="BG86">
+        <v>1.1</v>
+      </c>
+      <c r="BH86">
+        <v>4.75</v>
+      </c>
+      <c r="BI86">
+        <v>1.3</v>
+      </c>
+      <c r="BJ86">
+        <v>3.2</v>
+      </c>
+      <c r="BK86">
+        <v>1.52</v>
+      </c>
+      <c r="BL86">
+        <v>2.37</v>
+      </c>
+      <c r="BM86">
+        <v>1.8</v>
+      </c>
+      <c r="BN86">
+        <v>2</v>
+      </c>
+      <c r="BO86">
+        <v>2.33</v>
+      </c>
+      <c r="BP86">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7502692</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45599.33333333334</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87" t="s">
+        <v>73</v>
+      </c>
+      <c r="H87" t="s">
+        <v>86</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87">
+        <v>2</v>
+      </c>
+      <c r="O87" t="s">
+        <v>144</v>
+      </c>
+      <c r="P87" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q87">
+        <v>2.67</v>
+      </c>
+      <c r="R87">
+        <v>2.07</v>
+      </c>
+      <c r="S87">
+        <v>4.05</v>
+      </c>
+      <c r="T87">
+        <v>1.42</v>
+      </c>
+      <c r="U87">
+        <v>2.74</v>
+      </c>
+      <c r="V87">
+        <v>2.99</v>
+      </c>
+      <c r="W87">
+        <v>1.36</v>
+      </c>
+      <c r="X87">
+        <v>7.7</v>
+      </c>
+      <c r="Y87">
+        <v>1.06</v>
+      </c>
+      <c r="Z87">
+        <v>2</v>
+      </c>
+      <c r="AA87">
+        <v>3.25</v>
+      </c>
+      <c r="AB87">
+        <v>3.1</v>
+      </c>
+      <c r="AC87">
+        <v>1.01</v>
+      </c>
+      <c r="AD87">
+        <v>7.8</v>
+      </c>
+      <c r="AE87">
+        <v>1.28</v>
+      </c>
+      <c r="AF87">
+        <v>2.94</v>
+      </c>
+      <c r="AG87">
+        <v>1.98</v>
+      </c>
+      <c r="AH87">
+        <v>1.72</v>
+      </c>
+      <c r="AI87">
+        <v>1.82</v>
+      </c>
+      <c r="AJ87">
+        <v>1.88</v>
+      </c>
+      <c r="AK87">
+        <v>1.3</v>
+      </c>
+      <c r="AL87">
+        <v>1.3</v>
+      </c>
+      <c r="AM87">
+        <v>1.7</v>
+      </c>
+      <c r="AN87">
+        <v>1.5</v>
+      </c>
+      <c r="AO87">
+        <v>2</v>
+      </c>
+      <c r="AP87">
+        <v>1.4</v>
+      </c>
+      <c r="AQ87">
+        <v>1.75</v>
+      </c>
+      <c r="AR87">
+        <v>1.36</v>
+      </c>
+      <c r="AS87">
+        <v>1.38</v>
+      </c>
+      <c r="AT87">
+        <v>2.74</v>
+      </c>
+      <c r="AU87">
+        <v>10</v>
+      </c>
+      <c r="AV87">
+        <v>5</v>
+      </c>
+      <c r="AW87">
+        <v>6</v>
+      </c>
+      <c r="AX87">
+        <v>2</v>
+      </c>
+      <c r="AY87">
+        <v>16</v>
+      </c>
+      <c r="AZ87">
+        <v>7</v>
+      </c>
+      <c r="BA87">
+        <v>3</v>
+      </c>
+      <c r="BB87">
+        <v>3</v>
+      </c>
+      <c r="BC87">
+        <v>6</v>
+      </c>
+      <c r="BD87">
+        <v>1.66</v>
+      </c>
+      <c r="BE87">
+        <v>6.85</v>
+      </c>
+      <c r="BF87">
+        <v>2.8</v>
+      </c>
+      <c r="BG87">
+        <v>1.13</v>
+      </c>
+      <c r="BH87">
+        <v>4.3</v>
+      </c>
+      <c r="BI87">
+        <v>1.34</v>
+      </c>
+      <c r="BJ87">
+        <v>2.98</v>
+      </c>
+      <c r="BK87">
+        <v>1.58</v>
+      </c>
+      <c r="BL87">
+        <v>2.23</v>
+      </c>
+      <c r="BM87">
+        <v>1.94</v>
+      </c>
+      <c r="BN87">
+        <v>1.76</v>
+      </c>
+      <c r="BO87">
+        <v>2.48</v>
+      </c>
+      <c r="BP87">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7502693</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45599.45833333334</v>
+      </c>
+      <c r="F88">
+        <v>10</v>
+      </c>
+      <c r="G88" t="s">
+        <v>78</v>
+      </c>
+      <c r="H88" t="s">
+        <v>71</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>2</v>
+      </c>
+      <c r="O88" t="s">
+        <v>145</v>
+      </c>
+      <c r="P88" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q88">
+        <v>2.38</v>
+      </c>
+      <c r="R88">
+        <v>2.06</v>
+      </c>
+      <c r="S88">
+        <v>5.1</v>
+      </c>
+      <c r="T88">
+        <v>1.45</v>
+      </c>
+      <c r="U88">
+        <v>2.63</v>
+      </c>
+      <c r="V88">
+        <v>3.14</v>
+      </c>
+      <c r="W88">
+        <v>1.33</v>
+      </c>
+      <c r="X88">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y88">
+        <v>1.06</v>
+      </c>
+      <c r="Z88">
+        <v>1.75</v>
+      </c>
+      <c r="AA88">
+        <v>3.3</v>
+      </c>
+      <c r="AB88">
+        <v>4</v>
+      </c>
+      <c r="AC88">
+        <v>1.02</v>
+      </c>
+      <c r="AD88">
+        <v>7.3</v>
+      </c>
+      <c r="AE88">
+        <v>1.32</v>
+      </c>
+      <c r="AF88">
+        <v>2.78</v>
+      </c>
+      <c r="AG88">
+        <v>2.1</v>
+      </c>
+      <c r="AH88">
+        <v>1.65</v>
+      </c>
+      <c r="AI88">
+        <v>1.98</v>
+      </c>
+      <c r="AJ88">
+        <v>1.74</v>
+      </c>
+      <c r="AK88">
+        <v>1.18</v>
+      </c>
+      <c r="AL88">
+        <v>1.28</v>
+      </c>
+      <c r="AM88">
+        <v>1.98</v>
+      </c>
+      <c r="AN88">
+        <v>0.6</v>
+      </c>
+      <c r="AO88">
+        <v>1</v>
+      </c>
+      <c r="AP88">
+        <v>0.67</v>
+      </c>
+      <c r="AQ88">
+        <v>1</v>
+      </c>
+      <c r="AR88">
+        <v>1.78</v>
+      </c>
+      <c r="AS88">
+        <v>1.01</v>
+      </c>
+      <c r="AT88">
+        <v>2.79</v>
+      </c>
+      <c r="AU88">
+        <v>4</v>
+      </c>
+      <c r="AV88">
+        <v>6</v>
+      </c>
+      <c r="AW88">
+        <v>5</v>
+      </c>
+      <c r="AX88">
+        <v>4</v>
+      </c>
+      <c r="AY88">
+        <v>9</v>
+      </c>
+      <c r="AZ88">
+        <v>10</v>
+      </c>
+      <c r="BA88">
+        <v>9</v>
+      </c>
+      <c r="BB88">
+        <v>2</v>
+      </c>
+      <c r="BC88">
+        <v>11</v>
+      </c>
+      <c r="BD88">
+        <v>1.31</v>
+      </c>
+      <c r="BE88">
+        <v>9.5</v>
+      </c>
+      <c r="BF88">
+        <v>4.13</v>
+      </c>
+      <c r="BG88">
+        <v>1.28</v>
+      </c>
+      <c r="BH88">
+        <v>3.2</v>
+      </c>
+      <c r="BI88">
+        <v>1.49</v>
+      </c>
+      <c r="BJ88">
+        <v>2.36</v>
+      </c>
+      <c r="BK88">
+        <v>1.73</v>
+      </c>
+      <c r="BL88">
+        <v>2</v>
+      </c>
+      <c r="BM88">
+        <v>2.28</v>
+      </c>
+      <c r="BN88">
+        <v>1.53</v>
+      </c>
+      <c r="BO88">
+        <v>2.9</v>
+      </c>
+      <c r="BP88">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7502688</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45599.875</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89" t="s">
+        <v>87</v>
+      </c>
+      <c r="H89" t="s">
+        <v>80</v>
+      </c>
+      <c r="I89">
+        <v>2</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>2</v>
+      </c>
+      <c r="L89">
+        <v>2</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>2</v>
+      </c>
+      <c r="O89" t="s">
+        <v>146</v>
+      </c>
+      <c r="P89" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q89">
+        <v>2.3</v>
+      </c>
+      <c r="R89">
+        <v>2.25</v>
+      </c>
+      <c r="S89">
+        <v>5</v>
+      </c>
+      <c r="T89">
+        <v>1.36</v>
+      </c>
+      <c r="U89">
+        <v>3</v>
+      </c>
+      <c r="V89">
+        <v>2.75</v>
+      </c>
+      <c r="W89">
+        <v>1.4</v>
+      </c>
+      <c r="X89">
+        <v>8</v>
+      </c>
+      <c r="Y89">
+        <v>1.08</v>
+      </c>
+      <c r="Z89">
+        <v>1.66</v>
+      </c>
+      <c r="AA89">
+        <v>3.8</v>
+      </c>
+      <c r="AB89">
+        <v>4.84</v>
+      </c>
+      <c r="AC89">
+        <v>1.05</v>
+      </c>
+      <c r="AD89">
+        <v>8.5</v>
+      </c>
+      <c r="AE89">
+        <v>1.28</v>
+      </c>
+      <c r="AF89">
+        <v>3.4</v>
+      </c>
+      <c r="AG89">
+        <v>1.92</v>
+      </c>
+      <c r="AH89">
+        <v>1.87</v>
+      </c>
+      <c r="AI89">
+        <v>1.83</v>
+      </c>
+      <c r="AJ89">
+        <v>1.83</v>
+      </c>
+      <c r="AK89">
+        <v>1.15</v>
+      </c>
+      <c r="AL89">
+        <v>1.2</v>
+      </c>
+      <c r="AM89">
+        <v>2.05</v>
+      </c>
+      <c r="AN89">
+        <v>2</v>
+      </c>
+      <c r="AO89">
+        <v>0.33</v>
+      </c>
+      <c r="AP89">
+        <v>2.2</v>
+      </c>
+      <c r="AQ89">
+        <v>0.25</v>
+      </c>
+      <c r="AR89">
+        <v>1.48</v>
+      </c>
+      <c r="AS89">
+        <v>1.46</v>
+      </c>
+      <c r="AT89">
+        <v>2.94</v>
+      </c>
+      <c r="AU89">
+        <v>8</v>
+      </c>
+      <c r="AV89">
+        <v>0</v>
+      </c>
+      <c r="AW89">
+        <v>7</v>
+      </c>
+      <c r="AX89">
+        <v>5</v>
+      </c>
+      <c r="AY89">
+        <v>15</v>
+      </c>
+      <c r="AZ89">
+        <v>5</v>
+      </c>
+      <c r="BA89">
+        <v>5</v>
+      </c>
+      <c r="BB89">
+        <v>3</v>
+      </c>
+      <c r="BC89">
+        <v>8</v>
+      </c>
+      <c r="BD89">
+        <v>1.56</v>
+      </c>
+      <c r="BE89">
+        <v>8.9</v>
+      </c>
+      <c r="BF89">
+        <v>2.84</v>
+      </c>
+      <c r="BG89">
+        <v>1.1</v>
+      </c>
+      <c r="BH89">
+        <v>4.9</v>
+      </c>
+      <c r="BI89">
+        <v>1.23</v>
+      </c>
+      <c r="BJ89">
+        <v>3.28</v>
+      </c>
+      <c r="BK89">
+        <v>1.44</v>
+      </c>
+      <c r="BL89">
+        <v>2.43</v>
+      </c>
+      <c r="BM89">
+        <v>1.73</v>
+      </c>
+      <c r="BN89">
+        <v>2</v>
+      </c>
+      <c r="BO89">
+        <v>2.19</v>
+      </c>
+      <c r="BP89">
+        <v>1.54</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -445,15 +445,15 @@
     <t>['44', '90+2']</t>
   </si>
   <si>
+    <t>['20']</t>
+  </si>
+  <si>
+    <t>['89']</t>
+  </si>
+  <si>
     <t>['13']</t>
   </si>
   <si>
-    <t>['20']</t>
-  </si>
-  <si>
-    <t>['89']</t>
-  </si>
-  <si>
     <t>['6', '14']</t>
   </si>
   <si>
@@ -607,10 +607,10 @@
     <t>['31', '61']</t>
   </si>
   <si>
+    <t>['66']</t>
+  </si>
+  <si>
     <t>['34']</t>
-  </si>
-  <si>
-    <t>['66']</t>
   </si>
 </sst>
 </file>
@@ -1849,7 +1849,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2467,7 +2467,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q8">
         <v>2.5</v>
@@ -15651,7 +15651,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q72">
         <v>3.1</v>
@@ -18287,7 +18287,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>7502687</v>
+        <v>7502692</v>
       </c>
       <c r="C85" t="s">
         <v>68</v>
@@ -18296,16 +18296,16 @@
         <v>69</v>
       </c>
       <c r="E85" s="2">
-        <v>45598.875</v>
+        <v>45599.33333333334</v>
       </c>
       <c r="F85">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G85" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H85" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="I85">
         <v>1</v>
@@ -18320,172 +18320,172 @@
         <v>1</v>
       </c>
       <c r="M85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O85" t="s">
         <v>143</v>
       </c>
       <c r="P85" t="s">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="Q85">
-        <v>3.14</v>
+        <v>2.67</v>
       </c>
       <c r="R85">
-        <v>1.99</v>
+        <v>2.07</v>
       </c>
       <c r="S85">
-        <v>3.52</v>
+        <v>4.05</v>
       </c>
       <c r="T85">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="U85">
-        <v>2.57</v>
+        <v>2.74</v>
       </c>
       <c r="V85">
-        <v>3.2</v>
+        <v>2.99</v>
       </c>
       <c r="W85">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="X85">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
       <c r="Y85">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="Z85">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AA85">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AB85">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="AC85">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD85">
+        <v>7.8</v>
+      </c>
+      <c r="AE85">
+        <v>1.28</v>
+      </c>
+      <c r="AF85">
+        <v>2.94</v>
+      </c>
+      <c r="AG85">
+        <v>1.98</v>
+      </c>
+      <c r="AH85">
+        <v>1.72</v>
+      </c>
+      <c r="AI85">
+        <v>1.82</v>
+      </c>
+      <c r="AJ85">
+        <v>1.88</v>
+      </c>
+      <c r="AK85">
+        <v>1.3</v>
+      </c>
+      <c r="AL85">
+        <v>1.3</v>
+      </c>
+      <c r="AM85">
+        <v>1.7</v>
+      </c>
+      <c r="AN85">
+        <v>1.5</v>
+      </c>
+      <c r="AO85">
+        <v>2</v>
+      </c>
+      <c r="AP85">
+        <v>1.4</v>
+      </c>
+      <c r="AQ85">
+        <v>1.75</v>
+      </c>
+      <c r="AR85">
+        <v>1.36</v>
+      </c>
+      <c r="AS85">
+        <v>1.38</v>
+      </c>
+      <c r="AT85">
+        <v>2.74</v>
+      </c>
+      <c r="AU85">
+        <v>10</v>
+      </c>
+      <c r="AV85">
+        <v>5</v>
+      </c>
+      <c r="AW85">
+        <v>6</v>
+      </c>
+      <c r="AX85">
+        <v>2</v>
+      </c>
+      <c r="AY85">
+        <v>16</v>
+      </c>
+      <c r="AZ85">
         <v>7</v>
       </c>
-      <c r="AE85">
-        <v>1.34</v>
-      </c>
-      <c r="AF85">
-        <v>2.69</v>
-      </c>
-      <c r="AG85">
-        <v>2.24</v>
-      </c>
-      <c r="AH85">
-        <v>1.62</v>
-      </c>
-      <c r="AI85">
-        <v>1.88</v>
-      </c>
-      <c r="AJ85">
-        <v>1.82</v>
-      </c>
-      <c r="AK85">
-        <v>1.41</v>
-      </c>
-      <c r="AL85">
-        <v>1.33</v>
-      </c>
-      <c r="AM85">
-        <v>1.5</v>
-      </c>
-      <c r="AN85">
-        <v>0.5</v>
-      </c>
-      <c r="AO85">
-        <v>1.25</v>
-      </c>
-      <c r="AP85">
-        <v>1</v>
-      </c>
-      <c r="AQ85">
-        <v>1</v>
-      </c>
-      <c r="AR85">
-        <v>1.38</v>
-      </c>
-      <c r="AS85">
-        <v>1.32</v>
-      </c>
-      <c r="AT85">
-        <v>2.7</v>
-      </c>
-      <c r="AU85">
-        <v>5</v>
-      </c>
-      <c r="AV85">
-        <v>2</v>
-      </c>
-      <c r="AW85">
-        <v>9</v>
-      </c>
-      <c r="AX85">
-        <v>9</v>
-      </c>
-      <c r="AY85">
-        <v>14</v>
-      </c>
-      <c r="AZ85">
-        <v>11</v>
-      </c>
       <c r="BA85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB85">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC85">
         <v>6</v>
       </c>
       <c r="BD85">
-        <v>1.92</v>
+        <v>1.66</v>
       </c>
       <c r="BE85">
-        <v>7.1</v>
+        <v>6.85</v>
       </c>
       <c r="BF85">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="BG85">
         <v>1.13</v>
       </c>
       <c r="BH85">
-        <v>4.33</v>
+        <v>4.3</v>
       </c>
       <c r="BI85">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="BJ85">
-        <v>2.97</v>
+        <v>2.98</v>
       </c>
       <c r="BK85">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="BL85">
-        <v>2.19</v>
+        <v>2.23</v>
       </c>
       <c r="BM85">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="BN85">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="BO85">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="BP85">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="86" spans="1:68">
@@ -18493,7 +18493,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>7502690</v>
+        <v>7502693</v>
       </c>
       <c r="C86" t="s">
         <v>68</v>
@@ -18502,25 +18502,25 @@
         <v>69</v>
       </c>
       <c r="E86" s="2">
-        <v>45598.875</v>
+        <v>45599.45833333334</v>
       </c>
       <c r="F86">
         <v>10</v>
       </c>
       <c r="G86" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H86" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L86">
         <v>1</v>
@@ -18532,166 +18532,166 @@
         <v>2</v>
       </c>
       <c r="O86" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="P86" t="s">
         <v>197</v>
       </c>
       <c r="Q86">
-        <v>2.85</v>
+        <v>2.38</v>
       </c>
       <c r="R86">
-        <v>2.15</v>
+        <v>2.06</v>
       </c>
       <c r="S86">
-        <v>3.46</v>
+        <v>5.1</v>
       </c>
       <c r="T86">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="U86">
-        <v>2.98</v>
+        <v>2.63</v>
       </c>
       <c r="V86">
-        <v>2.7</v>
+        <v>3.14</v>
       </c>
       <c r="W86">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="X86">
-        <v>6.65</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y86">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="Z86">
-        <v>2.23</v>
+        <v>1.75</v>
       </c>
       <c r="AA86">
-        <v>3.52</v>
+        <v>3.3</v>
       </c>
       <c r="AB86">
-        <v>3.01</v>
+        <v>4</v>
       </c>
       <c r="AC86">
         <v>1.02</v>
       </c>
       <c r="AD86">
-        <v>10</v>
+        <v>7.3</v>
       </c>
       <c r="AE86">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AF86">
-        <v>3.35</v>
+        <v>2.78</v>
       </c>
       <c r="AG86">
-        <v>1.89</v>
+        <v>2.1</v>
       </c>
       <c r="AH86">
-        <v>1.89</v>
+        <v>1.65</v>
       </c>
       <c r="AI86">
-        <v>1.66</v>
+        <v>1.98</v>
       </c>
       <c r="AJ86">
-        <v>2.09</v>
+        <v>1.74</v>
       </c>
       <c r="AK86">
-        <v>1.39</v>
+        <v>1.18</v>
       </c>
       <c r="AL86">
         <v>1.28</v>
       </c>
       <c r="AM86">
-        <v>1.58</v>
+        <v>1.98</v>
       </c>
       <c r="AN86">
-        <v>1.25</v>
+        <v>0.6</v>
       </c>
       <c r="AO86">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AP86">
-        <v>1.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ86">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR86">
-        <v>1.05</v>
+        <v>1.78</v>
       </c>
       <c r="AS86">
-        <v>1.57</v>
+        <v>1.01</v>
       </c>
       <c r="AT86">
-        <v>2.62</v>
+        <v>2.79</v>
       </c>
       <c r="AU86">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV86">
+        <v>6</v>
+      </c>
+      <c r="AW86">
         <v>5</v>
       </c>
-      <c r="AW86">
-        <v>12</v>
-      </c>
       <c r="AX86">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY86">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AZ86">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA86">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BB86">
         <v>2</v>
       </c>
       <c r="BC86">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD86">
-        <v>1.8</v>
+        <v>1.31</v>
       </c>
       <c r="BE86">
-        <v>6.75</v>
+        <v>9.5</v>
       </c>
       <c r="BF86">
-        <v>2.49</v>
+        <v>4.13</v>
       </c>
       <c r="BG86">
-        <v>1.1</v>
+        <v>1.28</v>
       </c>
       <c r="BH86">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="BI86">
-        <v>1.3</v>
+        <v>1.49</v>
       </c>
       <c r="BJ86">
-        <v>3.2</v>
+        <v>2.36</v>
       </c>
       <c r="BK86">
-        <v>1.52</v>
+        <v>1.73</v>
       </c>
       <c r="BL86">
-        <v>2.37</v>
+        <v>2</v>
       </c>
       <c r="BM86">
-        <v>1.8</v>
+        <v>2.28</v>
       </c>
       <c r="BN86">
-        <v>2</v>
+        <v>1.53</v>
       </c>
       <c r="BO86">
-        <v>2.33</v>
+        <v>2.9</v>
       </c>
       <c r="BP86">
-        <v>1.54</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="87" spans="1:68">
@@ -18699,7 +18699,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>7502692</v>
+        <v>7502687</v>
       </c>
       <c r="C87" t="s">
         <v>68</v>
@@ -18708,16 +18708,16 @@
         <v>69</v>
       </c>
       <c r="E87" s="2">
-        <v>45599.33333333334</v>
+        <v>45599.52083333334</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G87" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H87" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="I87">
         <v>1</v>
@@ -18732,172 +18732,172 @@
         <v>1</v>
       </c>
       <c r="M87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O87" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="Q87">
-        <v>2.67</v>
+        <v>3.14</v>
       </c>
       <c r="R87">
-        <v>2.07</v>
+        <v>1.99</v>
       </c>
       <c r="S87">
-        <v>4.05</v>
+        <v>3.52</v>
       </c>
       <c r="T87">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="U87">
-        <v>2.74</v>
+        <v>2.57</v>
       </c>
       <c r="V87">
-        <v>2.99</v>
+        <v>3.2</v>
       </c>
       <c r="W87">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="X87">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="Y87">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="Z87">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AA87">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AB87">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="AC87">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD87">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="AE87">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="AF87">
-        <v>2.94</v>
+        <v>2.69</v>
       </c>
       <c r="AG87">
-        <v>1.98</v>
+        <v>2.24</v>
       </c>
       <c r="AH87">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="AI87">
+        <v>1.88</v>
+      </c>
+      <c r="AJ87">
         <v>1.82</v>
       </c>
-      <c r="AJ87">
-        <v>1.88</v>
-      </c>
       <c r="AK87">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="AL87">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AM87">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="AN87">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AO87">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AP87">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AQ87">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AR87">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="AS87">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="AT87">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="AU87">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AV87">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AW87">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AX87">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AY87">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ87">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB87">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC87">
         <v>6</v>
       </c>
       <c r="BD87">
-        <v>1.66</v>
+        <v>1.92</v>
       </c>
       <c r="BE87">
-        <v>6.85</v>
+        <v>7.1</v>
       </c>
       <c r="BF87">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="BG87">
         <v>1.13</v>
       </c>
       <c r="BH87">
-        <v>4.3</v>
+        <v>4.33</v>
       </c>
       <c r="BI87">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="BJ87">
-        <v>2.98</v>
+        <v>2.97</v>
       </c>
       <c r="BK87">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="BL87">
-        <v>2.23</v>
+        <v>2.19</v>
       </c>
       <c r="BM87">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="BN87">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="BO87">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="BP87">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="88" spans="1:68">
@@ -18905,7 +18905,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>7502693</v>
+        <v>7502690</v>
       </c>
       <c r="C88" t="s">
         <v>68</v>
@@ -18914,25 +18914,25 @@
         <v>69</v>
       </c>
       <c r="E88" s="2">
-        <v>45599.45833333334</v>
+        <v>45599.52083333334</v>
       </c>
       <c r="F88">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H88" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L88">
         <v>1</v>
@@ -18944,166 +18944,166 @@
         <v>2</v>
       </c>
       <c r="O88" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="P88" t="s">
         <v>198</v>
       </c>
       <c r="Q88">
-        <v>2.38</v>
+        <v>2.85</v>
       </c>
       <c r="R88">
-        <v>2.06</v>
+        <v>2.15</v>
       </c>
       <c r="S88">
-        <v>5.1</v>
+        <v>3.46</v>
       </c>
       <c r="T88">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="U88">
-        <v>2.63</v>
+        <v>2.98</v>
       </c>
       <c r="V88">
-        <v>3.14</v>
+        <v>2.7</v>
       </c>
       <c r="W88">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="X88">
-        <v>8.199999999999999</v>
+        <v>6.65</v>
       </c>
       <c r="Y88">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="Z88">
-        <v>1.75</v>
+        <v>2.23</v>
       </c>
       <c r="AA88">
-        <v>3.3</v>
+        <v>3.52</v>
       </c>
       <c r="AB88">
-        <v>4</v>
+        <v>3.01</v>
       </c>
       <c r="AC88">
         <v>1.02</v>
       </c>
       <c r="AD88">
-        <v>7.3</v>
+        <v>10</v>
       </c>
       <c r="AE88">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="AF88">
-        <v>2.78</v>
+        <v>3.35</v>
       </c>
       <c r="AG88">
-        <v>2.1</v>
+        <v>1.89</v>
       </c>
       <c r="AH88">
-        <v>1.65</v>
+        <v>1.89</v>
       </c>
       <c r="AI88">
-        <v>1.98</v>
+        <v>1.66</v>
       </c>
       <c r="AJ88">
-        <v>1.74</v>
+        <v>2.09</v>
       </c>
       <c r="AK88">
-        <v>1.18</v>
+        <v>1.39</v>
       </c>
       <c r="AL88">
         <v>1.28</v>
       </c>
       <c r="AM88">
-        <v>1.98</v>
+        <v>1.58</v>
       </c>
       <c r="AN88">
-        <v>0.6</v>
+        <v>1.25</v>
       </c>
       <c r="AO88">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AP88">
-        <v>0.67</v>
+        <v>1.2</v>
       </c>
       <c r="AQ88">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR88">
-        <v>1.78</v>
+        <v>1.05</v>
       </c>
       <c r="AS88">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="AT88">
-        <v>2.79</v>
+        <v>2.62</v>
       </c>
       <c r="AU88">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV88">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW88">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AX88">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY88">
+        <v>14</v>
+      </c>
+      <c r="AZ88">
+        <v>7</v>
+      </c>
+      <c r="BA88">
+        <v>7</v>
+      </c>
+      <c r="BB88">
+        <v>2</v>
+      </c>
+      <c r="BC88">
         <v>9</v>
       </c>
-      <c r="AZ88">
-        <v>10</v>
-      </c>
-      <c r="BA88">
-        <v>9</v>
-      </c>
-      <c r="BB88">
-        <v>2</v>
-      </c>
-      <c r="BC88">
-        <v>11</v>
-      </c>
       <c r="BD88">
-        <v>1.31</v>
+        <v>1.8</v>
       </c>
       <c r="BE88">
-        <v>9.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF88">
-        <v>4.13</v>
+        <v>2.49</v>
       </c>
       <c r="BG88">
-        <v>1.28</v>
+        <v>1.1</v>
       </c>
       <c r="BH88">
+        <v>4.75</v>
+      </c>
+      <c r="BI88">
+        <v>1.3</v>
+      </c>
+      <c r="BJ88">
         <v>3.2</v>
       </c>
-      <c r="BI88">
-        <v>1.49</v>
-      </c>
-      <c r="BJ88">
-        <v>2.36</v>
-      </c>
       <c r="BK88">
-        <v>1.73</v>
+        <v>1.52</v>
       </c>
       <c r="BL88">
-        <v>2</v>
+        <v>2.37</v>
       </c>
       <c r="BM88">
-        <v>2.28</v>
+        <v>1.8</v>
       </c>
       <c r="BN88">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="BO88">
-        <v>2.9</v>
+        <v>2.33</v>
       </c>
       <c r="BP88">
-        <v>1.33</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="89" spans="1:68">
@@ -19120,10 +19120,10 @@
         <v>69</v>
       </c>
       <c r="E89" s="2">
-        <v>45599.875</v>
+        <v>45600.625</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G89" t="s">
         <v>87</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="200">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -611,6 +611,9 @@
   </si>
   <si>
     <t>['34']</t>
+  </si>
+  <si>
+    <t>['48']</t>
   </si>
 </sst>
 </file>
@@ -972,7 +975,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP89"/>
+  <dimension ref="A1:BP90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1930,7 +1933,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ5">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -4193,7 +4196,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ16">
         <v>2.6</v>
@@ -6256,7 +6259,7 @@
         <v>1</v>
       </c>
       <c r="AQ26">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR26">
         <v>1.66</v>
@@ -7489,7 +7492,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ32">
         <v>0.8</v>
@@ -8934,7 +8937,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ39">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR39">
         <v>1.92</v>
@@ -12227,7 +12230,7 @@
         <v>2</v>
       </c>
       <c r="AP55">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ55">
         <v>1</v>
@@ -13878,7 +13881,7 @@
         <v>2</v>
       </c>
       <c r="AQ63">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR63">
         <v>1.67</v>
@@ -16144,7 +16147,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ74">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR74">
         <v>1.25</v>
@@ -19310,6 +19313,212 @@
       </c>
       <c r="BP89">
         <v>1.54</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7502696</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45604.625</v>
+      </c>
+      <c r="F90">
+        <v>11</v>
+      </c>
+      <c r="G90" t="s">
+        <v>84</v>
+      </c>
+      <c r="H90" t="s">
+        <v>85</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
+      <c r="O90" t="s">
+        <v>89</v>
+      </c>
+      <c r="P90" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q90">
+        <v>3.09</v>
+      </c>
+      <c r="R90">
+        <v>2.13</v>
+      </c>
+      <c r="S90">
+        <v>3.73</v>
+      </c>
+      <c r="T90">
+        <v>1.43</v>
+      </c>
+      <c r="U90">
+        <v>2.78</v>
+      </c>
+      <c r="V90">
+        <v>3.19</v>
+      </c>
+      <c r="W90">
+        <v>1.35</v>
+      </c>
+      <c r="X90">
+        <v>8.5</v>
+      </c>
+      <c r="Y90">
+        <v>1.05</v>
+      </c>
+      <c r="Z90">
+        <v>2.3</v>
+      </c>
+      <c r="AA90">
+        <v>3</v>
+      </c>
+      <c r="AB90">
+        <v>2.85</v>
+      </c>
+      <c r="AC90">
+        <v>1.07</v>
+      </c>
+      <c r="AD90">
+        <v>7.5</v>
+      </c>
+      <c r="AE90">
+        <v>1.36</v>
+      </c>
+      <c r="AF90">
+        <v>2.95</v>
+      </c>
+      <c r="AG90">
+        <v>2.1</v>
+      </c>
+      <c r="AH90">
+        <v>1.65</v>
+      </c>
+      <c r="AI90">
+        <v>1.83</v>
+      </c>
+      <c r="AJ90">
+        <v>1.93</v>
+      </c>
+      <c r="AK90">
+        <v>1.36</v>
+      </c>
+      <c r="AL90">
+        <v>1.33</v>
+      </c>
+      <c r="AM90">
+        <v>1.55</v>
+      </c>
+      <c r="AN90">
+        <v>1</v>
+      </c>
+      <c r="AO90">
+        <v>1.4</v>
+      </c>
+      <c r="AP90">
+        <v>0.75</v>
+      </c>
+      <c r="AQ90">
+        <v>1.67</v>
+      </c>
+      <c r="AR90">
+        <v>1.65</v>
+      </c>
+      <c r="AS90">
+        <v>1.33</v>
+      </c>
+      <c r="AT90">
+        <v>2.98</v>
+      </c>
+      <c r="AU90">
+        <v>3</v>
+      </c>
+      <c r="AV90">
+        <v>3</v>
+      </c>
+      <c r="AW90">
+        <v>9</v>
+      </c>
+      <c r="AX90">
+        <v>6</v>
+      </c>
+      <c r="AY90">
+        <v>12</v>
+      </c>
+      <c r="AZ90">
+        <v>9</v>
+      </c>
+      <c r="BA90">
+        <v>2</v>
+      </c>
+      <c r="BB90">
+        <v>4</v>
+      </c>
+      <c r="BC90">
+        <v>6</v>
+      </c>
+      <c r="BD90">
+        <v>1.82</v>
+      </c>
+      <c r="BE90">
+        <v>8.5</v>
+      </c>
+      <c r="BF90">
+        <v>2.32</v>
+      </c>
+      <c r="BG90">
+        <v>0</v>
+      </c>
+      <c r="BH90">
+        <v>0</v>
+      </c>
+      <c r="BI90">
+        <v>0</v>
+      </c>
+      <c r="BJ90">
+        <v>0</v>
+      </c>
+      <c r="BK90">
+        <v>0</v>
+      </c>
+      <c r="BL90">
+        <v>0</v>
+      </c>
+      <c r="BM90">
+        <v>1.88</v>
+      </c>
+      <c r="BN90">
+        <v>1.92</v>
+      </c>
+      <c r="BO90">
+        <v>0</v>
+      </c>
+      <c r="BP90">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="203">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -457,6 +457,9 @@
     <t>['6', '14']</t>
   </si>
   <si>
+    <t>['57', '90+7']</t>
+  </si>
+  <si>
     <t>['24', '27']</t>
   </si>
   <si>
@@ -614,6 +617,12 @@
   </si>
   <si>
     <t>['48']</t>
+  </si>
+  <si>
+    <t>['25', '69']</t>
+  </si>
+  <si>
+    <t>['45+10', '83']</t>
   </si>
 </sst>
 </file>
@@ -975,7 +984,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP90"/>
+  <dimension ref="A1:BP94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1234,7 +1243,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -1315,7 +1324,7 @@
         <v>1</v>
       </c>
       <c r="AQ2">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1440,7 +1449,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -1518,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ3">
         <v>1.4</v>
@@ -1646,7 +1655,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -2058,7 +2067,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2136,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ6">
         <v>0.25</v>
@@ -2264,7 +2273,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2676,7 +2685,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -2963,7 +2972,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ10">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3088,7 +3097,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3169,7 +3178,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ11">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3372,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ12">
         <v>1</v>
@@ -3500,7 +3509,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -3706,7 +3715,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -3912,7 +3921,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -3990,10 +3999,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ15">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4118,7 +4127,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -4736,7 +4745,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q19">
         <v>2.79</v>
@@ -4942,7 +4951,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5560,7 +5569,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5972,7 +5981,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q25">
         <v>2.91</v>
@@ -6050,10 +6059,10 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ25">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR25">
         <v>1.23</v>
@@ -6178,7 +6187,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6384,7 +6393,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q27">
         <v>3.25</v>
@@ -6462,10 +6471,10 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ27">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>1.33</v>
@@ -6796,7 +6805,7 @@
         <v>89</v>
       </c>
       <c r="P29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -6877,7 +6886,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ29">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR29">
         <v>1.08</v>
@@ -7002,7 +7011,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7080,7 +7089,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ30">
         <v>1</v>
@@ -7289,7 +7298,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ31">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR31">
         <v>1.31</v>
@@ -7414,7 +7423,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7620,7 +7629,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7826,7 +7835,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -7904,7 +7913,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ34">
         <v>1.75</v>
@@ -8032,7 +8041,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q35">
         <v>2.57</v>
@@ -8238,7 +8247,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q36">
         <v>2.89</v>
@@ -8444,7 +8453,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q37">
         <v>2.5</v>
@@ -8650,7 +8659,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8731,7 +8740,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ38">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR38">
         <v>1.5</v>
@@ -8856,7 +8865,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9268,7 +9277,7 @@
         <v>89</v>
       </c>
       <c r="P41" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9346,10 +9355,10 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ41">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR41">
         <v>1.42</v>
@@ -9474,7 +9483,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -9758,7 +9767,7 @@
         <v>0.5</v>
       </c>
       <c r="AP43">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ43">
         <v>0.4</v>
@@ -9886,7 +9895,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10092,7 +10101,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q45">
         <v>2.85</v>
@@ -10376,7 +10385,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ46">
         <v>1.4</v>
@@ -10504,7 +10513,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -10710,7 +10719,7 @@
         <v>89</v>
       </c>
       <c r="P48" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10916,7 +10925,7 @@
         <v>89</v>
       </c>
       <c r="P49" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11122,7 +11131,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11203,7 +11212,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ50">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR50">
         <v>1.2</v>
@@ -11406,7 +11415,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ51">
         <v>1</v>
@@ -11534,7 +11543,7 @@
         <v>89</v>
       </c>
       <c r="P52" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q52">
         <v>3.2</v>
@@ -11615,7 +11624,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ52">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR52">
         <v>1.12</v>
@@ -11946,7 +11955,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12358,7 +12367,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q56">
         <v>3.08</v>
@@ -12439,7 +12448,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ56">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR56">
         <v>1.67</v>
@@ -12564,7 +12573,7 @@
         <v>109</v>
       </c>
       <c r="P57" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12645,7 +12654,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ57">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR57">
         <v>1.67</v>
@@ -12976,7 +12985,7 @@
         <v>89</v>
       </c>
       <c r="P59" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13054,7 +13063,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ59">
         <v>1.4</v>
@@ -13263,7 +13272,7 @@
         <v>2</v>
       </c>
       <c r="AQ60">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR60">
         <v>1.51</v>
@@ -13466,7 +13475,7 @@
         <v>2</v>
       </c>
       <c r="AP61">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ61">
         <v>1.5</v>
@@ -13672,7 +13681,7 @@
         <v>2.33</v>
       </c>
       <c r="AP62">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ62">
         <v>1.4</v>
@@ -14084,7 +14093,7 @@
         <v>1.67</v>
       </c>
       <c r="AP64">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ64">
         <v>1.2</v>
@@ -14212,7 +14221,7 @@
         <v>129</v>
       </c>
       <c r="P65" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14293,7 +14302,7 @@
         <v>1</v>
       </c>
       <c r="AQ65">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR65">
         <v>1.18</v>
@@ -14624,7 +14633,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q67">
         <v>3.12</v>
@@ -14830,7 +14839,7 @@
         <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q68">
         <v>2.96</v>
@@ -15860,7 +15869,7 @@
         <v>89</v>
       </c>
       <c r="P73" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q73">
         <v>2.92</v>
@@ -15938,10 +15947,10 @@
         <v>1.25</v>
       </c>
       <c r="AP73">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ73">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR73">
         <v>1.18</v>
@@ -16066,7 +16075,7 @@
         <v>89</v>
       </c>
       <c r="P74" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16144,7 +16153,7 @@
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ74">
         <v>1.67</v>
@@ -16272,7 +16281,7 @@
         <v>97</v>
       </c>
       <c r="P75" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q75">
         <v>3.04</v>
@@ -16350,10 +16359,10 @@
         <v>0.5</v>
       </c>
       <c r="AP75">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ75">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR75">
         <v>1.62</v>
@@ -16478,7 +16487,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q76">
         <v>2.8</v>
@@ -16559,7 +16568,7 @@
         <v>2</v>
       </c>
       <c r="AQ76">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR76">
         <v>1.55</v>
@@ -16890,7 +16899,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17302,7 +17311,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17380,7 +17389,7 @@
         <v>1.75</v>
       </c>
       <c r="AP80">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ80">
         <v>1.4</v>
@@ -17920,7 +17929,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q83">
         <v>2.36</v>
@@ -18332,7 +18341,7 @@
         <v>143</v>
       </c>
       <c r="P85" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q85">
         <v>2.67</v>
@@ -18538,7 +18547,7 @@
         <v>144</v>
       </c>
       <c r="P86" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q86">
         <v>2.38</v>
@@ -18950,7 +18959,7 @@
         <v>127</v>
       </c>
       <c r="P88" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q88">
         <v>2.85</v>
@@ -19329,7 +19338,7 @@
         <v>69</v>
       </c>
       <c r="E90" s="2">
-        <v>45604.625</v>
+        <v>45603.875</v>
       </c>
       <c r="F90">
         <v>11</v>
@@ -19362,7 +19371,7 @@
         <v>89</v>
       </c>
       <c r="P90" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q90">
         <v>3.09</v>
@@ -19519,6 +19528,830 @@
       </c>
       <c r="BP90">
         <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7502695</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45605.33333333334</v>
+      </c>
+      <c r="F91">
+        <v>11</v>
+      </c>
+      <c r="G91" t="s">
+        <v>74</v>
+      </c>
+      <c r="H91" t="s">
+        <v>78</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>2</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <v>3</v>
+      </c>
+      <c r="O91" t="s">
+        <v>147</v>
+      </c>
+      <c r="P91" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q91">
+        <v>3.05</v>
+      </c>
+      <c r="R91">
+        <v>2.06</v>
+      </c>
+      <c r="S91">
+        <v>3.42</v>
+      </c>
+      <c r="T91">
+        <v>1.44</v>
+      </c>
+      <c r="U91">
+        <v>2.67</v>
+      </c>
+      <c r="V91">
+        <v>2.99</v>
+      </c>
+      <c r="W91">
+        <v>1.36</v>
+      </c>
+      <c r="X91">
+        <v>7.3</v>
+      </c>
+      <c r="Y91">
+        <v>1.07</v>
+      </c>
+      <c r="Z91">
+        <v>2.63</v>
+      </c>
+      <c r="AA91">
+        <v>3</v>
+      </c>
+      <c r="AB91">
+        <v>2.5</v>
+      </c>
+      <c r="AC91">
+        <v>1.03</v>
+      </c>
+      <c r="AD91">
+        <v>6.65</v>
+      </c>
+      <c r="AE91">
+        <v>1.31</v>
+      </c>
+      <c r="AF91">
+        <v>2.82</v>
+      </c>
+      <c r="AG91">
+        <v>2</v>
+      </c>
+      <c r="AH91">
+        <v>1.7</v>
+      </c>
+      <c r="AI91">
+        <v>1.81</v>
+      </c>
+      <c r="AJ91">
+        <v>1.89</v>
+      </c>
+      <c r="AK91">
+        <v>1.42</v>
+      </c>
+      <c r="AL91">
+        <v>1.31</v>
+      </c>
+      <c r="AM91">
+        <v>1.5</v>
+      </c>
+      <c r="AN91">
+        <v>1.6</v>
+      </c>
+      <c r="AO91">
+        <v>2</v>
+      </c>
+      <c r="AP91">
+        <v>1.83</v>
+      </c>
+      <c r="AQ91">
+        <v>1.6</v>
+      </c>
+      <c r="AR91">
+        <v>1.19</v>
+      </c>
+      <c r="AS91">
+        <v>1.36</v>
+      </c>
+      <c r="AT91">
+        <v>2.55</v>
+      </c>
+      <c r="AU91">
+        <v>4</v>
+      </c>
+      <c r="AV91">
+        <v>5</v>
+      </c>
+      <c r="AW91">
+        <v>7</v>
+      </c>
+      <c r="AX91">
+        <v>4</v>
+      </c>
+      <c r="AY91">
+        <v>11</v>
+      </c>
+      <c r="AZ91">
+        <v>9</v>
+      </c>
+      <c r="BA91">
+        <v>3</v>
+      </c>
+      <c r="BB91">
+        <v>7</v>
+      </c>
+      <c r="BC91">
+        <v>10</v>
+      </c>
+      <c r="BD91">
+        <v>2.43</v>
+      </c>
+      <c r="BE91">
+        <v>8.5</v>
+      </c>
+      <c r="BF91">
+        <v>1.75</v>
+      </c>
+      <c r="BG91">
+        <v>0</v>
+      </c>
+      <c r="BH91">
+        <v>0</v>
+      </c>
+      <c r="BI91">
+        <v>0</v>
+      </c>
+      <c r="BJ91">
+        <v>0</v>
+      </c>
+      <c r="BK91">
+        <v>0</v>
+      </c>
+      <c r="BL91">
+        <v>0</v>
+      </c>
+      <c r="BM91">
+        <v>1.9</v>
+      </c>
+      <c r="BN91">
+        <v>1.9</v>
+      </c>
+      <c r="BO91">
+        <v>0</v>
+      </c>
+      <c r="BP91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7502699</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45605.45833333334</v>
+      </c>
+      <c r="F92">
+        <v>11</v>
+      </c>
+      <c r="G92" t="s">
+        <v>80</v>
+      </c>
+      <c r="H92" t="s">
+        <v>81</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>2</v>
+      </c>
+      <c r="N92">
+        <v>2</v>
+      </c>
+      <c r="O92" t="s">
+        <v>89</v>
+      </c>
+      <c r="P92" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q92">
+        <v>3.5</v>
+      </c>
+      <c r="R92">
+        <v>2.05</v>
+      </c>
+      <c r="S92">
+        <v>2.9</v>
+      </c>
+      <c r="T92">
+        <v>1.4</v>
+      </c>
+      <c r="U92">
+        <v>2.7</v>
+      </c>
+      <c r="V92">
+        <v>2.8</v>
+      </c>
+      <c r="W92">
+        <v>1.38</v>
+      </c>
+      <c r="X92">
+        <v>6.5</v>
+      </c>
+      <c r="Y92">
+        <v>1.1</v>
+      </c>
+      <c r="Z92">
+        <v>2.75</v>
+      </c>
+      <c r="AA92">
+        <v>3.1</v>
+      </c>
+      <c r="AB92">
+        <v>2.38</v>
+      </c>
+      <c r="AC92">
+        <v>1.05</v>
+      </c>
+      <c r="AD92">
+        <v>8.5</v>
+      </c>
+      <c r="AE92">
+        <v>1.3</v>
+      </c>
+      <c r="AF92">
+        <v>3.3</v>
+      </c>
+      <c r="AG92">
+        <v>1.93</v>
+      </c>
+      <c r="AH92">
+        <v>1.78</v>
+      </c>
+      <c r="AI92">
+        <v>1.67</v>
+      </c>
+      <c r="AJ92">
+        <v>2</v>
+      </c>
+      <c r="AK92">
+        <v>1.57</v>
+      </c>
+      <c r="AL92">
+        <v>1.25</v>
+      </c>
+      <c r="AM92">
+        <v>1.36</v>
+      </c>
+      <c r="AN92">
+        <v>0.8</v>
+      </c>
+      <c r="AO92">
+        <v>0.6</v>
+      </c>
+      <c r="AP92">
+        <v>0.67</v>
+      </c>
+      <c r="AQ92">
+        <v>1</v>
+      </c>
+      <c r="AR92">
+        <v>1.19</v>
+      </c>
+      <c r="AS92">
+        <v>1.26</v>
+      </c>
+      <c r="AT92">
+        <v>2.45</v>
+      </c>
+      <c r="AU92">
+        <v>0</v>
+      </c>
+      <c r="AV92">
+        <v>3</v>
+      </c>
+      <c r="AW92">
+        <v>4</v>
+      </c>
+      <c r="AX92">
+        <v>1</v>
+      </c>
+      <c r="AY92">
+        <v>4</v>
+      </c>
+      <c r="AZ92">
+        <v>4</v>
+      </c>
+      <c r="BA92">
+        <v>6</v>
+      </c>
+      <c r="BB92">
+        <v>2</v>
+      </c>
+      <c r="BC92">
+        <v>8</v>
+      </c>
+      <c r="BD92">
+        <v>1.85</v>
+      </c>
+      <c r="BE92">
+        <v>8.5</v>
+      </c>
+      <c r="BF92">
+        <v>2.27</v>
+      </c>
+      <c r="BG92">
+        <v>1.14</v>
+      </c>
+      <c r="BH92">
+        <v>4.2</v>
+      </c>
+      <c r="BI92">
+        <v>1.36</v>
+      </c>
+      <c r="BJ92">
+        <v>3.14</v>
+      </c>
+      <c r="BK92">
+        <v>1.61</v>
+      </c>
+      <c r="BL92">
+        <v>2.32</v>
+      </c>
+      <c r="BM92">
+        <v>1.98</v>
+      </c>
+      <c r="BN92">
+        <v>1.82</v>
+      </c>
+      <c r="BO92">
+        <v>2.52</v>
+      </c>
+      <c r="BP92">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7502698</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45605.52083333334</v>
+      </c>
+      <c r="F93">
+        <v>11</v>
+      </c>
+      <c r="G93" t="s">
+        <v>71</v>
+      </c>
+      <c r="H93" t="s">
+        <v>73</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>2</v>
+      </c>
+      <c r="N93">
+        <v>2</v>
+      </c>
+      <c r="O93" t="s">
+        <v>89</v>
+      </c>
+      <c r="P93" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q93">
+        <v>3.64</v>
+      </c>
+      <c r="R93">
+        <v>1.96</v>
+      </c>
+      <c r="S93">
+        <v>3.12</v>
+      </c>
+      <c r="T93">
+        <v>1.52</v>
+      </c>
+      <c r="U93">
+        <v>2.43</v>
+      </c>
+      <c r="V93">
+        <v>3.34</v>
+      </c>
+      <c r="W93">
+        <v>1.3</v>
+      </c>
+      <c r="X93">
+        <v>8.4</v>
+      </c>
+      <c r="Y93">
+        <v>1.05</v>
+      </c>
+      <c r="Z93">
+        <v>2.8</v>
+      </c>
+      <c r="AA93">
+        <v>3</v>
+      </c>
+      <c r="AB93">
+        <v>2.4</v>
+      </c>
+      <c r="AC93">
+        <v>1.05</v>
+      </c>
+      <c r="AD93">
+        <v>5.9</v>
+      </c>
+      <c r="AE93">
+        <v>1.4</v>
+      </c>
+      <c r="AF93">
+        <v>2.48</v>
+      </c>
+      <c r="AG93">
+        <v>2.25</v>
+      </c>
+      <c r="AH93">
+        <v>1.57</v>
+      </c>
+      <c r="AI93">
+        <v>1.96</v>
+      </c>
+      <c r="AJ93">
+        <v>1.75</v>
+      </c>
+      <c r="AK93">
+        <v>1.51</v>
+      </c>
+      <c r="AL93">
+        <v>1.34</v>
+      </c>
+      <c r="AM93">
+        <v>1.39</v>
+      </c>
+      <c r="AN93">
+        <v>1</v>
+      </c>
+      <c r="AO93">
+        <v>1.6</v>
+      </c>
+      <c r="AP93">
+        <v>0.83</v>
+      </c>
+      <c r="AQ93">
+        <v>1.83</v>
+      </c>
+      <c r="AR93">
+        <v>1.22</v>
+      </c>
+      <c r="AS93">
+        <v>1.25</v>
+      </c>
+      <c r="AT93">
+        <v>2.47</v>
+      </c>
+      <c r="AU93">
+        <v>3</v>
+      </c>
+      <c r="AV93">
+        <v>4</v>
+      </c>
+      <c r="AW93">
+        <v>7</v>
+      </c>
+      <c r="AX93">
+        <v>3</v>
+      </c>
+      <c r="AY93">
+        <v>10</v>
+      </c>
+      <c r="AZ93">
+        <v>7</v>
+      </c>
+      <c r="BA93">
+        <v>5</v>
+      </c>
+      <c r="BB93">
+        <v>5</v>
+      </c>
+      <c r="BC93">
+        <v>10</v>
+      </c>
+      <c r="BD93">
+        <v>2</v>
+      </c>
+      <c r="BE93">
+        <v>8</v>
+      </c>
+      <c r="BF93">
+        <v>2</v>
+      </c>
+      <c r="BG93">
+        <v>1.16</v>
+      </c>
+      <c r="BH93">
+        <v>3.88</v>
+      </c>
+      <c r="BI93">
+        <v>1.41</v>
+      </c>
+      <c r="BJ93">
+        <v>2.7</v>
+      </c>
+      <c r="BK93">
+        <v>1.69</v>
+      </c>
+      <c r="BL93">
+        <v>2.04</v>
+      </c>
+      <c r="BM93">
+        <v>2</v>
+      </c>
+      <c r="BN93">
+        <v>1.8</v>
+      </c>
+      <c r="BO93">
+        <v>2.75</v>
+      </c>
+      <c r="BP93">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7502701</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45605.625</v>
+      </c>
+      <c r="F94">
+        <v>11</v>
+      </c>
+      <c r="G94" t="s">
+        <v>83</v>
+      </c>
+      <c r="H94" t="s">
+        <v>87</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94">
+        <v>2</v>
+      </c>
+      <c r="O94" t="s">
+        <v>108</v>
+      </c>
+      <c r="P94" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q94">
+        <v>3.35</v>
+      </c>
+      <c r="R94">
+        <v>2</v>
+      </c>
+      <c r="S94">
+        <v>3.1</v>
+      </c>
+      <c r="T94">
+        <v>1.45</v>
+      </c>
+      <c r="U94">
+        <v>2.55</v>
+      </c>
+      <c r="V94">
+        <v>3</v>
+      </c>
+      <c r="W94">
+        <v>1.33</v>
+      </c>
+      <c r="X94">
+        <v>7.5</v>
+      </c>
+      <c r="Y94">
+        <v>1.07</v>
+      </c>
+      <c r="Z94">
+        <v>2.54</v>
+      </c>
+      <c r="AA94">
+        <v>3.28</v>
+      </c>
+      <c r="AB94">
+        <v>2.7</v>
+      </c>
+      <c r="AC94">
+        <v>1.06</v>
+      </c>
+      <c r="AD94">
+        <v>8</v>
+      </c>
+      <c r="AE94">
+        <v>1.36</v>
+      </c>
+      <c r="AF94">
+        <v>3</v>
+      </c>
+      <c r="AG94">
+        <v>2.05</v>
+      </c>
+      <c r="AH94">
+        <v>1.68</v>
+      </c>
+      <c r="AI94">
+        <v>1.77</v>
+      </c>
+      <c r="AJ94">
+        <v>1.85</v>
+      </c>
+      <c r="AK94">
+        <v>1.5</v>
+      </c>
+      <c r="AL94">
+        <v>1.28</v>
+      </c>
+      <c r="AM94">
+        <v>1.42</v>
+      </c>
+      <c r="AN94">
+        <v>1.2</v>
+      </c>
+      <c r="AO94">
+        <v>2.2</v>
+      </c>
+      <c r="AP94">
+        <v>1.17</v>
+      </c>
+      <c r="AQ94">
+        <v>2</v>
+      </c>
+      <c r="AR94">
+        <v>1.74</v>
+      </c>
+      <c r="AS94">
+        <v>1.44</v>
+      </c>
+      <c r="AT94">
+        <v>3.18</v>
+      </c>
+      <c r="AU94">
+        <v>4</v>
+      </c>
+      <c r="AV94">
+        <v>4</v>
+      </c>
+      <c r="AW94">
+        <v>10</v>
+      </c>
+      <c r="AX94">
+        <v>7</v>
+      </c>
+      <c r="AY94">
+        <v>14</v>
+      </c>
+      <c r="AZ94">
+        <v>11</v>
+      </c>
+      <c r="BA94">
+        <v>3</v>
+      </c>
+      <c r="BB94">
+        <v>4</v>
+      </c>
+      <c r="BC94">
+        <v>7</v>
+      </c>
+      <c r="BD94">
+        <v>2.1</v>
+      </c>
+      <c r="BE94">
+        <v>8</v>
+      </c>
+      <c r="BF94">
+        <v>1.91</v>
+      </c>
+      <c r="BG94">
+        <v>1.15</v>
+      </c>
+      <c r="BH94">
+        <v>4.05</v>
+      </c>
+      <c r="BI94">
+        <v>1.38</v>
+      </c>
+      <c r="BJ94">
+        <v>2.78</v>
+      </c>
+      <c r="BK94">
+        <v>1.65</v>
+      </c>
+      <c r="BL94">
+        <v>2.1</v>
+      </c>
+      <c r="BM94">
+        <v>2.05</v>
+      </c>
+      <c r="BN94">
+        <v>1.68</v>
+      </c>
+      <c r="BO94">
+        <v>2.65</v>
+      </c>
+      <c r="BP94">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="209">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -460,6 +460,18 @@
     <t>['57', '90+7']</t>
   </si>
   <si>
+    <t>['28', '58']</t>
+  </si>
+  <si>
+    <t>['27', '84']</t>
+  </si>
+  <si>
+    <t>['10', '84']</t>
+  </si>
+  <si>
+    <t>['45', '90+8']</t>
+  </si>
+  <si>
     <t>['24', '27']</t>
   </si>
   <si>
@@ -623,6 +635,12 @@
   </si>
   <si>
     <t>['45+10', '83']</t>
+  </si>
+  <si>
+    <t>['82', '90+5']</t>
+  </si>
+  <si>
+    <t>['37']</t>
   </si>
 </sst>
 </file>
@@ -984,7 +1002,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP94"/>
+  <dimension ref="A1:BP98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1243,7 +1261,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -1449,7 +1467,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -1655,7 +1673,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -1733,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ4">
         <v>1.75</v>
@@ -2067,7 +2085,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2273,7 +2291,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2351,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -2560,7 +2578,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ8">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2685,7 +2703,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -3097,7 +3115,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3509,7 +3527,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -3590,7 +3608,7 @@
         <v>1</v>
       </c>
       <c r="AQ13">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3715,7 +3733,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -3793,10 +3811,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ14">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3921,7 +3939,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -4127,7 +4145,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -4617,7 +4635,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ18">
         <v>0.8</v>
@@ -4745,7 +4763,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q19">
         <v>2.79</v>
@@ -4826,7 +4844,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ19">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4951,7 +4969,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5032,7 +5050,7 @@
         <v>1</v>
       </c>
       <c r="AQ20">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>1.01</v>
@@ -5441,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ22">
         <v>0.25</v>
@@ -5569,7 +5587,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5647,7 +5665,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ23">
         <v>1.4</v>
@@ -5856,7 +5874,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ24">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR24">
         <v>1.31</v>
@@ -5981,7 +5999,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q25">
         <v>2.91</v>
@@ -6187,7 +6205,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6393,7 +6411,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q27">
         <v>3.25</v>
@@ -6677,7 +6695,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ28">
         <v>1.5</v>
@@ -6805,7 +6823,7 @@
         <v>89</v>
       </c>
       <c r="P29" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -7011,7 +7029,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7423,7 +7441,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7629,7 +7647,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7710,7 +7728,7 @@
         <v>1</v>
       </c>
       <c r="AQ33">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR33">
         <v>1.04</v>
@@ -7835,7 +7853,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8041,7 +8059,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q35">
         <v>2.57</v>
@@ -8119,7 +8137,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ35">
         <v>2.6</v>
@@ -8247,7 +8265,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q36">
         <v>2.89</v>
@@ -8328,7 +8346,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ36">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR36">
         <v>0.82</v>
@@ -8453,7 +8471,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q37">
         <v>2.5</v>
@@ -8659,7 +8677,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8737,7 +8755,7 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ38">
         <v>1</v>
@@ -8865,7 +8883,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9152,7 +9170,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ40">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR40">
         <v>1.4</v>
@@ -9277,7 +9295,7 @@
         <v>89</v>
       </c>
       <c r="P41" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9483,7 +9501,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -9564,7 +9582,7 @@
         <v>1</v>
       </c>
       <c r="AQ42">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR42">
         <v>1.49</v>
@@ -9770,7 +9788,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ43">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR43">
         <v>1.55</v>
@@ -9895,7 +9913,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -9973,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ44">
         <v>0.25</v>
@@ -10101,7 +10119,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q45">
         <v>2.85</v>
@@ -10179,7 +10197,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ45">
         <v>1.5</v>
@@ -10513,7 +10531,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -10719,7 +10737,7 @@
         <v>89</v>
       </c>
       <c r="P48" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10797,7 +10815,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ48">
         <v>1.75</v>
@@ -10925,7 +10943,7 @@
         <v>89</v>
       </c>
       <c r="P49" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11131,7 +11149,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11543,7 +11561,7 @@
         <v>89</v>
       </c>
       <c r="P52" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q52">
         <v>3.2</v>
@@ -11955,7 +11973,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12036,7 +12054,7 @@
         <v>1</v>
       </c>
       <c r="AQ54">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR54">
         <v>1.11</v>
@@ -12367,7 +12385,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q56">
         <v>3.08</v>
@@ -12445,7 +12463,7 @@
         <v>1.67</v>
       </c>
       <c r="AP56">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ56">
         <v>2</v>
@@ -12573,7 +12591,7 @@
         <v>109</v>
       </c>
       <c r="P57" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12860,7 +12878,7 @@
         <v>1</v>
       </c>
       <c r="AQ58">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR58">
         <v>1.6</v>
@@ -12985,7 +13003,7 @@
         <v>89</v>
       </c>
       <c r="P59" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13269,7 +13287,7 @@
         <v>0.67</v>
       </c>
       <c r="AP60">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ60">
         <v>1</v>
@@ -13684,7 +13702,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ62">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR62">
         <v>1.41</v>
@@ -13887,7 +13905,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ63">
         <v>1.67</v>
@@ -14096,7 +14114,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ64">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR64">
         <v>1.24</v>
@@ -14221,7 +14239,7 @@
         <v>129</v>
       </c>
       <c r="P65" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14633,7 +14651,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q67">
         <v>3.12</v>
@@ -14839,7 +14857,7 @@
         <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q68">
         <v>2.96</v>
@@ -14920,7 +14938,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ68">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR68">
         <v>1.55</v>
@@ -15123,7 +15141,7 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ69">
         <v>0.8</v>
@@ -15741,7 +15759,7 @@
         <v>1.75</v>
       </c>
       <c r="AP72">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ72">
         <v>1.5</v>
@@ -15869,7 +15887,7 @@
         <v>89</v>
       </c>
       <c r="P73" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q73">
         <v>2.92</v>
@@ -16075,7 +16093,7 @@
         <v>89</v>
       </c>
       <c r="P74" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16281,7 +16299,7 @@
         <v>97</v>
       </c>
       <c r="P75" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q75">
         <v>3.04</v>
@@ -16487,7 +16505,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q76">
         <v>2.8</v>
@@ -16565,7 +16583,7 @@
         <v>2</v>
       </c>
       <c r="AP76">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ76">
         <v>2</v>
@@ -16771,10 +16789,10 @@
         <v>1.5</v>
       </c>
       <c r="AP77">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ77">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR77">
         <v>1.55</v>
@@ -16899,7 +16917,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -16980,7 +16998,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ78">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR78">
         <v>1.7</v>
@@ -17183,10 +17201,10 @@
         <v>0.5</v>
       </c>
       <c r="AP79">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ79">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR79">
         <v>1.3</v>
@@ -17311,7 +17329,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17392,7 +17410,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ80">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR80">
         <v>1.09</v>
@@ -17929,7 +17947,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q83">
         <v>2.36</v>
@@ -18341,7 +18359,7 @@
         <v>143</v>
       </c>
       <c r="P85" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q85">
         <v>2.67</v>
@@ -18547,7 +18565,7 @@
         <v>144</v>
       </c>
       <c r="P86" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q86">
         <v>2.38</v>
@@ -18959,7 +18977,7 @@
         <v>127</v>
       </c>
       <c r="P88" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q88">
         <v>2.85</v>
@@ -19338,10 +19356,10 @@
         <v>69</v>
       </c>
       <c r="E90" s="2">
-        <v>45603.875</v>
+        <v>45604.625</v>
       </c>
       <c r="F90">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G90" t="s">
         <v>84</v>
@@ -19371,7 +19389,7 @@
         <v>89</v>
       </c>
       <c r="P90" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q90">
         <v>3.09</v>
@@ -19577,7 +19595,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q91">
         <v>3.05</v>
@@ -19783,7 +19801,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -19989,7 +20007,7 @@
         <v>89</v>
       </c>
       <c r="P93" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q93">
         <v>3.64</v>
@@ -20165,7 +20183,7 @@
         <v>45605.625</v>
       </c>
       <c r="F94">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G94" t="s">
         <v>83</v>
@@ -20195,7 +20213,7 @@
         <v>108</v>
       </c>
       <c r="P94" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q94">
         <v>3.35</v>
@@ -20352,6 +20370,830 @@
       </c>
       <c r="BP94">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7502700</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45605.875</v>
+      </c>
+      <c r="F95">
+        <v>11</v>
+      </c>
+      <c r="G95" t="s">
+        <v>82</v>
+      </c>
+      <c r="H95" t="s">
+        <v>76</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>2</v>
+      </c>
+      <c r="M95">
+        <v>2</v>
+      </c>
+      <c r="N95">
+        <v>4</v>
+      </c>
+      <c r="O95" t="s">
+        <v>148</v>
+      </c>
+      <c r="P95" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q95">
+        <v>2.61</v>
+      </c>
+      <c r="R95">
+        <v>2.13</v>
+      </c>
+      <c r="S95">
+        <v>3.96</v>
+      </c>
+      <c r="T95">
+        <v>1.36</v>
+      </c>
+      <c r="U95">
+        <v>2.98</v>
+      </c>
+      <c r="V95">
+        <v>2.78</v>
+      </c>
+      <c r="W95">
+        <v>1.41</v>
+      </c>
+      <c r="X95">
+        <v>7.4</v>
+      </c>
+      <c r="Y95">
+        <v>1.07</v>
+      </c>
+      <c r="Z95">
+        <v>999.99</v>
+      </c>
+      <c r="AA95">
+        <v>0</v>
+      </c>
+      <c r="AB95">
+        <v>999.99</v>
+      </c>
+      <c r="AC95">
+        <v>1.03</v>
+      </c>
+      <c r="AD95">
+        <v>9</v>
+      </c>
+      <c r="AE95">
+        <v>1.22</v>
+      </c>
+      <c r="AF95">
+        <v>3.35</v>
+      </c>
+      <c r="AG95">
+        <v>1.93</v>
+      </c>
+      <c r="AH95">
+        <v>1.93</v>
+      </c>
+      <c r="AI95">
+        <v>1.71</v>
+      </c>
+      <c r="AJ95">
+        <v>2.02</v>
+      </c>
+      <c r="AK95">
+        <v>1.29</v>
+      </c>
+      <c r="AL95">
+        <v>1.28</v>
+      </c>
+      <c r="AM95">
+        <v>1.74</v>
+      </c>
+      <c r="AN95">
+        <v>0.8</v>
+      </c>
+      <c r="AO95">
+        <v>0.4</v>
+      </c>
+      <c r="AP95">
+        <v>0.83</v>
+      </c>
+      <c r="AQ95">
+        <v>0.5</v>
+      </c>
+      <c r="AR95">
+        <v>1.56</v>
+      </c>
+      <c r="AS95">
+        <v>1.47</v>
+      </c>
+      <c r="AT95">
+        <v>3.03</v>
+      </c>
+      <c r="AU95">
+        <v>8</v>
+      </c>
+      <c r="AV95">
+        <v>7</v>
+      </c>
+      <c r="AW95">
+        <v>5</v>
+      </c>
+      <c r="AX95">
+        <v>10</v>
+      </c>
+      <c r="AY95">
+        <v>13</v>
+      </c>
+      <c r="AZ95">
+        <v>17</v>
+      </c>
+      <c r="BA95">
+        <v>3</v>
+      </c>
+      <c r="BB95">
+        <v>6</v>
+      </c>
+      <c r="BC95">
+        <v>9</v>
+      </c>
+      <c r="BD95">
+        <v>1.75</v>
+      </c>
+      <c r="BE95">
+        <v>8.5</v>
+      </c>
+      <c r="BF95">
+        <v>2.41</v>
+      </c>
+      <c r="BG95">
+        <v>1.11</v>
+      </c>
+      <c r="BH95">
+        <v>4.55</v>
+      </c>
+      <c r="BI95">
+        <v>1.32</v>
+      </c>
+      <c r="BJ95">
+        <v>3.12</v>
+      </c>
+      <c r="BK95">
+        <v>1.54</v>
+      </c>
+      <c r="BL95">
+        <v>2.31</v>
+      </c>
+      <c r="BM95">
+        <v>1.88</v>
+      </c>
+      <c r="BN95">
+        <v>1.92</v>
+      </c>
+      <c r="BO95">
+        <v>2.38</v>
+      </c>
+      <c r="BP95">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7502702</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45605.875</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96" t="s">
+        <v>72</v>
+      </c>
+      <c r="H96" t="s">
+        <v>70</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>2</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96">
+        <v>3</v>
+      </c>
+      <c r="O96" t="s">
+        <v>149</v>
+      </c>
+      <c r="P96" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q96">
+        <v>2.95</v>
+      </c>
+      <c r="R96">
+        <v>2.02</v>
+      </c>
+      <c r="S96">
+        <v>3.7</v>
+      </c>
+      <c r="T96">
+        <v>1.44</v>
+      </c>
+      <c r="U96">
+        <v>2.65</v>
+      </c>
+      <c r="V96">
+        <v>3.14</v>
+      </c>
+      <c r="W96">
+        <v>1.33</v>
+      </c>
+      <c r="X96">
+        <v>8.5</v>
+      </c>
+      <c r="Y96">
+        <v>1.05</v>
+      </c>
+      <c r="Z96">
+        <v>999.99</v>
+      </c>
+      <c r="AA96">
+        <v>0</v>
+      </c>
+      <c r="AB96">
+        <v>999.99</v>
+      </c>
+      <c r="AC96">
+        <v>1.01</v>
+      </c>
+      <c r="AD96">
+        <v>7.9</v>
+      </c>
+      <c r="AE96">
+        <v>1.31</v>
+      </c>
+      <c r="AF96">
+        <v>2.82</v>
+      </c>
+      <c r="AG96">
+        <v>2.05</v>
+      </c>
+      <c r="AH96">
+        <v>1.7</v>
+      </c>
+      <c r="AI96">
+        <v>1.85</v>
+      </c>
+      <c r="AJ96">
+        <v>1.85</v>
+      </c>
+      <c r="AK96">
+        <v>1.36</v>
+      </c>
+      <c r="AL96">
+        <v>1.32</v>
+      </c>
+      <c r="AM96">
+        <v>1.57</v>
+      </c>
+      <c r="AN96">
+        <v>2</v>
+      </c>
+      <c r="AO96">
+        <v>2</v>
+      </c>
+      <c r="AP96">
+        <v>2.17</v>
+      </c>
+      <c r="AQ96">
+        <v>1.67</v>
+      </c>
+      <c r="AR96">
+        <v>1.37</v>
+      </c>
+      <c r="AS96">
+        <v>1.4</v>
+      </c>
+      <c r="AT96">
+        <v>2.77</v>
+      </c>
+      <c r="AU96">
+        <v>5</v>
+      </c>
+      <c r="AV96">
+        <v>7</v>
+      </c>
+      <c r="AW96">
+        <v>7</v>
+      </c>
+      <c r="AX96">
+        <v>7</v>
+      </c>
+      <c r="AY96">
+        <v>12</v>
+      </c>
+      <c r="AZ96">
+        <v>14</v>
+      </c>
+      <c r="BA96">
+        <v>3</v>
+      </c>
+      <c r="BB96">
+        <v>10</v>
+      </c>
+      <c r="BC96">
+        <v>13</v>
+      </c>
+      <c r="BD96">
+        <v>1.85</v>
+      </c>
+      <c r="BE96">
+        <v>8</v>
+      </c>
+      <c r="BF96">
+        <v>2.28</v>
+      </c>
+      <c r="BG96">
+        <v>1.23</v>
+      </c>
+      <c r="BH96">
+        <v>3.7</v>
+      </c>
+      <c r="BI96">
+        <v>1.42</v>
+      </c>
+      <c r="BJ96">
+        <v>2.65</v>
+      </c>
+      <c r="BK96">
+        <v>1.71</v>
+      </c>
+      <c r="BL96">
+        <v>2.01</v>
+      </c>
+      <c r="BM96">
+        <v>2</v>
+      </c>
+      <c r="BN96">
+        <v>1.8</v>
+      </c>
+      <c r="BO96">
+        <v>2.8</v>
+      </c>
+      <c r="BP96">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7502694</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45605.875</v>
+      </c>
+      <c r="F97">
+        <v>11</v>
+      </c>
+      <c r="G97" t="s">
+        <v>86</v>
+      </c>
+      <c r="H97" t="s">
+        <v>79</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>2</v>
+      </c>
+      <c r="L97">
+        <v>2</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+      <c r="N97">
+        <v>3</v>
+      </c>
+      <c r="O97" t="s">
+        <v>150</v>
+      </c>
+      <c r="P97" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q97">
+        <v>2.63</v>
+      </c>
+      <c r="R97">
+        <v>2.1</v>
+      </c>
+      <c r="S97">
+        <v>4.33</v>
+      </c>
+      <c r="T97">
+        <v>1.4</v>
+      </c>
+      <c r="U97">
+        <v>2.75</v>
+      </c>
+      <c r="V97">
+        <v>3</v>
+      </c>
+      <c r="W97">
+        <v>1.36</v>
+      </c>
+      <c r="X97">
+        <v>8</v>
+      </c>
+      <c r="Y97">
+        <v>1.08</v>
+      </c>
+      <c r="Z97">
+        <v>1.82</v>
+      </c>
+      <c r="AA97">
+        <v>3.55</v>
+      </c>
+      <c r="AB97">
+        <v>3.94</v>
+      </c>
+      <c r="AC97">
+        <v>1.05</v>
+      </c>
+      <c r="AD97">
+        <v>8.5</v>
+      </c>
+      <c r="AE97">
+        <v>1.33</v>
+      </c>
+      <c r="AF97">
+        <v>3.2</v>
+      </c>
+      <c r="AG97">
+        <v>1.96</v>
+      </c>
+      <c r="AH97">
+        <v>1.75</v>
+      </c>
+      <c r="AI97">
+        <v>1.83</v>
+      </c>
+      <c r="AJ97">
+        <v>1.83</v>
+      </c>
+      <c r="AK97">
+        <v>1.22</v>
+      </c>
+      <c r="AL97">
+        <v>1.22</v>
+      </c>
+      <c r="AM97">
+        <v>1.85</v>
+      </c>
+      <c r="AN97">
+        <v>2</v>
+      </c>
+      <c r="AO97">
+        <v>1.2</v>
+      </c>
+      <c r="AP97">
+        <v>2.17</v>
+      </c>
+      <c r="AQ97">
+        <v>1</v>
+      </c>
+      <c r="AR97">
+        <v>1.52</v>
+      </c>
+      <c r="AS97">
+        <v>1.16</v>
+      </c>
+      <c r="AT97">
+        <v>2.68</v>
+      </c>
+      <c r="AU97">
+        <v>3</v>
+      </c>
+      <c r="AV97">
+        <v>2</v>
+      </c>
+      <c r="AW97">
+        <v>0</v>
+      </c>
+      <c r="AX97">
+        <v>0</v>
+      </c>
+      <c r="AY97">
+        <v>3</v>
+      </c>
+      <c r="AZ97">
+        <v>2</v>
+      </c>
+      <c r="BA97">
+        <v>2</v>
+      </c>
+      <c r="BB97">
+        <v>2</v>
+      </c>
+      <c r="BC97">
+        <v>4</v>
+      </c>
+      <c r="BD97">
+        <v>1.51</v>
+      </c>
+      <c r="BE97">
+        <v>8.5</v>
+      </c>
+      <c r="BF97">
+        <v>3.07</v>
+      </c>
+      <c r="BG97">
+        <v>1.17</v>
+      </c>
+      <c r="BH97">
+        <v>3.82</v>
+      </c>
+      <c r="BI97">
+        <v>1.41</v>
+      </c>
+      <c r="BJ97">
+        <v>2.7</v>
+      </c>
+      <c r="BK97">
+        <v>1.69</v>
+      </c>
+      <c r="BL97">
+        <v>2.05</v>
+      </c>
+      <c r="BM97">
+        <v>2.11</v>
+      </c>
+      <c r="BN97">
+        <v>1.65</v>
+      </c>
+      <c r="BO97">
+        <v>2.73</v>
+      </c>
+      <c r="BP97">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7502697</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45605.875</v>
+      </c>
+      <c r="F98">
+        <v>11</v>
+      </c>
+      <c r="G98" t="s">
+        <v>75</v>
+      </c>
+      <c r="H98" t="s">
+        <v>77</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <v>2</v>
+      </c>
+      <c r="L98">
+        <v>2</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>3</v>
+      </c>
+      <c r="O98" t="s">
+        <v>151</v>
+      </c>
+      <c r="P98" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q98">
+        <v>3.3</v>
+      </c>
+      <c r="R98">
+        <v>2</v>
+      </c>
+      <c r="S98">
+        <v>3.3</v>
+      </c>
+      <c r="T98">
+        <v>1.45</v>
+      </c>
+      <c r="U98">
+        <v>2.63</v>
+      </c>
+      <c r="V98">
+        <v>3.2</v>
+      </c>
+      <c r="W98">
+        <v>1.32</v>
+      </c>
+      <c r="X98">
+        <v>9.1</v>
+      </c>
+      <c r="Y98">
+        <v>1.04</v>
+      </c>
+      <c r="Z98">
+        <v>2.72</v>
+      </c>
+      <c r="AA98">
+        <v>3.05</v>
+      </c>
+      <c r="AB98">
+        <v>2.57</v>
+      </c>
+      <c r="AC98">
+        <v>1</v>
+      </c>
+      <c r="AD98">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE98">
+        <v>1.31</v>
+      </c>
+      <c r="AF98">
+        <v>2.82</v>
+      </c>
+      <c r="AG98">
+        <v>2.07</v>
+      </c>
+      <c r="AH98">
+        <v>1.67</v>
+      </c>
+      <c r="AI98">
+        <v>1.85</v>
+      </c>
+      <c r="AJ98">
+        <v>1.85</v>
+      </c>
+      <c r="AK98">
+        <v>1.46</v>
+      </c>
+      <c r="AL98">
+        <v>1.32</v>
+      </c>
+      <c r="AM98">
+        <v>1.46</v>
+      </c>
+      <c r="AN98">
+        <v>1.8</v>
+      </c>
+      <c r="AO98">
+        <v>1.4</v>
+      </c>
+      <c r="AP98">
+        <v>2</v>
+      </c>
+      <c r="AQ98">
+        <v>1.17</v>
+      </c>
+      <c r="AR98">
+        <v>1.44</v>
+      </c>
+      <c r="AS98">
+        <v>1.55</v>
+      </c>
+      <c r="AT98">
+        <v>2.99</v>
+      </c>
+      <c r="AU98">
+        <v>4</v>
+      </c>
+      <c r="AV98">
+        <v>6</v>
+      </c>
+      <c r="AW98">
+        <v>3</v>
+      </c>
+      <c r="AX98">
+        <v>5</v>
+      </c>
+      <c r="AY98">
+        <v>7</v>
+      </c>
+      <c r="AZ98">
+        <v>11</v>
+      </c>
+      <c r="BA98">
+        <v>3</v>
+      </c>
+      <c r="BB98">
+        <v>3</v>
+      </c>
+      <c r="BC98">
+        <v>6</v>
+      </c>
+      <c r="BD98">
+        <v>1.82</v>
+      </c>
+      <c r="BE98">
+        <v>8.5</v>
+      </c>
+      <c r="BF98">
+        <v>2.28</v>
+      </c>
+      <c r="BG98">
+        <v>1.12</v>
+      </c>
+      <c r="BH98">
+        <v>4.4</v>
+      </c>
+      <c r="BI98">
+        <v>1.32</v>
+      </c>
+      <c r="BJ98">
+        <v>3.1</v>
+      </c>
+      <c r="BK98">
+        <v>1.55</v>
+      </c>
+      <c r="BL98">
+        <v>2.3</v>
+      </c>
+      <c r="BM98">
+        <v>1.8</v>
+      </c>
+      <c r="BN98">
+        <v>2</v>
+      </c>
+      <c r="BO98">
+        <v>2.39</v>
+      </c>
+      <c r="BP98">
+        <v>1.51</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -20386,7 +20386,7 @@
         <v>69</v>
       </c>
       <c r="E95" s="2">
-        <v>45605.875</v>
+        <v>45606.33333333334</v>
       </c>
       <c r="F95">
         <v>11</v>
@@ -20592,10 +20592,10 @@
         <v>69</v>
       </c>
       <c r="E96" s="2">
-        <v>45605.875</v>
+        <v>45606.45833333334</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G96" t="s">
         <v>72</v>
@@ -20798,7 +20798,7 @@
         <v>69</v>
       </c>
       <c r="E97" s="2">
-        <v>45605.875</v>
+        <v>45606.52083333334</v>
       </c>
       <c r="F97">
         <v>11</v>
@@ -21004,10 +21004,10 @@
         <v>69</v>
       </c>
       <c r="E98" s="2">
-        <v>45605.875</v>
+        <v>45606.52083333334</v>
       </c>
       <c r="F98">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G98" t="s">
         <v>75</v>
